--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCowan\Projects\ce_expansion\data\bimetallic_results\icosahedron\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C8665A7-B1FC-4E28-82BD-C155E21E64F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>n_atoms</t>
   </si>
@@ -29,6 +23,12 @@
   </si>
   <si>
     <t>composition_Au</t>
+  </si>
+  <si>
+    <t>n_Ag</t>
+  </si>
+  <si>
+    <t>n_Au</t>
   </si>
   <si>
     <t>CE</t>
@@ -40,8 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,14 +104,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -158,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,27 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,24 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -435,16 +391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E318"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,3714 +414,5028 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.1524292349233689</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>-2.152429234923369</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C3">
-        <v>7.6923076923076927E-2</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D3">
-        <v>-2.2144980691495348</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>-1.380053847560303E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-2.214498069149535</v>
+      </c>
+      <c r="G3">
+        <v>-0.01380053847560303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C4">
-        <v>0.15384615384615391</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D4">
-        <v>-2.2765669033757021</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>-2.7601076951206949E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>-2.276566903375702</v>
+      </c>
+      <c r="G4">
+        <v>-0.02760107695120695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C5">
-        <v>0.23076923076923081</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>-2.338635737601868</v>
       </c>
-      <c r="E5">
-        <v>-4.1401615426810423E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>-0.04140161542681042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C6">
-        <v>0.30769230769230771</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>-2.396338640727786</v>
       </c>
-      <c r="E6">
-        <v>-5.0836222802164599E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>-0.0508362228021646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C7">
-        <v>0.38461538461538458</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D7">
-        <v>-2.4496756127534538</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>-5.5904899077269699E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>-2.449675612753454</v>
+      </c>
+      <c r="G7">
+        <v>-0.0559048990772697</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C8">
-        <v>0.46153846153846162</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
         <v>-2.503012584779122</v>
       </c>
-      <c r="E8">
-        <v>-6.0973575352374347E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>-0.06097357535237435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C9">
-        <v>0.53846153846153844</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
         <v>-2.551983625704541</v>
       </c>
-      <c r="E9">
-        <v>-6.1676320527230377E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>-0.06167632052723038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C10">
-        <v>0.61538461538461542</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D10">
-        <v>-2.6009546666299599</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>-6.2379065702085963E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>-2.60095466662996</v>
+      </c>
+      <c r="G10">
+        <v>-0.06237906570208596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C11">
-        <v>0.69230769230769229</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
         <v>-2.64555977645513</v>
       </c>
-      <c r="E11">
-        <v>-5.8715879776693132E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>-0.05871587977669313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C12">
-        <v>0.76923076923076927</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D12">
-        <v>-2.6857989551800499</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>-5.0686762751050329E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>-2.68579895518005</v>
+      </c>
+      <c r="G12">
+        <v>-0.05068676275105033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C13">
-        <v>0.84615384615384615</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D13">
-        <v>-2.7260381339049711</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>-4.2657645725407763E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>-2.726038133904971</v>
+      </c>
+      <c r="G13">
+        <v>-0.04265764572540776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C14">
-        <v>0.92307692307692313</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
         <v>-2.766277312629891</v>
       </c>
-      <c r="E14">
-        <v>-3.4628528699764072E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>-0.03462852869976407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.43428368951544788</v>
+        <v>0.4342836895154479</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>-2.7799170796806889</v>
+        <v>0</v>
       </c>
       <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>-2.779917079680689</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>55</v>
       </c>
       <c r="B16">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>-2.4662095902928631</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-2.466209590292863</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C17">
-        <v>1.8181818181818181E-2</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="D17">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>-2.486224135747408</v>
       </c>
-      <c r="E17">
-        <v>-6.942494621560158E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>-0.006942494621560158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>55</v>
       </c>
       <c r="B18">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C18">
-        <v>3.6363636363636362E-2</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="D18">
-        <v>-2.5035842316241239</v>
+        <v>53</v>
       </c>
       <c r="E18">
-        <v>-1.123053966529142E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>-2.503584231624124</v>
+      </c>
+      <c r="G18">
+        <v>-0.01123053966529142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>55</v>
       </c>
       <c r="B19">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C19">
-        <v>5.4545454545454543E-2</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="D19">
-        <v>-2.5209443275008399</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>-1.551858470902134E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>-2.52094432750084</v>
+      </c>
+      <c r="G19">
+        <v>-0.01551858470902134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>55</v>
       </c>
       <c r="B20">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C20">
-        <v>7.2727272727272724E-2</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="D20">
-        <v>-2.5383044233775558</v>
+        <v>51</v>
       </c>
       <c r="E20">
-        <v>-1.9806629752752599E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>-2.538304423377556</v>
+      </c>
+      <c r="G20">
+        <v>-0.0198066297527526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>55</v>
       </c>
       <c r="B21">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C21">
-        <v>9.0909090909090912E-2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D21">
-        <v>-2.5549348222845749</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>-2.3364977826786149E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>-2.554934822284575</v>
+      </c>
+      <c r="G21">
+        <v>-0.02336497782678615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>55</v>
       </c>
       <c r="B22">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C22">
         <v>0.1090909090909091</v>
       </c>
       <c r="D22">
-        <v>-2.571099862522856</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>-2.645796723208171E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>-2.571364927565576</v>
+      </c>
+      <c r="G22">
+        <v>-0.02672303227480155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>55</v>
       </c>
       <c r="B23">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C23">
-        <v>0.12727272727272729</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="D23">
-        <v>-2.5872213576156291</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>-2.9507411491869199E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>-2.587221357615629</v>
+      </c>
+      <c r="G23">
+        <v>-0.0295074114918692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C24">
-        <v>0.14545454545454539</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="D24">
-        <v>-2.603495441157881</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>-3.2709444201135973E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>-2.604225138127578</v>
+      </c>
+      <c r="G24">
+        <v>-0.03343914117083324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>55</v>
       </c>
       <c r="B25">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C25">
-        <v>0.16363636363636361</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="D25">
-        <v>-2.6204549497825602</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>-3.6596901992829167E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>-2.62045494978256</v>
+      </c>
+      <c r="G25">
+        <v>-0.03659690199282917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>55</v>
       </c>
       <c r="B26">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C26">
         <v>0.1818181818181818</v>
       </c>
       <c r="D26">
-        <v>-2.6355816828629171</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>-3.8651584240201757E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>-2.635826248376203</v>
+      </c>
+      <c r="G26">
+        <v>-0.03889614975348765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>55</v>
       </c>
       <c r="B27">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C27">
         <v>0.2</v>
       </c>
       <c r="D27">
-        <v>-2.6527037591750791</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>-4.2701609719377753E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>-2.652703759175079</v>
+      </c>
+      <c r="G27">
+        <v>-0.04270160971937775</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>55</v>
       </c>
       <c r="B28">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C28">
         <v>0.2181818181818182</v>
       </c>
       <c r="D28">
-        <v>-2.6664893941162542</v>
+        <v>43</v>
       </c>
       <c r="E28">
-        <v>-4.3415193827567533E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>-2.668322169660577</v>
+      </c>
+      <c r="G28">
+        <v>-0.04524796937189035</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>55</v>
       </c>
       <c r="B29">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C29">
-        <v>0.23636363636363639</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D29">
-        <v>-2.682101258653022</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>-4.5955007531350837E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F29">
+        <v>-2.682198894754861</v>
+      </c>
+      <c r="G29">
+        <v>-0.04605264363318895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>55</v>
       </c>
       <c r="B30">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C30">
-        <v>0.25454545454545452</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
         <v>-2.697406197696893</v>
       </c>
-      <c r="E30">
-        <v>-4.8187895742236357E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>-0.04818789574223636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>55</v>
       </c>
       <c r="B31">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C31">
-        <v>0.27272727272727271</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D31">
-        <v>-2.7134406122739732</v>
+        <v>40</v>
       </c>
       <c r="E31">
-        <v>-5.1150259486331118E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>-2.713440612273973</v>
+      </c>
+      <c r="G31">
+        <v>-0.05115025948633112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>55</v>
       </c>
       <c r="B32">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C32">
-        <v>0.29090909090909089</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="D32">
-        <v>-2.7286036433287388</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>-5.3241239708111232E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>-2.728603643328739</v>
+      </c>
+      <c r="G32">
+        <v>-0.05324123970811123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>55</v>
       </c>
       <c r="B33">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C33">
-        <v>0.30909090909090908</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="D33">
-        <v>-2.742027756807345</v>
+        <v>38</v>
       </c>
       <c r="E33">
-        <v>-5.3593302353732719E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>-2.742137624288154</v>
+      </c>
+      <c r="G33">
+        <v>-0.05370316983454138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>55</v>
       </c>
       <c r="B34">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C34">
-        <v>0.32727272727272733</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="D34">
-        <v>-2.7586305324217428</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>-5.7124027135145188E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>-2.758630532421743</v>
+      </c>
+      <c r="G34">
+        <v>-0.05712402713514519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>55</v>
       </c>
       <c r="B35">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C35">
-        <v>0.34545454545454551</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="D35">
+        <v>36</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
         <v>-2.771662733330102</v>
       </c>
-      <c r="E35">
-        <v>-5.7084177210519282E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>-0.05708417721051928</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>55</v>
       </c>
       <c r="B36">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C36">
-        <v>0.36363636363636359</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D36">
-        <v>-2.7861920541163898</v>
+        <v>35</v>
       </c>
       <c r="E36">
-        <v>-5.8541447163821481E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>-2.78619205411639</v>
+      </c>
+      <c r="G36">
+        <v>-0.05854144716382148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>55</v>
       </c>
       <c r="B37">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C37">
-        <v>0.38181818181818178</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="D37">
-        <v>-2.8010490566562121</v>
+        <v>34</v>
       </c>
       <c r="E37">
-        <v>-6.0326398870657723E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>-2.801049056656212</v>
+      </c>
+      <c r="G37">
+        <v>-0.06032639887065772</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>55</v>
       </c>
       <c r="B38">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C38">
         <v>0.4</v>
       </c>
       <c r="D38">
-        <v>-2.8141356320977562</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>-6.0340923479216491E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>-2.814135632097756</v>
+      </c>
+      <c r="G38">
+        <v>-0.06034092347921649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>55</v>
       </c>
       <c r="B39">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C39">
-        <v>0.41818181818181821</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="D39">
-        <v>-2.8285511991737362</v>
+        <v>32</v>
       </c>
       <c r="E39">
-        <v>-6.1684439722211382E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>-2.828551199173736</v>
+      </c>
+      <c r="G39">
+        <v>-0.06168443972221138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C40">
-        <v>0.43636363636363629</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="D40">
-        <v>-2.8436855966172661</v>
+        <v>31</v>
       </c>
       <c r="E40">
-        <v>-6.3746786332756544E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>-2.843685596617266</v>
+      </c>
+      <c r="G40">
+        <v>-0.06374678633275654</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>55</v>
       </c>
       <c r="B41">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C41">
-        <v>0.45454545454545447</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D41">
-        <v>-2.856118502860884</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>-6.3107641743388676E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>-2.857031844861952</v>
+      </c>
+      <c r="G41">
+        <v>-0.06402098374445675</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>55</v>
       </c>
       <c r="B42">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C42">
-        <v>0.47272727272727272</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="D42">
-        <v>-2.8682619076960489</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>-6.2178995745568733E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>-2.868261907696049</v>
+      </c>
+      <c r="G42">
+        <v>-0.06217899574556873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C43">
-        <v>0.49090909090909091</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="D43">
-        <v>-2.8817403957078409</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>-6.2585432924375795E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F43">
+        <v>-2.881740395707841</v>
+      </c>
+      <c r="G43">
+        <v>-0.06258543292437579</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>55</v>
       </c>
       <c r="B44">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C44">
-        <v>0.50909090909090904</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="D44">
-        <v>-2.89612348785161</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>-6.3896474235159095E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>-2.896484762951796</v>
+      </c>
+      <c r="G44">
+        <v>-0.06425774933534556</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>55</v>
       </c>
       <c r="B45">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C45">
-        <v>0.52727272727272723</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="D45">
-        <v>-2.9090370834100692</v>
+        <v>26</v>
       </c>
       <c r="E45">
-        <v>-6.373801896063247E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>-2.909037083410069</v>
+      </c>
+      <c r="G45">
+        <v>-0.06373801896063247</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>55</v>
       </c>
       <c r="B46">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C46">
-        <v>0.54545454545454541</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D46">
-        <v>-2.9203945343716819</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>-6.2023419089259901E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>-2.922331926390487</v>
+      </c>
+      <c r="G46">
+        <v>-0.06396081110806562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C47">
         <v>0.5636363636363636</v>
       </c>
       <c r="D47">
+        <v>24</v>
+      </c>
+      <c r="E47">
+        <v>31</v>
+      </c>
+      <c r="F47">
         <v>-2.934055549000401</v>
       </c>
-      <c r="E47">
-        <v>-6.2612382884994711E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>-0.06261238288499471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>55</v>
       </c>
       <c r="B48">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C48">
-        <v>0.58181818181818179</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="D48">
+        <v>23</v>
+      </c>
+      <c r="E48">
+        <v>32</v>
+      </c>
+      <c r="F48">
         <v>-2.94664222676156</v>
       </c>
-      <c r="E48">
-        <v>-6.2127009813167662E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>-0.06212700981316766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C49">
         <v>0.6</v>
       </c>
       <c r="D49">
-        <v>-2.95830004573377</v>
+        <v>22</v>
       </c>
       <c r="E49">
-        <v>-6.0712777952392598E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F49">
+        <v>-2.958551744624054</v>
+      </c>
+      <c r="G49">
+        <v>-0.06096447684267692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C50">
-        <v>0.61818181818181817</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D50">
-        <v>-2.9712669423194948</v>
+        <v>21</v>
       </c>
       <c r="E50">
-        <v>-6.0607623705132167E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>-2.971266942319495</v>
+      </c>
+      <c r="G50">
+        <v>-0.06060762370513217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>55</v>
       </c>
       <c r="B51">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C51">
-        <v>0.63636363636363635</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D51">
-        <v>-2.9841370299469161</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>-6.040566049956797E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>-2.984137029946916</v>
+      </c>
+      <c r="G51">
+        <v>-0.06040566049956797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C52">
-        <v>0.65454545454545454</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D52">
-        <v>-2.9944114378429818</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>-5.7608017562648439E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F52">
+        <v>-2.994411437842982</v>
+      </c>
+      <c r="G52">
+        <v>-0.05760801756264844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C53">
-        <v>0.67272727272727273</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D53">
-        <v>-3.0063168231135928</v>
+        <v>18</v>
       </c>
       <c r="E53">
-        <v>-5.6441352000274669E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F53">
+        <v>-3.007015882613228</v>
+      </c>
+      <c r="G53">
+        <v>-0.05714041149990923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>55</v>
       </c>
       <c r="B54">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C54">
-        <v>0.69090909090909092</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
+      </c>
+      <c r="F54">
         <v>-3.018190497408225</v>
       </c>
-      <c r="E54">
-        <v>-5.524297546192114E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>-0.05524297546192114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C55">
-        <v>0.70909090909090911</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D55">
-        <v>-3.0292328275275922</v>
+        <v>16</v>
       </c>
       <c r="E55">
-        <v>-5.321325474830263E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>-3.029232827527592</v>
+      </c>
+      <c r="G55">
+        <v>-0.05321325474830263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C56">
-        <v>0.72727272727272729</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D56">
-        <v>-3.0401308113751129</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>-5.1039187762838112E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>-3.040130811375113</v>
+      </c>
+      <c r="G56">
+        <v>-0.05103918776283811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C57">
-        <v>0.74545454545454548</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>41</v>
+      </c>
+      <c r="F57">
         <v>-3.052181616423491</v>
       </c>
-      <c r="E57">
-        <v>-5.0017941978230951E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>-0.05001794197823095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>55</v>
       </c>
       <c r="B58">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C58">
-        <v>0.76363636363636367</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="D58">
-        <v>-3.0608402225120961</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>-4.5604497233850849E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>-3.060871933488076</v>
+      </c>
+      <c r="G58">
+        <v>-0.04563620820983105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C59">
-        <v>0.78181818181818186</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D59">
-        <v>-3.0716879195097921</v>
+        <v>12</v>
       </c>
       <c r="E59">
-        <v>-4.3380143398561673E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F59">
+        <v>-3.072004113857955</v>
+      </c>
+      <c r="G59">
+        <v>-0.04369633774672432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>55</v>
       </c>
       <c r="B60">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C60">
         <v>0.8</v>
       </c>
       <c r="D60">
-        <v>-3.083479595978619</v>
+        <v>11</v>
       </c>
       <c r="E60">
-        <v>-4.2099769034403267E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F60">
+        <v>-3.084209292948315</v>
+      </c>
+      <c r="G60">
+        <v>-0.04282946600409965</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>55</v>
       </c>
       <c r="B61">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C61">
-        <v>0.81818181818181823</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D61">
-        <v>-3.0923656196707938</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>-3.7913741893592867E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>-3.09270390338531</v>
+      </c>
+      <c r="G61">
+        <v>-0.03825202560810936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C62">
-        <v>0.83636363636363631</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>46</v>
+      </c>
+      <c r="F62">
         <v>-3.102483619698793</v>
       </c>
-      <c r="E62">
-        <v>-3.4959691088606581E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>-0.03495969108860658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>55</v>
       </c>
       <c r="B63">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C63">
         <v>0.8545454545454545</v>
       </c>
       <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>47</v>
+      </c>
+      <c r="F63">
         <v>-3.112323915273397</v>
       </c>
-      <c r="E63">
-        <v>-3.1727935830225762E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>-0.03172793583022576</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>55</v>
       </c>
       <c r="B64">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C64">
-        <v>0.87272727272727268</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>48</v>
+      </c>
+      <c r="F64">
         <v>-3.121630220505895</v>
       </c>
-      <c r="E64">
-        <v>-2.7962190229737619E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>-0.02796219022973762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>55</v>
       </c>
       <c r="B65">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C65">
-        <v>0.89090909090909087</v>
+        <v>0.8909090909090909</v>
       </c>
       <c r="D65">
-        <v>-3.1309365257383921</v>
+        <v>6</v>
       </c>
       <c r="E65">
-        <v>-2.419644462924991E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F65">
+        <v>-3.130936525738392</v>
+      </c>
+      <c r="G65">
+        <v>-0.02419644462924991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>55</v>
       </c>
       <c r="B66">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C66">
-        <v>0.90909090909090906</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D66">
-        <v>-3.1402428309708901</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>-2.0430699028762239E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>-3.14024283097089</v>
+      </c>
+      <c r="G66">
+        <v>-0.02043069902876224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>55</v>
       </c>
       <c r="B67">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C67">
-        <v>0.92727272727272725</v>
+        <v>0.9272727272727272</v>
       </c>
       <c r="D67">
-        <v>-3.1495491362033858</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>-1.6664953428273649E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F67">
+        <v>-3.149549136203386</v>
+      </c>
+      <c r="G67">
+        <v>-0.01666495342827365</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>55</v>
       </c>
       <c r="B68">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C68">
-        <v>0.94545454545454544</v>
+        <v>0.9454545454545454</v>
       </c>
       <c r="D68">
-        <v>-3.1588554414358838</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>-1.2899207827785499E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F68">
+        <v>-3.158855441435884</v>
+      </c>
+      <c r="G68">
+        <v>-0.0128992078277855</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>55</v>
       </c>
       <c r="B69">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C69">
-        <v>0.96363636363636362</v>
+        <v>0.9636363636363636</v>
       </c>
       <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>53</v>
+      </c>
+      <c r="F69">
         <v>-3.167627756326274</v>
       </c>
-      <c r="E69">
-        <v>-8.5994718851900437E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>-0.008599471885190044</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>55</v>
       </c>
       <c r="B70">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C70">
-        <v>0.98181818181818181</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="D70">
-        <v>-3.1764000712166638</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>-4.2997359425950218E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F70">
+        <v>-3.176400071216664</v>
+      </c>
+      <c r="G70">
+        <v>-0.004299735942595022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>55</v>
       </c>
       <c r="B71">
-        <v>0.86856737903089587</v>
+        <v>0.8685673790308959</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>55</v>
+      </c>
+      <c r="F71">
         <v>-3.185172386107054</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>147</v>
       </c>
       <c r="B72">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C72">
         <v>0</v>
       </c>
       <c r="D72">
-        <v>-2.6047413176972372</v>
+        <v>147</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>-2.604741317697237</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>147</v>
       </c>
       <c r="B73">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C73">
-        <v>6.8027210884353739E-3</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="D73">
-        <v>-2.6122297530713872</v>
+        <v>146</v>
       </c>
       <c r="E73">
-        <v>-2.3228005690776321E-3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>-2.612229753071387</v>
+      </c>
+      <c r="G73">
+        <v>-0.002322800569077632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>147</v>
       </c>
       <c r="B74">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C74">
-        <v>1.360544217687075E-2</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="D74">
-        <v>-2.6197181884455372</v>
+        <v>145</v>
       </c>
       <c r="E74">
-        <v>-4.6456011381552642E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>-2.619718188445537</v>
+      </c>
+      <c r="G74">
+        <v>-0.004645601138155264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>147</v>
       </c>
       <c r="B75">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C75">
-        <v>2.0408163265306121E-2</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="D75">
-        <v>-2.626933607946671</v>
+        <v>144</v>
       </c>
       <c r="E75">
-        <v>-6.6953858342166939E-3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>-2.627206623819687</v>
+      </c>
+      <c r="G75">
+        <v>-0.006968401707232896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>147</v>
       </c>
       <c r="B76">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C76">
-        <v>2.7210884353741499E-2</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="D76">
-        <v>-2.6343397055561142</v>
+        <v>143</v>
       </c>
       <c r="E76">
-        <v>-8.9358486385875402E-3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>-2.634339705556114</v>
+      </c>
+      <c r="G76">
+        <v>-0.00893584863858754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>147</v>
       </c>
       <c r="B77">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C77">
-        <v>3.4013605442176867E-2</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="D77">
+        <v>142</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
         <v>-2.641555125057248</v>
       </c>
-      <c r="E77">
-        <v>-1.0985633334648529E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>-0.01098563333464853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>147</v>
       </c>
       <c r="B78">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C78">
-        <v>4.0816326530612242E-2</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D78">
-        <v>-2.6483328531559529</v>
+        <v>141</v>
       </c>
       <c r="E78">
-        <v>-1.259772662828196E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>-2.648332853155953</v>
+      </c>
+      <c r="G78">
+        <v>-0.01259772662828196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>147</v>
       </c>
       <c r="B79">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C79">
-        <v>4.7619047619047623E-2</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="D79">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>7</v>
+      </c>
+      <c r="F79">
         <v>-2.655821288530102</v>
       </c>
-      <c r="E79">
-        <v>-1.49205271973587E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>-0.0149205271973587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>147</v>
       </c>
       <c r="B80">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C80">
-        <v>5.4421768707482991E-2</v>
+        <v>0.05442176870748299</v>
       </c>
       <c r="D80">
-        <v>-2.661779969009761</v>
+        <v>139</v>
       </c>
       <c r="E80">
-        <v>-1.571357287194397E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>-2.662243662991085</v>
+      </c>
+      <c r="G80">
+        <v>-0.01617726685326826</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>147</v>
       </c>
       <c r="B81">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C81">
-        <v>6.1224489795918373E-2</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="D81">
-        <v>-2.6693767447275119</v>
+        <v>138</v>
       </c>
       <c r="E81">
-        <v>-1.8144713784623789E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F81">
+        <v>-2.669376744727512</v>
+      </c>
+      <c r="G81">
+        <v>-0.01814471378462379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>147</v>
       </c>
       <c r="B82">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C82">
-        <v>6.8027210884353748E-2</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="D82">
-        <v>-2.6768651801016632</v>
+        <v>137</v>
       </c>
       <c r="E82">
-        <v>-2.046751435370231E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>-2.676865180101663</v>
+      </c>
+      <c r="G82">
+        <v>-0.02046751435370231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>147</v>
       </c>
       <c r="B83">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C83">
-        <v>7.4829931972789115E-2</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="D83">
+        <v>136</v>
+      </c>
+      <c r="E83">
+        <v>11</v>
+      </c>
+      <c r="F83">
         <v>-2.683369892327351</v>
       </c>
-      <c r="E83">
-        <v>-2.1806591774317319E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>-0.02180659177431732</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>147</v>
       </c>
       <c r="B84">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C84">
-        <v>8.1632653061224483E-2</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="D84">
-        <v>-2.6903122959554699</v>
+        <v>135</v>
       </c>
       <c r="E84">
-        <v>-2.3583360597363882E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>-2.69031229595547</v>
+      </c>
+      <c r="G84">
+        <v>-0.02358336059736388</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>147</v>
       </c>
       <c r="B85">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C85">
-        <v>8.8435374149659865E-2</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="D85">
-        <v>-2.6966168918146391</v>
+        <v>134</v>
       </c>
       <c r="E85">
-        <v>-2.4722321651461151E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F85">
+        <v>-2.696696268562776</v>
+      </c>
+      <c r="G85">
+        <v>-0.02480169839959823</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>147</v>
       </c>
       <c r="B86">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C86">
-        <v>9.5238095238095233E-2</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="D86">
+        <v>133</v>
+      </c>
+      <c r="E86">
+        <v>14</v>
+      </c>
+      <c r="F86">
         <v>-2.703213380063247</v>
       </c>
-      <c r="E86">
-        <v>-2.6153175094996151E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>-0.02615317509499615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>147</v>
       </c>
       <c r="B87">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C87">
         <v>0.1020408163265306</v>
       </c>
       <c r="D87">
+        <v>132</v>
+      </c>
+      <c r="E87">
+        <v>15</v>
+      </c>
+      <c r="F87">
         <v>-2.710337023541463</v>
       </c>
-      <c r="E87">
-        <v>-2.811118376813981E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>-0.02811118376813981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>147</v>
       </c>
       <c r="B88">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C88">
         <v>0.108843537414966</v>
       </c>
       <c r="D88">
-        <v>-2.7166604959170542</v>
+        <v>131</v>
       </c>
       <c r="E88">
-        <v>-2.9269021338659051E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>-2.716660495917054</v>
+      </c>
+      <c r="G88">
+        <v>-0.02926902133865905</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>147</v>
       </c>
       <c r="B89">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C89">
-        <v>0.11564625850340141</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="D89">
-        <v>-2.7232371251217962</v>
+        <v>130</v>
       </c>
       <c r="E89">
-        <v>-3.068001573832824E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F89">
+        <v>-2.723237125121796</v>
+      </c>
+      <c r="G89">
+        <v>-0.03068001573832824</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>147</v>
       </c>
       <c r="B90">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C90">
         <v>0.1224489795918367</v>
       </c>
       <c r="D90">
-        <v>-2.72929054264094</v>
+        <v>129</v>
       </c>
       <c r="E90">
-        <v>-3.1567798452400098E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>-2.729549829570884</v>
+      </c>
+      <c r="G90">
+        <v>-0.03182708538234369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>147</v>
       </c>
       <c r="B91">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C91">
-        <v>0.12925170068027211</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="D91">
+        <v>128</v>
+      </c>
+      <c r="E91">
+        <v>19</v>
+      </c>
+      <c r="F91">
         <v>-2.735419046223361</v>
       </c>
-      <c r="E91">
-        <v>-3.2530667229748289E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>-0.03253066722974829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>147</v>
       </c>
       <c r="B92">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C92">
         <v>0.1360544217687075</v>
       </c>
       <c r="D92">
-        <v>-2.7422771403147661</v>
+        <v>127</v>
       </c>
       <c r="E92">
-        <v>-3.4223126516081059E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F92">
+        <v>-2.742277140314766</v>
+      </c>
+      <c r="G92">
+        <v>-0.03422312651608106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>147</v>
       </c>
       <c r="B93">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C93">
-        <v>0.14285714285714279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D93">
-        <v>-2.7482986787732551</v>
+        <v>126</v>
       </c>
       <c r="E93">
-        <v>-3.5079030169497212E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F93">
+        <v>-2.748298678773255</v>
+      </c>
+      <c r="G93">
+        <v>-0.03507903016949721</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>147</v>
       </c>
       <c r="B94">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C94">
         <v>0.1496598639455782</v>
       </c>
       <c r="D94">
-        <v>-2.7536630533589359</v>
+        <v>125</v>
       </c>
       <c r="E94">
-        <v>-3.5277769950106119E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F94">
+        <v>-2.754623140393409</v>
+      </c>
+      <c r="G94">
+        <v>-0.03623785698457915</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>147</v>
       </c>
       <c r="B95">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C95">
-        <v>0.15646258503401361</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="D95">
+        <v>124</v>
+      </c>
+      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="F95">
         <v>-2.761120000157784</v>
       </c>
-      <c r="E95">
-        <v>-3.7569081943881422E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>-0.03756908194388142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>147</v>
       </c>
       <c r="B96">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C96">
-        <v>0.16326530612244899</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="D96">
-        <v>-2.7672690250391421</v>
+        <v>123</v>
       </c>
       <c r="E96">
-        <v>-3.8552472020167539E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="F96">
+        <v>-2.767703755425002</v>
+      </c>
+      <c r="G96">
+        <v>-0.03898720240602715</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>147</v>
       </c>
       <c r="B97">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C97">
-        <v>0.17006802721088429</v>
+        <v>0.1700680272108843</v>
       </c>
       <c r="D97">
-        <v>-2.7732524497991839</v>
+        <v>122</v>
       </c>
       <c r="E97">
-        <v>-3.9370261975137488E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>-2.773297589739551</v>
+      </c>
+      <c r="G97">
+        <v>-0.03941540191550397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>147</v>
       </c>
       <c r="B98">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C98">
         <v>0.1768707482993197</v>
       </c>
       <c r="D98">
-        <v>-2.7798899672114259</v>
+        <v>121</v>
       </c>
       <c r="E98">
-        <v>-4.0842144582307498E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F98">
+        <v>-2.779889967211426</v>
+      </c>
+      <c r="G98">
+        <v>-0.0408421445823075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>147</v>
       </c>
       <c r="B99">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C99">
-        <v>0.18367346938775511</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="D99">
-        <v>-2.7851731577501782</v>
+        <v>120</v>
       </c>
       <c r="E99">
-        <v>-4.0959700315986503E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>-2.785173157750178</v>
+      </c>
+      <c r="G99">
+        <v>-0.0409597003159865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>147</v>
       </c>
       <c r="B100">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C100">
-        <v>0.19047619047619049</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D100">
-        <v>-2.7914458636541939</v>
+        <v>119</v>
       </c>
       <c r="E100">
-        <v>-4.2066771414930759E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="F100">
+        <v>-2.792116550622858</v>
+      </c>
+      <c r="G100">
+        <v>-0.04273745838359488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>147</v>
       </c>
       <c r="B101">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C101">
-        <v>0.19727891156462579</v>
+        <v>0.1972789115646258</v>
       </c>
       <c r="D101">
-        <v>-2.7979717754865399</v>
+        <v>118</v>
       </c>
       <c r="E101">
-        <v>-4.3427048442204352E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>-2.798688663463466</v>
+      </c>
+      <c r="G101">
+        <v>-0.04414393641912984</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>147</v>
       </c>
       <c r="B102">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C102">
         <v>0.2040816326530612</v>
       </c>
       <c r="D102">
-        <v>-2.8045594287463902</v>
+        <v>117</v>
       </c>
       <c r="E102">
-        <v>-4.4849066896981427E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>-2.80455942874639</v>
+      </c>
+      <c r="G102">
+        <v>-0.04484906689698143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>147</v>
       </c>
       <c r="B103">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C103">
-        <v>0.21088435374149661</v>
+        <v>0.2108843537414966</v>
       </c>
       <c r="D103">
-        <v>-2.809438823501492</v>
+        <v>116</v>
       </c>
       <c r="E103">
-        <v>-4.456282684701085E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>-2.810515193760859</v>
+      </c>
+      <c r="G103">
+        <v>-0.04563919710637787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>147</v>
       </c>
       <c r="B104">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C104">
-        <v>0.21768707482993199</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
         <v>-2.816698064009326</v>
       </c>
-      <c r="E104">
-        <v>-4.6656432549772919E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>-0.04665643254977292</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>147</v>
       </c>
       <c r="B105">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C105">
-        <v>0.22448979591836729</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="D105">
-        <v>-2.821860520395246</v>
+        <v>114</v>
       </c>
       <c r="E105">
-        <v>-4.6653254130620159E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F105">
+        <v>-2.822329984510702</v>
+      </c>
+      <c r="G105">
+        <v>-0.04712271824607628</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>147</v>
       </c>
       <c r="B106">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C106">
         <v>0.2312925170068027</v>
       </c>
       <c r="D106">
-        <v>-2.8275067939036478</v>
+        <v>113</v>
       </c>
       <c r="E106">
-        <v>-4.7133892833950419E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F106">
+        <v>-2.827961049626763</v>
+      </c>
+      <c r="G106">
+        <v>-0.04758814855706506</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>147</v>
       </c>
       <c r="B107">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C107">
-        <v>0.23809523809523811</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="D107">
+        <v>112</v>
+      </c>
+      <c r="E107">
+        <v>35</v>
+      </c>
+      <c r="F107">
         <v>-2.834327974590535</v>
       </c>
-      <c r="E107">
-        <v>-4.8789438715764348E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>-0.04878943871576435</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>147</v>
       </c>
       <c r="B108">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C108">
-        <v>0.24489795918367349</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="D108">
-        <v>-2.8403106365188409</v>
+        <v>111</v>
       </c>
       <c r="E108">
-        <v>-4.960646583899897E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F108">
+        <v>-2.840361903321644</v>
+      </c>
+      <c r="G108">
+        <v>-0.04965773264180107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>147</v>
       </c>
       <c r="B109">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C109">
-        <v>0.25170068027210879</v>
+        <v>0.2517006802721088</v>
       </c>
       <c r="D109">
-        <v>-2.8463933951632909</v>
+        <v>110</v>
       </c>
       <c r="E109">
-        <v>-5.052358967837578E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="F109">
+        <v>-2.846393395163291</v>
+      </c>
+      <c r="G109">
+        <v>-0.05052358967837578</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>147</v>
       </c>
       <c r="B110">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C110">
-        <v>0.25850340136054423</v>
+        <v>0.2585034013605442</v>
       </c>
       <c r="D110">
-        <v>-2.8509563951193151</v>
+        <v>109</v>
       </c>
       <c r="E110">
-        <v>-4.9920954829327353E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <v>-2.85281040191573</v>
+      </c>
+      <c r="G110">
+        <v>-0.05177496162574302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>147</v>
       </c>
       <c r="B111">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C111">
-        <v>0.26530612244897961</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="D111">
-        <v>-2.8588843071810568</v>
+        <v>108</v>
       </c>
       <c r="E111">
-        <v>-5.2683232085997123E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>-2.858884307181057</v>
+      </c>
+      <c r="G111">
+        <v>-0.05268323208599712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>147</v>
       </c>
       <c r="B112">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C112">
-        <v>0.27210884353741499</v>
+        <v>0.272108843537415</v>
       </c>
       <c r="D112">
-        <v>-2.8642234005949381</v>
+        <v>107</v>
       </c>
       <c r="E112">
-        <v>-5.2856690694805357E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <v>-2.864223400594938</v>
+      </c>
+      <c r="G112">
+        <v>-0.05285669069480536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>147</v>
       </c>
       <c r="B113">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C113">
-        <v>0.27891156462585032</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="D113">
-        <v>-2.8708058039028712</v>
+        <v>106</v>
       </c>
       <c r="E113">
-        <v>-5.427345919766613E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <v>-2.870805803902871</v>
+      </c>
+      <c r="G113">
+        <v>-0.05427345919766613</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>147</v>
       </c>
       <c r="B114">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C114">
         <v>0.2857142857142857</v>
       </c>
       <c r="D114">
-        <v>-2.8769574436470631</v>
+        <v>105</v>
       </c>
       <c r="E114">
-        <v>-5.5259464136785841E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>-2.876957443647063</v>
+      </c>
+      <c r="G114">
+        <v>-0.05525946413678584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>147</v>
       </c>
       <c r="B115">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C115">
-        <v>0.29251700680272108</v>
+        <v>0.2925170068027211</v>
       </c>
       <c r="D115">
-        <v>-2.8817381052124662</v>
+        <v>104</v>
       </c>
       <c r="E115">
-        <v>-5.4874490897116601E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F115">
+        <v>-2.881999786836208</v>
+      </c>
+      <c r="G115">
+        <v>-0.05513617252085812</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>147</v>
       </c>
       <c r="B116">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C116">
-        <v>0.29931972789115652</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="D116">
-        <v>-2.8878845633151009</v>
+        <v>103</v>
       </c>
       <c r="E116">
-        <v>-5.5855314194679151E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="F116">
+        <v>-2.887884563315101</v>
+      </c>
+      <c r="G116">
+        <v>-0.05585531419467915</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>147</v>
       </c>
       <c r="B117">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C117">
-        <v>0.30612244897959179</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>45</v>
+      </c>
+      <c r="F117">
         <v>-2.892933200748641</v>
       </c>
-      <c r="E117">
-        <v>-5.5738316823146887E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G117">
+        <v>-0.05573831682314689</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>147</v>
       </c>
       <c r="B118">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C118">
-        <v>0.31292517006802723</v>
+        <v>0.3129251700680272</v>
       </c>
       <c r="D118">
-        <v>-2.8997564036650081</v>
+        <v>101</v>
       </c>
       <c r="E118">
-        <v>-5.7395884934441373E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F118">
+        <v>-2.899756403665008</v>
+      </c>
+      <c r="G118">
+        <v>-0.05739588493444137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>147</v>
       </c>
       <c r="B119">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C119">
-        <v>0.31972789115646261</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="D119">
+        <v>100</v>
+      </c>
+      <c r="E119">
+        <v>47</v>
+      </c>
+      <c r="F119">
         <v>-2.904848392936211</v>
       </c>
-      <c r="E119">
-        <v>-5.7322239400572128E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <v>-0.05732223940057213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>147</v>
       </c>
       <c r="B120">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C120">
-        <v>0.32653061224489788</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="D120">
-        <v>-2.910101310226322</v>
+        <v>99</v>
       </c>
       <c r="E120">
-        <v>-5.7409521885610548E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="F120">
+        <v>-2.911569868495853</v>
+      </c>
+      <c r="G120">
+        <v>-0.05887808015514118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>147</v>
       </c>
       <c r="B121">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C121">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D121">
+        <v>98</v>
+      </c>
+      <c r="E121">
+        <v>49</v>
+      </c>
+      <c r="F121">
         <v>-2.917156214407457</v>
       </c>
-      <c r="E121">
-        <v>-5.9298791261672701E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <v>-0.0592987912616727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>147</v>
       </c>
       <c r="B122">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C122">
         <v>0.3401360544217687</v>
       </c>
       <c r="D122">
-        <v>-2.9223855093307511</v>
+        <v>97</v>
       </c>
       <c r="E122">
-        <v>-5.9362451379894932E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <v>-2.922385509330751</v>
+      </c>
+      <c r="G122">
+        <v>-0.05936245137989493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>147</v>
       </c>
       <c r="B123">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C123">
-        <v>0.34693877551020408</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>51</v>
+      </c>
+      <c r="F123">
         <v>-2.929032474324778</v>
       </c>
-      <c r="E123">
-        <v>-6.0843781568849398E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <v>-0.0608437815688494</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>147</v>
       </c>
       <c r="B124">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C124">
-        <v>0.35374149659863952</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="D124">
-        <v>-2.9340604945158408</v>
+        <v>95</v>
       </c>
       <c r="E124">
-        <v>-6.070616695483988E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F124">
+        <v>-2.934060494515841</v>
+      </c>
+      <c r="G124">
+        <v>-0.06070616695483988</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>147</v>
       </c>
       <c r="B125">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C125">
-        <v>0.36054421768707479</v>
+        <v>0.3605442176870748</v>
       </c>
       <c r="D125">
-        <v>-2.9390480394002791</v>
+        <v>94</v>
       </c>
       <c r="E125">
-        <v>-6.0528077034205818E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F125">
+        <v>-2.939048039400279</v>
+      </c>
+      <c r="G125">
+        <v>-0.06052807703420582</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>147</v>
       </c>
       <c r="B126">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C126">
-        <v>0.36734693877551022</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="D126">
-        <v>-2.9450124433753291</v>
+        <v>93</v>
       </c>
       <c r="E126">
-        <v>-6.1326846204183383E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F126">
+        <v>-2.945012443375329</v>
+      </c>
+      <c r="G126">
+        <v>-0.06132684620418338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>147</v>
       </c>
       <c r="B127">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C127">
-        <v>0.37414965986394561</v>
+        <v>0.3741496598639456</v>
       </c>
       <c r="D127">
-        <v>-2.9517997396795188</v>
+        <v>92</v>
       </c>
       <c r="E127">
-        <v>-6.2948507703300516E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>-2.951799739679519</v>
+      </c>
+      <c r="G127">
+        <v>-0.06294850770330052</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>147</v>
       </c>
       <c r="B128">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C128">
-        <v>0.38095238095238088</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D128">
-        <v>-2.9558921100471882</v>
+        <v>91</v>
       </c>
       <c r="E128">
-        <v>-6.187524326589755E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F128">
+        <v>-2.956378560531201</v>
+      </c>
+      <c r="G128">
+        <v>-0.06236169374991074</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>147</v>
       </c>
       <c r="B129">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C129">
-        <v>0.38775510204081631</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="D129">
+        <v>90</v>
+      </c>
+      <c r="E129">
+        <v>57</v>
+      </c>
+      <c r="F129">
         <v>-2.961742595252054</v>
       </c>
-      <c r="E129">
-        <v>-6.256009366569093E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G129">
+        <v>-0.06256009366569093</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>147</v>
       </c>
       <c r="B130">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C130">
-        <v>0.39455782312925169</v>
+        <v>0.3945578231292517</v>
       </c>
       <c r="D130">
+        <v>89</v>
+      </c>
+      <c r="E130">
+        <v>58</v>
+      </c>
+      <c r="F130">
         <v>-2.967473291001097</v>
       </c>
-      <c r="E130">
-        <v>-6.3125154609662282E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>-0.06312515460966228</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>147</v>
       </c>
       <c r="B131">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C131">
-        <v>0.40136054421768708</v>
+        <v>0.4013605442176871</v>
       </c>
       <c r="D131">
-        <v>-2.9727838087646221</v>
+        <v>88</v>
       </c>
       <c r="E131">
-        <v>-6.3270037568114113E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="F131">
+        <v>-2.972783808764622</v>
+      </c>
+      <c r="G131">
+        <v>-0.06327003756811411</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>147</v>
       </c>
       <c r="B132">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C132">
-        <v>0.40816326530612251</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="D132">
-        <v>-2.9790224179287672</v>
+        <v>87</v>
       </c>
       <c r="E132">
-        <v>-6.4343011927187277E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F132">
+        <v>-2.979022417928767</v>
+      </c>
+      <c r="G132">
+        <v>-0.06434301192718728</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>147</v>
       </c>
       <c r="B133">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C133">
-        <v>0.41496598639455778</v>
+        <v>0.4149659863945578</v>
       </c>
       <c r="D133">
-        <v>-2.9826927310337621</v>
+        <v>86</v>
       </c>
       <c r="E133">
-        <v>-6.2847690227110009E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F133">
+        <v>-2.984597130883223</v>
+      </c>
+      <c r="G133">
+        <v>-0.06475209007657079</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>147</v>
       </c>
       <c r="B134">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C134">
-        <v>0.42176870748299322</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="D134">
-        <v>-2.9888460233525529</v>
+        <v>85</v>
       </c>
       <c r="E134">
-        <v>-6.3835347740828663E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="F134">
+        <v>-2.988846023352553</v>
+      </c>
+      <c r="G134">
+        <v>-0.06383534774082866</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C135">
-        <v>0.42857142857142849</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D135">
-        <v>-2.9948890515623359</v>
+        <v>84</v>
       </c>
       <c r="E135">
-        <v>-6.4712741145539043E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="F135">
+        <v>-2.994889051562336</v>
+      </c>
+      <c r="G135">
+        <v>-0.06471274114553904</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>147</v>
       </c>
       <c r="B136">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C136">
-        <v>0.43537414965986387</v>
+        <v>0.4353741496598639</v>
       </c>
       <c r="D136">
-        <v>-3.0002722668443891</v>
+        <v>83</v>
       </c>
       <c r="E136">
-        <v>-6.4930321622519438E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F136">
+        <v>-3.000272266844389</v>
+      </c>
+      <c r="G136">
+        <v>-0.06493032162251944</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>147</v>
       </c>
       <c r="B137">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C137">
-        <v>0.44217687074829931</v>
+        <v>0.4421768707482993</v>
       </c>
       <c r="D137">
-        <v>-3.0057247911056328</v>
+        <v>82</v>
       </c>
       <c r="E137">
-        <v>-6.5217211078691717E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="F137">
+        <v>-3.005724791105633</v>
+      </c>
+      <c r="G137">
+        <v>-0.06521721107869172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>147</v>
       </c>
       <c r="B138">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C138">
-        <v>0.44897959183673469</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="D138">
-        <v>-3.0111265447613111</v>
+        <v>81</v>
       </c>
       <c r="E138">
-        <v>-6.5453329929297199E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F138">
+        <v>-3.011126544761311</v>
+      </c>
+      <c r="G138">
+        <v>-0.0654533299292972</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>147</v>
       </c>
       <c r="B139">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C139">
-        <v>0.45578231292517007</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="D139">
+        <v>80</v>
+      </c>
+      <c r="E139">
+        <v>67</v>
+      </c>
+      <c r="F139">
         <v>-3.014785244928369</v>
       </c>
-      <c r="E139">
-        <v>-6.3946395291282654E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G139">
+        <v>-0.06394639529128265</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>147</v>
       </c>
       <c r="B140">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C140">
-        <v>0.46258503401360551</v>
+        <v>0.4625850340136055</v>
       </c>
       <c r="D140">
-        <v>-3.0211723830877788</v>
+        <v>79</v>
       </c>
       <c r="E140">
-        <v>-6.5167898645620337E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F140">
+        <v>-3.021172383087779</v>
+      </c>
+      <c r="G140">
+        <v>-0.06516789864562034</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>147</v>
       </c>
       <c r="B141">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C141">
-        <v>0.46938775510204078</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="D141">
-        <v>-3.0272880989928721</v>
+        <v>78</v>
       </c>
       <c r="E141">
-        <v>-6.6117979745641042E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="F141">
+        <v>-3.027288098992872</v>
+      </c>
+      <c r="G141">
+        <v>-0.06611797974564104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>147</v>
       </c>
       <c r="B142">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C142">
-        <v>0.47619047619047622</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="D142">
+        <v>77</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
         <v>-3.032871307185196</v>
       </c>
-      <c r="E142">
-        <v>-6.6535553132893055E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>-0.06653555313289305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>147</v>
       </c>
       <c r="B143">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C143">
-        <v>0.48299319727891149</v>
+        <v>0.4829931972789115</v>
       </c>
       <c r="D143">
-        <v>-3.0365345939566728</v>
+        <v>76</v>
       </c>
       <c r="E143">
-        <v>-6.503320509929722E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F143">
+        <v>-3.036812949979415</v>
+      </c>
+      <c r="G143">
+        <v>-0.06531156112203851</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>147</v>
       </c>
       <c r="B144">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C144">
-        <v>0.48979591836734693</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="D144">
-        <v>-3.0412329731531762</v>
+        <v>75</v>
       </c>
       <c r="E144">
-        <v>-6.4565949490727359E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F144">
+        <v>-3.042379703961639</v>
+      </c>
+      <c r="G144">
+        <v>-0.06571268029919031</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>147</v>
       </c>
       <c r="B145">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C145">
-        <v>0.49659863945578231</v>
+        <v>0.4965986394557823</v>
       </c>
       <c r="D145">
-        <v>-3.0470484374738191</v>
+        <v>74</v>
       </c>
       <c r="E145">
-        <v>-6.521577900629838E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F145">
+        <v>-3.047688062481791</v>
+      </c>
+      <c r="G145">
+        <v>-0.06585540401427004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>147</v>
       </c>
       <c r="B146">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C146">
-        <v>0.50340136054421769</v>
+        <v>0.5034013605442177</v>
       </c>
       <c r="D146">
-        <v>-3.0529698242065209</v>
+        <v>73</v>
       </c>
       <c r="E146">
-        <v>-6.5971530933927713E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F146">
+        <v>-3.052969824206521</v>
+      </c>
+      <c r="G146">
+        <v>-0.06597153093392771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>147</v>
       </c>
       <c r="B147">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C147">
-        <v>0.51020408163265307</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="D147">
-        <v>-3.0576828566174199</v>
+        <v>72</v>
       </c>
       <c r="E147">
-        <v>-6.5518928539754384E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>-3.05768285661742</v>
+      </c>
+      <c r="G147">
+        <v>-0.06551892853975438</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C148">
-        <v>0.51700680272108845</v>
+        <v>0.5170068027210885</v>
       </c>
       <c r="D148">
+        <v>71</v>
+      </c>
+      <c r="E148">
+        <v>76</v>
+      </c>
+      <c r="F148">
         <v>-3.064282519206297</v>
       </c>
-      <c r="E148">
-        <v>-6.6952956323559132E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>-0.06695295632355913</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C149">
-        <v>0.52380952380952384</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D149">
-        <v>-3.067696682224287</v>
+        <v>70</v>
       </c>
       <c r="E149">
-        <v>-6.5201484536476562E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F149">
+        <v>-3.068690275576992</v>
+      </c>
+      <c r="G149">
+        <v>-0.066195077889182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>147</v>
       </c>
       <c r="B150">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C150">
-        <v>0.53061224489795922</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="D150">
-        <v>-3.072616763682384</v>
+        <v>69</v>
       </c>
       <c r="E150">
-        <v>-6.4955931189501381E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F150">
+        <v>-3.073848334564768</v>
+      </c>
+      <c r="G150">
+        <v>-0.06618750207188517</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>147</v>
       </c>
       <c r="B151">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C151">
         <v>0.5374149659863946</v>
       </c>
       <c r="D151">
+        <v>68</v>
+      </c>
+      <c r="E151">
+        <v>79</v>
+      </c>
+      <c r="F151">
         <v>-3.077970503940116</v>
       </c>
-      <c r="E151">
-        <v>-6.5144036642160508E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>-0.06514403664216051</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>147</v>
       </c>
       <c r="B152">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C152">
-        <v>0.54421768707482998</v>
+        <v>0.54421768707483</v>
       </c>
       <c r="D152">
-        <v>-3.0825251456722782</v>
+        <v>67</v>
       </c>
       <c r="E152">
-        <v>-6.4533043569250381E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F152">
+        <v>-3.08401899014784</v>
+      </c>
+      <c r="G152">
+        <v>-0.06602688804481271</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>147</v>
       </c>
       <c r="B153">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C153">
-        <v>0.55102040816326525</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="D153">
-        <v>-3.0876862288143858</v>
+        <v>66</v>
       </c>
       <c r="E153">
-        <v>-6.4528491906286067E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <v>-3.088035066621423</v>
+      </c>
+      <c r="G153">
+        <v>-0.06487732971332294</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>147</v>
       </c>
       <c r="B154">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C154">
-        <v>0.55782312925170063</v>
+        <v>0.5578231292517006</v>
       </c>
       <c r="D154">
-        <v>-3.0933803798287731</v>
+        <v>65</v>
       </c>
       <c r="E154">
-        <v>-6.5057008115601E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <v>-3.093380379828773</v>
+      </c>
+      <c r="G154">
+        <v>-0.065057008115601</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>147</v>
       </c>
       <c r="B155">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C155">
-        <v>0.56462585034013602</v>
+        <v>0.564625850340136</v>
       </c>
       <c r="D155">
-        <v>-3.0975948353624472</v>
+        <v>64</v>
       </c>
       <c r="E155">
-        <v>-6.4105828844202239E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <v>-3.097848837267387</v>
+      </c>
+      <c r="G155">
+        <v>-0.06435983074914242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>147</v>
       </c>
       <c r="B156">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C156">
         <v>0.5714285714285714</v>
       </c>
       <c r="D156">
-        <v>-3.1020055589052191</v>
+        <v>63</v>
       </c>
       <c r="E156">
-        <v>-6.3350917581901811E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <v>-3.102985789046067</v>
+      </c>
+      <c r="G156">
+        <v>-0.06433114772274973</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>147</v>
       </c>
       <c r="B157">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C157">
-        <v>0.57823129251700678</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="D157">
+        <v>62</v>
+      </c>
+      <c r="E157">
+        <v>85</v>
+      </c>
+      <c r="F157">
         <v>-3.109740493819527</v>
       </c>
-      <c r="E157">
-        <v>-6.5920217691137317E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>-0.06592021769113732</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>147</v>
       </c>
       <c r="B158">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C158">
-        <v>0.58503401360544216</v>
+        <v>0.5850340136054422</v>
       </c>
       <c r="D158">
-        <v>-3.1124263941938302</v>
+        <v>61</v>
       </c>
       <c r="E158">
-        <v>-6.344048326036833E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F158">
+        <v>-3.11242639419383</v>
+      </c>
+      <c r="G158">
+        <v>-0.06344048326036833</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>147</v>
       </c>
       <c r="B159">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C159">
-        <v>0.59183673469387754</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="D159">
+        <v>60</v>
+      </c>
+      <c r="E159">
+        <v>87</v>
+      </c>
+      <c r="F159">
         <v>-3.117530764831526</v>
       </c>
-      <c r="E159">
-        <v>-6.3379219092992489E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>-0.06337921909299249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>147</v>
       </c>
       <c r="B160">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C160">
-        <v>0.59863945578231292</v>
+        <v>0.5986394557823129</v>
       </c>
       <c r="D160">
-        <v>-3.1220434493217541</v>
+        <v>59</v>
       </c>
       <c r="E160">
-        <v>-6.2726268778147798E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="F160">
+        <v>-3.122043449321754</v>
+      </c>
+      <c r="G160">
+        <v>-0.0627262687781478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>147</v>
       </c>
       <c r="B161">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C161">
-        <v>0.60544217687074831</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="D161">
-        <v>-3.1271762724850438</v>
+        <v>58</v>
       </c>
       <c r="E161">
-        <v>-6.2693457136364872E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F161">
+        <v>-3.12776092179199</v>
+      </c>
+      <c r="G161">
+        <v>-0.06327810644331078</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>147</v>
       </c>
       <c r="B162">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C162">
-        <v>0.61224489795918369</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="D162">
-        <v>-3.1319868194106419</v>
+        <v>57</v>
       </c>
       <c r="E162">
-        <v>-6.2338369256890618E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F162">
+        <v>-3.131986819410642</v>
+      </c>
+      <c r="G162">
+        <v>-0.06233836925689062</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>147</v>
       </c>
       <c r="B163">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C163">
-        <v>0.61904761904761907</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="D163">
-        <v>-3.1359511841463368</v>
+        <v>56</v>
       </c>
       <c r="E163">
-        <v>-6.1137099187513748E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F163">
+        <v>-3.135951184146337</v>
+      </c>
+      <c r="G163">
+        <v>-0.06113709918751375</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>147</v>
       </c>
       <c r="B164">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C164">
-        <v>0.62585034013605445</v>
+        <v>0.6258503401360545</v>
       </c>
       <c r="D164">
+        <v>55</v>
+      </c>
+      <c r="E164">
+        <v>92</v>
+      </c>
+      <c r="F164">
         <v>-3.141829250119446</v>
       </c>
-      <c r="E164">
-        <v>-6.1849530355549853E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>-0.06184953035554985</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>147</v>
       </c>
       <c r="B165">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C165">
-        <v>0.63265306122448983</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="D165">
-        <v>-3.1466282058042001</v>
+        <v>54</v>
       </c>
       <c r="E165">
-        <v>-6.1482851235231777E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F165">
+        <v>-3.1466282058042</v>
+      </c>
+      <c r="G165">
+        <v>-0.06148285123523178</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>147</v>
       </c>
       <c r="B166">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C166">
-        <v>0.63945578231292521</v>
+        <v>0.6394557823129252</v>
       </c>
       <c r="D166">
-        <v>-3.1500583228774039</v>
+        <v>53</v>
       </c>
       <c r="E166">
-        <v>-5.9747333503363809E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F166">
+        <v>-3.150058322877404</v>
+      </c>
+      <c r="G166">
+        <v>-0.05974733350336381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>147</v>
       </c>
       <c r="B167">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C167">
         <v>0.6462585034013606</v>
       </c>
       <c r="D167">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>95</v>
+      </c>
+      <c r="F167">
         <v>-3.156781962970999</v>
       </c>
-      <c r="E167">
-        <v>-6.1305338791885822E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>-0.06130533879188582</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>147</v>
       </c>
       <c r="B168">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C168">
-        <v>0.65306122448979587</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D168">
+        <v>51</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
         <v>-3.160379297626327</v>
       </c>
-      <c r="E168">
-        <v>-5.9737038642141187E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>-0.05973703864214119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>147</v>
       </c>
       <c r="B169">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C169">
-        <v>0.65986394557823125</v>
+        <v>0.6598639455782312</v>
       </c>
       <c r="D169">
-        <v>-3.1661612286829182</v>
+        <v>50</v>
       </c>
       <c r="E169">
-        <v>-6.0353334893660238E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F169">
+        <v>-3.166161228682918</v>
+      </c>
+      <c r="G169">
+        <v>-0.06035333489366024</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>147</v>
       </c>
       <c r="B170">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C170">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D170">
+        <v>49</v>
+      </c>
+      <c r="E170">
+        <v>98</v>
+      </c>
+      <c r="F170">
         <v>-3.168979892933784</v>
       </c>
-      <c r="E170">
-        <v>-5.8006364339454268E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>-0.05800636433945427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>147</v>
       </c>
       <c r="B171">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C171">
-        <v>0.67346938775510201</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="D171">
-        <v>-3.1754869640488059</v>
+        <v>48</v>
       </c>
       <c r="E171">
-        <v>-5.9347800649404037E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F171">
+        <v>-3.175991231466976</v>
+      </c>
+      <c r="G171">
+        <v>-0.05985206806757415</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>147</v>
       </c>
       <c r="B172">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C172">
-        <v>0.68027210884353739</v>
+        <v>0.6802721088435374</v>
       </c>
       <c r="D172">
-        <v>-3.1782842416744419</v>
+        <v>47</v>
       </c>
       <c r="E172">
-        <v>-5.6979443469966862E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F172">
+        <v>-3.178284241674442</v>
+      </c>
+      <c r="G172">
+        <v>-0.05697944346996686</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>147</v>
       </c>
       <c r="B173">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C173">
-        <v>0.68707482993197277</v>
+        <v>0.6870748299319728</v>
       </c>
       <c r="D173">
-        <v>-3.1834546217373689</v>
+        <v>46</v>
       </c>
       <c r="E173">
-        <v>-5.6984188727821627E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F173">
+        <v>-3.183454621737369</v>
+      </c>
+      <c r="G173">
+        <v>-0.05698418872782163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>147</v>
       </c>
       <c r="B174">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C174">
-        <v>0.69387755102040816</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="D174">
-        <v>-3.1872049251168542</v>
+        <v>45</v>
       </c>
       <c r="E174">
-        <v>-5.5568857302234258E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="F174">
+        <v>-3.188866940728762</v>
+      </c>
+      <c r="G174">
+        <v>-0.05723087291414208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>147</v>
       </c>
       <c r="B175">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C175">
-        <v>0.70068027210884354</v>
+        <v>0.7006802721088435</v>
       </c>
       <c r="D175">
+        <v>44</v>
+      </c>
+      <c r="E175">
+        <v>103</v>
+      </c>
+      <c r="F175">
         <v>-3.192260119855252</v>
       </c>
-      <c r="E175">
-        <v>-5.5458417235560331E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>-0.05545841723556033</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>147</v>
       </c>
       <c r="B176">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C176">
-        <v>0.70748299319727892</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="D176">
-        <v>-3.1961374257159791</v>
+        <v>43</v>
       </c>
       <c r="E176">
-        <v>-5.4170088291214842E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F176">
+        <v>-3.196137425715979</v>
+      </c>
+      <c r="G176">
+        <v>-0.05417008829121484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>147</v>
       </c>
       <c r="B177">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C177">
         <v>0.7142857142857143</v>
       </c>
       <c r="D177">
-        <v>-3.2002974848999872</v>
+        <v>42</v>
       </c>
       <c r="E177">
-        <v>-5.316451267015021E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F177">
+        <v>-3.201229217613632</v>
+      </c>
+      <c r="G177">
+        <v>-0.05409624538379465</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>147</v>
       </c>
       <c r="B178">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C178">
-        <v>0.72108843537414968</v>
+        <v>0.7210884353741497</v>
       </c>
       <c r="D178">
-        <v>-3.2069889348317862</v>
+        <v>41</v>
       </c>
       <c r="E178">
-        <v>-5.4690327796876437E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F178">
+        <v>-3.206988934831786</v>
+      </c>
+      <c r="G178">
+        <v>-0.05469032779687644</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>147</v>
       </c>
       <c r="B179">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C179">
-        <v>0.72789115646258506</v>
+        <v>0.7278911564625851</v>
       </c>
       <c r="D179">
-        <v>-3.2104553959589088</v>
+        <v>40</v>
       </c>
       <c r="E179">
-        <v>-5.2991154118927408E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F179">
+        <v>-3.210455395958909</v>
+      </c>
+      <c r="G179">
+        <v>-0.05299115411892741</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>147</v>
       </c>
       <c r="B180">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C180">
-        <v>0.73469387755102045</v>
+        <v>0.7346938775510204</v>
       </c>
       <c r="D180">
-        <v>-3.212925598310945</v>
+        <v>39</v>
       </c>
       <c r="E180">
-        <v>-5.0295721665890913E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F180">
+        <v>-3.214794631267898</v>
+      </c>
+      <c r="G180">
+        <v>-0.0521647546228442</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>147</v>
       </c>
       <c r="B181">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C181">
-        <v>0.74149659863945583</v>
+        <v>0.7414965986394558</v>
       </c>
       <c r="D181">
-        <v>-3.2189008995771471</v>
+        <v>38</v>
       </c>
       <c r="E181">
-        <v>-5.1105388127020368E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="F181">
+        <v>-3.218900899577147</v>
+      </c>
+      <c r="G181">
+        <v>-0.05110538812702037</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>147</v>
       </c>
       <c r="B182">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C182">
-        <v>0.74829931972789121</v>
+        <v>0.7482993197278912</v>
       </c>
       <c r="D182">
-        <v>-3.2215400489741071</v>
+        <v>37</v>
       </c>
       <c r="E182">
-        <v>-4.8578902718907642E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F182">
+        <v>-3.223411492550528</v>
+      </c>
+      <c r="G182">
+        <v>-0.05045034629532941</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>147</v>
       </c>
       <c r="B183">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C183">
-        <v>0.75510204081632648</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="D183">
+        <v>36</v>
+      </c>
+      <c r="E183">
+        <v>111</v>
+      </c>
+      <c r="F183">
         <v>-3.227586222171456</v>
       </c>
-      <c r="E183">
-        <v>-4.9459441111184499E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>-0.0494594411111845</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>147</v>
       </c>
       <c r="B184">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C184">
-        <v>0.76190476190476186</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="D184">
-        <v>-3.2303273967893809</v>
+        <v>35</v>
       </c>
       <c r="E184">
-        <v>-4.7034980924037573E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F184">
+        <v>-3.23045749138827</v>
+      </c>
+      <c r="G184">
+        <v>-0.0471650755229267</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>147</v>
       </c>
       <c r="B185">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C185">
-        <v>0.76870748299319724</v>
+        <v>0.7687074829931972</v>
       </c>
       <c r="D185">
-        <v>-3.2356699447198198</v>
+        <v>34</v>
       </c>
       <c r="E185">
-        <v>-4.7211894049404401E-2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F185">
+        <v>-3.23566994471982</v>
+      </c>
+      <c r="G185">
+        <v>-0.0472118940494044</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>147</v>
       </c>
       <c r="B186">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C186">
-        <v>0.77551020408163263</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D186">
+        <v>33</v>
+      </c>
+      <c r="E186">
+        <v>114</v>
+      </c>
+      <c r="F186">
         <v>-3.239733969871669</v>
       </c>
-      <c r="E186">
-        <v>-4.6110284396180368E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>-0.04611028439618037</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>147</v>
       </c>
       <c r="B187">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C187">
-        <v>0.78231292517006801</v>
+        <v>0.782312925170068</v>
       </c>
       <c r="D187">
-        <v>-3.2438141976807122</v>
+        <v>32</v>
       </c>
       <c r="E187">
-        <v>-4.5024877400151382E-2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="F187">
+        <v>-3.243814197680712</v>
+      </c>
+      <c r="G187">
+        <v>-0.04502487740015138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>147</v>
       </c>
       <c r="B188">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C188">
-        <v>0.78911564625850339</v>
+        <v>0.7891156462585034</v>
       </c>
       <c r="D188">
-        <v>-3.2477541697880659</v>
+        <v>31</v>
       </c>
       <c r="E188">
-        <v>-4.3799214702432858E-2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="F188">
+        <v>-3.247754169788066</v>
+      </c>
+      <c r="G188">
+        <v>-0.04379921470243286</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>147</v>
       </c>
       <c r="B189">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C189">
-        <v>0.79591836734693877</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D189">
+        <v>30</v>
+      </c>
+      <c r="E189">
+        <v>117</v>
+      </c>
+      <c r="F189">
         <v>-3.251352280985039</v>
       </c>
-      <c r="E189">
-        <v>-4.2231691094333328E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>-0.04223169109433333</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>147</v>
       </c>
       <c r="B190">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C190">
-        <v>0.80272108843537415</v>
+        <v>0.8027210884353742</v>
       </c>
       <c r="D190">
-        <v>-3.2558449463541912</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>-4.1558721658413338E-2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="F190">
+        <v>-3.256025707902674</v>
+      </c>
+      <c r="G190">
+        <v>-0.04173948320689569</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>147</v>
       </c>
       <c r="B191">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C191">
-        <v>0.80952380952380953</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="D191">
-        <v>-3.2595056615880331</v>
+        <v>28</v>
       </c>
       <c r="E191">
-        <v>-4.005380208718301E-2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F191">
+        <v>-3.259505661588033</v>
+      </c>
+      <c r="G191">
+        <v>-0.04005380208718301</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>147</v>
       </c>
       <c r="B192">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C192">
-        <v>0.81632653061224492</v>
+        <v>0.8163265306122449</v>
       </c>
       <c r="D192">
-        <v>-3.2639101310469671</v>
+        <v>27</v>
       </c>
       <c r="E192">
-        <v>-3.9292636741044377E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="F192">
+        <v>-3.263910131046967</v>
+      </c>
+      <c r="G192">
+        <v>-0.03929263674104438</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>147</v>
       </c>
       <c r="B193">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C193">
         <v>0.8231292517006803</v>
       </c>
       <c r="D193">
-        <v>-3.2676268574429219</v>
+        <v>26</v>
       </c>
       <c r="E193">
-        <v>-3.7843728331927402E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F193">
+        <v>-3.267626857442922</v>
+      </c>
+      <c r="G193">
+        <v>-0.0378437283319274</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>147</v>
       </c>
       <c r="B194">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C194">
-        <v>0.82993197278911568</v>
+        <v>0.8299319727891157</v>
       </c>
       <c r="D194">
-        <v>-3.2726249814942379</v>
+        <v>25</v>
       </c>
       <c r="E194">
-        <v>-3.7676217578170627E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="F194">
+        <v>-3.272624981494238</v>
+      </c>
+      <c r="G194">
+        <v>-0.03767621757817063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>147</v>
       </c>
       <c r="B195">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C195">
-        <v>0.83673469387755106</v>
+        <v>0.8367346938775511</v>
       </c>
       <c r="D195">
+        <v>24</v>
+      </c>
+      <c r="E195">
+        <v>123</v>
+      </c>
+      <c r="F195">
         <v>-3.276889905694393</v>
       </c>
-      <c r="E195">
-        <v>-3.6775506973252658E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>-0.03677550697325266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>147</v>
       </c>
       <c r="B196">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C196">
-        <v>0.84353741496598644</v>
+        <v>0.8435374149659864</v>
       </c>
       <c r="D196">
-        <v>-3.2798207838944391</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>-3.4540750368226569E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F196">
+        <v>-3.280763670791536</v>
+      </c>
+      <c r="G196">
+        <v>-0.03548363726532389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>147</v>
       </c>
       <c r="B197">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C197">
-        <v>0.85034013605442171</v>
+        <v>0.8503401360544217</v>
       </c>
       <c r="D197">
-        <v>-3.2843135723386441</v>
+        <v>22</v>
       </c>
       <c r="E197">
-        <v>-3.3867904007359062E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F197">
+        <v>-3.284313572338644</v>
+      </c>
+      <c r="G197">
+        <v>-0.03386790400735906</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>147</v>
       </c>
       <c r="B198">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C198">
         <v>0.8571428571428571</v>
       </c>
       <c r="D198">
+        <v>21</v>
+      </c>
+      <c r="E198">
+        <v>126</v>
+      </c>
+      <c r="F198">
         <v>-3.287968484376949</v>
       </c>
-      <c r="E198">
-        <v>-3.2357181240592607E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>-0.03235718124059261</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>147</v>
       </c>
       <c r="B199">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C199">
-        <v>0.86394557823129248</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="D199">
-        <v>-3.291626858963141</v>
+        <v>20</v>
       </c>
       <c r="E199">
-        <v>-3.0849921021712409E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F199">
+        <v>-3.291910233001949</v>
+      </c>
+      <c r="G199">
+        <v>-0.03113329506051993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>147</v>
       </c>
       <c r="B200">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C200">
-        <v>0.87074829931972786</v>
+        <v>0.8707482993197279</v>
       </c>
       <c r="D200">
-        <v>-3.2966285770691979</v>
+        <v>19</v>
       </c>
       <c r="E200">
-        <v>-3.0686004322696189E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F200">
+        <v>-3.296628577069198</v>
+      </c>
+      <c r="G200">
+        <v>-0.03068600432269619</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>147</v>
       </c>
       <c r="B201">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C201">
-        <v>0.87755102040816324</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="D201">
-        <v>-3.2990360943800119</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>-2.7927886828438001E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="F201">
+        <v>-3.299036094380012</v>
+      </c>
+      <c r="G201">
+        <v>-0.027927886828438</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>147</v>
       </c>
       <c r="B202">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C202">
-        <v>0.88435374149659862</v>
+        <v>0.8843537414965986</v>
       </c>
       <c r="D202">
-        <v>-3.303040121421279</v>
+        <v>17</v>
       </c>
       <c r="E202">
-        <v>-2.6766279064632911E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F202">
+        <v>-3.303540810498064</v>
+      </c>
+      <c r="G202">
+        <v>-0.0272669681414176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>147</v>
       </c>
       <c r="B203">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C203">
         <v>0.891156462585034</v>
       </c>
       <c r="D203">
-        <v>-3.306922344988326</v>
+        <v>16</v>
       </c>
       <c r="E203">
-        <v>-2.54828678266068E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>-3.307524966702742</v>
+      </c>
+      <c r="G203">
+        <v>-0.02608548954102341</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>147</v>
       </c>
       <c r="B204">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C204">
-        <v>0.89795918367346939</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D204">
-        <v>-3.3113132245044929</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>-2.4708112537701499E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="F204">
+        <v>-3.311712320544315</v>
+      </c>
+      <c r="G204">
+        <v>-0.02510720857752408</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>147</v>
       </c>
       <c r="B205">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C205">
-        <v>0.90476190476190477</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="D205">
-        <v>-3.3146771169002962</v>
+        <v>14</v>
       </c>
       <c r="E205">
-        <v>-2.2906370128432552E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F205">
+        <v>-3.314677116900296</v>
+      </c>
+      <c r="G205">
+        <v>-0.02290637012843255</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>147</v>
       </c>
       <c r="B206">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C206">
-        <v>0.91156462585034015</v>
+        <v>0.9115646258503401</v>
       </c>
       <c r="D206">
-        <v>-3.3186689003766401</v>
+        <v>13</v>
       </c>
       <c r="E206">
-        <v>-2.1732518799703782E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="F206">
+        <v>-3.31866890037664</v>
+      </c>
+      <c r="G206">
+        <v>-0.02173251879970378</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>147</v>
       </c>
       <c r="B207">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C207">
-        <v>0.91836734693877553</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D207">
-        <v>-3.3223501550489218</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>-2.0248138666914189E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="F207">
+        <v>-3.322350155048922</v>
+      </c>
+      <c r="G207">
+        <v>-0.02024813866691419</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>147</v>
       </c>
       <c r="B208">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C208">
-        <v>0.92517006802721091</v>
+        <v>0.9251700680272109</v>
       </c>
       <c r="D208">
-        <v>-3.3260177427763749</v>
+        <v>11</v>
       </c>
       <c r="E208">
-        <v>-1.8750091589294551E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="F208">
+        <v>-3.326017742776375</v>
+      </c>
+      <c r="G208">
+        <v>-0.01875009158929455</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>147</v>
       </c>
       <c r="B209">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C209">
-        <v>0.93197278911564629</v>
+        <v>0.9319727891156463</v>
       </c>
       <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>137</v>
+      </c>
+      <c r="F209">
         <v>-3.32930673488125</v>
       </c>
-      <c r="E209">
-        <v>-1.687344888909742E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>-0.01687344888909742</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>147</v>
       </c>
       <c r="B210">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C210">
-        <v>0.93877551020408168</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="D210">
-        <v>-3.3329811560811158</v>
+        <v>9</v>
       </c>
       <c r="E210">
-        <v>-1.53822352838906E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F210">
+        <v>-3.332981156081116</v>
+      </c>
+      <c r="G210">
+        <v>-0.0153822352838906</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>147</v>
       </c>
       <c r="B211">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C211">
-        <v>0.94557823129251706</v>
+        <v>0.9455782312925171</v>
       </c>
       <c r="D211">
-        <v>-3.3374401024157971</v>
+        <v>8</v>
       </c>
       <c r="E211">
-        <v>-1.467554681349886E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F211">
+        <v>-3.337440102415797</v>
+      </c>
+      <c r="G211">
+        <v>-0.01467554681349886</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>147</v>
       </c>
       <c r="B212">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C212">
-        <v>0.95238095238095233</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D212">
+        <v>7</v>
+      </c>
+      <c r="E212">
+        <v>140</v>
+      </c>
+      <c r="F212">
         <v>-3.339937735913443</v>
       </c>
-      <c r="E212">
-        <v>-1.2007545506072659E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>-0.01200754550607266</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>147</v>
       </c>
       <c r="B213">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C213">
-        <v>0.95918367346938771</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="D213">
+        <v>6</v>
+      </c>
+      <c r="E213">
+        <v>141</v>
+      </c>
+      <c r="F213">
         <v>-3.344396682248123</v>
       </c>
-      <c r="E213">
-        <v>-1.1300857035680029E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>-0.01130085703568003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>147</v>
       </c>
       <c r="B214">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C214">
-        <v>0.96598639455782309</v>
+        <v>0.9659863945578231</v>
       </c>
       <c r="D214">
-        <v>-3.3476788408805809</v>
+        <v>5</v>
       </c>
       <c r="E214">
-        <v>-9.4173808630665379E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="F214">
+        <v>-3.347678840880581</v>
+      </c>
+      <c r="G214">
+        <v>-0.009417380863066538</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>147</v>
       </c>
       <c r="B215">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C215">
-        <v>0.97278911564625847</v>
+        <v>0.9727891156462585</v>
       </c>
       <c r="D215">
-        <v>-3.3509609995130401</v>
+        <v>4</v>
       </c>
       <c r="E215">
-        <v>-7.533904690453494E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="F215">
+        <v>-3.35096099951304</v>
+      </c>
+      <c r="G215">
+        <v>-0.007533904690453494</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>147</v>
       </c>
       <c r="B216">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C216">
-        <v>0.97959183673469385</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="D216">
-        <v>-3.3542431581455001</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>-5.6504285178400129E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F216">
+        <v>-3.3542431581455</v>
+      </c>
+      <c r="G216">
+        <v>-0.005650428517840013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>147</v>
       </c>
       <c r="B217">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C217">
-        <v>0.98639455782312924</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217">
+        <v>145</v>
+      </c>
+      <c r="F217">
         <v>-3.357525316777958</v>
       </c>
-      <c r="E217">
-        <v>-3.7669523452265249E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>-0.003766952345226525</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>147</v>
       </c>
       <c r="B218">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C218">
-        <v>0.99319727891156462</v>
+        <v>0.9931972789115646</v>
       </c>
       <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218">
+        <v>146</v>
+      </c>
+      <c r="F218">
         <v>-3.360807475410418</v>
       </c>
-      <c r="E218">
-        <v>-1.883476172613485E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>-0.001883476172613485</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>147</v>
       </c>
       <c r="B219">
-        <v>1.3028510685463439</v>
+        <v>1.302851068546344</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>-3.3640896340428772</v>
+        <v>0</v>
       </c>
       <c r="E219">
+        <v>147</v>
+      </c>
+      <c r="F219">
+        <v>-3.364089634042877</v>
+      </c>
+      <c r="G219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>309</v>
       </c>
@@ -4178,13 +5446,19 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>-2.6820320995474249</v>
+        <v>309</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>-2.682032099547425</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>309</v>
       </c>
@@ -4192,16 +5466,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C221">
-        <v>0.1</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="D221">
-        <v>-2.7840351540990098</v>
+        <v>279</v>
       </c>
       <c r="E221">
-        <v>-2.3815000124097981E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F221">
+        <v>-2.78403515409901</v>
+      </c>
+      <c r="G221">
+        <v>-0.02609232209771362</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>309</v>
       </c>
@@ -4209,16 +5489,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C222">
-        <v>0.2</v>
+        <v>0.1974110032362459</v>
       </c>
       <c r="D222">
+        <v>248</v>
+      </c>
+      <c r="E222">
+        <v>61</v>
+      </c>
+      <c r="F222">
         <v>-2.880922678217269</v>
       </c>
-      <c r="E222">
-        <v>-4.2514469814869393E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G222">
+        <v>-0.04453875601363944</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>309</v>
       </c>
@@ -4226,16 +5512,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C223">
-        <v>0.3</v>
+        <v>0.2977346278317152</v>
       </c>
       <c r="D223">
-        <v>-2.9697036739870941</v>
+        <v>217</v>
       </c>
       <c r="E223">
-        <v>-5.3107411157207407E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F223">
+        <v>-2.969703673987094</v>
+      </c>
+      <c r="G223">
+        <v>-0.05487866158113097</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>309</v>
       </c>
@@ -4243,16 +5535,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C224">
-        <v>0.4</v>
+        <v>0.3980582524271845</v>
       </c>
       <c r="D224">
-        <v>-3.0552433103587462</v>
+        <v>186</v>
       </c>
       <c r="E224">
-        <v>-6.0458993101371712E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F224">
+        <v>-3.055412882774773</v>
+      </c>
+      <c r="G224">
+        <v>-0.06214678016647657</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>309</v>
       </c>
@@ -4260,16 +5558,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C225">
-        <v>0.5</v>
+        <v>0.4983818770226537</v>
       </c>
       <c r="D225">
-        <v>-3.1368083120121968</v>
+        <v>155</v>
       </c>
       <c r="E225">
-        <v>-6.3835940327335639E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F225">
+        <v>-3.136808312012197</v>
+      </c>
+      <c r="G225">
+        <v>-0.06510111920156714</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>309</v>
       </c>
@@ -4277,16 +5581,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C226">
-        <v>0.60000000000000009</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="D226">
-        <v>-3.2124048490679158</v>
+        <v>124</v>
       </c>
       <c r="E226">
-        <v>-6.1244422955567979E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F226">
+        <v>-3.212404849067916</v>
+      </c>
+      <c r="G226">
+        <v>-0.06225656605495278</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>309</v>
       </c>
@@ -4294,16 +5604,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C227">
-        <v>0.70000000000000007</v>
+        <v>0.6990291262135923</v>
       </c>
       <c r="D227">
-        <v>-3.2829962644609241</v>
+        <v>93</v>
       </c>
       <c r="E227">
-        <v>-5.3647783921087933E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="F227">
+        <v>-3.283885938600053</v>
+      </c>
+      <c r="G227">
+        <v>-0.05529656538475658</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>309</v>
       </c>
@@ -4311,16 +5627,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C228">
-        <v>0.8</v>
+        <v>0.7993527508090615</v>
       </c>
       <c r="D228">
-        <v>-3.3485088108631809</v>
+        <v>62</v>
       </c>
       <c r="E228">
-        <v>-4.0972275895858501E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F228">
+        <v>-3.349705713552469</v>
+      </c>
+      <c r="G228">
+        <v>-0.04267525013483853</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>309</v>
       </c>
@@ -4328,16 +5650,22 @@
         <v>1.737134758061792</v>
       </c>
       <c r="C229">
-        <v>0.9</v>
+        <v>0.8996763754045307</v>
       </c>
       <c r="D229">
+        <v>31</v>
+      </c>
+      <c r="E229">
+        <v>278</v>
+      </c>
+      <c r="F229">
         <v>-3.409349045457124</v>
       </c>
-      <c r="E229">
-        <v>-2.362445606231417E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G229">
+        <v>-0.02387749183716054</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>309</v>
       </c>
@@ -4348,574 +5676,778 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>-3.4639126438222969</v>
+        <v>0</v>
       </c>
       <c r="E230">
+        <v>309</v>
+      </c>
+      <c r="F230">
+        <v>-3.463912643822297</v>
+      </c>
+      <c r="G230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>561</v>
       </c>
       <c r="B231">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="D231">
-        <v>-2.7311842471339172</v>
+        <v>561</v>
       </c>
       <c r="E231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>-2.731184247133917</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>561</v>
       </c>
       <c r="B232">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C232">
-        <v>0.1</v>
+        <v>0.09982174688057041</v>
       </c>
       <c r="D232">
+        <v>505</v>
+      </c>
+      <c r="E232">
+        <v>56</v>
+      </c>
+      <c r="F232">
         <v>-2.837001992015137</v>
       </c>
-      <c r="E232">
-        <v>-2.6196780388512138E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G232">
+        <v>-0.02633870724144005</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>561</v>
       </c>
       <c r="B233">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C233">
-        <v>0.2</v>
+        <v>0.1996434937611408</v>
       </c>
       <c r="D233">
+        <v>449</v>
+      </c>
+      <c r="E233">
+        <v>112</v>
+      </c>
+      <c r="F233">
         <v>-2.934627714790039</v>
       </c>
-      <c r="E233">
-        <v>-4.4201538670705531E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G233">
+        <v>-0.04448539237656268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>561</v>
       </c>
       <c r="B234">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C234">
-        <v>0.3</v>
+        <v>0.2994652406417112</v>
       </c>
       <c r="D234">
+        <v>393</v>
+      </c>
+      <c r="E234">
+        <v>168</v>
+      </c>
+      <c r="F234">
         <v>-3.024196107976115</v>
       </c>
-      <c r="E234">
-        <v>-5.4148967364073597E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G234">
+        <v>-0.05457474792285844</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>561</v>
       </c>
       <c r="B235">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C235">
-        <v>0.4</v>
+        <v>0.3992869875222816</v>
       </c>
       <c r="D235">
+        <v>337</v>
+      </c>
+      <c r="E235">
+        <v>224</v>
+      </c>
+      <c r="F235">
         <v>-3.110057622110983</v>
       </c>
-      <c r="E235">
-        <v>-6.038951700623385E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G235">
+        <v>-0.0609572244179466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>561</v>
       </c>
       <c r="B236">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C236">
-        <v>0.5</v>
+        <v>0.499108734402852</v>
       </c>
       <c r="D236">
-        <v>-3.191441847296872</v>
+        <v>281</v>
       </c>
       <c r="E236">
-        <v>-6.215277769941463E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F236">
+        <v>-3.19211683728254</v>
+      </c>
+      <c r="G236">
+        <v>-0.06353740194972279</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>561</v>
       </c>
       <c r="B237">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C237">
-        <v>0.60000000000000009</v>
+        <v>0.5989304812834224</v>
       </c>
       <c r="D237">
-        <v>-3.2689680418925229</v>
+        <v>225</v>
       </c>
       <c r="E237">
-        <v>-6.0058007802357372E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F237">
+        <v>-3.269161950936446</v>
+      </c>
+      <c r="G237">
+        <v>-0.0611034779638493</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>561</v>
       </c>
       <c r="B238">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C238">
-        <v>0.70000000000000007</v>
+        <v>0.6987522281639929</v>
       </c>
       <c r="D238">
+        <v>169</v>
+      </c>
+      <c r="E238">
+        <v>392</v>
+      </c>
+      <c r="F238">
         <v>-3.340747008745057</v>
       </c>
-      <c r="E238">
-        <v>-5.2216010162182247E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G238">
+        <v>-0.05320949813267983</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>561</v>
       </c>
       <c r="B239">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C239">
-        <v>0.8</v>
+        <v>0.7985739750445633</v>
       </c>
       <c r="D239">
-        <v>-3.4081984565894849</v>
+        <v>113</v>
       </c>
       <c r="E239">
-        <v>-4.004649351390277E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="F239">
+        <v>-3.408251972646319</v>
+      </c>
+      <c r="G239">
+        <v>-0.04123542439416161</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>561</v>
       </c>
       <c r="B240">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C240">
-        <v>0.9</v>
+        <v>0.8983957219251337</v>
       </c>
       <c r="D240">
-        <v>-3.4697583591072871</v>
+        <v>57</v>
       </c>
       <c r="E240">
-        <v>-2.1985431538996621E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="F240">
+        <v>-3.469758359107287</v>
+      </c>
+      <c r="G240">
+        <v>-0.02326277321535014</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>561</v>
       </c>
       <c r="B241">
-        <v>2.1714184475772398</v>
+        <v>2.17141844757724</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>-3.5273938920609988</v>
+        <v>0</v>
       </c>
       <c r="E241">
+        <v>561</v>
+      </c>
+      <c r="F241">
+        <v>-3.527393892060999</v>
+      </c>
+      <c r="G241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>923</v>
       </c>
       <c r="B242">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C242">
         <v>0</v>
       </c>
       <c r="D242">
-        <v>-2.7651530935507451</v>
+        <v>923</v>
       </c>
       <c r="E242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>-2.765153093550745</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>923</v>
       </c>
       <c r="B243">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C243">
-        <v>0.1</v>
+        <v>0.09967497291440953</v>
       </c>
       <c r="D243">
-        <v>-2.8712505713274541</v>
+        <v>831</v>
       </c>
       <c r="E243">
-        <v>-2.5486235049468231E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F243">
+        <v>-2.871250571327454</v>
+      </c>
+      <c r="G243">
+        <v>-0.02574824342236326</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>923</v>
       </c>
       <c r="B244">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C244">
-        <v>0.2</v>
+        <v>0.1993499458288191</v>
       </c>
       <c r="D244">
+        <v>739</v>
+      </c>
+      <c r="E244">
+        <v>184</v>
+      </c>
+      <c r="F244">
         <v>-2.969413427892011</v>
       </c>
-      <c r="E244">
-        <v>-4.303784888678619E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G244">
+        <v>-0.04356186563257536</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>923</v>
       </c>
       <c r="B245">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C245">
-        <v>0.3</v>
+        <v>0.2990249187432286</v>
       </c>
       <c r="D245">
+        <v>647</v>
+      </c>
+      <c r="E245">
+        <v>276</v>
+      </c>
+      <c r="F245">
         <v>-3.060681810632472</v>
       </c>
-      <c r="E245">
-        <v>-5.3694988900006457E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G245">
+        <v>-0.05448101401868999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>923</v>
       </c>
       <c r="B246">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C246">
-        <v>0.4</v>
+        <v>0.399783315276273</v>
       </c>
       <c r="D246">
-        <v>-3.1479215388155972</v>
+        <v>554</v>
       </c>
       <c r="E246">
-        <v>-6.0323474355891797E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F246">
+        <v>-3.147921538815597</v>
+      </c>
+      <c r="G246">
+        <v>-0.06049814660448849</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>923</v>
       </c>
       <c r="B247">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C247">
-        <v>0.5</v>
+        <v>0.4994582881906826</v>
       </c>
       <c r="D247">
-        <v>-3.2309480928718242</v>
+        <v>462</v>
       </c>
       <c r="E247">
-        <v>-6.2738785684878895E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+      <c r="F247">
+        <v>-3.230948092871824</v>
+      </c>
+      <c r="G247">
+        <v>-0.06317546630636994</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>923</v>
       </c>
       <c r="B248">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C248">
-        <v>0.60000000000000009</v>
+        <v>0.5991332611050921</v>
       </c>
       <c r="D248">
-        <v>-3.307877701051575</v>
+        <v>370</v>
       </c>
       <c r="E248">
-        <v>-5.9057151137390067E-2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="F248">
+        <v>-3.308552076666951</v>
+      </c>
+      <c r="G248">
+        <v>-0.06043021574715146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>923</v>
       </c>
       <c r="B249">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C249">
-        <v>0.70000000000000007</v>
+        <v>0.6998916576381365</v>
       </c>
       <c r="D249">
+        <v>277</v>
+      </c>
+      <c r="E249">
+        <v>646</v>
+      </c>
+      <c r="F249">
         <v>-3.381822268815204</v>
       </c>
-      <c r="E249">
-        <v>-5.239047617377901E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G249">
+        <v>-0.05247781229807713</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>923</v>
       </c>
       <c r="B250">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C250">
-        <v>0.8</v>
+        <v>0.7995666305525461</v>
       </c>
       <c r="D250">
-        <v>-3.4499066584076861</v>
+        <v>185</v>
       </c>
       <c r="E250">
-        <v>-3.9863623039020468E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+      <c r="F250">
+        <v>-3.449906658407686</v>
+      </c>
+      <c r="G250">
+        <v>-0.04021296753621351</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>923</v>
       </c>
       <c r="B251">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C251">
-        <v>0.9</v>
+        <v>0.8992416034669556</v>
       </c>
       <c r="D251">
-        <v>-3.5127843638385481</v>
+        <v>93</v>
       </c>
       <c r="E251">
-        <v>-2.2130085742642362E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+      <c r="F251">
+        <v>-3.513214423601395</v>
+      </c>
+      <c r="G251">
+        <v>-0.02317149837557708</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>923</v>
       </c>
       <c r="B252">
-        <v>2.6057021370926878</v>
+        <v>2.605702137092688</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>923</v>
+      </c>
+      <c r="F252">
         <v>-3.571265520823145</v>
       </c>
-      <c r="E252">
+      <c r="G252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>1415</v>
       </c>
       <c r="B253">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C253">
         <v>0</v>
       </c>
       <c r="D253">
-        <v>-2.7900167822443538</v>
+        <v>1415</v>
       </c>
       <c r="E253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253">
+        <v>-2.790016782244354</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>1415</v>
       </c>
       <c r="B254">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C254">
-        <v>0.1</v>
+        <v>0.09964664310954063</v>
       </c>
       <c r="D254">
-        <v>-2.8961263471566232</v>
+        <v>1274</v>
       </c>
       <c r="E254">
-        <v>-2.4773482446830201E-2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F254">
+        <v>-2.896126347156623</v>
+      </c>
+      <c r="G254">
+        <v>-0.02506088909865145</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>1415</v>
       </c>
       <c r="B255">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C255">
         <v>0.2</v>
       </c>
       <c r="D255">
-        <v>-2.9956899628618232</v>
+        <v>1132</v>
       </c>
       <c r="E255">
-        <v>-4.300101568659187E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F255">
+        <v>-2.995689962861823</v>
+      </c>
+      <c r="G255">
+        <v>-0.04300101568659187</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>1415</v>
       </c>
       <c r="B256">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C256">
-        <v>0.3</v>
+        <v>0.2996466431095406</v>
       </c>
       <c r="D256">
-        <v>-3.0878695047192339</v>
+        <v>991</v>
       </c>
       <c r="E256">
-        <v>-5.3844475078564713E-2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+      <c r="F256">
+        <v>-3.087869504719234</v>
+      </c>
+      <c r="G256">
+        <v>-0.05413188173038597</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>1415</v>
       </c>
       <c r="B257">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C257">
         <v>0.4</v>
       </c>
       <c r="D257">
-        <v>-3.1750689257907809</v>
+        <v>849</v>
       </c>
       <c r="E257">
-        <v>-5.9707813684674038E-2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+      <c r="F257">
+        <v>-3.175068925790781</v>
+      </c>
+      <c r="G257">
+        <v>-0.05970781368467404</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>1415</v>
       </c>
       <c r="B258">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C258">
-        <v>0.5</v>
+        <v>0.4996466431095407</v>
       </c>
       <c r="D258">
+        <v>708</v>
+      </c>
+      <c r="E258">
+        <v>707</v>
+      </c>
+      <c r="F258">
         <v>-3.257997201890134</v>
       </c>
-      <c r="E258">
-        <v>-6.1300007318588763E-2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G258">
+        <v>-0.06158741397041001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>1415</v>
       </c>
       <c r="B259">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C259">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D259">
-        <v>-3.3368179491065799</v>
+        <v>566</v>
       </c>
       <c r="E259">
-        <v>-5.8784672069596138E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="F259">
+        <v>-3.337256353307453</v>
+      </c>
+      <c r="G259">
+        <v>-0.0592230762704693</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>1415</v>
       </c>
       <c r="B260">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C260">
-        <v>0.70000000000000007</v>
+        <v>0.6996466431095406</v>
       </c>
       <c r="D260">
+        <v>425</v>
+      </c>
+      <c r="E260">
+        <v>990</v>
+      </c>
+      <c r="F260">
         <v>-3.410986719571218</v>
       </c>
-      <c r="E260">
-        <v>-5.1617360068795359E-2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G260">
+        <v>-0.05190476672061684</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>1415</v>
       </c>
       <c r="B261">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C261">
         <v>0.8</v>
       </c>
       <c r="D261">
+        <v>283</v>
+      </c>
+      <c r="E261">
+        <v>1132</v>
+      </c>
+      <c r="F261">
         <v>-3.480236008608764</v>
       </c>
-      <c r="E261">
-        <v>-3.9530566640903597E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G261">
+        <v>-0.0395305666409036</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>1415</v>
       </c>
       <c r="B262">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C262">
-        <v>0.9</v>
+        <v>0.8996466431095407</v>
       </c>
       <c r="D262">
-        <v>-3.5443468513981049</v>
+        <v>142</v>
       </c>
       <c r="E262">
-        <v>-2.2305326964806579E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1273</v>
+      </c>
+      <c r="F262">
+        <v>-3.544346851398105</v>
+      </c>
+      <c r="G262">
+        <v>-0.02259273361662784</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>1415</v>
       </c>
       <c r="B263">
-        <v>3.0399858266081359</v>
+        <v>3.039985826608136</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>-3.6033776068987371</v>
+        <v>0</v>
       </c>
       <c r="E263">
+        <v>1415</v>
+      </c>
+      <c r="F263">
+        <v>-3.603377606898737</v>
+      </c>
+      <c r="G263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>2057</v>
       </c>
@@ -4926,13 +6458,19 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>-2.8089969310781382</v>
+        <v>2057</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264">
+        <v>-2.808996931078138</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>2057</v>
       </c>
@@ -4940,16 +6478,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C265">
-        <v>0.1</v>
+        <v>0.09965969859017987</v>
       </c>
       <c r="D265">
+        <v>1852</v>
+      </c>
+      <c r="E265">
+        <v>205</v>
+      </c>
+      <c r="F265">
         <v>-2.915118929406276</v>
       </c>
-      <c r="E265">
-        <v>-2.423259626958529E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G265">
+        <v>-0.02451126705928397</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>2057</v>
       </c>
@@ -4957,16 +6501,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C266">
-        <v>0.2</v>
+        <v>0.1998055420515314</v>
       </c>
       <c r="D266">
-        <v>-3.0144496667363629</v>
+        <v>1646</v>
       </c>
       <c r="E266">
-        <v>-4.1673931541120091E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="F266">
+        <v>-3.01463854457067</v>
+      </c>
+      <c r="G266">
+        <v>-0.04202204982668389</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>2057</v>
       </c>
@@ -4974,16 +6524,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C267">
-        <v>0.3</v>
+        <v>0.2999513855128829</v>
       </c>
       <c r="D267">
+        <v>1440</v>
+      </c>
+      <c r="E267">
+        <v>617</v>
+      </c>
+      <c r="F267">
         <v>-3.108280434784696</v>
       </c>
-      <c r="E267">
-        <v>-5.3615297530900552E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G267">
+        <v>-0.05365510764371439</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>2057</v>
       </c>
@@ -4991,16 +6547,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C268">
-        <v>0.4</v>
+        <v>0.3996110841030627</v>
       </c>
       <c r="D268">
-        <v>-3.1949491730518802</v>
+        <v>1235</v>
       </c>
       <c r="E268">
-        <v>-5.8394633739531798E-2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+      <c r="F268">
+        <v>-3.19494917305188</v>
+      </c>
+      <c r="G268">
+        <v>-0.05871311464204432</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>2057</v>
       </c>
@@ -5008,16 +6570,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C269">
-        <v>0.5</v>
+        <v>0.4997569275644142</v>
       </c>
       <c r="D269">
-        <v>-3.2793159361520372</v>
+        <v>1029</v>
       </c>
       <c r="E269">
-        <v>-6.0871994781136467E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+      <c r="F269">
+        <v>-3.279617158667048</v>
+      </c>
+      <c r="G269">
+        <v>-0.06137226786021777</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>2057</v>
       </c>
@@ -5025,16 +6593,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C270">
-        <v>0.60000000000000009</v>
+        <v>0.5999027710257657</v>
       </c>
       <c r="D270">
+        <v>823</v>
+      </c>
+      <c r="E270">
+        <v>1234</v>
+      </c>
+      <c r="F270">
         <v>-3.358906560920877</v>
       </c>
-      <c r="E270">
-        <v>-5.8573217491424627E-2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G270">
+        <v>-0.05865283771705299</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>2057</v>
       </c>
@@ -5042,16 +6616,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C271">
-        <v>0.70000000000000007</v>
+        <v>0.6995624696159456</v>
       </c>
       <c r="D271">
+        <v>618</v>
+      </c>
+      <c r="E271">
+        <v>1439</v>
+      </c>
+      <c r="F271">
         <v>-3.433157625902961</v>
       </c>
-      <c r="E271">
-        <v>-5.0934880414955863E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G271">
+        <v>-0.05129317143028234</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>2057</v>
       </c>
@@ -5059,16 +6639,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C272">
-        <v>0.8</v>
+        <v>0.7997083130772971</v>
       </c>
       <c r="D272">
-        <v>-3.5030241641780968</v>
+        <v>412</v>
       </c>
       <c r="E272">
-        <v>-3.8912016631539197E-2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1645</v>
+      </c>
+      <c r="F272">
+        <v>-3.503024164178097</v>
+      </c>
+      <c r="G272">
+        <v>-0.03915087730842393</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>2057</v>
       </c>
@@ -5076,16 +6662,22 @@
         <v>3.474269516123583</v>
       </c>
       <c r="C273">
-        <v>0.9</v>
+        <v>0.8998541565386485</v>
       </c>
       <c r="D273">
+        <v>206</v>
+      </c>
+      <c r="E273">
+        <v>1851</v>
+      </c>
+      <c r="F273">
         <v>-3.568132836455717</v>
       </c>
-      <c r="E273">
-        <v>-2.2131286850606561E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G273">
+        <v>-0.02225071718904892</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>2057</v>
       </c>
@@ -5096,13 +6688,19 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>-3.6278909516636619</v>
+        <v>0</v>
       </c>
       <c r="E274">
+        <v>2057</v>
+      </c>
+      <c r="F274">
+        <v>-3.627890951663662</v>
+      </c>
+      <c r="G274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>2869</v>
       </c>
@@ -5113,13 +6711,19 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>-2.8239578690842602</v>
+        <v>2869</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275">
+        <v>-2.82395786908426</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>2869</v>
       </c>
@@ -5127,16 +6731,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C276">
-        <v>0.1</v>
+        <v>0.09968630184733357</v>
       </c>
       <c r="D276">
-        <v>-2.9301886485448052</v>
+        <v>2583</v>
       </c>
       <c r="E276">
-        <v>-2.3905228022813141E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F276">
+        <v>-2.930188648544805</v>
+      </c>
+      <c r="G276">
+        <v>-0.02416348175684568</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>2869</v>
       </c>
@@ -5144,16 +6754,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C277">
-        <v>0.2</v>
+        <v>0.1997211571976298</v>
       </c>
       <c r="D277">
-        <v>-3.0299939452562681</v>
+        <v>2296</v>
       </c>
       <c r="E277">
-        <v>-4.1384973296544107E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+      <c r="F277">
+        <v>-3.029993945256268</v>
+      </c>
+      <c r="G277">
+        <v>-0.04161453217124</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>2869</v>
       </c>
@@ -5161,16 +6777,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C278">
-        <v>0.3</v>
+        <v>0.2997560125479261</v>
       </c>
       <c r="D278">
-        <v>-3.1240254725468848</v>
+        <v>2009</v>
       </c>
       <c r="E278">
-        <v>-5.3090949149430473E-2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="F278">
+        <v>-3.124025472546885</v>
+      </c>
+      <c r="G278">
+        <v>-0.05329181316478926</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>2869</v>
       </c>
@@ -5178,16 +6800,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C279">
-        <v>0.4</v>
+        <v>0.3997908678982224</v>
       </c>
       <c r="D279">
-        <v>-3.2112740177753261</v>
+        <v>1722</v>
       </c>
       <c r="E279">
-        <v>-5.8013942940139167E-2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1147</v>
+      </c>
+      <c r="F279">
+        <v>-3.211428284314472</v>
+      </c>
+      <c r="G279">
+        <v>-0.05834037863530694</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>2869</v>
       </c>
@@ -5195,16 +6823,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C280">
-        <v>0.5</v>
+        <v>0.4998257232485186</v>
       </c>
       <c r="D280">
+        <v>1435</v>
+      </c>
+      <c r="E280">
+        <v>1434</v>
+      </c>
+      <c r="F280">
         <v>-3.296402464174685</v>
       </c>
-      <c r="E280">
-        <v>-6.0816837901767062E-2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G280">
+        <v>-0.06096031219845188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>2869</v>
       </c>
@@ -5212,16 +6846,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C281">
-        <v>0.60000000000000009</v>
+        <v>0.5998605785988149</v>
       </c>
       <c r="D281">
+        <v>1148</v>
+      </c>
+      <c r="E281">
+        <v>1721</v>
+      </c>
+      <c r="F281">
         <v>-3.376128014394228</v>
       </c>
-      <c r="E281">
-        <v>-5.8216836683579132E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G281">
+        <v>-0.05833161612092663</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>2869</v>
       </c>
@@ -5229,16 +6869,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C282">
-        <v>0.70000000000000007</v>
+        <v>0.6998954339491111</v>
       </c>
       <c r="D282">
-        <v>-3.4512730723158289</v>
+        <v>861</v>
       </c>
       <c r="E282">
-        <v>-5.1036343167447762E-2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2008</v>
+      </c>
+      <c r="F282">
+        <v>-3.451273072315829</v>
+      </c>
+      <c r="G282">
+        <v>-0.05112242774545883</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>2869</v>
       </c>
@@ -5246,16 +6892,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C283">
-        <v>0.8</v>
+        <v>0.7999302892994075</v>
       </c>
       <c r="D283">
-        <v>-3.5213309214034192</v>
+        <v>574</v>
       </c>
       <c r="E283">
-        <v>-3.8768640817306022E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+      <c r="F283">
+        <v>-3.521330921403419</v>
+      </c>
+      <c r="G283">
+        <v>-0.03882603053598022</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>2869</v>
       </c>
@@ -5263,16 +6915,22 @@
         <v>3.908553205639032</v>
       </c>
       <c r="C284">
-        <v>0.9</v>
+        <v>0.8999651446497037</v>
       </c>
       <c r="D284">
+        <v>287</v>
+      </c>
+      <c r="E284">
+        <v>2582</v>
+      </c>
+      <c r="F284">
         <v>-3.587034979891436</v>
       </c>
-      <c r="E284">
-        <v>-2.2147147867592532E-2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G284">
+        <v>-0.02217584272692924</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>2869</v>
       </c>
@@ -5283,570 +6941,774 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>-3.6472133834615761</v>
+        <v>0</v>
       </c>
       <c r="E285">
+        <v>2869</v>
+      </c>
+      <c r="F285">
+        <v>-3.647213383461576</v>
+      </c>
+      <c r="G285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>3871</v>
       </c>
       <c r="B286">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C286">
         <v>0</v>
       </c>
       <c r="D286">
-        <v>-2.8360524578662978</v>
+        <v>3871</v>
       </c>
       <c r="E286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286">
+        <v>-2.836052457866298</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>3871</v>
       </c>
       <c r="B287">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C287">
-        <v>0.1</v>
+        <v>0.09997416688194265</v>
       </c>
       <c r="D287">
+        <v>3484</v>
+      </c>
+      <c r="E287">
+        <v>387</v>
+      </c>
+      <c r="F287">
         <v>-2.94271912585095</v>
       </c>
-      <c r="E287">
-        <v>-2.3988528534957251E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G287">
+        <v>-0.02400988687632921</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>3871</v>
       </c>
       <c r="B288">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C288">
-        <v>0.2</v>
+        <v>0.1999483337638853</v>
       </c>
       <c r="D288">
-        <v>-3.0427318704703419</v>
+        <v>3097</v>
       </c>
       <c r="E288">
-        <v>-4.1323133704656012E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+      <c r="F288">
+        <v>-3.043062786073023</v>
+      </c>
+      <c r="G288">
+        <v>-0.04169676599008065</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>3871</v>
       </c>
       <c r="B289">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C289">
-        <v>0.3</v>
+        <v>0.2999225006458279</v>
       </c>
       <c r="D289">
-        <v>-3.1365149525432998</v>
+        <v>2710</v>
       </c>
       <c r="E289">
-        <v>-5.2428076327919237E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1161</v>
+      </c>
+      <c r="F289">
+        <v>-3.137661523869207</v>
+      </c>
+      <c r="G289">
+        <v>-0.05363872267794156</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>3871</v>
       </c>
       <c r="B290">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C290">
-        <v>0.4</v>
+        <v>0.3998966675277706</v>
       </c>
       <c r="D290">
-        <v>-3.2249939773944192</v>
+        <v>2323</v>
       </c>
       <c r="E290">
-        <v>-5.8228961729344331E-2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+      <c r="F290">
+        <v>-3.224993977394419</v>
+      </c>
+      <c r="G290">
+        <v>-0.05831439509483105</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>3871</v>
       </c>
       <c r="B291">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C291">
-        <v>0.5</v>
+        <v>0.4998708344097132</v>
       </c>
       <c r="D291">
-        <v>-3.3096157107805499</v>
+        <v>1936</v>
       </c>
       <c r="E291">
-        <v>-6.0172555665781953E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1935</v>
+      </c>
+      <c r="F291">
+        <v>-3.30961571078055</v>
+      </c>
+      <c r="G291">
+        <v>-0.06027934737264018</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>3871</v>
       </c>
       <c r="B292">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C292">
-        <v>0.60000000000000009</v>
+        <v>0.5998450012916559</v>
       </c>
       <c r="D292">
-        <v>-3.3897689847901642</v>
+        <v>1549</v>
       </c>
       <c r="E292">
-        <v>-5.7647690225701043E-2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2322</v>
+      </c>
+      <c r="F292">
+        <v>-3.389768984790164</v>
+      </c>
+      <c r="G292">
+        <v>-0.05777584027393101</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>3871</v>
       </c>
       <c r="B293">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C293">
-        <v>0.70000000000000007</v>
+        <v>0.6998191681735986</v>
       </c>
       <c r="D293">
-        <v>-3.4656835647129269</v>
+        <v>1162</v>
       </c>
       <c r="E293">
-        <v>-5.0884130698770617E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2709</v>
+      </c>
+      <c r="F293">
+        <v>-3.465683564712927</v>
+      </c>
+      <c r="G293">
+        <v>-0.05103363908837233</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>3871</v>
       </c>
       <c r="B294">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C294">
-        <v>0.8</v>
+        <v>0.7997933350555412</v>
       </c>
       <c r="D294">
-        <v>-3.5361269214119608</v>
+        <v>775</v>
       </c>
       <c r="E294">
-        <v>-3.8649347948110813E-2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3096</v>
+      </c>
+      <c r="F294">
+        <v>-3.536297174437167</v>
+      </c>
+      <c r="G294">
+        <v>-0.03899046770428982</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>3871</v>
       </c>
       <c r="B295">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C295">
-        <v>0.9</v>
+        <v>0.8997675019374839</v>
       </c>
       <c r="D295">
-        <v>-3.6019574111744199</v>
+        <v>388</v>
       </c>
       <c r="E295">
-        <v>-2.1801698260875361E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3483</v>
+      </c>
+      <c r="F295">
+        <v>-3.60195741117442</v>
+      </c>
+      <c r="G295">
+        <v>-0.02199392333322014</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>3871</v>
       </c>
       <c r="B296">
-        <v>4.3428368951544796</v>
+        <v>4.34283689515448</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>-3.6628338523632391</v>
+        <v>0</v>
       </c>
       <c r="E296">
+        <v>3871</v>
+      </c>
+      <c r="F296">
+        <v>-3.662833852363239</v>
+      </c>
+      <c r="G296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>5083</v>
       </c>
       <c r="B297">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C297">
         <v>0</v>
       </c>
       <c r="D297">
-        <v>-2.8460315760815869</v>
+        <v>5083</v>
       </c>
       <c r="E297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297">
+        <v>-2.846031576081587</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>5083</v>
       </c>
       <c r="B298">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C298">
-        <v>0.1</v>
+        <v>0.09994097973637615</v>
       </c>
       <c r="D298">
-        <v>-2.9527709369655781</v>
+        <v>4575</v>
       </c>
       <c r="E298">
-        <v>-2.3770304767734899E-2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="F298">
+        <v>-2.952770936965578</v>
+      </c>
+      <c r="G298">
+        <v>-0.02381927332338085</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>5083</v>
       </c>
       <c r="B299">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C299">
-        <v>0.2</v>
+        <v>0.1998819594727523</v>
       </c>
       <c r="D299">
+        <v>4067</v>
+      </c>
+      <c r="E299">
+        <v>1016</v>
+      </c>
+      <c r="F299">
         <v>-3.053203084725729</v>
       </c>
-      <c r="E299">
-        <v>-4.1233396411630263E-2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G299">
+        <v>-0.04133133352292306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>5083</v>
       </c>
       <c r="B300">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C300">
-        <v>0.3</v>
+        <v>0.2998229392091284</v>
       </c>
       <c r="D300">
+        <v>3559</v>
+      </c>
+      <c r="E300">
+        <v>1524</v>
+      </c>
+      <c r="F300">
         <v>-3.147858388728018</v>
       </c>
-      <c r="E300">
-        <v>-5.2919644297663597E-2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G300">
+        <v>-0.05306654996460214</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>5083</v>
       </c>
       <c r="B301">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C301">
-        <v>0.4</v>
+        <v>0.3999606531575841</v>
       </c>
       <c r="D301">
-        <v>-3.2364910581507411</v>
+        <v>3050</v>
       </c>
       <c r="E301">
-        <v>-5.8583257604130752E-2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F301">
+        <v>-3.236491058150741</v>
+      </c>
+      <c r="G301">
+        <v>-0.05861590330789479</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>5083</v>
       </c>
       <c r="B302">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C302">
-        <v>0.5</v>
+        <v>0.4999016328939603</v>
       </c>
       <c r="D302">
-        <v>-3.3209695493382352</v>
+        <v>2542</v>
       </c>
       <c r="E302">
-        <v>-6.0092692675369097E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2541</v>
+      </c>
+      <c r="F302">
+        <v>-3.320969549338235</v>
+      </c>
+      <c r="G302">
+        <v>-0.0601743069347791</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>5083</v>
       </c>
       <c r="B303">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C303">
-        <v>0.60000000000000009</v>
+        <v>0.5998426126303364</v>
       </c>
       <c r="D303">
-        <v>-3.4013891480816389</v>
+        <v>2034</v>
       </c>
       <c r="E303">
-        <v>-5.7543235302516482E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3049</v>
+      </c>
+      <c r="F303">
+        <v>-3.401446563298542</v>
+      </c>
+      <c r="G303">
+        <v>-0.05773123333447572</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>5083</v>
       </c>
       <c r="B304">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C304">
-        <v>0.70000000000000007</v>
+        <v>0.6999803265787921</v>
       </c>
       <c r="D304">
-        <v>-3.4775884747369759</v>
+        <v>1525</v>
       </c>
       <c r="E304">
-        <v>-5.0773505841598447E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3558</v>
+      </c>
+      <c r="F304">
+        <v>-3.477588474736976</v>
+      </c>
+      <c r="G304">
+        <v>-0.05078982869348037</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>5083</v>
       </c>
       <c r="B305">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C305">
-        <v>0.8</v>
+        <v>0.7999213063151682</v>
       </c>
       <c r="D305">
-        <v>-3.5482670475431961</v>
+        <v>1017</v>
       </c>
       <c r="E305">
-        <v>-3.8483022531562661E-2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4066</v>
+      </c>
+      <c r="F305">
+        <v>-3.548267047543196</v>
+      </c>
+      <c r="G305">
+        <v>-0.03854831393909075</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>5083</v>
       </c>
       <c r="B306">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C306">
-        <v>0.9</v>
+        <v>0.8998622860515444</v>
       </c>
       <c r="D306">
-        <v>-3.6144614201811009</v>
+        <v>509</v>
       </c>
       <c r="E306">
-        <v>-2.1708339053212011E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4574</v>
+      </c>
+      <c r="F306">
+        <v>-3.614461420181101</v>
+      </c>
+      <c r="G306">
+        <v>-0.02182259901638578</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>5083</v>
       </c>
       <c r="B307">
-        <v>4.7771205846699294</v>
+        <v>4.777120584669929</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307">
-        <v>-3.6757221372441449</v>
+        <v>0</v>
       </c>
       <c r="E307">
+        <v>5083</v>
+      </c>
+      <c r="F307">
+        <v>-3.675722137244145</v>
+      </c>
+      <c r="G307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>6525</v>
       </c>
       <c r="B308">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C308">
         <v>0</v>
       </c>
       <c r="D308">
-        <v>-2.8544051244242419</v>
+        <v>6525</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308">
+        <v>-2.854405124424242</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>6525</v>
       </c>
       <c r="B309">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C309">
-        <v>0.1</v>
+        <v>0.09992337164750958</v>
       </c>
       <c r="D309">
+        <v>5873</v>
+      </c>
+      <c r="E309">
+        <v>652</v>
+      </c>
+      <c r="F309">
         <v>-2.960932939704211</v>
       </c>
-      <c r="E309">
-        <v>-2.3314648940849111E-2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G309">
+        <v>-0.02337841381927053</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>6525</v>
       </c>
       <c r="B310">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C310">
         <v>0.2</v>
       </c>
       <c r="D310">
-        <v>-3.0618773089991991</v>
+        <v>5220</v>
       </c>
       <c r="E310">
-        <v>-4.1045851896716723E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1305</v>
+      </c>
+      <c r="F310">
+        <v>-3.061877308999199</v>
+      </c>
+      <c r="G310">
+        <v>-0.04104585189671672</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>6525</v>
       </c>
       <c r="B311">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C311">
-        <v>0.3</v>
+        <v>0.2999233716475096</v>
       </c>
       <c r="D311">
+        <v>4568</v>
+      </c>
+      <c r="E311">
+        <v>1957</v>
+      </c>
+      <c r="F311">
         <v>-3.156677366325622</v>
       </c>
-      <c r="E311">
-        <v>-5.2632742884019652E-2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G311">
+        <v>-0.05269650776244039</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>6525</v>
       </c>
       <c r="B312">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C312">
         <v>0.4</v>
       </c>
       <c r="D312">
+        <v>3915</v>
+      </c>
+      <c r="E312">
+        <v>2610</v>
+      </c>
+      <c r="F312">
         <v>-3.245678836644454</v>
       </c>
-      <c r="E312">
-        <v>-5.8421046863732277E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G312">
+        <v>-0.05842104686373228</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>6525</v>
       </c>
       <c r="B313">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C313">
-        <v>0.5</v>
+        <v>0.4999233716475096</v>
       </c>
       <c r="D313">
+        <v>3263</v>
+      </c>
+      <c r="E313">
+        <v>3262</v>
+      </c>
+      <c r="F313">
         <v>-3.330527076245319</v>
       </c>
-      <c r="E313">
-        <v>-6.0056120125477008E-2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G313">
+        <v>-0.06011988500389776</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>6525</v>
       </c>
       <c r="B314">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C314">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="D314">
-        <v>-3.4114421368445411</v>
+        <v>2610</v>
       </c>
       <c r="E314">
-        <v>-5.7758014385579148E-2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3915</v>
+      </c>
+      <c r="F314">
+        <v>-3.411442136844541</v>
+      </c>
+      <c r="G314">
+        <v>-0.05775801438557937</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>6525</v>
       </c>
       <c r="B315">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C315">
-        <v>0.70000000000000007</v>
+        <v>0.6999233716475096</v>
       </c>
       <c r="D315">
-        <v>-3.4873225101698928</v>
+        <v>1958</v>
       </c>
       <c r="E315">
-        <v>-5.0425221371811602E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4567</v>
+      </c>
+      <c r="F315">
+        <v>-3.487322510169893</v>
+      </c>
+      <c r="G315">
+        <v>-0.05048898625023235</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>6525</v>
       </c>
       <c r="B316">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C316">
         <v>0.8</v>
       </c>
       <c r="D316">
+        <v>1305</v>
+      </c>
+      <c r="E316">
+        <v>5220</v>
+      </c>
+      <c r="F316">
         <v>-3.558888491972898</v>
       </c>
-      <c r="E316">
-        <v>-3.8778036835696472E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G316">
+        <v>-0.03877803683569647</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>6525</v>
       </c>
       <c r="B317">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C317">
-        <v>0.9</v>
+        <v>0.8999233716475096</v>
       </c>
       <c r="D317">
-        <v>-3.6251298097528948</v>
+        <v>653</v>
       </c>
       <c r="E317">
-        <v>-2.180618827657432E-2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5872</v>
+      </c>
+      <c r="F317">
+        <v>-3.625129809752895</v>
+      </c>
+      <c r="G317">
+        <v>-0.02186995315499513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>6525</v>
       </c>
       <c r="B318">
-        <v>5.2114042741853757</v>
+        <v>5.211404274185376</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318">
-        <v>-3.6865367878154411</v>
+        <v>0</v>
       </c>
       <c r="E318">
+        <v>6525</v>
+      </c>
+      <c r="F318">
+        <v>-3.686536787815441</v>
+      </c>
+      <c r="G318">
         <v>0</v>
       </c>
     </row>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.682198894754861</v>
+        <v>-2.682481186206684</v>
       </c>
       <c r="G29">
         <v>-0.04605264363318895</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.697406197696893</v>
+        <v>-2.6982490724822</v>
       </c>
       <c r="G30">
         <v>-0.04818789574223636</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.713440612273973</v>
+        <v>-2.713640905899991</v>
       </c>
       <c r="G31">
         <v>-0.05115025948633112</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.742137624288154</v>
+        <v>-2.743263011961773</v>
       </c>
       <c r="G33">
         <v>-0.05370316983454138</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.771662733330102</v>
+        <v>-2.772443026699311</v>
       </c>
       <c r="G35">
         <v>-0.05708417721051928</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.78619205411639</v>
+        <v>-2.787897441533201</v>
       </c>
       <c r="G36">
         <v>-0.05854144716382148</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.801049056656212</v>
+        <v>-2.801166543591672</v>
       </c>
       <c r="G37">
         <v>-0.06032639887065772</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.814135632097756</v>
+        <v>-2.815900290595863</v>
       </c>
       <c r="G38">
         <v>-0.06034092347921649</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.868261907696049</v>
+        <v>-2.870679225073467</v>
       </c>
       <c r="G42">
         <v>-0.06217899574556873</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.881740395707841</v>
+        <v>-2.882387330895503</v>
       </c>
       <c r="G43">
         <v>-0.06258543292437579</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896484762951796</v>
+        <v>-2.896552007945953</v>
       </c>
       <c r="G44">
         <v>-0.06425774933534556</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922331926390487</v>
+        <v>-2.922663740735903</v>
       </c>
       <c r="G46">
         <v>-0.06396081110806562</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934055549000401</v>
+        <v>-2.934406203860823</v>
       </c>
       <c r="G47">
         <v>-0.06261238288499471</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.958551744624054</v>
+        <v>-2.959457498841579</v>
       </c>
       <c r="G49">
         <v>-0.06096447684267692</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.007015882613228</v>
+        <v>-3.007959862084359</v>
       </c>
       <c r="G53">
         <v>-0.05714041149990923</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.029232827527592</v>
+        <v>-3.029264538503572</v>
       </c>
       <c r="G55">
         <v>-0.05321325474830263</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662243662991085</v>
+        <v>-2.662599016628807</v>
       </c>
       <c r="G80">
         <v>-0.01617726685326826</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.696696268562776</v>
+        <v>-2.696817008181159</v>
       </c>
       <c r="G85">
         <v>-0.02480169839959823</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.723237125121796</v>
+        <v>-2.723320445413945</v>
       </c>
       <c r="G89">
         <v>-0.03068001573832824</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729549829570884</v>
+        <v>-2.729733381616717</v>
       </c>
       <c r="G90">
         <v>-0.03182708538234369</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.735419046223361</v>
+        <v>-2.736573922142875</v>
       </c>
       <c r="G91">
         <v>-0.03253066722974829</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.748298678773255</v>
+        <v>-2.7483302241273</v>
       </c>
       <c r="G93">
         <v>-0.03507903016949721</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.761120000157784</v>
+        <v>-2.761381343154861</v>
       </c>
       <c r="G95">
         <v>-0.03756908194388142</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.773297589739551</v>
+        <v>-2.773836549692283</v>
       </c>
       <c r="G97">
         <v>-0.03941540191550397</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.779889967211426</v>
+        <v>-2.780506657129104</v>
       </c>
       <c r="G98">
         <v>-0.0408421445823075</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.785173157750178</v>
+        <v>-2.786022761478708</v>
       </c>
       <c r="G99">
         <v>-0.0409597003159865</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792116550622858</v>
+        <v>-2.79241457983021</v>
       </c>
       <c r="G100">
         <v>-0.04273745838359488</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.80455942874639</v>
+        <v>-2.804980167343453</v>
       </c>
       <c r="G102">
         <v>-0.04484906689698143</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.822329984510702</v>
+        <v>-2.822775895058228</v>
       </c>
       <c r="G105">
         <v>-0.04712271824607628</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.827961049626763</v>
+        <v>-2.828866213861548</v>
       </c>
       <c r="G106">
         <v>-0.04758814855706506</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.840361903321644</v>
+        <v>-2.840727430354729</v>
       </c>
       <c r="G108">
         <v>-0.04965773264180107</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.846393395163291</v>
+        <v>-2.846422436556975</v>
       </c>
       <c r="G109">
         <v>-0.05052358967837578</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.85281040191573</v>
+        <v>-2.852954105280423</v>
       </c>
       <c r="G110">
         <v>-0.05177496162574302</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.864223400594938</v>
+        <v>-2.864501125554764</v>
       </c>
       <c r="G112">
         <v>-0.05285669069480536</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.887884563315101</v>
+        <v>-2.888080678625316</v>
       </c>
       <c r="G116">
         <v>-0.05585531419467915</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.892933200748641</v>
+        <v>-2.893504158694146</v>
       </c>
       <c r="G117">
         <v>-0.05573831682314689</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.904848392936211</v>
+        <v>-2.906418357379022</v>
       </c>
       <c r="G119">
         <v>-0.05732223940057213</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.917156214407457</v>
+        <v>-2.917926522718348</v>
       </c>
       <c r="G121">
         <v>-0.0592987912616727</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.922385509330751</v>
+        <v>-2.922510530511226</v>
       </c>
       <c r="G122">
         <v>-0.05936245137989493</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.939048039400279</v>
+        <v>-2.940177613658036</v>
       </c>
       <c r="G125">
         <v>-0.06052807703420582</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.945012443375329</v>
+        <v>-2.945939841591263</v>
       </c>
       <c r="G126">
         <v>-0.06132684620418338</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.961742595252054</v>
+        <v>-2.962193942320309</v>
       </c>
       <c r="G129">
         <v>-0.06256009366569093</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.988846023352553</v>
+        <v>-2.989873056069735</v>
       </c>
       <c r="G134">
         <v>-0.06383534774082866</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.994889051562336</v>
+        <v>-2.995366306906154</v>
       </c>
       <c r="G135">
         <v>-0.06471274114553904</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.005724791105633</v>
+        <v>-3.006131241821266</v>
       </c>
       <c r="G137">
         <v>-0.06521721107869172</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.011126544761311</v>
+        <v>-3.01173075591081</v>
       </c>
       <c r="G138">
         <v>-0.0654533299292972</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.014785244928369</v>
+        <v>-3.01542848792896</v>
       </c>
       <c r="G139">
         <v>-0.06394639529128265</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.027288098992872</v>
+        <v>-3.028583156208593</v>
       </c>
       <c r="G141">
         <v>-0.06611797974564104</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.036812949979415</v>
+        <v>-3.038994051306602</v>
       </c>
       <c r="G143">
         <v>-0.06531156112203851</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.042379703961639</v>
+        <v>-3.043514566058221</v>
       </c>
       <c r="G144">
         <v>-0.06571268029919031</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.05768285661742</v>
+        <v>-3.057894326870366</v>
       </c>
       <c r="G147">
         <v>-0.06551892853975438</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.077970503940116</v>
+        <v>-3.078824544633331</v>
       </c>
       <c r="G151">
         <v>-0.06514403664216051</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.08401899014784</v>
+        <v>-3.084439899771089</v>
       </c>
       <c r="G152">
         <v>-0.06602688804481271</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.088035066621423</v>
+        <v>-3.088560687670649</v>
       </c>
       <c r="G153">
         <v>-0.06487732971332294</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.097848837267387</v>
+        <v>-3.098222533807215</v>
       </c>
       <c r="G155">
         <v>-0.06435983074914242</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.102985789046067</v>
+        <v>-3.103587831010045</v>
       </c>
       <c r="G156">
         <v>-0.06433114772274973</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.11242639419383</v>
+        <v>-3.112755214645621</v>
       </c>
       <c r="G158">
         <v>-0.06344048326036833</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.122043449321754</v>
+        <v>-3.122406070720076</v>
       </c>
       <c r="G160">
         <v>-0.0627262687781478</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.12776092179199</v>
+        <v>-3.128076142976841</v>
       </c>
       <c r="G161">
         <v>-0.06327810644331078</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.131986819410642</v>
+        <v>-3.13311159456758</v>
       </c>
       <c r="G162">
         <v>-0.06233836925689062</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.135951184146337</v>
+        <v>-3.137517756161228</v>
       </c>
       <c r="G163">
         <v>-0.06113709918751375</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.150058322877404</v>
+        <v>-3.151326561088251</v>
       </c>
       <c r="G166">
         <v>-0.05974733350336381</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.160379297626327</v>
+        <v>-3.160691335209869</v>
       </c>
       <c r="G168">
         <v>-0.05973703864214119</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.168979892933784</v>
+        <v>-3.169062415774227</v>
       </c>
       <c r="G170">
         <v>-0.05800636433945427</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.196137425715979</v>
+        <v>-3.196447582056313</v>
       </c>
       <c r="G176">
         <v>-0.05417008829121484</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.23045749138827</v>
+        <v>-3.23069221007259</v>
       </c>
       <c r="G184">
         <v>-0.0471650755229267</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.243814197680712</v>
+        <v>-3.244321912786974</v>
       </c>
       <c r="G187">
         <v>-0.04502487740015138</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.251352280985039</v>
+        <v>-3.252355034291118</v>
       </c>
       <c r="G189">
         <v>-0.04223169109433333</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.259505661588033</v>
+        <v>-3.260377474559111</v>
       </c>
       <c r="G191">
         <v>-0.04005380208718301</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.263910131046967</v>
+        <v>-3.264064636089731</v>
       </c>
       <c r="G192">
         <v>-0.03929263674104438</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.267626857442922</v>
+        <v>-3.268331910442033</v>
       </c>
       <c r="G193">
         <v>-0.0378437283319274</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.280763670791536</v>
+        <v>-3.280849379704512</v>
       </c>
       <c r="G196">
         <v>-0.03548363726532389</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.284313572338644</v>
+        <v>-3.284521249528093</v>
       </c>
       <c r="G197">
         <v>-0.03386790400735906</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.287968484376949</v>
+        <v>-3.288005811998196</v>
       </c>
       <c r="G198">
         <v>-0.03235718124059261</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.291910233001949</v>
+        <v>-3.292180806041695</v>
       </c>
       <c r="G199">
         <v>-0.03113329506051993</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.299036094380012</v>
+        <v>-3.30065488958264</v>
       </c>
       <c r="G201">
         <v>-0.027927886828438</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.303540810498064</v>
+        <v>-3.303865006246955</v>
       </c>
       <c r="G202">
         <v>-0.0272669681414176</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.307524966702742</v>
+        <v>-3.307745811444201</v>
       </c>
       <c r="G203">
         <v>-0.02608548954102341</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.314677116900296</v>
+        <v>-3.314973978759531</v>
       </c>
       <c r="G205">
         <v>-0.02290637012843255</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.322350155048922</v>
+        <v>-3.32274241761633</v>
       </c>
       <c r="G207">
         <v>-0.02024813866691419</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.326017742776375</v>
+        <v>-3.326410005343782</v>
       </c>
       <c r="G208">
         <v>-0.01875009158929455</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.32930673488125</v>
+        <v>-3.329698997448656</v>
       </c>
       <c r="G209">
         <v>-0.01687344888909742</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.339937735913443</v>
+        <v>-3.340722261048256</v>
       </c>
       <c r="G212">
         <v>-0.01200754550607266</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.880922678217269</v>
+        <v>-2.881217990952795</v>
       </c>
       <c r="G222">
         <v>-0.04453875601363944</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.055412882774773</v>
+        <v>-3.05565826467153</v>
       </c>
       <c r="G224">
         <v>-0.06214678016647657</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.837001992015137</v>
+        <v>-2.837073935002992</v>
       </c>
       <c r="G232">
         <v>-0.02633870724144005</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.934627714790039</v>
+        <v>-2.93509796745112</v>
       </c>
       <c r="G233">
         <v>-0.04448539237656268</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.024196107976115</v>
+        <v>-3.024341053070321</v>
       </c>
       <c r="G234">
         <v>-0.05457474792285844</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.110057622110983</v>
+        <v>-3.110636560849746</v>
       </c>
       <c r="G235">
         <v>-0.0609572244179466</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.19211683728254</v>
+        <v>-3.19220461032657</v>
       </c>
       <c r="G236">
         <v>-0.06353740194972279</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.340747008745057</v>
+        <v>-3.341843761684978</v>
       </c>
       <c r="G238">
         <v>-0.05320949813267983</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.469758359107287</v>
+        <v>-3.470045391838337</v>
       </c>
       <c r="G240">
         <v>-0.02326277321535014</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.969413427892011</v>
+        <v>-2.969745040834926</v>
       </c>
       <c r="G244">
         <v>-0.04356186563257536</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.381822268815204</v>
+        <v>-3.382230504041745</v>
       </c>
       <c r="G249">
         <v>-0.05247781229807713</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.449906658407686</v>
+        <v>-3.450132427266995</v>
       </c>
       <c r="G250">
         <v>-0.04021296753621351</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896126347156623</v>
+        <v>-2.896203610802484</v>
       </c>
       <c r="G254">
         <v>-0.02506088909865145</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995689962861823</v>
+        <v>-2.995793605257741</v>
       </c>
       <c r="G255">
         <v>-0.04300101568659187</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.087869504719234</v>
+        <v>-3.087934571149614</v>
       </c>
       <c r="G256">
         <v>-0.05413188173038597</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.257997201890134</v>
+        <v>-3.258171712810439</v>
       </c>
       <c r="G258">
         <v>-0.06158741397041001</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.337256353307453</v>
+        <v>-3.337743374337488</v>
       </c>
       <c r="G259">
         <v>-0.0592230762704693</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.410986719571218</v>
+        <v>-3.411011032688987</v>
       </c>
       <c r="G260">
         <v>-0.05190476672061684</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.480236008608764</v>
+        <v>-3.480349698171247</v>
       </c>
       <c r="G261">
         <v>-0.0395305666409036</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.544346851398105</v>
+        <v>-3.544525157151347</v>
       </c>
       <c r="G262">
         <v>-0.02259273361662784</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.01463854457067</v>
+        <v>-3.015048831756432</v>
       </c>
       <c r="G266">
         <v>-0.04202204982668389</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.108280434784696</v>
+        <v>-3.10829352360872</v>
       </c>
       <c r="G267">
         <v>-0.05365510764371439</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.19494917305188</v>
+        <v>-3.195159778112727</v>
       </c>
       <c r="G268">
         <v>-0.05871311464204432</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.279617158667048</v>
+        <v>-3.279732199655349</v>
       </c>
       <c r="G269">
         <v>-0.06137226786021777</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.358906560920877</v>
+        <v>-3.359183112965534</v>
       </c>
       <c r="G270">
         <v>-0.05865283771705299</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.503024164178097</v>
+        <v>-3.503143990089534</v>
       </c>
       <c r="G272">
         <v>-0.03915087730842393</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.568132836455717</v>
+        <v>-3.568191755745923</v>
       </c>
       <c r="G273">
         <v>-0.02225071718904892</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.930188648544805</v>
+        <v>-2.930265239370734</v>
       </c>
       <c r="G276">
         <v>-0.02416348175684568</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.029993945256268</v>
+        <v>-3.030361455160541</v>
       </c>
       <c r="G277">
         <v>-0.04161453217124</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.376128014394228</v>
+        <v>-3.376490183534675</v>
       </c>
       <c r="G281">
         <v>-0.05833161612092663</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.451273072315829</v>
+        <v>-3.451293266320182</v>
       </c>
       <c r="G282">
         <v>-0.05112242774545883</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.521330921403419</v>
+        <v>-3.521432174870797</v>
       </c>
       <c r="G283">
         <v>-0.03882603053598022</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.043062786073023</v>
+        <v>-3.043251152736043</v>
       </c>
       <c r="G288">
         <v>-0.04169676599008065</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.30961571078055</v>
+        <v>-3.309921058991468</v>
       </c>
       <c r="G291">
         <v>-0.06027934737264018</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.389768984790164</v>
+        <v>-3.389932208382126</v>
       </c>
       <c r="G292">
         <v>-0.05777584027393101</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952770936965578</v>
+        <v>-2.952798619671921</v>
       </c>
       <c r="G298">
         <v>-0.02381927332338085</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.053203084725729</v>
+        <v>-3.053354565988422</v>
       </c>
       <c r="G299">
         <v>-0.04133133352292306</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.236491058150741</v>
+        <v>-3.236539647991006</v>
       </c>
       <c r="G301">
         <v>-0.05861590330789479</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.401446563298542</v>
+        <v>-3.40167521230399</v>
       </c>
       <c r="G303">
         <v>-0.05773123333447572</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.548267047543196</v>
+        <v>-3.548368772294569</v>
       </c>
       <c r="G305">
         <v>-0.03854831393909075</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.614461420181101</v>
+        <v>-3.614500082056311</v>
       </c>
       <c r="G306">
         <v>-0.02182259901638578</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.960932939704211</v>
+        <v>-2.961143168579724</v>
       </c>
       <c r="G309">
         <v>-0.02337841381927053</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.156677366325622</v>
+        <v>-3.156838700681143</v>
       </c>
       <c r="G311">
         <v>-0.05269650776244039</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.330527076245319</v>
+        <v>-3.330565714780458</v>
       </c>
       <c r="G313">
         <v>-0.06011988500389776</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.487322510169893</v>
+        <v>-3.487362754576969</v>
       </c>
       <c r="G315">
         <v>-0.05048898625023235</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.635826248376203</v>
+        <v>-2.636311379832614</v>
       </c>
       <c r="G26">
         <v>-0.03889614975348765</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.713640905899991</v>
+        <v>-2.713918300803698</v>
       </c>
       <c r="G31">
         <v>-0.05115025948633112</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.728603643328739</v>
+        <v>-2.728731031456252</v>
       </c>
       <c r="G32">
         <v>-0.05324123970811123</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.758630532421743</v>
+        <v>-2.759051433061438</v>
       </c>
       <c r="G34">
         <v>-0.05712402713514519</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.772443026699311</v>
+        <v>-2.774053545829339</v>
       </c>
       <c r="G35">
         <v>-0.05708417721051928</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.828551199173736</v>
+        <v>-2.828740626197606</v>
       </c>
       <c r="G39">
         <v>-0.06168443972221138</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.94664222676156</v>
+        <v>-2.947074879447785</v>
       </c>
       <c r="G48">
         <v>-0.06212700981316766</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.959457498841579</v>
+        <v>-2.960137717826206</v>
       </c>
       <c r="G49">
         <v>-0.06096447684267692</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.994411437842982</v>
+        <v>-2.994927661176</v>
       </c>
       <c r="G52">
         <v>-0.05760801756264844</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.060871933488076</v>
+        <v>-3.062073272353837</v>
       </c>
       <c r="G58">
         <v>-0.04563620820983105</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.09270390338531</v>
+        <v>-3.093711304808402</v>
       </c>
       <c r="G61">
         <v>-0.03825202560810936</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.703213380063247</v>
+        <v>-2.703404058171555</v>
       </c>
       <c r="G86">
         <v>-0.02615317509499615</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.7483302241273</v>
+        <v>-2.748395008326757</v>
       </c>
       <c r="G93">
         <v>-0.03507903016949721</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.754623140393409</v>
+        <v>-2.75469110039421</v>
       </c>
       <c r="G94">
         <v>-0.03623785698457915</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810515193760859</v>
+        <v>-2.810632280909842</v>
       </c>
       <c r="G103">
         <v>-0.04563919710637787</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.834327974590535</v>
+        <v>-2.834837138464734</v>
       </c>
       <c r="G107">
         <v>-0.04878943871576435</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.840727430354729</v>
+        <v>-2.841488741065466</v>
       </c>
       <c r="G108">
         <v>-0.04965773264180107</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.846422436556975</v>
+        <v>-2.847362971787414</v>
       </c>
       <c r="G109">
         <v>-0.05052358967837578</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.852954105280423</v>
+        <v>-2.853075473066265</v>
       </c>
       <c r="G110">
         <v>-0.05177496162574302</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.870805803902871</v>
+        <v>-2.870840147516524</v>
       </c>
       <c r="G113">
         <v>-0.05427345919766613</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.888080678625316</v>
+        <v>-2.88836967840498</v>
       </c>
       <c r="G116">
         <v>-0.05585531419467915</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.922510530511226</v>
+        <v>-2.923139257892677</v>
       </c>
       <c r="G122">
         <v>-0.05936245137989493</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.945939841591263</v>
+        <v>-2.94621896478502</v>
       </c>
       <c r="G126">
         <v>-0.06132684620418338</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.962193942320309</v>
+        <v>-2.963088428511063</v>
       </c>
       <c r="G129">
         <v>-0.06256009366569093</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.967473291001097</v>
+        <v>-2.967502793705539</v>
       </c>
       <c r="G130">
         <v>-0.06312515460966228</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.995366306906154</v>
+        <v>-2.995462099003583</v>
       </c>
       <c r="G135">
         <v>-0.06471274114553904</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.021172383087779</v>
+        <v>-3.02127404946833</v>
       </c>
       <c r="G140">
         <v>-0.06516789864562034</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.047688062481791</v>
+        <v>-3.048085149368468</v>
       </c>
       <c r="G145">
         <v>-0.06585540401427004</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.057894326870366</v>
+        <v>-3.058427557166254</v>
       </c>
       <c r="G147">
         <v>-0.06551892853975438</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.068690275576992</v>
+        <v>-3.068881839756184</v>
       </c>
       <c r="G149">
         <v>-0.066195077889182</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.088560687670649</v>
+        <v>-3.088734402495715</v>
       </c>
       <c r="G153">
         <v>-0.06487732971332294</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.117530764831526</v>
+        <v>-3.117971415568067</v>
       </c>
       <c r="G159">
         <v>-0.06337921909299249</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.122406070720076</v>
+        <v>-3.122793671681152</v>
       </c>
       <c r="G160">
         <v>-0.0627262687781478</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.1466282058042</v>
+        <v>-3.146760315597924</v>
       </c>
       <c r="G165">
         <v>-0.06148285123523178</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.169062415774227</v>
+        <v>-3.169442321709002</v>
       </c>
       <c r="G170">
         <v>-0.05800636433945427</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.192260119855252</v>
+        <v>-3.192832386133338</v>
       </c>
       <c r="G175">
         <v>-0.05545841723556033</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.23069221007259</v>
+        <v>-3.230869725245557</v>
       </c>
       <c r="G184">
         <v>-0.0471650755229267</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.23566994471982</v>
+        <v>-3.235973282287179</v>
       </c>
       <c r="G185">
         <v>-0.0472118940494044</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.252355034291118</v>
+        <v>-3.253166191462539</v>
       </c>
       <c r="G189">
         <v>-0.04223169109433333</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.264064636089731</v>
+        <v>-3.264796374186578</v>
       </c>
       <c r="G192">
         <v>-0.03929263674104438</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.268331910442033</v>
+        <v>-3.268780813995622</v>
       </c>
       <c r="G193">
         <v>-0.0378437283319274</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.292180806041695</v>
+        <v>-3.292367009864272</v>
       </c>
       <c r="G199">
         <v>-0.03113329506051993</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.303865006246955</v>
+        <v>-3.304011586831005</v>
       </c>
       <c r="G202">
         <v>-0.0272669681414176</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.329698997448656</v>
+        <v>-3.330091260016062</v>
       </c>
       <c r="G209">
         <v>-0.01687344888909742</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.969703673987094</v>
+        <v>-2.970009528483213</v>
       </c>
       <c r="G223">
         <v>-0.05487866158113097</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.05565826467153</v>
+        <v>-3.056653359535869</v>
       </c>
       <c r="G224">
         <v>-0.06214678016647657</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.136808312012197</v>
+        <v>-3.136981205823859</v>
       </c>
       <c r="G225">
         <v>-0.06510111920156714</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.024341053070321</v>
+        <v>-3.024736934229871</v>
       </c>
       <c r="G234">
         <v>-0.05457474792285844</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.269161950936446</v>
+        <v>-3.269857645061449</v>
       </c>
       <c r="G237">
         <v>-0.0611034779638493</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.408251972646319</v>
+        <v>-3.408294909562911</v>
       </c>
       <c r="G239">
         <v>-0.04123542439416161</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.470045391838337</v>
+        <v>-3.470059117002386</v>
       </c>
       <c r="G240">
         <v>-0.02326277321535014</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.258171712810439</v>
+        <v>-3.258410238203729</v>
       </c>
       <c r="G258">
         <v>-0.06158741397041001</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.411011032688987</v>
+        <v>-3.411256334346354</v>
       </c>
       <c r="G260">
         <v>-0.05190476672061684</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.480349698171247</v>
+        <v>-3.480519763554696</v>
       </c>
       <c r="G261">
         <v>-0.0395305666409036</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915118929406276</v>
+        <v>-2.915244810959364</v>
       </c>
       <c r="G265">
         <v>-0.02451126705928397</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.015048831756432</v>
+        <v>-3.015514335955286</v>
       </c>
       <c r="G266">
         <v>-0.04202204982668389</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.195159778112727</v>
+        <v>-3.19533370320927</v>
       </c>
       <c r="G268">
         <v>-0.05871311464204432</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.433157625902961</v>
+        <v>-3.433217808172818</v>
       </c>
       <c r="G271">
         <v>-0.05129317143028234</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.503143990089534</v>
+        <v>-3.50352419970919</v>
       </c>
       <c r="G272">
         <v>-0.03915087730842393</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.030361455160541</v>
+        <v>-3.030503058907532</v>
       </c>
       <c r="G277">
         <v>-0.04161453217124</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.124025472546885</v>
+        <v>-3.124235535679953</v>
       </c>
       <c r="G278">
         <v>-0.05329181316478926</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.211428284314472</v>
+        <v>-3.211728339623663</v>
       </c>
       <c r="G279">
         <v>-0.05834037863530694</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.389932208382126</v>
+        <v>-3.390010218041587</v>
       </c>
       <c r="G292">
         <v>-0.05777584027393101</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.320969549338235</v>
+        <v>-3.321208674587184</v>
       </c>
       <c r="G302">
         <v>-0.0601743069347791</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.40167521230399</v>
+        <v>-3.40168533638903</v>
       </c>
       <c r="G303">
         <v>-0.05773123333447572</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.614500082056311</v>
+        <v>-3.614528631630013</v>
       </c>
       <c r="G306">
         <v>-0.02182259901638578</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.587221357615629</v>
+        <v>-2.587795032846577</v>
       </c>
       <c r="G23">
         <v>-0.0295074114918692</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636311379832614</v>
+        <v>-2.63688505506356</v>
       </c>
       <c r="G26">
         <v>-0.03889614975348765</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.682481186206684</v>
+        <v>-2.683887215931507</v>
       </c>
       <c r="G29">
         <v>-0.04605264363318895</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.6982490724822</v>
+        <v>-2.698665298010269</v>
       </c>
       <c r="G30">
         <v>-0.04818789574223636</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.728731031456252</v>
+        <v>-2.72934621075941</v>
       </c>
       <c r="G32">
         <v>-0.05324123970811123</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.743263011961773</v>
+        <v>-2.745443428189076</v>
       </c>
       <c r="G33">
         <v>-0.05370316983454138</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.801166543591672</v>
+        <v>-2.801318787196749</v>
       </c>
       <c r="G37">
         <v>-0.06032639887065772</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.815900290595863</v>
+        <v>-2.816220061623838</v>
       </c>
       <c r="G38">
         <v>-0.06034092347921649</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.828740626197606</v>
+        <v>-2.829472515087664</v>
       </c>
       <c r="G39">
         <v>-0.06168443972221138</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.857031844861952</v>
+        <v>-2.857064319794164</v>
       </c>
       <c r="G41">
         <v>-0.06402098374445675</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.882387330895503</v>
+        <v>-2.882917498195412</v>
       </c>
       <c r="G43">
         <v>-0.06258543292437579</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934406203860823</v>
+        <v>-2.934903896228521</v>
       </c>
       <c r="G47">
         <v>-0.06261238288499471</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.971266942319495</v>
+        <v>-2.972841927431347</v>
       </c>
       <c r="G50">
         <v>-0.06060762370513217</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.994927661176</v>
+        <v>-2.996003116458004</v>
       </c>
       <c r="G52">
         <v>-0.05760801756264844</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.029264538503572</v>
+        <v>-3.029900176051246</v>
       </c>
       <c r="G55">
         <v>-0.05321325474830263</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.040130811375113</v>
+        <v>-3.040358228978684</v>
       </c>
       <c r="G56">
         <v>-0.05103918776283811</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052181616423491</v>
+        <v>-3.052384101969868</v>
       </c>
       <c r="G57">
         <v>-0.05001794197823095</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062073272353837</v>
+        <v>-3.062267905475509</v>
       </c>
       <c r="G58">
         <v>-0.04563620820983105</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.072004113857955</v>
+        <v>-3.073311309100795</v>
       </c>
       <c r="G59">
         <v>-0.04369633774672432</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.102483619698793</v>
+        <v>-3.1030176100409</v>
       </c>
       <c r="G62">
         <v>-0.03495969108860658</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662599016628807</v>
+        <v>-2.662872032501824</v>
       </c>
       <c r="G80">
         <v>-0.01617726685326826</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.669376744727512</v>
+        <v>-2.669649760600528</v>
       </c>
       <c r="G81">
         <v>-0.01814471378462379</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.696817008181159</v>
+        <v>-2.697445377691897</v>
       </c>
       <c r="G85">
         <v>-0.02480169839959823</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.703404058171555</v>
+        <v>-2.703832311315773</v>
       </c>
       <c r="G86">
         <v>-0.02615317509499615</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.716660495917054</v>
+        <v>-2.716842725011715</v>
       </c>
       <c r="G88">
         <v>-0.02926902133865905</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729733381616717</v>
+        <v>-2.729815719381424</v>
       </c>
       <c r="G90">
         <v>-0.03182708538234369</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.742277140314766</v>
+        <v>-2.742350759502981</v>
       </c>
       <c r="G92">
         <v>-0.03422312651608106</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.748395008326757</v>
+        <v>-2.748486784349673</v>
       </c>
       <c r="G93">
         <v>-0.03507903016949721</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.75469110039421</v>
+        <v>-2.754899720552447</v>
       </c>
       <c r="G94">
         <v>-0.03623785698457915</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.767703755425002</v>
+        <v>-2.767869150636133</v>
       </c>
       <c r="G96">
         <v>-0.03898720240602715</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.780506657129104</v>
+        <v>-2.780679061990445</v>
       </c>
       <c r="G98">
         <v>-0.0408421445823075</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.786022761478708</v>
+        <v>-2.786308839529481</v>
       </c>
       <c r="G99">
         <v>-0.0409597003159865</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.79241457983021</v>
+        <v>-2.792567575766562</v>
       </c>
       <c r="G100">
         <v>-0.04273745838359488</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810632280909842</v>
+        <v>-2.810768084772148</v>
       </c>
       <c r="G103">
         <v>-0.04563919710637787</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.816698064009326</v>
+        <v>-2.816818525127305</v>
       </c>
       <c r="G104">
         <v>-0.04665643254977292</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.822775895058228</v>
+        <v>-2.823254295044517</v>
       </c>
       <c r="G105">
         <v>-0.04712271824607628</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.828866213861548</v>
+        <v>-2.829831783427549</v>
       </c>
       <c r="G106">
         <v>-0.04758814855706506</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.834837138464734</v>
+        <v>-2.835023210345822</v>
       </c>
       <c r="G107">
         <v>-0.04878943871576435</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853075473066265</v>
+        <v>-2.853466217777878</v>
       </c>
       <c r="G110">
         <v>-0.05177496162574302</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.864501125554764</v>
+        <v>-2.864655697339697</v>
       </c>
       <c r="G112">
         <v>-0.05285669069480536</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.870840147516524</v>
+        <v>-2.871082744778279</v>
       </c>
       <c r="G113">
         <v>-0.05427345919766613</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.881999786836208</v>
+        <v>-2.882778254991482</v>
       </c>
       <c r="G115">
         <v>-0.05513617252085812</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.893504158694146</v>
+        <v>-2.894114813358327</v>
       </c>
       <c r="G117">
         <v>-0.05573831682314689</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.923139257892677</v>
+        <v>-2.923872984041997</v>
       </c>
       <c r="G122">
         <v>-0.05936245137989493</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.934060494515841</v>
+        <v>-2.934373430886196</v>
       </c>
       <c r="G124">
         <v>-0.06070616695483988</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.956378560531201</v>
+        <v>-2.957341062116386</v>
       </c>
       <c r="G128">
         <v>-0.06236169374991074</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.967502793705539</v>
+        <v>-2.968461319777281</v>
       </c>
       <c r="G130">
         <v>-0.06312515460966228</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.972783808764622</v>
+        <v>-2.973807040970735</v>
       </c>
       <c r="G131">
         <v>-0.06327003756811411</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.984597130883223</v>
+        <v>-2.985490284130982</v>
       </c>
       <c r="G133">
         <v>-0.06475209007657079</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.989873056069735</v>
+        <v>-2.99056684866702</v>
       </c>
       <c r="G134">
         <v>-0.06383534774082866</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.995462099003583</v>
+        <v>-2.995929799215364</v>
       </c>
       <c r="G135">
         <v>-0.06471274114553904</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.000272266844389</v>
+        <v>-3.000448430735858</v>
       </c>
       <c r="G136">
         <v>-0.06493032162251944</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.01173075591081</v>
+        <v>-3.011871228101476</v>
       </c>
       <c r="G138">
         <v>-0.0654533299292972</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.01542848792896</v>
+        <v>-3.016300422119442</v>
       </c>
       <c r="G139">
         <v>-0.06394639529128265</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.02127404946833</v>
+        <v>-3.021906414784067</v>
       </c>
       <c r="G140">
         <v>-0.06516789864562034</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.032871307185196</v>
+        <v>-3.033807268646405</v>
       </c>
       <c r="G142">
         <v>-0.06653555313289305</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.048085149368468</v>
+        <v>-3.048173460291544</v>
       </c>
       <c r="G145">
         <v>-0.06585540401427004</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.068881839756184</v>
+        <v>-3.069645565720971</v>
       </c>
       <c r="G149">
         <v>-0.066195077889182</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.088734402495715</v>
+        <v>-3.089520513993534</v>
       </c>
       <c r="G153">
         <v>-0.06487732971332294</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.093380379828773</v>
+        <v>-3.093559813110598</v>
       </c>
       <c r="G154">
         <v>-0.065057008115601</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.098222533807215</v>
+        <v>-3.098388768444609</v>
       </c>
       <c r="G155">
         <v>-0.06435983074914242</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.122793671681152</v>
+        <v>-3.123021335822109</v>
       </c>
       <c r="G160">
         <v>-0.0627262687781478</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.128076142976841</v>
+        <v>-3.128550473973571</v>
       </c>
       <c r="G161">
         <v>-0.06327810644331078</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.141829250119446</v>
+        <v>-3.142367818839083</v>
       </c>
       <c r="G164">
         <v>-0.06184953035554985</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.146760315597924</v>
+        <v>-3.148499456607853</v>
       </c>
       <c r="G165">
         <v>-0.06148285123523178</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.178284241674442</v>
+        <v>-3.178547563009232</v>
       </c>
       <c r="G172">
         <v>-0.05697944346996686</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.196447582056313</v>
+        <v>-3.196854438290249</v>
       </c>
       <c r="G176">
         <v>-0.05417008829121484</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.218900899577147</v>
+        <v>-3.219539101546719</v>
       </c>
       <c r="G181">
         <v>-0.05110538812702037</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.230869725245557</v>
+        <v>-3.231418039098994</v>
       </c>
       <c r="G184">
         <v>-0.0471650755229267</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.235973282287179</v>
+        <v>-3.236404390876824</v>
       </c>
       <c r="G185">
         <v>-0.0472118940494044</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.239733969871669</v>
+        <v>-3.240224022599279</v>
       </c>
       <c r="G186">
         <v>-0.04611028439618037</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.247754169788066</v>
+        <v>-3.248074837837004</v>
       </c>
       <c r="G188">
         <v>-0.04379921470243286</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.256025707902674</v>
+        <v>-3.256433004573474</v>
       </c>
       <c r="G190">
         <v>-0.04173948320689569</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.260377474559111</v>
+        <v>-3.26094142414184</v>
       </c>
       <c r="G191">
         <v>-0.04005380208718301</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.264796374186578</v>
+        <v>-3.264878203795786</v>
       </c>
       <c r="G192">
         <v>-0.03929263674104438</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.272624981494238</v>
+        <v>-3.27272017524779</v>
       </c>
       <c r="G194">
         <v>-0.03767621757817063</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.276889905694393</v>
+        <v>-3.276908650926316</v>
       </c>
       <c r="G195">
         <v>-0.03677550697325266</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.280849379704512</v>
+        <v>-3.281007005407905</v>
       </c>
       <c r="G196">
         <v>-0.03548363726532389</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.288005811998196</v>
+        <v>-3.289669059872633</v>
       </c>
       <c r="G198">
         <v>-0.03235718124059261</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.292367009864272</v>
+        <v>-3.292452338402729</v>
       </c>
       <c r="G199">
         <v>-0.03113329506051993</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.304011586831005</v>
+        <v>-3.3040461158681</v>
       </c>
       <c r="G202">
         <v>-0.0272669681414176</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.307745811444201</v>
+        <v>-3.308037899344445</v>
       </c>
       <c r="G203">
         <v>-0.02608548954102341</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.314973978759531</v>
+        <v>-3.315468475507523</v>
       </c>
       <c r="G205">
         <v>-0.02290637012843255</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.31866890037664</v>
+        <v>-3.31946025898387</v>
       </c>
       <c r="G206">
         <v>-0.02173251879970378</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.340722261048256</v>
+        <v>-3.341114523615663</v>
       </c>
       <c r="G212">
         <v>-0.01200754550607266</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.78403515409901</v>
+        <v>-2.784074021578807</v>
       </c>
       <c r="G221">
         <v>-0.02609232209771362</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.970009528483213</v>
+        <v>-2.970983447655656</v>
       </c>
       <c r="G223">
         <v>-0.05487866158113097</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.136981205823859</v>
+        <v>-3.137281223807809</v>
       </c>
       <c r="G225">
         <v>-0.06510111920156714</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.212404849067916</v>
+        <v>-3.212802798632969</v>
       </c>
       <c r="G226">
         <v>-0.06225656605495278</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.409349045457124</v>
+        <v>-3.409415563922665</v>
       </c>
       <c r="G229">
         <v>-0.02387749183716054</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.110636560849746</v>
+        <v>-3.110965559203686</v>
       </c>
       <c r="G235">
         <v>-0.0609572244179466</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.19220461032657</v>
+        <v>-3.192858454584457</v>
       </c>
       <c r="G236">
         <v>-0.06353740194972279</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.341843761684978</v>
+        <v>-3.341881569767297</v>
       </c>
       <c r="G238">
         <v>-0.05320949813267983</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.470059117002386</v>
+        <v>-3.470192693077273</v>
       </c>
       <c r="G240">
         <v>-0.02326277321535014</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.060681810632472</v>
+        <v>-3.061364557257537</v>
       </c>
       <c r="G245">
         <v>-0.05448101401868999</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.147921538815597</v>
+        <v>-3.148396816408451</v>
       </c>
       <c r="G246">
         <v>-0.06049814660448849</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896203610802484</v>
+        <v>-2.896301741251813</v>
       </c>
       <c r="G254">
         <v>-0.02506088909865145</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.087934571149614</v>
+        <v>-3.088103283319944</v>
       </c>
       <c r="G256">
         <v>-0.05413188173038597</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.175068925790781</v>
+        <v>-3.175102123600848</v>
       </c>
       <c r="G257">
         <v>-0.05970781368467404</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.411256334346354</v>
+        <v>-3.411446238837849</v>
       </c>
       <c r="G260">
         <v>-0.05190476672061684</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915244810959364</v>
+        <v>-2.915305028103482</v>
       </c>
       <c r="G265">
         <v>-0.02451126705928397</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.10829352360872</v>
+        <v>-3.108624115769379</v>
       </c>
       <c r="G267">
         <v>-0.05365510764371439</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.19533370320927</v>
+        <v>-3.195419602352479</v>
       </c>
       <c r="G268">
         <v>-0.05871311464204432</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.359183112965534</v>
+        <v>-3.359229265450603</v>
       </c>
       <c r="G270">
         <v>-0.05865283771705299</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.433217808172818</v>
+        <v>-3.433573220306909</v>
       </c>
       <c r="G271">
         <v>-0.05129317143028234</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.030503058907532</v>
+        <v>-3.030704454074695</v>
       </c>
       <c r="G277">
         <v>-0.04161453217124</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.211728339623663</v>
+        <v>-3.211968237622339</v>
       </c>
       <c r="G279">
         <v>-0.05834037863530694</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.451293266320182</v>
+        <v>-3.451483067632156</v>
       </c>
       <c r="G282">
         <v>-0.05112242774545883</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.521432174870797</v>
+        <v>-3.521537106078429</v>
       </c>
       <c r="G283">
         <v>-0.03882603053598022</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.94271912585095</v>
+        <v>-2.942843282733123</v>
       </c>
       <c r="G287">
         <v>-0.02400988687632921</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.224993977394419</v>
+        <v>-3.225221974632514</v>
       </c>
       <c r="G290">
         <v>-0.05831439509483105</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.309921058991468</v>
+        <v>-3.310023746021845</v>
       </c>
       <c r="G291">
         <v>-0.06027934737264018</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.390010218041587</v>
+        <v>-3.39018484861695</v>
       </c>
       <c r="G292">
         <v>-0.05777584027393101</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952798619671921</v>
+        <v>-2.952832151942882</v>
       </c>
       <c r="G298">
         <v>-0.02381927332338085</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.147858388728018</v>
+        <v>-3.147999696620494</v>
       </c>
       <c r="G300">
         <v>-0.05306654996460214</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.236539647991006</v>
+        <v>-3.236608913034811</v>
       </c>
       <c r="G301">
         <v>-0.05861590330789479</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.548368772294569</v>
+        <v>-3.548407544609341</v>
       </c>
       <c r="G305">
         <v>-0.03854831393909075</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.245678836644454</v>
+        <v>-3.245695609522403</v>
       </c>
       <c r="G312">
         <v>-0.05842104686373228</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.330565714780458</v>
+        <v>-3.330630497995005</v>
       </c>
       <c r="G313">
         <v>-0.06011988500389776</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.214498069149535</v>
+        <v>-2.283908985393195</v>
       </c>
       <c r="G3">
         <v>-0.01380053847560303</v>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.276566903375702</v>
+        <v>-2.416088453551624</v>
       </c>
       <c r="G4">
         <v>-0.02760107695120695</v>
@@ -507,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.338635737601868</v>
+        <v>-2.548967639398655</v>
       </c>
       <c r="G5">
         <v>-0.04140161542681042</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.396338640727786</v>
+        <v>-2.681846825245684</v>
       </c>
       <c r="G6">
         <v>-0.0508362228021646</v>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.449675612753454</v>
+        <v>-2.814726011092715</v>
       </c>
       <c r="G7">
         <v>-0.0559048990772697</v>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.503012584779122</v>
+        <v>-2.948304914628344</v>
       </c>
       <c r="G8">
         <v>-0.06097357535237435</v>
@@ -599,7 +599,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.551983625704541</v>
+        <v>-3.081184100475374</v>
       </c>
       <c r="G9">
         <v>-0.06167632052723038</v>
@@ -622,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>-2.60095466662996</v>
+        <v>-3.214763004011005</v>
       </c>
       <c r="G10">
         <v>-0.06237906570208596</v>
@@ -645,7 +645,7 @@
         <v>9</v>
       </c>
       <c r="F11">
-        <v>-2.64555977645513</v>
+        <v>-3.348341907546635</v>
       </c>
       <c r="G11">
         <v>-0.05871587977669313</v>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>-2.68579895518005</v>
+        <v>-3.481920811082266</v>
       </c>
       <c r="G12">
         <v>-0.05068676275105033</v>
@@ -691,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>-2.726038133904971</v>
+        <v>-3.616199432306497</v>
       </c>
       <c r="G13">
         <v>-0.04265764572540776</v>
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.766277312629891</v>
+        <v>-3.75117777121933</v>
       </c>
       <c r="G14">
         <v>-0.03462852869976407</v>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.779917079680689</v>
+        <v>-3.855339157786533</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.486224135747408</v>
+        <v>-2.497660976620755</v>
       </c>
       <c r="G17">
         <v>-0.006942494621560158</v>
@@ -806,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.503584231624124</v>
+        <v>-2.529112362948664</v>
       </c>
       <c r="G18">
         <v>-0.01123053966529142</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.52094432750084</v>
+        <v>-2.560563749276572</v>
       </c>
       <c r="G19">
         <v>-0.01551858470902134</v>
@@ -852,7 +852,7 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.538304423377556</v>
+        <v>-2.59201513560448</v>
       </c>
       <c r="G20">
         <v>-0.0198066297527526</v>
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.554934822284575</v>
+        <v>-2.623466521932388</v>
       </c>
       <c r="G21">
         <v>-0.02336497782678615</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.571364927565576</v>
+        <v>-2.654917908260296</v>
       </c>
       <c r="G22">
         <v>-0.02672303227480155</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.587795032846577</v>
+        <v>-2.686369294588204</v>
       </c>
       <c r="G23">
         <v>-0.0295074114918692</v>
@@ -944,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.604225138127578</v>
+        <v>-2.717820680916112</v>
       </c>
       <c r="G24">
         <v>-0.03343914117083324</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.62045494978256</v>
+        <v>-2.74927206724402</v>
       </c>
       <c r="G25">
         <v>-0.03659690199282917</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.63688505506356</v>
+        <v>-2.780723453571928</v>
       </c>
       <c r="G26">
         <v>-0.03889614975348765</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.652703759175079</v>
+        <v>-2.812174839899834</v>
       </c>
       <c r="G27">
         <v>-0.04270160971937775</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.668322169660577</v>
+        <v>-2.843626226227742</v>
       </c>
       <c r="G28">
         <v>-0.04524796937189035</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.683887215931507</v>
+        <v>-2.873173192687904</v>
       </c>
       <c r="G29">
         <v>-0.04605264363318895</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.698665298010269</v>
+        <v>-2.902720159148066</v>
       </c>
       <c r="G30">
         <v>-0.04818789574223636</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.713918300803698</v>
+        <v>-2.932267125608218</v>
       </c>
       <c r="G31">
         <v>-0.05115025948633112</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.72934621075941</v>
+        <v>-2.961814092068379</v>
       </c>
       <c r="G32">
         <v>-0.05324123970811123</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.745443428189076</v>
+        <v>-2.991361058528541</v>
       </c>
       <c r="G33">
         <v>-0.05370316983454138</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.759051433061438</v>
+        <v>-3.020908024988696</v>
       </c>
       <c r="G34">
         <v>-0.05712402713514519</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.774053545829339</v>
+        <v>-3.050454991448855</v>
       </c>
       <c r="G35">
         <v>-0.05708417721051928</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.787897441533201</v>
+        <v>-3.080001957909011</v>
       </c>
       <c r="G36">
         <v>-0.05854144716382148</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.801318787196749</v>
+        <v>-3.109056859205772</v>
       </c>
       <c r="G37">
         <v>-0.06032639887065772</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.816220061623838</v>
+        <v>-3.13761969533912</v>
       </c>
       <c r="G38">
         <v>-0.06034092347921649</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.829472515087664</v>
+        <v>-3.167166661799279</v>
       </c>
       <c r="G39">
         <v>-0.06168443972221138</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.843685596617266</v>
+        <v>-3.196221563096033</v>
       </c>
       <c r="G40">
         <v>-0.06374678633275654</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.857064319794164</v>
+        <v>-3.224292334065978</v>
       </c>
       <c r="G41">
         <v>-0.06402098374445675</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.870679225073467</v>
+        <v>-3.253347235362731</v>
       </c>
       <c r="G42">
         <v>-0.06217899574556873</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.882917498195412</v>
+        <v>-3.281910071496083</v>
       </c>
       <c r="G43">
         <v>-0.06258543292437579</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896552007945953</v>
+        <v>-3.310472907629436</v>
       </c>
       <c r="G44">
         <v>-0.06425774933534556</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.909037083410069</v>
+        <v>-3.339035743762789</v>
       </c>
       <c r="G45">
         <v>-0.06373801896063247</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922663740735903</v>
+        <v>-3.367106514732737</v>
       </c>
       <c r="G46">
         <v>-0.06396081110806562</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934903896228521</v>
+        <v>-3.395669350866083</v>
       </c>
       <c r="G47">
         <v>-0.06261238288499471</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.947074879447785</v>
+        <v>-3.424232186999435</v>
       </c>
       <c r="G48">
         <v>-0.06212700981316766</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.960137717826206</v>
+        <v>-3.452302957969381</v>
       </c>
       <c r="G49">
         <v>-0.06096447684267692</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.972841927431347</v>
+        <v>-3.479389598612523</v>
       </c>
       <c r="G50">
         <v>-0.06060762370513217</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.984137029946916</v>
+        <v>-3.50746036958247</v>
       </c>
       <c r="G51">
         <v>-0.06040566049956797</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.996003116458004</v>
+        <v>-3.535039075389013</v>
       </c>
       <c r="G52">
         <v>-0.05760801756264844</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.007959862084359</v>
+        <v>-3.562617781195557</v>
       </c>
       <c r="G53">
         <v>-0.05714041149990923</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018190497408225</v>
+        <v>-3.590196487002101</v>
       </c>
       <c r="G54">
         <v>-0.05524297546192114</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.029900176051246</v>
+        <v>-3.617775192808644</v>
       </c>
       <c r="G55">
         <v>-0.05321325474830263</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.040358228978684</v>
+        <v>-3.645353898615188</v>
       </c>
       <c r="G56">
         <v>-0.05103918776283811</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052384101969868</v>
+        <v>-3.672932604421731</v>
       </c>
       <c r="G57">
         <v>-0.05001794197823095</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062267905475509</v>
+        <v>-3.700511310228275</v>
       </c>
       <c r="G58">
         <v>-0.04563620820983105</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.073311309100795</v>
+        <v>-3.726649399536589</v>
       </c>
       <c r="G59">
         <v>-0.04369633774672432</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.084209292948315</v>
+        <v>-3.756203857030933</v>
       </c>
       <c r="G60">
         <v>-0.04282946600409965</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.093711304808402</v>
+        <v>-3.78170163320847</v>
       </c>
       <c r="G61">
         <v>-0.03825202560810936</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.1030176100409</v>
+        <v>-3.806559096255227</v>
       </c>
       <c r="G62">
         <v>-0.03495969108860658</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.112323915273397</v>
+        <v>-3.831416559301985</v>
       </c>
       <c r="G63">
         <v>-0.03172793583022576</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.121630220505895</v>
+        <v>-3.856274022348742</v>
       </c>
       <c r="G64">
         <v>-0.02796219022973762</v>
@@ -1887,7 +1887,7 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.130936525738392</v>
+        <v>-3.880491172264722</v>
       </c>
       <c r="G65">
         <v>-0.02419644462924991</v>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.14024283097089</v>
+        <v>-3.904068009049922</v>
       </c>
       <c r="G66">
         <v>-0.02043069902876224</v>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-3.149549136203386</v>
+        <v>-3.927644845835124</v>
       </c>
       <c r="G67">
         <v>-0.01666495342827365</v>
@@ -1956,7 +1956,7 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-3.158855441435884</v>
+        <v>-3.950581369489547</v>
       </c>
       <c r="G68">
         <v>-0.0128992078277855</v>
@@ -1979,7 +1979,7 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-3.167627756326274</v>
+        <v>-3.972877580013191</v>
       </c>
       <c r="G69">
         <v>-0.008599471885190044</v>
@@ -2002,7 +2002,7 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-3.176400071216664</v>
+        <v>-3.995173790536836</v>
       </c>
       <c r="G70">
         <v>-0.004299735942595022</v>
@@ -2025,7 +2025,7 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-3.185172386107054</v>
+        <v>-4.017470001060481</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.961143168579724</v>
+        <v>-3.018311655611262</v>
       </c>
       <c r="G309">
         <v>-0.02337841381927053</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.061877308999199</v>
+        <v>-3.17845730755005</v>
       </c>
       <c r="G310">
         <v>-0.04104585189671672</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.156838700681143</v>
+        <v>-3.334234127884221</v>
       </c>
       <c r="G311">
         <v>-0.05269650776244039</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.245695609522403</v>
+        <v>-3.486326736666184</v>
       </c>
       <c r="G312">
         <v>-0.05842104686373228</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.330630497995005</v>
+        <v>-3.634333330164532</v>
       </c>
       <c r="G313">
         <v>-0.06011988500389776</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.411442136844541</v>
+        <v>-3.780268381506738</v>
       </c>
       <c r="G314">
         <v>-0.05775801438557937</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.487362754576969</v>
+        <v>-3.922024566550103</v>
       </c>
       <c r="G315">
         <v>-0.05048898625023235</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.558888491972898</v>
+        <v>-4.057763571624702</v>
       </c>
       <c r="G316">
         <v>-0.03877803683569647</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.625129809752895</v>
+        <v>-4.188725883400633</v>
       </c>
       <c r="G317">
         <v>-0.02186995315499513</v>
@@ -7706,7 +7706,7 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.686536787815441</v>
+        <v>-4.314433232740556</v>
       </c>
       <c r="G318">
         <v>0</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.652703759175079</v>
+        <v>-2.652986050626902</v>
       </c>
       <c r="G27">
         <v>-0.04270160971937775</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.668322169660577</v>
+        <v>-2.6686044611124</v>
       </c>
       <c r="G28">
         <v>-0.04524796937189035</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.698665298010269</v>
+        <v>-2.699072209774548</v>
       </c>
       <c r="G30">
         <v>-0.04818789574223636</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.713918300803698</v>
+        <v>-2.714859512459772</v>
       </c>
       <c r="G31">
         <v>-0.05115025948633112</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.801318787196749</v>
+        <v>-2.80157734158545</v>
       </c>
       <c r="G37">
         <v>-0.06032639887065772</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.816220061623838</v>
+        <v>-2.816566583892378</v>
       </c>
       <c r="G38">
         <v>-0.06034092347921649</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.829472515087664</v>
+        <v>-2.829590046931646</v>
       </c>
       <c r="G39">
         <v>-0.06168443972221138</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.882917498195412</v>
+        <v>-2.883086390395136</v>
       </c>
       <c r="G43">
         <v>-0.06258543292437579</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018190497408225</v>
+        <v>-3.018738431717223</v>
       </c>
       <c r="G54">
         <v>-0.05524297546192114</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.040358228978684</v>
+        <v>-3.041138212798205</v>
       </c>
       <c r="G56">
         <v>-0.05103918776283811</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062267905475509</v>
+        <v>-3.062349903301314</v>
       </c>
       <c r="G58">
         <v>-0.04563620820983105</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.029900176051246</v>
+        <v>-3.030887928094577</v>
       </c>
       <c r="G55">
         <v>-0.05321325474830263</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.634339705556114</v>
+        <v>-2.634422043320821</v>
       </c>
       <c r="G76">
         <v>-0.00893584863858754</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710337023541463</v>
+        <v>-2.710974831310411</v>
       </c>
       <c r="G87">
         <v>-0.02811118376813981</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.742350759502981</v>
+        <v>-2.74237999266129</v>
       </c>
       <c r="G92">
         <v>-0.03422312651608106</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.786308839529481</v>
+        <v>-2.786424091150784</v>
       </c>
       <c r="G99">
         <v>-0.0409597003159865</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810768084772148</v>
+        <v>-2.810912887110952</v>
       </c>
       <c r="G103">
         <v>-0.04563919710637787</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.951799739679519</v>
+        <v>-2.952406707047291</v>
       </c>
       <c r="G127">
         <v>-0.06294850770330052</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.968461319777281</v>
+        <v>-2.968649756275445</v>
       </c>
       <c r="G130">
         <v>-0.06312515460966228</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.016300422119442</v>
+        <v>-3.016451958581431</v>
       </c>
       <c r="G139">
         <v>-0.06394639529128265</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.098388768444609</v>
+        <v>-3.098720162452815</v>
       </c>
       <c r="G155">
         <v>-0.06435983074914242</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.103587831010045</v>
+        <v>-3.103888996016249</v>
       </c>
       <c r="G156">
         <v>-0.06433114772274973</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.248074837837004</v>
+        <v>-3.248573686202946</v>
       </c>
       <c r="G188">
         <v>-0.04379921470243286</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.268780813995622</v>
+        <v>-3.268854256156096</v>
       </c>
       <c r="G193">
         <v>-0.0378437283319274</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.292452338402729</v>
+        <v>-3.293266493437927</v>
       </c>
       <c r="G199">
         <v>-0.03113329506051993</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.315468475507523</v>
+        <v>-3.315785837784002</v>
       </c>
       <c r="G205">
         <v>-0.02290637012843255</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.409415563922665</v>
+        <v>-3.409472200087178</v>
       </c>
       <c r="G229">
         <v>-0.02387749183716054</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.024736934229871</v>
+        <v>-3.025044083377698</v>
       </c>
       <c r="G234">
         <v>-0.05457474792285844</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.308552076666951</v>
+        <v>-3.308644466035405</v>
       </c>
       <c r="G248">
         <v>-0.06043021574715146</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.930265239370734</v>
+        <v>-2.930434023534275</v>
       </c>
       <c r="G276">
         <v>-0.02416348175684568</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.124235535679953</v>
+        <v>-3.124291398270081</v>
       </c>
       <c r="G278">
         <v>-0.05329181316478926</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.60195741117442</v>
+        <v>-3.60204674254797</v>
       </c>
       <c r="G295">
         <v>-0.02199392333322014</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.156838700681143</v>
+        <v>-3.156904829166496</v>
       </c>
       <c r="G311">
         <v>-0.05269650776244039</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.245695609522403</v>
+        <v>-3.245721287485625</v>
       </c>
       <c r="G312">
         <v>-0.05842104686373228</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.787897441533201</v>
+        <v>-2.788709136328702</v>
       </c>
       <c r="G36">
         <v>-0.05854144716382148</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.883086390395136</v>
+        <v>-2.884066977390362</v>
       </c>
       <c r="G43">
         <v>-0.06258543292437579</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.909037083410069</v>
+        <v>-2.909082428803254</v>
       </c>
       <c r="G45">
         <v>-0.06373801896063247</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.669649760600528</v>
+        <v>-2.669732098365235</v>
       </c>
       <c r="G81">
         <v>-0.01814471378462379</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.716842725011715</v>
+        <v>-2.717098187319481</v>
       </c>
       <c r="G88">
         <v>-0.02926902133865905</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.74237999266129</v>
+        <v>-2.742721957779671</v>
       </c>
       <c r="G92">
         <v>-0.03422312651608106</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.748486784349673</v>
+        <v>-2.748847022715022</v>
       </c>
       <c r="G93">
         <v>-0.03507903016949721</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.754899720552447</v>
+        <v>-2.755062417592733</v>
       </c>
       <c r="G94">
         <v>-0.03623785698457915</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.934373430886196</v>
+        <v>-2.934728790650853</v>
       </c>
       <c r="G124">
         <v>-0.06070616695483988</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.99056684866702</v>
+        <v>-2.991132683828017</v>
       </c>
       <c r="G134">
         <v>-0.06383534774082866</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.000448430735858</v>
+        <v>-3.001073013068233</v>
       </c>
       <c r="G136">
         <v>-0.06493032162251944</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.021906414784067</v>
+        <v>-3.021922955584723</v>
       </c>
       <c r="G140">
         <v>-0.06516789864562034</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.112755214645621</v>
+        <v>-3.113063756501762</v>
       </c>
       <c r="G158">
         <v>-0.06344048326036833</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.169442321709002</v>
+        <v>-3.171018927505822</v>
       </c>
       <c r="G170">
         <v>-0.05800636433945427</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.178547563009232</v>
+        <v>-3.178869541387221</v>
       </c>
       <c r="G172">
         <v>-0.05697944346996686</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240224022599279</v>
+        <v>-3.240466156560978</v>
       </c>
       <c r="G186">
         <v>-0.04611028439618037</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.326410005343782</v>
+        <v>-3.326809101383604</v>
       </c>
       <c r="G208">
         <v>-0.01875009158929455</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.332981156081116</v>
+        <v>-3.333373418648524</v>
       </c>
       <c r="G210">
         <v>-0.0153822352838906</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.212802798632969</v>
+        <v>-3.213269789582109</v>
       </c>
       <c r="G226">
         <v>-0.06225656605495278</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.969745040834926</v>
+        <v>-2.969843225431336</v>
       </c>
       <c r="G244">
         <v>-0.04356186563257536</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.061364557257537</v>
+        <v>-3.061428288346598</v>
       </c>
       <c r="G245">
         <v>-0.05448101401868999</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.382230504041745</v>
+        <v>-3.382326420135446</v>
       </c>
       <c r="G249">
         <v>-0.05247781229807713</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.513214423601395</v>
+        <v>-3.513413757441693</v>
       </c>
       <c r="G251">
         <v>-0.02317149837557708</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995793605257741</v>
+        <v>-2.99635156267218</v>
       </c>
       <c r="G255">
         <v>-0.04300101568659187</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.296402464174685</v>
+        <v>-3.296524222061297</v>
       </c>
       <c r="G280">
         <v>-0.06096031219845188</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.053354565988422</v>
+        <v>-3.053371375729845</v>
       </c>
       <c r="G299">
         <v>-0.04133133352292306</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>n_atoms</t>
+    <t>num_atoms</t>
   </si>
   <si>
     <t>diameter</t>
@@ -438,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-2.152429234923369</v>
+        <v>-2.152429234923367</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.220446049250313e-15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>-2.214498069149535</v>
+        <v>-2.214498069149534</v>
       </c>
       <c r="G3">
-        <v>-0.01380053847560303</v>
+        <v>-0.01380053847560214</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>-2.276566903375702</v>
+        <v>-2.276566903375703</v>
       </c>
       <c r="G4">
-        <v>-0.02760107695120695</v>
+        <v>-0.02760107695120739</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>-2.338635737601868</v>
+        <v>-2.33863573760187</v>
       </c>
       <c r="G5">
-        <v>-0.04140161542681042</v>
+        <v>-0.04140161542681176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>-2.396338640727786</v>
+        <v>-2.396338640727787</v>
       </c>
       <c r="G6">
-        <v>-0.0508362228021646</v>
+        <v>-0.05083622280216549</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -553,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>-2.449675612753454</v>
+        <v>-2.449675612753455</v>
       </c>
       <c r="G7">
-        <v>-0.0559048990772697</v>
+        <v>-0.05590489907727059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-2.503012584779122</v>
+        <v>-2.503012584779123</v>
       </c>
       <c r="G8">
-        <v>-0.06097357535237435</v>
+        <v>-0.06097357535237524</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -599,10 +599,10 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>-2.551983625704541</v>
+        <v>-2.551983625704542</v>
       </c>
       <c r="G9">
-        <v>-0.06167632052723038</v>
+        <v>-0.06167632052723127</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.64555977645513</v>
       </c>
       <c r="G11">
-        <v>-0.05871587977669313</v>
+        <v>-0.05871587977669268</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.726038133904971</v>
       </c>
       <c r="G13">
-        <v>-0.04265764572540776</v>
+        <v>-0.04265764572540731</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>-2.766277312629891</v>
+        <v>-2.76627731262989</v>
       </c>
       <c r="G14">
-        <v>-0.03462852869976407</v>
+        <v>-0.03462852869976318</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>-2.779917079680689</v>
+        <v>-2.779917079680688</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-2.466209590292863</v>
+        <v>-2.466209590292846</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.643130076445232e-14</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>-2.486224135747408</v>
+        <v>-2.486224135747392</v>
       </c>
       <c r="G17">
-        <v>-0.006942494621560158</v>
+        <v>-0.006942494621544615</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>-2.503584231624124</v>
+        <v>-2.503584231624109</v>
       </c>
       <c r="G18">
-        <v>-0.01123053966529142</v>
+        <v>-0.01123053966527632</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>3</v>
       </c>
       <c r="F19">
-        <v>-2.52094432750084</v>
+        <v>-2.520944327500826</v>
       </c>
       <c r="G19">
-        <v>-0.01551858470902134</v>
+        <v>-0.01551858470900713</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,10 +852,10 @@
         <v>4</v>
       </c>
       <c r="F20">
-        <v>-2.538304423377556</v>
+        <v>-2.538304423377542</v>
       </c>
       <c r="G20">
-        <v>-0.0198066297527526</v>
+        <v>-0.01980662975273839</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.554934822284575</v>
+        <v>-2.554934822284562</v>
       </c>
       <c r="G21">
-        <v>-0.02336497782678615</v>
+        <v>-0.02336497782677283</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.571364927565576</v>
+        <v>-2.571164633939548</v>
       </c>
       <c r="G22">
-        <v>-0.02672303227480155</v>
+        <v>-0.02652273864877364</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.587795032846577</v>
+        <v>-2.587795032846568</v>
       </c>
       <c r="G23">
-        <v>-0.0295074114918692</v>
+        <v>-0.03008108672280807</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.604225138127578</v>
+        <v>-2.604225138127571</v>
       </c>
       <c r="G24">
-        <v>-0.03343914117083324</v>
+        <v>-0.03343914117082614</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.62045494978256</v>
+        <v>-2.620125840064889</v>
       </c>
       <c r="G25">
-        <v>-0.03659690199282917</v>
+        <v>-0.03626779227515797</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.63688505506356</v>
+        <v>-2.636155358093864</v>
       </c>
       <c r="G26">
-        <v>-0.03889614975348765</v>
+        <v>-0.03922525947114863</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.652986050626902</v>
+        <v>-2.652167809882661</v>
       </c>
       <c r="G27">
-        <v>-0.04270160971937775</v>
+        <v>-0.04216566042696002</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.6686044611124</v>
+        <v>-2.667510474865072</v>
       </c>
       <c r="G28">
-        <v>-0.04524796937189035</v>
+        <v>-0.04443627457638599</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.683887215931507</v>
+        <v>-2.682846593898752</v>
       </c>
       <c r="G29">
-        <v>-0.04605264363318895</v>
+        <v>-0.04670034277708046</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.699072209774548</v>
+        <v>-2.69834251280484</v>
       </c>
       <c r="G30">
-        <v>-0.04818789574223636</v>
+        <v>-0.04912421085018304</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.714859512459772</v>
+        <v>-2.713400118520367</v>
       </c>
       <c r="G31">
-        <v>-0.05115025948633112</v>
+        <v>-0.0511097657327253</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.72934621075941</v>
+        <v>-2.728729913041812</v>
       </c>
       <c r="G32">
-        <v>-0.05324123970811123</v>
+        <v>-0.05336750942118473</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.745443428189076</v>
+        <v>-2.743259233828092</v>
       </c>
       <c r="G33">
-        <v>-0.05370316983454138</v>
+        <v>-0.05482477937447938</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.759051433061438</v>
+        <v>-2.758115117953485</v>
       </c>
       <c r="G34">
-        <v>-0.05712402713514519</v>
+        <v>-0.05660861266688721</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.774053545829339</v>
+        <v>-2.772582399843402</v>
       </c>
       <c r="G35">
-        <v>-0.05708417721051928</v>
+        <v>-0.05800384372381862</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.788709136328702</v>
+        <v>-2.786114952838694</v>
       </c>
       <c r="G36">
-        <v>-0.05854144716382148</v>
+        <v>-0.05846434588612537</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.80157734158545</v>
+        <v>-2.802361413088331</v>
       </c>
       <c r="G37">
-        <v>-0.06032639887065772</v>
+        <v>-0.06163875530277663</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.816566583892378</v>
+        <v>-2.814733044391818</v>
       </c>
       <c r="G38">
-        <v>-0.06034092347921649</v>
+        <v>-0.06093833577327845</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.829590046931646</v>
+        <v>-2.828745832295404</v>
       </c>
       <c r="G39">
-        <v>-0.06168443972221138</v>
+        <v>-0.06187907284387939</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.843685596617266</v>
+        <v>-2.842627144388113</v>
       </c>
       <c r="G40">
-        <v>-0.06374678633275654</v>
+        <v>-0.06268833410360286</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.857064319794164</v>
+        <v>-2.855344224454234</v>
       </c>
       <c r="G41">
-        <v>-0.06402098374445675</v>
+        <v>-0.06233336333673867</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.870679225073467</v>
+        <v>-2.868463319736504</v>
       </c>
       <c r="G42">
-        <v>-0.06217899574556873</v>
+        <v>-0.0623804077860235</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.884066977390362</v>
+        <v>-2.882320085901344</v>
       </c>
       <c r="G43">
-        <v>-0.06258543292437579</v>
+        <v>-0.06316512311787825</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896552007945953</v>
+        <v>-2.896415635586953</v>
       </c>
       <c r="G44">
-        <v>-0.06425774933534556</v>
+        <v>-0.06418862197050257</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.909082428803254</v>
+        <v>-2.907943861118973</v>
       </c>
       <c r="G45">
-        <v>-0.06373801896063247</v>
+        <v>-0.06264479666953671</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922663740735903</v>
+        <v>-2.922301288920421</v>
       </c>
       <c r="G46">
-        <v>-0.06396081110806562</v>
+        <v>-0.0639301736379998</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934903896228521</v>
+        <v>-2.93339417053078</v>
       </c>
       <c r="G47">
-        <v>-0.06261238288499471</v>
+        <v>-0.06195100441537327</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.947074879447785</v>
+        <v>-2.946280996569897</v>
       </c>
       <c r="G48">
-        <v>-0.06212700981316766</v>
+        <v>-0.06176577962150431</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.960137717826206</v>
+        <v>-2.960453602624677</v>
       </c>
       <c r="G49">
-        <v>-0.06096447684267692</v>
+        <v>-0.06286633484330006</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.972841927431347</v>
+        <v>-2.970387193665073</v>
       </c>
       <c r="G50">
-        <v>-0.06060762370513217</v>
+        <v>-0.05972787505071031</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.984137029946916</v>
+        <v>-2.983803333230828</v>
       </c>
       <c r="G51">
-        <v>-0.06040566049956797</v>
+        <v>-0.06007196378348012</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.996003116458004</v>
+        <v>-2.993487107751613</v>
       </c>
       <c r="G52">
-        <v>-0.05760801756264844</v>
+        <v>-0.05668368747127916</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.007959862084359</v>
+        <v>-3.005505128318085</v>
       </c>
       <c r="G53">
-        <v>-0.05714041149990923</v>
+        <v>-0.05562965720476631</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018738431717223</v>
+        <v>-3.018158786432233</v>
       </c>
       <c r="G54">
-        <v>-0.05524297546192114</v>
+        <v>-0.05521126448592895</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.030887928094577</v>
+        <v>-3.028398347686732</v>
       </c>
       <c r="G55">
-        <v>-0.05321325474830263</v>
+        <v>-0.05237877490744247</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.041138212798205</v>
+        <v>-3.041087925948371</v>
       </c>
       <c r="G56">
-        <v>-0.05103918776283811</v>
+        <v>-0.05199630233609664</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052384101969868</v>
+        <v>-3.051420208477811</v>
       </c>
       <c r="G57">
-        <v>-0.05001794197823095</v>
+        <v>-0.04925653403255126</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062349903301314</v>
+        <v>-3.062267905475504</v>
       </c>
       <c r="G58">
-        <v>-0.04563620820983105</v>
+        <v>-0.04703218019725897</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.073311309100795</v>
+        <v>-3.07204762178899</v>
       </c>
       <c r="G59">
-        <v>-0.04369633774672432</v>
+        <v>-0.04373984567775913</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.084209292948315</v>
+        <v>-3.082008405084155</v>
       </c>
       <c r="G60">
-        <v>-0.04282946600409965</v>
+        <v>-0.04062857813993948</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.093711304808402</v>
+        <v>-3.092322111739745</v>
       </c>
       <c r="G61">
-        <v>-0.03825202560810936</v>
+        <v>-0.0378702339625443</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.1030176100409</v>
+        <v>-3.102821903413302</v>
       </c>
       <c r="G62">
-        <v>-0.03495969108860658</v>
+        <v>-0.03529797480311508</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.112323915273397</v>
+        <v>-3.111789924931293</v>
       </c>
       <c r="G63">
-        <v>-0.03172793583022576</v>
+        <v>-0.03119394548812154</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.121630220505895</v>
+        <v>-3.121630220505893</v>
       </c>
       <c r="G64">
-        <v>-0.02796219022973762</v>
+        <v>-0.02796219022973628</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.130936525738392</v>
+        <v>-3.130936525738389</v>
       </c>
       <c r="G65">
-        <v>-0.02419644462924991</v>
+        <v>-0.0241964446292468</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>50</v>
       </c>
       <c r="F66">
-        <v>-3.14024283097089</v>
+        <v>-3.140242830970883</v>
       </c>
       <c r="G66">
-        <v>-0.02043069902876224</v>
+        <v>-0.02043069902875602</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-3.149549136203386</v>
+        <v>-3.149549136203379</v>
       </c>
       <c r="G67">
-        <v>-0.01666495342827365</v>
+        <v>-0.0166649534282661</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1956,10 +1956,10 @@
         <v>52</v>
       </c>
       <c r="F68">
-        <v>-3.158855441435884</v>
+        <v>-3.158855441435873</v>
       </c>
       <c r="G68">
-        <v>-0.0128992078277855</v>
+        <v>-0.01289920782777484</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="F69">
-        <v>-3.167627756326274</v>
+        <v>-3.167627756326263</v>
       </c>
       <c r="G69">
-        <v>-0.008599471885190044</v>
+        <v>-0.00859947188517983</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2002,10 +2002,10 @@
         <v>54</v>
       </c>
       <c r="F70">
-        <v>-3.176400071216664</v>
+        <v>-3.176400071216653</v>
       </c>
       <c r="G70">
-        <v>-0.004299735942595022</v>
+        <v>-0.004299735942584364</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>55</v>
       </c>
       <c r="F71">
-        <v>-3.185172386107054</v>
+        <v>-3.185172386107042</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1.154631945610163e-14</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>-2.604741317697237</v>
+        <v>-2.604741317697222</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1.509903313490213e-14</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2071,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="F73">
-        <v>-2.612229753071387</v>
+        <v>-2.612229753071371</v>
       </c>
       <c r="G73">
-        <v>-0.002322800569077632</v>
+        <v>-0.002322800569061645</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>-2.619718188445537</v>
+        <v>-2.61971818844552</v>
       </c>
       <c r="G74">
-        <v>-0.004645601138155264</v>
+        <v>-0.004645601138138389</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>-2.627206623819687</v>
+        <v>-2.627206623819669</v>
       </c>
       <c r="G75">
-        <v>-0.006968401707232896</v>
+        <v>-0.006968401707214689</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.634422043320821</v>
+        <v>-2.634422043320803</v>
       </c>
       <c r="G76">
-        <v>-0.00893584863858754</v>
+        <v>-0.009018186403276118</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.641555125057248</v>
+        <v>-2.641472787292523</v>
       </c>
       <c r="G77">
-        <v>-0.01098563333464853</v>
+        <v>-0.01090329556992353</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.648332853155953</v>
+        <v>-2.648250515391228</v>
       </c>
       <c r="G78">
-        <v>-0.01259772662828196</v>
+        <v>-0.01251538886355652</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.655821288530102</v>
+        <v>-2.655738950765376</v>
       </c>
       <c r="G79">
-        <v>-0.0149205271973587</v>
+        <v>-0.01483818943263238</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662872032501824</v>
+        <v>-2.662326000755773</v>
       </c>
       <c r="G80">
-        <v>-0.01617726685326826</v>
+        <v>-0.01625960461795684</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.669732098365235</v>
+        <v>-2.669376744727492</v>
       </c>
       <c r="G81">
-        <v>-0.01814471378462379</v>
+        <v>-0.01814471378460381</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.676865180101663</v>
+        <v>-2.676236810590903</v>
       </c>
       <c r="G82">
-        <v>-0.02046751435370231</v>
+        <v>-0.01983914484294225</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.683369892327351</v>
+        <v>-2.68236729266245</v>
       </c>
       <c r="G83">
-        <v>-0.02180659177431732</v>
+        <v>-0.02080399210941675</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.69031229595547</v>
+        <v>-2.690121617847138</v>
       </c>
       <c r="G84">
-        <v>-0.02358336059736388</v>
+        <v>-0.02339268248903226</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.697445377691897</v>
+        <v>-2.696642894393511</v>
       </c>
       <c r="G85">
-        <v>-0.02480169839959823</v>
+        <v>-0.02474832423033346</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.703832311315773</v>
+        <v>-2.702931915176558</v>
       </c>
       <c r="G86">
-        <v>-0.02615317509499615</v>
+        <v>-0.0258717102083077</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710974831310411</v>
+        <v>-2.710254685776732</v>
       </c>
       <c r="G87">
-        <v>-0.02811118376813981</v>
+        <v>-0.02802884600340905</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.717098187319481</v>
+        <v>-2.71549519921186</v>
       </c>
       <c r="G88">
-        <v>-0.02926902133865905</v>
+        <v>-0.028103724633465</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.723320445413945</v>
+        <v>-2.722311923715906</v>
       </c>
       <c r="G89">
-        <v>-0.03068001573832824</v>
+        <v>-0.02975481433243843</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729815719381424</v>
+        <v>-2.729279125893576</v>
       </c>
       <c r="G90">
-        <v>-0.03182708538234369</v>
+        <v>-0.03155638170503661</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.736573922142875</v>
+        <v>-2.733768641145414</v>
       </c>
       <c r="G91">
-        <v>-0.03253066722974829</v>
+        <v>-0.03088026215180184</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.742721957779671</v>
+        <v>-2.742454215118928</v>
       </c>
       <c r="G92">
-        <v>-0.03422312651608106</v>
+        <v>-0.03440020132024291</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.748847022715022</v>
+        <v>-2.748694026778641</v>
       </c>
       <c r="G93">
-        <v>-0.03507903016949721</v>
+        <v>-0.03547437817488319</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.755062417592733</v>
+        <v>-2.754531364370463</v>
       </c>
       <c r="G94">
-        <v>-0.03623785698457915</v>
+        <v>-0.03614608096163341</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.761381343154861</v>
+        <v>-2.761221214438879</v>
       </c>
       <c r="G95">
-        <v>-0.03756908194388142</v>
+        <v>-0.03767029622497731</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.767869150636133</v>
+        <v>-2.767890268487373</v>
       </c>
       <c r="G96">
-        <v>-0.03898720240602715</v>
+        <v>-0.03917371546839865</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.773836549692283</v>
+        <v>-2.773458154492199</v>
       </c>
       <c r="G97">
-        <v>-0.03941540191550397</v>
+        <v>-0.03957596666815189</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.780679061990445</v>
+        <v>-2.780241756563092</v>
       </c>
       <c r="G98">
-        <v>-0.0408421445823075</v>
+        <v>-0.04119393393397308</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.786424091150784</v>
+        <v>-2.786324083408533</v>
       </c>
       <c r="G99">
-        <v>-0.0409597003159865</v>
+        <v>-0.04211062597434179</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792567575766562</v>
+        <v>-2.792396692558314</v>
       </c>
       <c r="G100">
-        <v>-0.04273745838359488</v>
+        <v>-0.04301760031905033</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.798688663463466</v>
+        <v>-2.797704565234358</v>
       </c>
       <c r="G101">
-        <v>-0.04414393641912984</v>
+        <v>-0.043159838190022</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.804980167343453</v>
+        <v>-2.803620416949419</v>
       </c>
       <c r="G102">
-        <v>-0.04484906689698143</v>
+        <v>-0.04391005510001067</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810912887110952</v>
+        <v>-2.809701951762643</v>
       </c>
       <c r="G103">
-        <v>-0.04563919710637787</v>
+        <v>-0.04482595510816267</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.816818525127305</v>
+        <v>-2.815782292197067</v>
       </c>
       <c r="G104">
-        <v>-0.04665643254977292</v>
+        <v>-0.04574066073751348</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.823254295044517</v>
+        <v>-2.822307650055844</v>
       </c>
       <c r="G105">
-        <v>-0.04712271824607628</v>
+        <v>-0.04710038379121828</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.829831783427549</v>
+        <v>-2.827235486956874</v>
       </c>
       <c r="G106">
-        <v>-0.04758814855706506</v>
+        <v>-0.04686258588717651</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.835023210345822</v>
+        <v>-2.833727799907786</v>
       </c>
       <c r="G107">
-        <v>-0.04878943871576435</v>
+        <v>-0.04818926403301571</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.841488741065466</v>
+        <v>-2.840243589805564</v>
       </c>
       <c r="G108">
-        <v>-0.04965773264180107</v>
+        <v>-0.04953941912572168</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.847362971787414</v>
+        <v>-2.846478912747282</v>
       </c>
       <c r="G109">
-        <v>-0.05052358967837578</v>
+        <v>-0.05060910726236689</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853466217777878</v>
+        <v>-2.851315488586981</v>
       </c>
       <c r="G110">
-        <v>-0.05177496162574302</v>
+        <v>-0.05028004829699384</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.858884307181057</v>
+        <v>-2.859181340451998</v>
       </c>
       <c r="G111">
-        <v>-0.05268323208599712</v>
+        <v>-0.05298026535693845</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.864655697339697</v>
+        <v>-2.864468064660462</v>
       </c>
       <c r="G112">
-        <v>-0.05285669069480536</v>
+        <v>-0.05310135476033007</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.871082744778279</v>
+        <v>-2.870873647500517</v>
       </c>
       <c r="G113">
-        <v>-0.05427345919766613</v>
+        <v>-0.05434130279531257</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.876957443647063</v>
+        <v>-2.877336989909955</v>
       </c>
       <c r="G114">
-        <v>-0.05525946413678584</v>
+        <v>-0.05563901039967822</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.882778254991482</v>
+        <v>-2.882429957150432</v>
       </c>
       <c r="G115">
-        <v>-0.05513617252085812</v>
+        <v>-0.05556634283508277</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.88836967840498</v>
+        <v>-2.888028002335251</v>
       </c>
       <c r="G116">
-        <v>-0.05585531419467915</v>
+        <v>-0.05599875321482917</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.894114813358327</v>
+        <v>-2.893501123393107</v>
       </c>
       <c r="G117">
-        <v>-0.05573831682314689</v>
+        <v>-0.05630623946761282</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.899756403665008</v>
+        <v>-2.899919578784845</v>
       </c>
       <c r="G118">
-        <v>-0.05739588493444137</v>
+        <v>-0.05755906005427791</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.906418357379022</v>
+        <v>-2.906283382154125</v>
       </c>
       <c r="G119">
-        <v>-0.05732223940057213</v>
+        <v>-0.05875722861848565</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.911569868495853</v>
+        <v>-2.910534464562794</v>
       </c>
       <c r="G120">
-        <v>-0.05887808015514118</v>
+        <v>-0.05784267622208228</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.917926522718348</v>
+        <v>-2.917499429550842</v>
       </c>
       <c r="G121">
-        <v>-0.0592987912616727</v>
+        <v>-0.05964200640505846</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.923872984041997</v>
+        <v>-2.922459831560517</v>
       </c>
       <c r="G122">
-        <v>-0.05936245137989493</v>
+        <v>-0.05943677360966104</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.929032474324778</v>
+        <v>-2.927270016094311</v>
       </c>
       <c r="G123">
-        <v>-0.0608437815688494</v>
+        <v>-0.05908132333838223</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.934728790650853</v>
+        <v>-2.934221911262219</v>
       </c>
       <c r="G124">
-        <v>-0.06070616695483988</v>
+        <v>-0.06086758370121803</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.940177613658036</v>
+        <v>-2.93994463251784</v>
       </c>
       <c r="G125">
-        <v>-0.06052807703420582</v>
+        <v>-0.06142467015176711</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.94621896478502</v>
+        <v>-2.946450424806721</v>
       </c>
       <c r="G126">
-        <v>-0.06132684620418338</v>
+        <v>-0.06276482763557523</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.952406707047291</v>
+        <v>-2.951575850970865</v>
       </c>
       <c r="G127">
-        <v>-0.06294850770330052</v>
+        <v>-0.06272461899464621</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.957341062116386</v>
+        <v>-2.95531521506703</v>
       </c>
       <c r="G128">
-        <v>-0.06236169374991074</v>
+        <v>-0.06129834828573988</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.963088428511063</v>
+        <v>-2.962642386123445</v>
       </c>
       <c r="G129">
-        <v>-0.06256009366569093</v>
+        <v>-0.0634598845370824</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.968649756275445</v>
+        <v>-2.967052580959781</v>
       </c>
       <c r="G130">
-        <v>-0.06312515460966228</v>
+        <v>-0.06270444456834579</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.973807040970735</v>
+        <v>-2.972563266881195</v>
       </c>
       <c r="G131">
-        <v>-0.06327003756811411</v>
+        <v>-0.06304949568468787</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.979022417928767</v>
+        <v>-2.978852495850883</v>
       </c>
       <c r="G132">
-        <v>-0.06434301192718728</v>
+        <v>-0.06417308984930337</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985490284130982</v>
+        <v>-2.983185657712581</v>
       </c>
       <c r="G133">
-        <v>-0.06475209007657079</v>
+        <v>-0.06334061690592852</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.991132683828017</v>
+        <v>-2.989919240427014</v>
       </c>
       <c r="G134">
-        <v>-0.06383534774082866</v>
+        <v>-0.06490856481528917</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.995929799215364</v>
+        <v>-2.995313500592903</v>
       </c>
       <c r="G135">
-        <v>-0.06471274114553904</v>
+        <v>-0.0651371901761062</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.001073013068233</v>
+        <v>-3.001472978981877</v>
       </c>
       <c r="G136">
-        <v>-0.06493032162251944</v>
+        <v>-0.0661310337600074</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.006131241821266</v>
+        <v>-3.006253723277928</v>
       </c>
       <c r="G137">
-        <v>-0.06521721107869172</v>
+        <v>-0.06574614325098627</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.011871228101476</v>
+        <v>-3.010554789140968</v>
       </c>
       <c r="G138">
-        <v>-0.0654533299292972</v>
+        <v>-0.06488157430895414</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.016451958581431</v>
+        <v>-3.016186973734906</v>
       </c>
       <c r="G139">
-        <v>-0.06394639529128265</v>
+        <v>-0.06534812409781954</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.021922955584723</v>
+        <v>-3.023653181435197</v>
       </c>
       <c r="G140">
-        <v>-0.06516789864562034</v>
+        <v>-0.06764869699303855</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.028583156208593</v>
+        <v>-3.026745293002781</v>
       </c>
       <c r="G141">
-        <v>-0.06611797974564104</v>
+        <v>-0.06557517375555011</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.033807268646405</v>
+        <v>-3.033387090423855</v>
       </c>
       <c r="G142">
-        <v>-0.06653555313289305</v>
+        <v>-0.06705133637155147</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.038994051306602</v>
+        <v>-3.037664481539092</v>
       </c>
       <c r="G143">
-        <v>-0.06531156112203851</v>
+        <v>-0.06616309268171561</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.043514566058221</v>
+        <v>-3.040986570831112</v>
       </c>
       <c r="G144">
-        <v>-0.06571268029919031</v>
+        <v>-0.0643195471686635</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.048173460291544</v>
+        <v>-3.048205355660033</v>
       </c>
       <c r="G145">
-        <v>-0.06585540401427004</v>
+        <v>-0.06637269719251204</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.052969824206521</v>
+        <v>-3.054082298747136</v>
       </c>
       <c r="G146">
-        <v>-0.06597153093392771</v>
+        <v>-0.06708400547454296</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.058427557166254</v>
+        <v>-3.057173656740661</v>
       </c>
       <c r="G147">
-        <v>-0.06551892853975438</v>
+        <v>-0.06500972866299559</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.064282519206297</v>
+        <v>-3.063410314348772</v>
       </c>
       <c r="G148">
-        <v>-0.06695295632355913</v>
+        <v>-0.0660807514660342</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.069645565720971</v>
+        <v>-3.069852382859484</v>
       </c>
       <c r="G149">
-        <v>-0.066195077889182</v>
+        <v>-0.06735718517167322</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.073848334564768</v>
+        <v>-3.074467846382567</v>
       </c>
       <c r="G150">
-        <v>-0.06618750207188517</v>
+        <v>-0.0668070138896848</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.078824544633331</v>
+        <v>-3.079951986571319</v>
       </c>
       <c r="G151">
-        <v>-0.06514403664216051</v>
+        <v>-0.06712551927336374</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.084439899771089</v>
+        <v>-3.083677041111193</v>
       </c>
       <c r="G152">
-        <v>-0.06602688804481271</v>
+        <v>-0.06568493900816552</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.089520513993534</v>
+        <v>-3.08869369717696</v>
       </c>
       <c r="G153">
-        <v>-0.06487732971332294</v>
+        <v>-0.06553596026886055</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.093559813110598</v>
+        <v>-3.092929018338999</v>
       </c>
       <c r="G154">
-        <v>-0.065057008115601</v>
+        <v>-0.06460564662582646</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.098720162452815</v>
+        <v>-3.097359248036582</v>
       </c>
       <c r="G155">
-        <v>-0.06435983074914242</v>
+        <v>-0.06387024151833787</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.103888996016249</v>
+        <v>-3.104853562219796</v>
       </c>
       <c r="G156">
-        <v>-0.06433114772274973</v>
+        <v>-0.06619892089647905</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.109740493819527</v>
+        <v>-3.106798011728901</v>
       </c>
       <c r="G157">
-        <v>-0.06592021769113732</v>
+        <v>-0.06297773560051212</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.113063756501762</v>
+        <v>-3.111918739269263</v>
       </c>
       <c r="G158">
-        <v>-0.06344048326036833</v>
+        <v>-0.06293282833580149</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.117971415568067</v>
+        <v>-3.117073661685027</v>
       </c>
       <c r="G159">
-        <v>-0.06337921909299249</v>
+        <v>-0.06292211594649277</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.123021335822109</v>
+        <v>-3.1239199405356</v>
       </c>
       <c r="G160">
-        <v>-0.0627262687781478</v>
+        <v>-0.06460275999199316</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.128550473973571</v>
+        <v>-3.127890586437172</v>
       </c>
       <c r="G161">
-        <v>-0.06327810644331078</v>
+        <v>-0.06340777108849349</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.13311159456758</v>
+        <v>-3.13205206657682</v>
       </c>
       <c r="G162">
-        <v>-0.06233836925689062</v>
+        <v>-0.06240361642306858</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.137517756161228</v>
+        <v>-3.138145963473626</v>
       </c>
       <c r="G163">
-        <v>-0.06113709918751375</v>
+        <v>-0.06333187851480204</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.142367818839083</v>
+        <v>-3.14278551875527</v>
       </c>
       <c r="G164">
-        <v>-0.06184953035554985</v>
+        <v>-0.06280579899137406</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.148499456607853</v>
+        <v>-3.145423391426593</v>
       </c>
       <c r="G165">
-        <v>-0.06148285123523178</v>
+        <v>-0.06027803685762512</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.151326561088251</v>
+        <v>-3.152677302558065</v>
       </c>
       <c r="G166">
-        <v>-0.05974733350336381</v>
+        <v>-0.06236631318402486</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.156781962970999</v>
+        <v>-3.15542166283658</v>
       </c>
       <c r="G167">
-        <v>-0.06130533879188582</v>
+        <v>-0.05994503865746714</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.160691335209869</v>
+        <v>-3.162076771880823</v>
       </c>
       <c r="G168">
-        <v>-0.05973703864214119</v>
+        <v>-0.06143451289663782</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.166161228682918</v>
+        <v>-3.167409264353074</v>
       </c>
       <c r="G169">
-        <v>-0.06035333489366024</v>
+        <v>-0.06160137056381587</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.171018927505822</v>
+        <v>-3.169408062056046</v>
       </c>
       <c r="G170">
-        <v>-0.05800636433945427</v>
+        <v>-0.05843453346171612</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.175991231466976</v>
+        <v>-3.174607175527104</v>
       </c>
       <c r="G171">
-        <v>-0.05985206806757415</v>
+        <v>-0.05846801212770159</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.178869541387221</v>
+        <v>-3.179425016140824</v>
       </c>
       <c r="G172">
-        <v>-0.05697944346996686</v>
+        <v>-0.05812021793634847</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.183454621737369</v>
+        <v>-3.182045753849077</v>
       </c>
       <c r="G173">
-        <v>-0.05698418872782163</v>
+        <v>-0.05557532083952921</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.188866940728762</v>
+        <v>-3.189937528386656</v>
       </c>
       <c r="G174">
-        <v>-0.05723087291414208</v>
+        <v>-0.05830146057203633</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.192832386133338</v>
+        <v>-3.192282078602261</v>
       </c>
       <c r="G175">
-        <v>-0.05545841723556033</v>
+        <v>-0.05548037598256861</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.196854438290249</v>
+        <v>-3.196737040237738</v>
       </c>
       <c r="G176">
-        <v>-0.05417008829121484</v>
+        <v>-0.05476970281297389</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.201229217613632</v>
+        <v>-3.201080020223515</v>
       </c>
       <c r="G177">
-        <v>-0.05409624538379465</v>
+        <v>-0.05394704799367755</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.206988934831786</v>
+        <v>-3.205431878127559</v>
       </c>
       <c r="G178">
-        <v>-0.05469032779687644</v>
+        <v>-0.05313327109264976</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.210455395958909</v>
+        <v>-3.208339049031131</v>
       </c>
       <c r="G179">
-        <v>-0.05299115411892741</v>
+        <v>-0.05087480719114934</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.214794631267898</v>
+        <v>-3.216501636310094</v>
       </c>
       <c r="G180">
-        <v>-0.0521647546228442</v>
+        <v>-0.05387175966503988</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.219539101546719</v>
+        <v>-3.21842006720069</v>
       </c>
       <c r="G181">
-        <v>-0.05110538812702037</v>
+        <v>-0.05062455575056368</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.223411492550528</v>
+        <v>-3.223153316109659</v>
       </c>
       <c r="G182">
-        <v>-0.05045034629532941</v>
+        <v>-0.05019216985446029</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.227586222171456</v>
+        <v>-3.226770752767771</v>
       </c>
       <c r="G183">
-        <v>-0.0494594411111845</v>
+        <v>-0.04864397170750034</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.231418039098994</v>
+        <v>-3.231135041267277</v>
       </c>
       <c r="G184">
-        <v>-0.0471650755229267</v>
+        <v>-0.04784262540193351</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.236404390876824</v>
+        <v>-3.23656063993995</v>
       </c>
       <c r="G185">
-        <v>-0.0472118940494044</v>
+        <v>-0.04810258926953437</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240466156560978</v>
+        <v>-3.240580766872208</v>
       </c>
       <c r="G186">
-        <v>-0.04611028439618037</v>
+        <v>-0.04695708139671939</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.244321912786974</v>
+        <v>-3.244377511132251</v>
       </c>
       <c r="G187">
-        <v>-0.04502487740015138</v>
+        <v>-0.04558819085169041</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.248573686202946</v>
+        <v>-3.249171324376801</v>
       </c>
       <c r="G188">
-        <v>-0.04379921470243286</v>
+        <v>-0.04521636929116846</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253166191462539</v>
+        <v>-3.25306372319609</v>
       </c>
       <c r="G189">
-        <v>-0.04223169109433333</v>
+        <v>-0.04394313330538491</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.256433004573474</v>
+        <v>-3.257196298475926</v>
       </c>
       <c r="G190">
-        <v>-0.04173948320689569</v>
+        <v>-0.04291007378014788</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.26094142414184</v>
+        <v>-3.260358730114121</v>
       </c>
       <c r="G191">
-        <v>-0.04005380208718301</v>
+        <v>-0.04090687061327114</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.264878203795786</v>
+        <v>-3.264006606668964</v>
       </c>
       <c r="G192">
-        <v>-0.03929263674104438</v>
+        <v>-0.03938911236304138</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.268854256156096</v>
+        <v>-3.26849835067173</v>
       </c>
       <c r="G193">
-        <v>-0.0378437283319274</v>
+        <v>-0.03871522156073459</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.27272017524779</v>
+        <v>-3.272863955811672</v>
       </c>
       <c r="G194">
-        <v>-0.03767621757817063</v>
+        <v>-0.03791519189560444</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.276908650926316</v>
+        <v>-3.278260019105441</v>
       </c>
       <c r="G195">
-        <v>-0.03677550697325266</v>
+        <v>-0.03814562038430086</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281007005407905</v>
+        <v>-3.281170087550004</v>
       </c>
       <c r="G196">
-        <v>-0.03548363726532389</v>
+        <v>-0.03589005402379197</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.284521249528093</v>
+        <v>-3.285174114591287</v>
       </c>
       <c r="G197">
-        <v>-0.03386790400735906</v>
+        <v>-0.0347284462600026</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.289669059872633</v>
+        <v>-3.287300113499599</v>
       </c>
       <c r="G198">
-        <v>-0.03235718124059261</v>
+        <v>-0.03168881036324234</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.293266493437927</v>
+        <v>-3.29292745657049</v>
       </c>
       <c r="G199">
-        <v>-0.03113329506051993</v>
+        <v>-0.03215051862906054</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.296628577069198</v>
+        <v>-3.296808256757632</v>
       </c>
       <c r="G200">
-        <v>-0.03068600432269619</v>
+        <v>-0.03086568401113032</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.30065488958264</v>
+        <v>-3.29995209821121</v>
       </c>
       <c r="G201">
-        <v>-0.027927886828438</v>
+        <v>-0.02884389065963661</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.3040461158681</v>
+        <v>-3.302857521735334</v>
       </c>
       <c r="G202">
-        <v>-0.0272669681414176</v>
+        <v>-0.02658367937868833</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308037899344445</v>
+        <v>-3.306242322753117</v>
       </c>
       <c r="G203">
-        <v>-0.02608548954102341</v>
+        <v>-0.024802845591398</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.311712320544315</v>
+        <v>-3.310721416422279</v>
       </c>
       <c r="G204">
-        <v>-0.02510720857752408</v>
+        <v>-0.02411630445548835</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.315785837784002</v>
+        <v>-3.315386741744232</v>
       </c>
       <c r="G205">
-        <v>-0.02290637012843255</v>
+        <v>-0.02361599497236833</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.31946025898387</v>
+        <v>-3.319067996416512</v>
       </c>
       <c r="G206">
-        <v>-0.02173251879970378</v>
+        <v>-0.02213161483957654</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.32274241761633</v>
+        <v>-3.322728750671548</v>
       </c>
       <c r="G207">
-        <v>-0.02024813866691419</v>
+        <v>-0.02062673428954007</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.326809101383604</v>
+        <v>-3.327593626518462</v>
       </c>
       <c r="G208">
-        <v>-0.01875009158929455</v>
+        <v>-0.0203259753313815</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.330091260016062</v>
+        <v>-3.329698997448701</v>
       </c>
       <c r="G209">
-        <v>-0.01687344888909742</v>
+        <v>-0.01726571145654804</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.333373418648524</v>
+        <v>-3.333373418648566</v>
       </c>
       <c r="G210">
-        <v>-0.0153822352838906</v>
+        <v>-0.01577449785134122</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.337440102415797</v>
+        <v>-3.337440102415838</v>
       </c>
       <c r="G211">
-        <v>-0.01467554681349886</v>
+        <v>-0.01467554681354061</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.341114523615663</v>
+        <v>-3.341114523615704</v>
       </c>
       <c r="G212">
-        <v>-0.01200754550607266</v>
+        <v>-0.01318433320833393</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.344396682248123</v>
+        <v>-3.344396682248162</v>
       </c>
       <c r="G213">
-        <v>-0.01130085703568003</v>
+        <v>-0.01130085703571955</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.347678840880581</v>
+        <v>-3.347678840880622</v>
       </c>
       <c r="G214">
-        <v>-0.009417380863066538</v>
+        <v>-0.00941738086310695</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>143</v>
       </c>
       <c r="F215">
-        <v>-3.35096099951304</v>
+        <v>-3.35096099951308</v>
       </c>
       <c r="G215">
-        <v>-0.007533904690453494</v>
+        <v>-0.007533904690493462</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,10 +5360,10 @@
         <v>144</v>
       </c>
       <c r="F216">
-        <v>-3.3542431581455</v>
+        <v>-3.354243158145539</v>
       </c>
       <c r="G216">
-        <v>-0.005650428517840013</v>
+        <v>-0.005650428517879537</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5383,10 +5383,10 @@
         <v>145</v>
       </c>
       <c r="F217">
-        <v>-3.357525316777958</v>
+        <v>-3.357525316777997</v>
       </c>
       <c r="G217">
-        <v>-0.003766952345226525</v>
+        <v>-0.003766952345265605</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5406,10 +5406,10 @@
         <v>146</v>
       </c>
       <c r="F218">
-        <v>-3.360807475410418</v>
+        <v>-3.360807475410456</v>
       </c>
       <c r="G218">
-        <v>-0.001883476172613485</v>
+        <v>-0.001883476172651232</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,10 +5429,10 @@
         <v>147</v>
       </c>
       <c r="F219">
-        <v>-3.364089634042877</v>
+        <v>-3.364089634042915</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>-3.774758283725532e-14</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5452,10 +5452,10 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>-2.682032099547425</v>
+        <v>-2.682032099547423</v>
       </c>
       <c r="G220">
-        <v>0</v>
+        <v>2.664535259100376e-15</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.784074021578807</v>
+        <v>-2.784826812283808</v>
       </c>
       <c r="G221">
-        <v>-0.02609232209771362</v>
+        <v>-0.02688398028251138</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.881217990952795</v>
+        <v>-2.882138002652626</v>
       </c>
       <c r="G222">
-        <v>-0.04453875601363944</v>
+        <v>-0.04575408044899643</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.970983447655656</v>
+        <v>-2.969914314738721</v>
       </c>
       <c r="G223">
-        <v>-0.05487866158113097</v>
+        <v>-0.05508930233275744</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.056653359535869</v>
+        <v>-3.057657898704091</v>
       </c>
       <c r="G224">
-        <v>-0.06214678016647657</v>
+        <v>-0.06439179609579471</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.137281223807809</v>
+        <v>-3.138765764051473</v>
       </c>
       <c r="G225">
-        <v>-0.06510111920156714</v>
+        <v>-0.06705857124084336</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.213269789582109</v>
+        <v>-3.215599119397375</v>
       </c>
       <c r="G226">
-        <v>-0.06225656605495278</v>
+        <v>-0.06545083638441129</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.283885938600053</v>
+        <v>-3.284717001573345</v>
       </c>
       <c r="G227">
-        <v>-0.05529656538475658</v>
+        <v>-0.05612762835804785</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.349705713552469</v>
+        <v>-3.350909462840913</v>
       </c>
       <c r="G228">
-        <v>-0.04267525013483853</v>
+        <v>-0.04387899942328299</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.409472200087178</v>
+        <v>-3.409546601913505</v>
       </c>
       <c r="G229">
-        <v>-0.02387749183716054</v>
+        <v>-0.02407504829354196</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>309</v>
       </c>
       <c r="F230">
-        <v>-3.463912643822297</v>
+        <v>-3.463912643822209</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>8.837375276016246e-14</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>-2.731184247133917</v>
+        <v>-2.731184247133912</v>
       </c>
       <c r="G231">
-        <v>0</v>
+        <v>4.440892098500626e-15</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.837073935002992</v>
+        <v>-2.83711153990681</v>
       </c>
       <c r="G232">
-        <v>-0.02633870724144005</v>
+        <v>-0.02644825513311311</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.93509796745112</v>
+        <v>-2.935481290088124</v>
       </c>
       <c r="G233">
-        <v>-0.04448539237656268</v>
+        <v>-0.04533896767464762</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.025044083377698</v>
+        <v>-3.02568827560619</v>
       </c>
       <c r="G234">
-        <v>-0.05457474792285844</v>
+        <v>-0.05606691555293342</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.110965559203686</v>
+        <v>-3.113803225869027</v>
       </c>
       <c r="G235">
-        <v>-0.0609572244179466</v>
+        <v>-0.06470282817599005</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.192858454584457</v>
+        <v>-3.195818768237041</v>
       </c>
       <c r="G236">
-        <v>-0.06353740194972279</v>
+        <v>-0.06723933290422379</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.269857645061449</v>
+        <v>-3.273266089517264</v>
       </c>
       <c r="G237">
-        <v>-0.0611034779638493</v>
+        <v>-0.06520761654466756</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.341881569767297</v>
+        <v>-3.345027707578502</v>
       </c>
       <c r="G238">
-        <v>-0.05320949813267983</v>
+        <v>-0.05749019696612478</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.408294909562911</v>
+        <v>-3.410512700204984</v>
       </c>
       <c r="G239">
-        <v>-0.04123542439416161</v>
+        <v>-0.04349615195282708</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.470192693077273</v>
+        <v>-3.470621352742761</v>
       </c>
       <c r="G240">
-        <v>-0.02326277321535014</v>
+        <v>-0.02412576685082418</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,10 +5935,10 @@
         <v>561</v>
       </c>
       <c r="F241">
-        <v>-3.527393892060999</v>
+        <v>-3.527393892061264</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>-2.655653474903374e-13</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5958,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>-2.765153093550745</v>
+        <v>-2.765153093550538</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>2.069455717901292e-13</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.871250571327454</v>
+        <v>-2.871132291188042</v>
       </c>
       <c r="G243">
-        <v>-0.02574824342236326</v>
+        <v>-0.02562996328295153</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.969843225431336</v>
+        <v>-2.971286435674763</v>
       </c>
       <c r="G244">
-        <v>-0.04356186563257536</v>
+        <v>-0.04543487341532693</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.061428288346598</v>
+        <v>-3.062908701757916</v>
       </c>
       <c r="G245">
-        <v>-0.05448101401868999</v>
+        <v>-0.05670790514413393</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.148396816408451</v>
+        <v>-3.15225550682018</v>
       </c>
       <c r="G246">
-        <v>-0.06049814660448849</v>
+        <v>-0.06483211460907157</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.230948092871824</v>
+        <v>-3.235308118208465</v>
       </c>
       <c r="G247">
-        <v>-0.06317546630636994</v>
+        <v>-0.06753549164301087</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.308644466035405</v>
+        <v>-3.312863374083823</v>
       </c>
       <c r="G248">
-        <v>-0.06043021574715146</v>
+        <v>-0.06474151316402299</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.382326420135446</v>
+        <v>-3.386243365757495</v>
       </c>
       <c r="G249">
-        <v>-0.05247781229807713</v>
+        <v>-0.05689890924036756</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.450132427266995</v>
+        <v>-3.452321865435248</v>
       </c>
       <c r="G250">
-        <v>-0.04021296753621351</v>
+        <v>-0.04262817456377532</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.513413757441693</v>
+        <v>-3.513938844361598</v>
       </c>
       <c r="G251">
-        <v>-0.02317149837557708</v>
+        <v>-0.02389591913577971</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6188,10 +6188,10 @@
         <v>923</v>
       </c>
       <c r="F252">
-        <v>-3.571265520823145</v>
+        <v>-3.571265520823244</v>
       </c>
       <c r="G252">
-        <v>0</v>
+        <v>-9.85878045867139e-14</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>-2.790016782244354</v>
+        <v>-2.790016782244128</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>2.264854970235319e-13</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896301741251813</v>
+        <v>-2.896401421136511</v>
       </c>
       <c r="G254">
-        <v>-0.02506088909865145</v>
+        <v>-0.02533596307853925</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.99635156267218</v>
+        <v>-2.998133693354193</v>
       </c>
       <c r="G255">
-        <v>-0.04300101568659187</v>
+        <v>-0.04544474617896199</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.088103283319944</v>
+        <v>-3.091288161854235</v>
       </c>
       <c r="G256">
-        <v>-0.05413188173038597</v>
+        <v>-0.05755053886538697</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.175102123600848</v>
+        <v>-3.180086499267332</v>
       </c>
       <c r="G257">
-        <v>-0.05970781368467404</v>
+        <v>-0.06472538716122433</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.258410238203729</v>
+        <v>-3.263488958414879</v>
       </c>
       <c r="G258">
-        <v>-0.06158741397041001</v>
+        <v>-0.06707917049515433</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.337743374337488</v>
+        <v>-3.34346170662662</v>
       </c>
       <c r="G259">
-        <v>-0.0592230762704693</v>
+        <v>-0.06542842958963613</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.411446238837849</v>
+        <v>-3.415380791534425</v>
       </c>
       <c r="G260">
-        <v>-0.05190476672061684</v>
+        <v>-0.05629883868382379</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.480519763554696</v>
+        <v>-3.483541550257264</v>
       </c>
       <c r="G261">
-        <v>-0.0395305666409036</v>
+        <v>-0.04283610828940398</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.544525157151347</v>
+        <v>-3.545591141798957</v>
       </c>
       <c r="G262">
-        <v>-0.02259273361662784</v>
+        <v>-0.02383702401747945</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>1415</v>
       </c>
       <c r="F263">
-        <v>-3.603377606898737</v>
+        <v>-3.603377606899421</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>-6.843414723789465e-13</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="F264">
-        <v>-2.808996931078138</v>
+        <v>-2.808996931078332</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>-1.940669847044774e-13</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915305028103482</v>
+        <v>-2.915956046779634</v>
       </c>
       <c r="G265">
-        <v>-0.02451126705928397</v>
+        <v>-0.02534838443264187</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.015514335955286</v>
+        <v>-3.017352417675366</v>
       </c>
       <c r="G266">
-        <v>-0.04202204982668389</v>
+        <v>-0.04473592293137951</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.108624115769379</v>
+        <v>-3.111923280531507</v>
       </c>
       <c r="G267">
-        <v>-0.05365510764371439</v>
+        <v>-0.05729795339052579</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.195419602352479</v>
+        <v>-3.199970586080935</v>
       </c>
       <c r="G268">
-        <v>-0.05871311464204432</v>
+        <v>-0.06373452767109944</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.279732199655349</v>
+        <v>-3.285354223453913</v>
       </c>
       <c r="G269">
-        <v>-0.06137226786021777</v>
+        <v>-0.06710933264708285</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.359229265450603</v>
+        <v>-3.364427001925655</v>
       </c>
       <c r="G270">
-        <v>-0.05865283771705299</v>
+        <v>-0.06417327872183076</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.433573220306909</v>
+        <v>-3.437709509925947</v>
       </c>
       <c r="G271">
-        <v>-0.05129317143028234</v>
+        <v>-0.05584505545326801</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.50352419970919</v>
+        <v>-3.506676876165233</v>
       </c>
       <c r="G272">
-        <v>-0.03915087730842393</v>
+        <v>-0.04280358929556005</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.568191755745923</v>
+        <v>-3.569219141212957</v>
       </c>
       <c r="G273">
-        <v>-0.02225071718904892</v>
+        <v>-0.02333702194628962</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2057</v>
       </c>
       <c r="F274">
-        <v>-3.627890951663662</v>
+        <v>-3.627890951664432</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>-7.696066006701585e-13</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>-2.82395786908426</v>
+        <v>-2.823957869084533</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>-2.726707748479384e-13</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.930434023534275</v>
+        <v>-2.931075148387366</v>
       </c>
       <c r="G276">
-        <v>-0.02416348175684568</v>
+        <v>-0.02504998159940675</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.030704454074695</v>
+        <v>-3.032906828538877</v>
       </c>
       <c r="G277">
-        <v>-0.04161453217124</v>
+        <v>-0.04452741545384953</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.124291398270081</v>
+        <v>-3.127067755736942</v>
       </c>
       <c r="G278">
-        <v>-0.05329181316478926</v>
+        <v>-0.05633409635484576</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.211968237622339</v>
+        <v>-3.216166602841922</v>
       </c>
       <c r="G279">
-        <v>-0.05834037863530694</v>
+        <v>-0.06307869716275682</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.296524222061297</v>
+        <v>-3.301187537278456</v>
       </c>
       <c r="G280">
-        <v>-0.06096031219845188</v>
+        <v>-0.0657453853022234</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.376490183534675</v>
+        <v>-3.381210711106833</v>
       </c>
       <c r="G281">
-        <v>-0.05833161612092663</v>
+        <v>-0.06341431283353138</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.451483067632156</v>
+        <v>-3.455610157170166</v>
       </c>
       <c r="G282">
-        <v>-0.05112242774545883</v>
+        <v>-0.0554595125997962</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.521537106078429</v>
+        <v>-3.524781685464774</v>
       </c>
       <c r="G283">
-        <v>-0.03882603053598022</v>
+        <v>-0.04227679459733524</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.587034979891436</v>
+        <v>-3.588151898899625</v>
       </c>
       <c r="G284">
-        <v>-0.02217584272692924</v>
+        <v>-0.02329276173511757</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>2869</v>
       </c>
       <c r="F285">
-        <v>-3.647213383461576</v>
+        <v>-3.647213383462762</v>
       </c>
       <c r="G285">
-        <v>0</v>
+        <v>-1.186162279509517e-12</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,10 +6970,10 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>-2.836052457866298</v>
+        <v>-2.836052457867516</v>
       </c>
       <c r="G286">
-        <v>0</v>
+        <v>-1.217692613408872e-12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.942843282733123</v>
+        <v>-2.943785635050619</v>
       </c>
       <c r="G287">
-        <v>-0.02400988687632921</v>
+        <v>-0.0250763960759981</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.043251152736043</v>
+        <v>-3.045407797280887</v>
       </c>
       <c r="G288">
-        <v>-0.04169676599008065</v>
+        <v>-0.04404177719794422</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.137661523869207</v>
+        <v>-3.140711283000127</v>
       </c>
       <c r="G289">
-        <v>-0.05363872267794156</v>
+        <v>-0.05668848180886221</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.225221974632514</v>
+        <v>-3.228974309554868</v>
       </c>
       <c r="G290">
-        <v>-0.05831439509483105</v>
+        <v>-0.06229472725528029</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.310023746021845</v>
+        <v>-3.314573585183384</v>
       </c>
       <c r="G291">
-        <v>-0.06027934737264018</v>
+        <v>-0.06523722177547353</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.39018484861695</v>
+        <v>-3.395161793833799</v>
       </c>
       <c r="G292">
-        <v>-0.05777584027393101</v>
+        <v>-0.06316864931756672</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.465683564712927</v>
+        <v>-3.469861554742225</v>
       </c>
       <c r="G293">
-        <v>-0.05103363908837233</v>
+        <v>-0.0552116291176703</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.536297174437167</v>
+        <v>-3.539045454279445</v>
       </c>
       <c r="G294">
-        <v>-0.03899046770428982</v>
+        <v>-0.04173874754656759</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.60204674254797</v>
+        <v>-3.603138680396442</v>
       </c>
       <c r="G295">
-        <v>-0.02199392333322014</v>
+        <v>-0.02317519255524247</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>3871</v>
       </c>
       <c r="F296">
-        <v>-3.662833852363239</v>
+        <v>-3.662833852362676</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>5.622169396701793e-13</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>0</v>
       </c>
       <c r="F297">
-        <v>-2.846031576081587</v>
+        <v>-2.846031576080589</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>9.983125437429408e-13</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952832151942882</v>
+        <v>-2.953746618332177</v>
       </c>
       <c r="G298">
-        <v>-0.02381927332338085</v>
+        <v>-0.0247949546899795</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.053371375729845</v>
+        <v>-3.055556487377898</v>
       </c>
       <c r="G299">
-        <v>-0.04133133352292306</v>
+        <v>-0.04368473617509183</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.147999696620494</v>
+        <v>-3.151115871601972</v>
       </c>
       <c r="G300">
-        <v>-0.05306654996460214</v>
+        <v>-0.05632403283855592</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.236608913034811</v>
+        <v>-3.240126960449478</v>
       </c>
       <c r="G301">
-        <v>-0.05861590330789479</v>
+        <v>-0.0622518056066319</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.321208674587184</v>
+        <v>-3.325753845688338</v>
       </c>
       <c r="G302">
-        <v>-0.0601743069347791</v>
+        <v>-0.06495860328488168</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.40168533638903</v>
+        <v>-3.405952161454927</v>
       </c>
       <c r="G303">
-        <v>-0.05773123333447572</v>
+        <v>-0.06223683149086146</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.477588474736976</v>
+        <v>-3.48126388523464</v>
       </c>
       <c r="G304">
-        <v>-0.05078982869348037</v>
+        <v>-0.05446523919114499</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.548407544609341</v>
+        <v>-3.551307573017668</v>
       </c>
       <c r="G305">
-        <v>-0.03854831393909075</v>
+        <v>-0.04158883941356217</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.614528631630013</v>
+        <v>-3.615851681370404</v>
       </c>
       <c r="G306">
-        <v>-0.02182259901638578</v>
+        <v>-0.02321286020568863</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7453,10 +7453,10 @@
         <v>5083</v>
       </c>
       <c r="F307">
-        <v>-3.675722137244145</v>
+        <v>-3.675722137241923</v>
       </c>
       <c r="G307">
-        <v>0</v>
+        <v>2.221778316879863e-12</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7476,10 +7476,10 @@
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-2.854405124424242</v>
+        <v>-2.854405124421669</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>2.573496971081113e-12</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.961143168579724</v>
+        <v>-2.962118839314916</v>
       </c>
       <c r="G309">
-        <v>-0.02337841381927053</v>
+        <v>-0.02456431342997512</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.061877308999199</v>
+        <v>-3.064132458658867</v>
       </c>
       <c r="G310">
-        <v>-0.04104585189671672</v>
+        <v>-0.04330100155638439</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.156904829166496</v>
+        <v>-3.159914101953565</v>
       </c>
       <c r="G311">
-        <v>-0.05269650776244039</v>
+        <v>-0.05593324339038364</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.245721287485625</v>
+        <v>-3.249079676153535</v>
       </c>
       <c r="G312">
-        <v>-0.05842104686373228</v>
+        <v>-0.06182188637281327</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.330630497995005</v>
+        <v>-3.334464403410752</v>
       </c>
       <c r="G313">
-        <v>-0.06011988500389776</v>
+        <v>-0.0640572121693308</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.411442136844541</v>
+        <v>-3.415187455325961</v>
       </c>
       <c r="G314">
-        <v>-0.05775801438557937</v>
+        <v>-0.0615033328669996</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.487362754576969</v>
+        <v>-3.490491545604596</v>
       </c>
       <c r="G315">
-        <v>-0.05048898625023235</v>
+        <v>-0.05365802168493572</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.558888491972898</v>
+        <v>-3.561120260278381</v>
       </c>
       <c r="G316">
-        <v>-0.03877803683569647</v>
+        <v>-0.0410098051411798</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.625129809752895</v>
+        <v>-3.626232382218126</v>
       </c>
       <c r="G317">
-        <v>-0.02186995315499513</v>
+        <v>-0.02297252562022628</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>6525</v>
       </c>
       <c r="F318">
-        <v>-3.686536787815441</v>
+        <v>-3.686536787814132</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>1.309174990637985e-12</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.571164633939548</v>
+        <v>-2.571364927565565</v>
       </c>
       <c r="G22">
         <v>-0.02652273864877364</v>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.620125840064889</v>
+        <v>-2.620454949782556</v>
       </c>
       <c r="G25">
         <v>-0.03626779227515797</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.667510474865072</v>
+        <v>-2.668290768234279</v>
       </c>
       <c r="G28">
         <v>-0.04443627457638599</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.728729913041812</v>
+        <v>-2.730477922945267</v>
       </c>
       <c r="G32">
         <v>-0.05336750942118473</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.743259233828092</v>
+        <v>-2.74467323746578</v>
       </c>
       <c r="G33">
         <v>-0.05482477937447938</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.772582399843402</v>
+        <v>-2.773661633259083</v>
       </c>
       <c r="G35">
         <v>-0.05800384372381862</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.786114952838694</v>
+        <v>-2.786127823299673</v>
       </c>
       <c r="G36">
         <v>-0.05846434588612537</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.814733044391818</v>
+        <v>-2.815185346457806</v>
       </c>
       <c r="G38">
         <v>-0.06093833577327845</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.828745832295404</v>
+        <v>-2.828814959660233</v>
       </c>
       <c r="G39">
         <v>-0.06187907284387939</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.855344224454234</v>
+        <v>-2.855361182598561</v>
       </c>
       <c r="G41">
         <v>-0.06233336333673867</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.868463319736504</v>
+        <v>-2.868809033140289</v>
       </c>
       <c r="G42">
         <v>-0.0623804077860235</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.907943861118973</v>
+        <v>-2.908589677892194</v>
       </c>
       <c r="G45">
         <v>-0.06264479666953671</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922301288920421</v>
+        <v>-2.922633103265837</v>
       </c>
       <c r="G46">
         <v>-0.0639301736379998</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.93339417053078</v>
+        <v>-2.934918604151642</v>
       </c>
       <c r="G47">
         <v>-0.06195100441537327</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.946280996569897</v>
+        <v>-2.946546594518545</v>
       </c>
       <c r="G48">
         <v>-0.06176577962150431</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.970387193665073</v>
+        <v>-2.971461575441174</v>
       </c>
       <c r="G50">
         <v>-0.05972787505071031</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.005505128318085</v>
+        <v>-3.006335398987431</v>
       </c>
       <c r="G53">
         <v>-0.05562965720476631</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.028398347686732</v>
+        <v>-3.030126520148899</v>
       </c>
       <c r="G55">
         <v>-0.05237877490744247</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.041087925948371</v>
+        <v>-3.041108648834052</v>
       </c>
       <c r="G56">
         <v>-0.05199630233609664</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.051420208477811</v>
+        <v>-3.052149905447503</v>
       </c>
       <c r="G57">
         <v>-0.04925653403255126</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062267905475504</v>
+        <v>-3.062299616451484</v>
       </c>
       <c r="G58">
         <v>-0.04703218019725897</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.082008405084155</v>
+        <v>-3.082165621816993</v>
       </c>
       <c r="G60">
         <v>-0.04062857813993948</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.111789924931293</v>
+        <v>-3.112323915273393</v>
       </c>
       <c r="G63">
         <v>-0.03119394548812154</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.648250515391228</v>
+        <v>-2.64860586902895</v>
       </c>
       <c r="G78">
         <v>-0.01251538886355652</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662326000755773</v>
+        <v>-2.66251667886408</v>
       </c>
       <c r="G80">
         <v>-0.01625960461795684</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.68236729266245</v>
+        <v>-2.682979097852499</v>
       </c>
       <c r="G83">
         <v>-0.02080399210941675</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.696642894393511</v>
+        <v>-2.69688990768763</v>
       </c>
       <c r="G85">
         <v>-0.02474832423033346</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.71549519921186</v>
+        <v>-2.716177925419281</v>
       </c>
       <c r="G88">
         <v>-0.028103724633465</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.722311923715906</v>
+        <v>-2.723412221436834</v>
       </c>
       <c r="G89">
         <v>-0.02975481433243843</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.733768641145414</v>
+        <v>-2.735781866347264</v>
       </c>
       <c r="G91">
         <v>-0.03088026215180184</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.742454215118928</v>
+        <v>-2.742905509825476</v>
       </c>
       <c r="G92">
         <v>-0.03440020132024291</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.754531364370463</v>
+        <v>-2.755725894233939</v>
       </c>
       <c r="G94">
         <v>-0.03614608096163341</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.773458154492199</v>
+        <v>-2.773593486659262</v>
       </c>
       <c r="G97">
         <v>-0.03957596666815189</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792396692558314</v>
+        <v>-2.792568565011088</v>
       </c>
       <c r="G100">
         <v>-0.04301760031905033</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.797704565234358</v>
+        <v>-2.797750722139291</v>
       </c>
       <c r="G101">
         <v>-0.043159838190022</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.803620416949419</v>
+        <v>-2.804577245157328</v>
       </c>
       <c r="G102">
         <v>-0.04391005510001067</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.809701951762643</v>
+        <v>-2.810272069521774</v>
       </c>
       <c r="G103">
         <v>-0.04482595510816267</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.827235486956874</v>
+        <v>-2.828949394657088</v>
       </c>
       <c r="G106">
         <v>-0.04686258588717651</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.833727799907786</v>
+        <v>-2.835707866981387</v>
       </c>
       <c r="G107">
         <v>-0.04818926403301571</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.851315488586981</v>
+        <v>-2.853096922227587</v>
       </c>
       <c r="G110">
         <v>-0.05028004829699384</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.882429957150432</v>
+        <v>-2.883514138085248</v>
       </c>
       <c r="G115">
         <v>-0.05556634283508277</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.899919578784845</v>
+        <v>-2.901093555641597</v>
       </c>
       <c r="G118">
         <v>-0.05755906005427791</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.910534464562794</v>
+        <v>-2.911055901984323</v>
       </c>
       <c r="G120">
         <v>-0.05784267622208228</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.922459831560517</v>
+        <v>-2.923029636181372</v>
       </c>
       <c r="G122">
         <v>-0.05943677360966104</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.927270016094311</v>
+        <v>-2.928394646809915</v>
       </c>
       <c r="G123">
         <v>-0.05908132333838223</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.934221911262219</v>
+        <v>-2.93501027447777</v>
       </c>
       <c r="G124">
         <v>-0.06086758370121803</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.93994463251784</v>
+        <v>-2.940775122234232</v>
       </c>
       <c r="G125">
         <v>-0.06142467015176711</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.946450424806721</v>
+        <v>-2.947299865835383</v>
       </c>
       <c r="G126">
         <v>-0.06276482763557523</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.951575850970865</v>
+        <v>-2.952059763072498</v>
       </c>
       <c r="G127">
         <v>-0.06272461899464621</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.95531521506703</v>
+        <v>-2.95554497614488</v>
       </c>
       <c r="G128">
         <v>-0.06129834828573988</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.983185657712581</v>
+        <v>-2.985421766548307</v>
       </c>
       <c r="G133">
         <v>-0.06334061690592852</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.989919240427014</v>
+        <v>-2.990027790743635</v>
       </c>
       <c r="G134">
         <v>-0.06490856481528917</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.006253723277928</v>
+        <v>-3.006800520705011</v>
       </c>
       <c r="G137">
         <v>-0.06574614325098627</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.016186973734906</v>
+        <v>-3.016381446821152</v>
       </c>
       <c r="G139">
         <v>-0.06534812409781954</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.026745293002781</v>
+        <v>-3.028701392265679</v>
       </c>
       <c r="G141">
         <v>-0.06557517375555011</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.037664481539092</v>
+        <v>-3.038052102282872</v>
       </c>
       <c r="G143">
         <v>-0.06616309268171561</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.040986570831112</v>
+        <v>-3.042613407613997</v>
       </c>
       <c r="G144">
         <v>-0.0643195471686635</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.048205355660033</v>
+        <v>-3.048774289560845</v>
       </c>
       <c r="G145">
         <v>-0.06637269719251204</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.057173656740661</v>
+        <v>-3.058576835785062</v>
       </c>
       <c r="G147">
         <v>-0.06500972866299559</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.074467846382567</v>
+        <v>-3.0751868078807</v>
       </c>
       <c r="G150">
         <v>-0.0668070138896848</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.083677041111193</v>
+        <v>-3.0845871278297</v>
       </c>
       <c r="G152">
         <v>-0.06568493900816552</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.092929018338999</v>
+        <v>-3.094593494118694</v>
       </c>
       <c r="G154">
         <v>-0.06460564662582646</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.097359248036582</v>
+        <v>-3.099142856338307</v>
       </c>
       <c r="G155">
         <v>-0.06387024151833787</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.106798011728901</v>
+        <v>-3.10766752313019</v>
       </c>
       <c r="G157">
         <v>-0.06297773560051212</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.111918739269263</v>
+        <v>-3.114332297131922</v>
       </c>
       <c r="G158">
         <v>-0.06293282833580149</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.117073661685027</v>
+        <v>-3.118554302701132</v>
       </c>
       <c r="G159">
         <v>-0.06292211594649277</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.127890586437172</v>
+        <v>-3.12933704016446</v>
       </c>
       <c r="G161">
         <v>-0.06340777108849349</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.13205206657682</v>
+        <v>-3.132510423439215</v>
       </c>
       <c r="G162">
         <v>-0.06240361642306858</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.138145963473626</v>
+        <v>-3.138563718124103</v>
       </c>
       <c r="G163">
         <v>-0.06333187851480204</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.145423391426593</v>
+        <v>-3.14647564440819</v>
       </c>
       <c r="G165">
         <v>-0.06027803685762512</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.15542166283658</v>
+        <v>-3.157798183565932</v>
       </c>
       <c r="G167">
         <v>-0.05994503865746714</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.169408062056046</v>
+        <v>-3.171203254896372</v>
       </c>
       <c r="G170">
         <v>-0.05843453346171612</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.174607175527104</v>
+        <v>-3.175100652757391</v>
       </c>
       <c r="G171">
         <v>-0.05846801212770159</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.182045753849077</v>
+        <v>-3.183813587498328</v>
       </c>
       <c r="G173">
         <v>-0.05557532083952921</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.192282078602261</v>
+        <v>-3.192334650493331</v>
       </c>
       <c r="G175">
         <v>-0.05548037598256861</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.196737040237738</v>
+        <v>-3.197426466206064</v>
       </c>
       <c r="G176">
         <v>-0.05476970281297389</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.201080020223515</v>
+        <v>-3.202270837019081</v>
       </c>
       <c r="G177">
         <v>-0.05394704799367755</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.208339049031131</v>
+        <v>-3.209956381015492</v>
       </c>
       <c r="G179">
         <v>-0.05087480719114934</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.21842006720069</v>
+        <v>-3.220491023482888</v>
       </c>
       <c r="G181">
         <v>-0.05062455575056368</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.23656063993995</v>
+        <v>-3.237408119249076</v>
       </c>
       <c r="G185">
         <v>-0.04810258926953437</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.260358730114121</v>
+        <v>-3.261904337919098</v>
       </c>
       <c r="G191">
         <v>-0.04090687061327114</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.264006606668964</v>
+        <v>-3.264836925168181</v>
       </c>
       <c r="G192">
         <v>-0.03938911236304138</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.285174114591287</v>
+        <v>-3.286444868058805</v>
       </c>
       <c r="G197">
         <v>-0.0347284462600026</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.287300113499599</v>
+        <v>-3.289916885421038</v>
       </c>
       <c r="G198">
         <v>-0.03168881036324234</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.302857521735334</v>
+        <v>-3.304150265684944</v>
       </c>
       <c r="G202">
         <v>-0.02658367937868833</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.306242322753117</v>
+        <v>-3.308309491837611</v>
       </c>
       <c r="G203">
         <v>-0.024802845591398</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.333373418648566</v>
+        <v>-3.333765681215973</v>
       </c>
       <c r="G210">
         <v>-0.01577449785134122</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.969914314738721</v>
+        <v>-2.970749572658498</v>
       </c>
       <c r="G223">
         <v>-0.05508930233275744</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.138765764051473</v>
+        <v>-3.139139964451235</v>
       </c>
       <c r="G225">
         <v>-0.06705857124084336</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.284717001573345</v>
+        <v>-3.286357136977791</v>
       </c>
       <c r="G227">
         <v>-0.05612762835804785</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.409546601913505</v>
+        <v>-3.410191637075573</v>
       </c>
       <c r="G229">
         <v>-0.02407504829354196</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.83711153990681</v>
+        <v>-2.837777836605134</v>
       </c>
       <c r="G232">
         <v>-0.02644825513311311</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.935481290088124</v>
+        <v>-2.935523269179176</v>
       </c>
       <c r="G233">
         <v>-0.04533896767464762</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.02568827560619</v>
+        <v>-3.025965871186634</v>
       </c>
       <c r="G234">
         <v>-0.05606691555293342</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.195818768237041</v>
+        <v>-3.196291025578756</v>
       </c>
       <c r="G236">
         <v>-0.06723933290422379</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.273266089517264</v>
+        <v>-3.273885244421057</v>
       </c>
       <c r="G237">
         <v>-0.06520761654466756</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.410512700204984</v>
+        <v>-3.410754459262871</v>
       </c>
       <c r="G239">
         <v>-0.04349615195282708</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.062908701757916</v>
+        <v>-3.06330605833335</v>
       </c>
       <c r="G245">
         <v>-0.05670790514413393</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.235308118208465</v>
+        <v>-3.235348887018908</v>
       </c>
       <c r="G247">
         <v>-0.06753549164301087</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.386243365757495</v>
+        <v>-3.38652801082858</v>
       </c>
       <c r="G249">
         <v>-0.05689890924036756</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.452321865435248</v>
+        <v>-3.452612887966994</v>
       </c>
       <c r="G250">
         <v>-0.04262817456377532</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.513938844361598</v>
+        <v>-3.514172647160149</v>
       </c>
       <c r="G251">
         <v>-0.02389591913577971</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896401421136511</v>
+        <v>-2.896668101499313</v>
       </c>
       <c r="G254">
         <v>-0.02533596307853925</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.483541550257264</v>
+        <v>-3.483749060937244</v>
       </c>
       <c r="G261">
         <v>-0.04283610828940398</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915956046779634</v>
+        <v>-2.916102749536515</v>
       </c>
       <c r="G265">
         <v>-0.02534838443264187</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.017352417675366</v>
+        <v>-3.017477182534911</v>
       </c>
       <c r="G266">
         <v>-0.04473592293137951</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.437709509925947</v>
+        <v>-3.437925173612252</v>
       </c>
       <c r="G271">
         <v>-0.05584505545326801</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569219141212957</v>
+        <v>-3.569326721977939</v>
       </c>
       <c r="G273">
         <v>-0.02333702194628962</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.931075148387366</v>
+        <v>-2.931272491657504</v>
       </c>
       <c r="G276">
         <v>-0.02504998159940675</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.127067755736942</v>
+        <v>-3.127907484400786</v>
       </c>
       <c r="G278">
         <v>-0.05633409635484576</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.381210711106833</v>
+        <v>-3.381312783431896</v>
       </c>
       <c r="G281">
         <v>-0.06341431283353138</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.455610157170166</v>
+        <v>-3.455805647952486</v>
       </c>
       <c r="G282">
         <v>-0.0554595125997962</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.524781685464774</v>
+        <v>-3.525072379789576</v>
       </c>
       <c r="G283">
         <v>-0.04227679459733524</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.045407797280887</v>
+        <v>-3.045752991847043</v>
       </c>
       <c r="G288">
         <v>-0.04404177719794422</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.228974309554868</v>
+        <v>-3.229717671909808</v>
       </c>
       <c r="G290">
         <v>-0.06229472725528029</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.314573585183384</v>
+        <v>-3.314612753303902</v>
       </c>
       <c r="G291">
         <v>-0.06523722177547353</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.469861554742225</v>
+        <v>-3.47012529662618</v>
       </c>
       <c r="G293">
         <v>-0.0552116291176703</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.539045454279445</v>
+        <v>-3.539108869407081</v>
       </c>
       <c r="G294">
         <v>-0.04173874754656759</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603138680396442</v>
+        <v>-3.603302959308545</v>
       </c>
       <c r="G295">
         <v>-0.02317519255524247</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.055556487377898</v>
+        <v>-3.055778214905665</v>
       </c>
       <c r="G299">
         <v>-0.04368473617509183</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.962118839314916</v>
+        <v>-2.962272241996331</v>
       </c>
       <c r="G309">
         <v>-0.02456431342997512</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.249079676153535</v>
+        <v>-3.249186734883396</v>
       </c>
       <c r="G312">
         <v>-0.06182188637281327</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.334464403410752</v>
+        <v>-3.334685378353339</v>
       </c>
       <c r="G313">
         <v>-0.0640572121693308</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.415187455325961</v>
+        <v>-3.415372908327762</v>
       </c>
       <c r="G314">
         <v>-0.0615033328669996</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.490491545604596</v>
+        <v>-3.490875920242061</v>
       </c>
       <c r="G315">
         <v>-0.05365802168493572</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.561120260278381</v>
+        <v>-3.561175351878074</v>
       </c>
       <c r="G316">
         <v>-0.0410098051411798</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626232382218126</v>
+        <v>-3.626249913442041</v>
       </c>
       <c r="G317">
         <v>-0.02297252562022628</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.620454949782556</v>
+        <v>-2.620655243408567</v>
       </c>
       <c r="G25">
         <v>-0.03626779227515797</v>
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636155358093864</v>
+        <v>-2.636885055063553</v>
       </c>
       <c r="G26">
         <v>-0.03922525947114863</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.652167809882661</v>
+        <v>-2.652703759175074</v>
       </c>
       <c r="G27">
         <v>-0.04216566042696002</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.668290768234279</v>
+        <v>-2.669133864456066</v>
       </c>
       <c r="G28">
         <v>-0.04443627457638599</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.682846593898752</v>
+        <v>-2.684260597536429</v>
       </c>
       <c r="G29">
         <v>-0.04670034277708046</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.69834251280484</v>
+        <v>-2.699312997154165</v>
       </c>
       <c r="G30">
         <v>-0.04912421085018304</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.713400118520367</v>
+        <v>-2.714370602869678</v>
       </c>
       <c r="G31">
         <v>-0.0511097657327253</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.758115117953485</v>
+        <v>-2.758982305696615</v>
       </c>
       <c r="G34">
         <v>-0.05660861266688721</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.786127823299673</v>
+        <v>-2.788709136328698</v>
       </c>
       <c r="G36">
         <v>-0.05846434588612537</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.815185346457806</v>
+        <v>-2.816375319406353</v>
       </c>
       <c r="G38">
         <v>-0.06093833577327845</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.828814959660233</v>
+        <v>-2.829270275903661</v>
       </c>
       <c r="G39">
         <v>-0.06187907284387939</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.842627144388113</v>
+        <v>-2.84486081673416</v>
       </c>
       <c r="G40">
         <v>-0.06268833410360286</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.855361182598561</v>
+        <v>-2.857629257156011</v>
       </c>
       <c r="G41">
         <v>-0.06233336333673867</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.868809033140289</v>
+        <v>-2.870464942572029</v>
       </c>
       <c r="G42">
         <v>-0.0623804077860235</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.882320085901344</v>
+        <v>-2.883502040028502</v>
       </c>
       <c r="G43">
         <v>-0.06316512311787825</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.908589677892194</v>
+        <v>-2.909683973689209</v>
       </c>
       <c r="G45">
         <v>-0.06264479666953671</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934918604151642</v>
+        <v>-2.935369023846956</v>
       </c>
       <c r="G47">
         <v>-0.06195100441537327</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.946546594518545</v>
+        <v>-2.947488691618998</v>
       </c>
       <c r="G48">
         <v>-0.06176577962150431</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.960453602624677</v>
+        <v>-2.960967179630789</v>
       </c>
       <c r="G49">
         <v>-0.06286633484330006</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.971461575441174</v>
+        <v>-2.972192345916783</v>
       </c>
       <c r="G50">
         <v>-0.05972787505071031</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.983803333230828</v>
+        <v>-2.984015733361586</v>
       </c>
       <c r="G51">
         <v>-0.06007196378348012</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.993487107751613</v>
+        <v>-2.996053403307832</v>
       </c>
       <c r="G52">
         <v>-0.05668368747127916</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.006335398987431</v>
+        <v>-3.007148167288856</v>
       </c>
       <c r="G53">
         <v>-0.05562965720476631</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018158786432233</v>
+        <v>-3.018951905353911</v>
       </c>
       <c r="G54">
         <v>-0.05521126448592895</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062299616451484</v>
+        <v>-3.062966964975145</v>
       </c>
       <c r="G58">
         <v>-0.04703218019725897</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.07204762178899</v>
+        <v>-3.072663609956895</v>
       </c>
       <c r="G59">
         <v>-0.04373984567775913</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.082165621816993</v>
+        <v>-3.083593304780405</v>
       </c>
       <c r="G60">
         <v>-0.04062857813993948</v>
@@ -1795,7 +1795,7 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.092322111739745</v>
+        <v>-3.0937113048084</v>
       </c>
       <c r="G61">
         <v>-0.0378702339625443</v>
@@ -1818,7 +1818,7 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.102821903413302</v>
+        <v>-3.103017610040895</v>
       </c>
       <c r="G62">
         <v>-0.03529797480311508</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.641472787292523</v>
+        <v>-2.641555125057228</v>
       </c>
       <c r="G77">
         <v>-0.01090329556992353</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710254685776732</v>
+        <v>-2.710539118397084</v>
       </c>
       <c r="G87">
         <v>-0.02802884600340905</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729279125893576</v>
+        <v>-2.729748963409933</v>
       </c>
       <c r="G90">
         <v>-0.03155638170503661</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810272069521774</v>
+        <v>-2.811010086987166</v>
       </c>
       <c r="G103">
         <v>-0.04482595510816267</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.815782292197067</v>
+        <v>-2.817246307068984</v>
       </c>
       <c r="G104">
         <v>-0.04574066073751348</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.822307650055844</v>
+        <v>-2.82353632604328</v>
       </c>
       <c r="G105">
         <v>-0.04710038379121828</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.828949394657088</v>
+        <v>-2.829320457182206</v>
       </c>
       <c r="G106">
         <v>-0.04686258588717651</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.840243589805564</v>
+        <v>-2.841370988957329</v>
       </c>
       <c r="G108">
         <v>-0.04953941912572168</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.846478912747282</v>
+        <v>-2.847370395607183</v>
       </c>
       <c r="G109">
         <v>-0.05060910726236689</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853096922227587</v>
+        <v>-2.853807239503639</v>
       </c>
       <c r="G110">
         <v>-0.05028004829699384</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.859181340451998</v>
+        <v>-2.859441732818994</v>
       </c>
       <c r="G111">
         <v>-0.05298026535693845</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.864468064660462</v>
+        <v>-2.865589782748575</v>
       </c>
       <c r="G112">
         <v>-0.05310135476033007</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.870873647500517</v>
+        <v>-2.871722885810436</v>
       </c>
       <c r="G113">
         <v>-0.05434130279531257</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.888028002335251</v>
+        <v>-2.88856806828907</v>
       </c>
       <c r="G116">
         <v>-0.05599875321482917</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.893501123393107</v>
+        <v>-2.895417962187971</v>
       </c>
       <c r="G117">
         <v>-0.05630623946761282</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.901093555641597</v>
+        <v>-2.901205319365946</v>
       </c>
       <c r="G118">
         <v>-0.05755906005427791</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.906283382154125</v>
+        <v>-2.906517844833446</v>
       </c>
       <c r="G119">
         <v>-0.05875722861848565</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.911055901984323</v>
+        <v>-2.912380257171925</v>
       </c>
       <c r="G120">
         <v>-0.05784267622208228</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.917499429550842</v>
+        <v>-2.918645075465016</v>
       </c>
       <c r="G121">
         <v>-0.05964200640505846</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.923029636181372</v>
+        <v>-2.923886618872903</v>
       </c>
       <c r="G122">
         <v>-0.05943677360966104</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.928394646809915</v>
+        <v>-2.928655421875805</v>
       </c>
       <c r="G123">
         <v>-0.05908132333838223</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.93501027447777</v>
+        <v>-2.936652215673832</v>
       </c>
       <c r="G124">
         <v>-0.06086758370121803</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.940775122234232</v>
+        <v>-2.94159176948285</v>
       </c>
       <c r="G125">
         <v>-0.06142467015176711</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.952059763072498</v>
+        <v>-2.953316883691998</v>
       </c>
       <c r="G127">
         <v>-0.06272461899464621</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.95554497614488</v>
+        <v>-2.95856049554372</v>
       </c>
       <c r="G128">
         <v>-0.06129834828573988</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.962642386123445</v>
+        <v>-2.963681407927035</v>
       </c>
       <c r="G129">
         <v>-0.0634598845370824</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.967052580959781</v>
+        <v>-2.96943336374678</v>
       </c>
       <c r="G130">
         <v>-0.06270444456834579</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.972563266881195</v>
+        <v>-2.974989214803396</v>
       </c>
       <c r="G131">
         <v>-0.06304949568468787</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.978852495850883</v>
+        <v>-2.981529567339324</v>
       </c>
       <c r="G132">
         <v>-0.06417308984930337</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985421766548307</v>
+        <v>-2.985794178865712</v>
       </c>
       <c r="G133">
         <v>-0.06334061690592852</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.990027790743635</v>
+        <v>-2.991363355623747</v>
       </c>
       <c r="G134">
         <v>-0.06490856481528917</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.995313500592903</v>
+        <v>-2.997191271972899</v>
       </c>
       <c r="G135">
         <v>-0.0651371901761062</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.006800520705011</v>
+        <v>-3.008839960461166</v>
       </c>
       <c r="G137">
         <v>-0.06574614325098627</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.010554789140968</v>
+        <v>-3.013109853506734</v>
       </c>
       <c r="G138">
         <v>-0.06488157430895414</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.016381446821152</v>
+        <v>-3.017647817326473</v>
       </c>
       <c r="G139">
         <v>-0.06534812409781954</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.033387090423855</v>
+        <v>-3.034522245515471</v>
       </c>
       <c r="G142">
         <v>-0.06705133637155147</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.038052102282872</v>
+        <v>-3.03973049649922</v>
       </c>
       <c r="G143">
         <v>-0.06616309268171561</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.042613407613997</v>
+        <v>-3.043901843542277</v>
       </c>
       <c r="G144">
         <v>-0.0643195471686635</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.048774289560845</v>
+        <v>-3.049979137209801</v>
       </c>
       <c r="G145">
         <v>-0.06637269719251204</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.058576835785062</v>
+        <v>-3.060498033350585</v>
       </c>
       <c r="G147">
         <v>-0.06500972866299559</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.063410314348772</v>
+        <v>-3.0648670459181</v>
       </c>
       <c r="G148">
         <v>-0.0660807514660342</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.069852382859484</v>
+        <v>-3.070314393796237</v>
       </c>
       <c r="G149">
         <v>-0.06735718517167322</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.0751868078807</v>
+        <v>-3.075234571677829</v>
       </c>
       <c r="G150">
         <v>-0.0668070138896848</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.079951986571319</v>
+        <v>-3.080915025652539</v>
       </c>
       <c r="G151">
         <v>-0.06712551927336374</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.0845871278297</v>
+        <v>-3.085600423794325</v>
       </c>
       <c r="G152">
         <v>-0.06568493900816552</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.08869369717696</v>
+        <v>-3.090754311520993</v>
       </c>
       <c r="G153">
         <v>-0.06553596026886055</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.094593494118694</v>
+        <v>-3.094685596021666</v>
       </c>
       <c r="G154">
         <v>-0.06460564662582646</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.099142856338307</v>
+        <v>-3.099975062024015</v>
       </c>
       <c r="G155">
         <v>-0.06387024151833787</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.104853562219796</v>
+        <v>-3.105820646217939</v>
       </c>
       <c r="G156">
         <v>-0.06619892089647905</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.10766752313019</v>
+        <v>-3.110126404332159</v>
       </c>
       <c r="G157">
         <v>-0.06297773560051212</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.114332297131922</v>
+        <v>-3.114983522257339</v>
       </c>
       <c r="G158">
         <v>-0.06293282833580149</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.118554302701132</v>
+        <v>-3.119420803221994</v>
       </c>
       <c r="G159">
         <v>-0.06292211594649277</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.1239199405356</v>
+        <v>-3.124592191795192</v>
       </c>
       <c r="G160">
         <v>-0.06460275999199316</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.132510423439215</v>
+        <v>-3.133773507983281</v>
       </c>
       <c r="G162">
         <v>-0.06240361642306858</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.138563718124103</v>
+        <v>-3.139072979486481</v>
       </c>
       <c r="G163">
         <v>-0.06333187851480204</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.14278551875527</v>
+        <v>-3.143195238232487</v>
       </c>
       <c r="G164">
         <v>-0.06280579899137406</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.14647564440819</v>
+        <v>-3.149370457214695</v>
       </c>
       <c r="G165">
         <v>-0.06027803685762512</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.152677302558065</v>
+        <v>-3.152985351233266</v>
       </c>
       <c r="G166">
         <v>-0.06236631318402486</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.175100652757391</v>
+        <v>-3.176879111885675</v>
       </c>
       <c r="G171">
         <v>-0.05846801212770159</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.179425016140824</v>
+        <v>-3.179911311489862</v>
       </c>
       <c r="G172">
         <v>-0.05812021793634847</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.183813587498328</v>
+        <v>-3.185335791199457</v>
       </c>
       <c r="G173">
         <v>-0.05557532083952921</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.189937528386656</v>
+        <v>-3.191421756253704</v>
       </c>
       <c r="G174">
         <v>-0.05830146057203633</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.192334650493331</v>
+        <v>-3.194414286065949</v>
       </c>
       <c r="G175">
         <v>-0.05548037598256861</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.197426466206064</v>
+        <v>-3.199454708232573</v>
       </c>
       <c r="G176">
         <v>-0.05476970281297389</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202270837019081</v>
+        <v>-3.202815447657584</v>
       </c>
       <c r="G177">
         <v>-0.05394704799367755</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.205431878127559</v>
+        <v>-3.207026097300778</v>
       </c>
       <c r="G178">
         <v>-0.05313327109264976</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.209956381015492</v>
+        <v>-3.212193853595218</v>
       </c>
       <c r="G179">
         <v>-0.05087480719114934</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.220491023482888</v>
+        <v>-3.22097131489349</v>
       </c>
       <c r="G181">
         <v>-0.05062455575056368</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.223153316109659</v>
+        <v>-3.22496143545705</v>
       </c>
       <c r="G182">
         <v>-0.05019216985446029</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.226770752767771</v>
+        <v>-3.22860438278545</v>
       </c>
       <c r="G183">
         <v>-0.04864397170750034</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.231135041267277</v>
+        <v>-3.233079215897079</v>
       </c>
       <c r="G184">
         <v>-0.04784262540193351</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240580766872208</v>
+        <v>-3.241621104877574</v>
       </c>
       <c r="G186">
         <v>-0.04695708139671939</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.244377511132251</v>
+        <v>-3.245367519332767</v>
       </c>
       <c r="G187">
         <v>-0.04558819085169041</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.249171324376801</v>
+        <v>-3.249496228726358</v>
       </c>
       <c r="G188">
         <v>-0.04521636929116846</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.25306372319609</v>
+        <v>-3.253182909313257</v>
       </c>
       <c r="G189">
         <v>-0.04394313330538491</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.264836925168181</v>
+        <v>-3.266515246732653</v>
       </c>
       <c r="G192">
         <v>-0.03938911236304138</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.26849835067173</v>
+        <v>-3.26990440849457</v>
       </c>
       <c r="G193">
         <v>-0.03871522156073459</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.272863955811672</v>
+        <v>-3.273230379754582</v>
       </c>
       <c r="G194">
         <v>-0.03791519189560444</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.278260019105441</v>
+        <v>-3.278378949908745</v>
       </c>
       <c r="G195">
         <v>-0.03814562038430086</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281170087550004</v>
+        <v>-3.281534222428514</v>
       </c>
       <c r="G196">
         <v>-0.03589005402379197</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.29292745657049</v>
+        <v>-3.293614665360928</v>
       </c>
       <c r="G199">
         <v>-0.03215051862906054</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.296808256757632</v>
+        <v>-3.297550987258709</v>
       </c>
       <c r="G200">
         <v>-0.03086568401113032</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.29995209821121</v>
+        <v>-3.301434645768629</v>
       </c>
       <c r="G201">
         <v>-0.02884389065963661</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.304150265684944</v>
+        <v>-3.304941624292175</v>
       </c>
       <c r="G202">
         <v>-0.02658367937868833</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308309491837611</v>
+        <v>-3.308426186762274</v>
       </c>
       <c r="G203">
         <v>-0.024802845591398</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.310721416422279</v>
+        <v>-3.312104583111773</v>
       </c>
       <c r="G204">
         <v>-0.02411630445548835</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.315386741744232</v>
+        <v>-3.316178100351461</v>
       </c>
       <c r="G205">
         <v>-0.02361599497236833</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.319067996416512</v>
+        <v>-3.319453425511504</v>
       </c>
       <c r="G206">
         <v>-0.02213161483957654</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.322728750671548</v>
+        <v>-3.323526942751192</v>
       </c>
       <c r="G207">
         <v>-0.02062673428954007</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.329698997448701</v>
+        <v>-3.330483522583514</v>
       </c>
       <c r="G209">
         <v>-0.01726571145654804</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.333765681215973</v>
+        <v>-3.334550206350785</v>
       </c>
       <c r="G210">
         <v>-0.01577449785134122</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.337440102415838</v>
+        <v>-3.337832364983247</v>
       </c>
       <c r="G211">
         <v>-0.01467554681354061</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.970749572658498</v>
+        <v>-2.971916047220347</v>
       </c>
       <c r="G223">
         <v>-0.05508930233275744</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.057657898704091</v>
+        <v>-3.059234119837638</v>
       </c>
       <c r="G224">
         <v>-0.06439179609579471</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.139139964451235</v>
+        <v>-3.139477611113833</v>
       </c>
       <c r="G225">
         <v>-0.06705857124084336</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.215599119397375</v>
+        <v>-3.216093028009043</v>
       </c>
       <c r="G226">
         <v>-0.06545083638441129</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.286357136977791</v>
+        <v>-3.28653953615823</v>
       </c>
       <c r="G227">
         <v>-0.05612762835804785</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.025965871186634</v>
+        <v>-3.026823774135827</v>
       </c>
       <c r="G234">
         <v>-0.05606691555293342</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.113803225869027</v>
+        <v>-3.114782382498099</v>
       </c>
       <c r="G235">
         <v>-0.06470282817599005</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.196291025578756</v>
+        <v>-3.197508241973818</v>
       </c>
       <c r="G236">
         <v>-0.06723933290422379</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.273885244421057</v>
+        <v>-3.273940513278541</v>
       </c>
       <c r="G237">
         <v>-0.06520761654466756</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.345027707578502</v>
+        <v>-3.345703357164571</v>
       </c>
       <c r="G238">
         <v>-0.05749019696612478</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.410754459262871</v>
+        <v>-3.411556693656862</v>
       </c>
       <c r="G239">
         <v>-0.04349615195282708</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.470621352742761</v>
+        <v>-3.471139703728572</v>
       </c>
       <c r="G240">
         <v>-0.02412576685082418</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.235348887018908</v>
+        <v>-3.236165275414127</v>
       </c>
       <c r="G247">
         <v>-0.06753549164301087</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.312863374083823</v>
+        <v>-3.31340588042137</v>
       </c>
       <c r="G248">
         <v>-0.06474151316402299</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.38652801082858</v>
+        <v>-3.38664641389452</v>
       </c>
       <c r="G249">
         <v>-0.05689890924036756</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.452612887966994</v>
+        <v>-3.453399809208053</v>
       </c>
       <c r="G250">
         <v>-0.04262817456377532</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.514172647160149</v>
+        <v>-3.514336204581041</v>
       </c>
       <c r="G251">
         <v>-0.02389591913577971</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.180086499267332</v>
+        <v>-3.180299128541131</v>
       </c>
       <c r="G257">
         <v>-0.06472538716122433</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.263488958414879</v>
+        <v>-3.264241911639148</v>
       </c>
       <c r="G258">
         <v>-0.06707917049515433</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.415380791534425</v>
+        <v>-3.416089855933767</v>
       </c>
       <c r="G260">
         <v>-0.05629883868382379</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.483749060937244</v>
+        <v>-3.484084159335121</v>
       </c>
       <c r="G261">
         <v>-0.04283610828940398</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545591141798957</v>
+        <v>-3.545711929657203</v>
       </c>
       <c r="G262">
         <v>-0.02383702401747945</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.199970586080935</v>
+        <v>-3.200408353114494</v>
       </c>
       <c r="G268">
         <v>-0.06373452767109944</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.364427001925655</v>
+        <v>-3.364573257102102</v>
       </c>
       <c r="G270">
         <v>-0.06417327872183076</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.437925173612252</v>
+        <v>-3.438172112789595</v>
       </c>
       <c r="G271">
         <v>-0.05584505545326801</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.506676876165233</v>
+        <v>-3.506898366808092</v>
       </c>
       <c r="G272">
         <v>-0.04280358929556005</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569326721977939</v>
+        <v>-3.569649817645607</v>
       </c>
       <c r="G273">
         <v>-0.02333702194628962</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.216166602841922</v>
+        <v>-3.216642721517012</v>
       </c>
       <c r="G279">
         <v>-0.06307869716275682</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.301187537278456</v>
+        <v>-3.301729615044863</v>
       </c>
       <c r="G280">
         <v>-0.0657453853022234</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.381312783431896</v>
+        <v>-3.381436582327977</v>
       </c>
       <c r="G281">
         <v>-0.06341431283353138</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588151898899625</v>
+        <v>-3.588468153651921</v>
       </c>
       <c r="G284">
         <v>-0.02329276173511757</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.314612753303902</v>
+        <v>-3.314624407101957</v>
       </c>
       <c r="G291">
         <v>-0.06523722177547353</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.539108869407081</v>
+        <v>-3.53933692473963</v>
       </c>
       <c r="G294">
         <v>-0.04173874754656759</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.325753845688338</v>
+        <v>-3.326008349105961</v>
       </c>
       <c r="G302">
         <v>-0.06495860328488168</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.48126388523464</v>
+        <v>-3.481459939138705</v>
       </c>
       <c r="G304">
         <v>-0.05446523919114499</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.334685378353339</v>
+        <v>-3.334696279679367</v>
       </c>
       <c r="G313">
         <v>-0.0640572121693308</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.415372908327762</v>
+        <v>-3.415550800452646</v>
       </c>
       <c r="G314">
         <v>-0.0615033328669996</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.490875920242061</v>
+        <v>-3.490928989574425</v>
       </c>
       <c r="G315">
         <v>-0.05365802168493572</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.561175351878074</v>
+        <v>-3.561418844599606</v>
       </c>
       <c r="G316">
         <v>-0.0410098051411798</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626249913442041</v>
+        <v>-3.626431958350266</v>
       </c>
       <c r="G317">
         <v>-0.02297252562022628</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.714370602869678</v>
+        <v>-2.714402004295984</v>
       </c>
       <c r="G31">
         <v>-0.0511097657327253</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.996053403307832</v>
+        <v>-2.996702175957638</v>
       </c>
       <c r="G52">
         <v>-0.05668368747127916</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.041108648834052</v>
+        <v>-3.041837272297837</v>
       </c>
       <c r="G56">
         <v>-0.05199630233609664</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.797750722139291</v>
+        <v>-2.797909220228607</v>
       </c>
       <c r="G101">
         <v>-0.043159838190022</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.865589782748575</v>
+        <v>-2.865961385164634</v>
       </c>
       <c r="G112">
         <v>-0.05310135476033007</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.88856806828907</v>
+        <v>-2.888988508714696</v>
       </c>
       <c r="G116">
         <v>-0.05599875321482917</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.895417962187971</v>
+        <v>-2.896007058079502</v>
       </c>
       <c r="G117">
         <v>-0.05630623946761282</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.928655421875805</v>
+        <v>-2.928861287357433</v>
       </c>
       <c r="G123">
         <v>-0.05908132333838223</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985794178865712</v>
+        <v>-2.985877784299328</v>
       </c>
       <c r="G133">
         <v>-0.06334061690592852</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.991363355623747</v>
+        <v>-2.991481936836142</v>
       </c>
       <c r="G134">
         <v>-0.06490856481528917</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.043901843542277</v>
+        <v>-3.045248031359872</v>
       </c>
       <c r="G144">
         <v>-0.0643195471686635</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.119420803221994</v>
+        <v>-3.120143462968231</v>
       </c>
       <c r="G159">
         <v>-0.06292211594649277</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.152985351233266</v>
+        <v>-3.153059039718369</v>
       </c>
       <c r="G166">
         <v>-0.06236631318402486</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.167409264353074</v>
+        <v>-3.167428643173194</v>
       </c>
       <c r="G169">
         <v>-0.06160137056381587</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.171203254896372</v>
+        <v>-3.171511559975498</v>
       </c>
       <c r="G170">
         <v>-0.05843453346171612</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.179911311489862</v>
+        <v>-3.180254129210255</v>
       </c>
       <c r="G172">
         <v>-0.05812021793634847</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202815447657584</v>
+        <v>-3.202981746072576</v>
       </c>
       <c r="G177">
         <v>-0.05394704799367755</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.257196298475926</v>
+        <v>-3.257585400784162</v>
       </c>
       <c r="G190">
         <v>-0.04291007378014788</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.266515246732653</v>
+        <v>-3.266621300990157</v>
       </c>
       <c r="G192">
         <v>-0.03938911236304138</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308426186762274</v>
+        <v>-3.308694920932601</v>
       </c>
       <c r="G203">
         <v>-0.024802845591398</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.200408353114494</v>
+        <v>-3.200752104792899</v>
       </c>
       <c r="G268">
         <v>-0.06373452767109944</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.285354223453913</v>
+        <v>-3.28560007014908</v>
       </c>
       <c r="G269">
         <v>-0.06710933264708285</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.364573257102102</v>
+        <v>-3.364586083477278</v>
       </c>
       <c r="G270">
         <v>-0.06417327872183076</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.455805647952486</v>
+        <v>-3.45590415265989</v>
       </c>
       <c r="G282">
         <v>-0.0554595125997962</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.314624407101957</v>
+        <v>-3.314938730009383</v>
       </c>
       <c r="G291">
         <v>-0.06523722177547353</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.551307573017668</v>
+        <v>-3.55131958582276</v>
       </c>
       <c r="G305">
         <v>-0.04158883941356217</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -441,7 +441,7 @@
         <v>-2.152429234923367</v>
       </c>
       <c r="G2">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>-2.214498069149534</v>
       </c>
       <c r="G3">
-        <v>-0.01380053847560214</v>
+        <v>-0.01380053847560414</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,7 +487,7 @@
         <v>-2.276566903375703</v>
       </c>
       <c r="G4">
-        <v>-0.02760107695120739</v>
+        <v>-0.02760107695120939</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,7 +510,7 @@
         <v>-2.33863573760187</v>
       </c>
       <c r="G5">
-        <v>-0.04140161542681176</v>
+        <v>-0.04140161542681353</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>-2.396338640727787</v>
       </c>
       <c r="G6">
-        <v>-0.05083622280216549</v>
+        <v>-0.05083622280216749</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>-2.449675612753455</v>
       </c>
       <c r="G7">
-        <v>-0.05590489907727059</v>
+        <v>-0.05590489907727214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>-2.503012584779123</v>
       </c>
       <c r="G8">
-        <v>-0.06097357535237524</v>
+        <v>-0.0609735753523768</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>-2.551983625704542</v>
       </c>
       <c r="G9">
-        <v>-0.06167632052723127</v>
+        <v>-0.06167632052723271</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>-2.60095466662996</v>
       </c>
       <c r="G10">
-        <v>-0.06237906570208596</v>
+        <v>-0.06237906570208751</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>-2.64555977645513</v>
       </c>
       <c r="G11">
-        <v>-0.05871587977669268</v>
+        <v>-0.05871587977669401</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>-2.68579895518005</v>
       </c>
       <c r="G12">
-        <v>-0.05068676275105033</v>
+        <v>-0.05068676275105127</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>-2.726038133904971</v>
       </c>
       <c r="G13">
-        <v>-0.04265764572540731</v>
+        <v>-0.04265764572540853</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>-2.76627731262989</v>
       </c>
       <c r="G14">
-        <v>-0.03462852869976318</v>
+        <v>-0.03462852869976424</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>-2.779917079680688</v>
       </c>
       <c r="G15">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>-2.466209590292846</v>
       </c>
       <c r="G16">
-        <v>1.643130076445232e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>-2.486224135747392</v>
       </c>
       <c r="G17">
-        <v>-0.006942494621544615</v>
+        <v>-0.006942494621560602</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>-2.503584231624109</v>
       </c>
       <c r="G18">
-        <v>-0.01123053966527632</v>
+        <v>-0.01123053966529231</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>-2.520944327500826</v>
       </c>
       <c r="G19">
-        <v>-0.01551858470900713</v>
+        <v>-0.01551858470902312</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>-2.538304423377542</v>
       </c>
       <c r="G20">
-        <v>-0.01980662975273839</v>
+        <v>-0.01980662975275438</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -875,10 +875,10 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.554934822284562</v>
+        <v>-2.554734528658545</v>
       </c>
       <c r="G21">
-        <v>-0.02336497782677283</v>
+        <v>-0.023164684200772</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,10 +898,10 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.571364927565565</v>
+        <v>-2.571164633939549</v>
       </c>
       <c r="G22">
-        <v>-0.02652273864877364</v>
+        <v>-0.02652273864879096</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -921,10 +921,10 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.587795032846568</v>
+        <v>-2.587594739220552</v>
       </c>
       <c r="G23">
-        <v>-0.03008108672280807</v>
+        <v>-0.02988079309680769</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>-2.604225138127571</v>
+        <v>-2.604225138127573</v>
       </c>
       <c r="G24">
-        <v>-0.03343914117082614</v>
+        <v>-0.03343914117084346</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,10 +967,10 @@
         <v>9</v>
       </c>
       <c r="F25">
-        <v>-2.620655243408567</v>
+        <v>-2.620655243408574</v>
       </c>
       <c r="G25">
-        <v>-0.03626779227515797</v>
+        <v>-0.03679719561885886</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -990,10 +990,10 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636885055063553</v>
+        <v>-2.636619990020834</v>
       </c>
       <c r="G26">
-        <v>-0.03922525947114863</v>
+        <v>-0.03968989139813406</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.652703759175074</v>
+        <v>-2.651892064379568</v>
       </c>
       <c r="G27">
-        <v>-0.04216566042696002</v>
+        <v>-0.04188991492388294</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.669133864456066</v>
+        <v>-2.667856810991841</v>
       </c>
       <c r="G28">
-        <v>-0.04443627457638599</v>
+        <v>-0.04478261070317036</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.684260597536429</v>
+        <v>-2.683046887524762</v>
       </c>
       <c r="G29">
-        <v>-0.04670034277708046</v>
+        <v>-0.04690063640310549</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1082,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.699312997154165</v>
+        <v>-2.699367371687331</v>
       </c>
       <c r="G30">
-        <v>-0.04912421085018304</v>
+        <v>-0.0501490697326894</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1105,10 +1105,10 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.714402004295984</v>
+        <v>-2.712122177691992</v>
       </c>
       <c r="G31">
-        <v>-0.0511097657327253</v>
+        <v>-0.04983182490436455</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.730477922945267</v>
+        <v>-2.728115744057261</v>
       </c>
       <c r="G32">
-        <v>-0.05336750942118473</v>
+        <v>-0.05275334043664914</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.74467323746578</v>
+        <v>-2.744559838213684</v>
       </c>
       <c r="G33">
-        <v>-0.05482477937447938</v>
+        <v>-0.05612538376008569</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.758982305696615</v>
+        <v>-2.758712530247547</v>
       </c>
       <c r="G34">
-        <v>-0.05660861266688721</v>
+        <v>-0.05720602496096405</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.773661633259083</v>
+        <v>-2.773142086198945</v>
       </c>
       <c r="G35">
-        <v>-0.05800384372381862</v>
+        <v>-0.05856353007937676</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.788709136328698</v>
+        <v>-2.786777714363937</v>
       </c>
       <c r="G36">
-        <v>-0.05846434588612537</v>
+        <v>-0.05912710741138261</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.802361413088331</v>
+        <v>-2.800455732045498</v>
       </c>
       <c r="G37">
-        <v>-0.06163875530277663</v>
+        <v>-0.05973307425995844</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.816375319406353</v>
+        <v>-2.815480508370608</v>
       </c>
       <c r="G38">
-        <v>-0.06093833577327845</v>
+        <v>-0.06168579975208366</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.829270275903661</v>
+        <v>-2.828194574259275</v>
       </c>
       <c r="G39">
-        <v>-0.06187907284387939</v>
+        <v>-0.06132781480776472</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.84486081673416</v>
+        <v>-2.843388552333803</v>
       </c>
       <c r="G40">
-        <v>-0.06268833410360286</v>
+        <v>-0.0634497420493072</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,10 +1335,10 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.857629257156011</v>
+        <v>-2.855928002331087</v>
       </c>
       <c r="G41">
-        <v>-0.06233336333673867</v>
+        <v>-0.06291714121360648</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1358,10 +1358,10 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.870464942572029</v>
+        <v>-2.8688002952712</v>
       </c>
       <c r="G42">
-        <v>-0.0623804077860235</v>
+        <v>-0.06271738332073373</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1381,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.883502040028502</v>
+        <v>-2.882588742935954</v>
       </c>
       <c r="G43">
-        <v>-0.06316512311787825</v>
+        <v>-0.06343378015250289</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1404,10 +1404,10 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896415635586953</v>
+        <v>-2.895026132968625</v>
       </c>
       <c r="G44">
-        <v>-0.06418862197050257</v>
+        <v>-0.06279911935218752</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.909683973689209</v>
+        <v>-2.908439626207472</v>
       </c>
       <c r="G45">
-        <v>-0.06264479666953671</v>
+        <v>-0.06314056175804938</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922633103265837</v>
+        <v>-2.921489594124925</v>
       </c>
       <c r="G46">
-        <v>-0.0639301736379998</v>
+        <v>-0.06311847884251764</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.935369023846956</v>
+        <v>-2.934355917011003</v>
       </c>
       <c r="G47">
-        <v>-0.06195100441537327</v>
+        <v>-0.06291275089560955</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.947488691618998</v>
+        <v>-2.947968572069088</v>
       </c>
       <c r="G48">
-        <v>-0.06176577962150431</v>
+        <v>-0.06345335512070993</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.960967179630789</v>
+        <v>-2.958712784399079</v>
       </c>
       <c r="G49">
-        <v>-0.06286633484330006</v>
+        <v>-0.06112551661771526</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1542,10 +1542,10 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.972192345916783</v>
+        <v>-2.971897947960212</v>
       </c>
       <c r="G50">
-        <v>-0.05972787505071031</v>
+        <v>-0.06123862934586255</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.984015733361586</v>
+        <v>-2.981644070927048</v>
       </c>
       <c r="G51">
-        <v>-0.06007196378348012</v>
+        <v>-0.05791270147971328</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,10 +1588,10 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.996702175957638</v>
+        <v>-2.995159710686522</v>
       </c>
       <c r="G52">
-        <v>-0.05668368747127916</v>
+        <v>-0.05835629040620205</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1611,10 +1611,10 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.007148167288856</v>
+        <v>-3.005209656855607</v>
       </c>
       <c r="G53">
-        <v>-0.05562965720476631</v>
+        <v>-0.05533418574230087</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018951905353911</v>
+        <v>-3.016630529769186</v>
       </c>
       <c r="G54">
-        <v>-0.05521126448592895</v>
+        <v>-0.05368300782289559</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.030126520148899</v>
+        <v>-3.029150829701779</v>
       </c>
       <c r="G55">
-        <v>-0.05237877490744247</v>
+        <v>-0.05313125692250298</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.041837272297837</v>
+        <v>-3.040396718873452</v>
       </c>
       <c r="G56">
-        <v>-0.05199630233609664</v>
+        <v>-0.05130509526118987</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052149905447503</v>
+        <v>-3.052067907621708</v>
       </c>
       <c r="G57">
-        <v>-0.04925653403255126</v>
+        <v>-0.0499042331764612</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062966964975145</v>
+        <v>-3.061538208505808</v>
       </c>
       <c r="G58">
-        <v>-0.04703218019725897</v>
+        <v>-0.04630248322757535</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,10 +1749,10 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.072663609956895</v>
+        <v>-3.073311309100791</v>
       </c>
       <c r="G59">
-        <v>-0.04373984567775913</v>
+        <v>-0.0450035329895726</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1772,10 +1772,10 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.083593304780405</v>
+        <v>-3.083015806507247</v>
       </c>
       <c r="G60">
-        <v>-0.04062857813993948</v>
+        <v>-0.04163597956304371</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,10 +1795,10 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>-3.0937113048084</v>
+        <v>-3.093711304808397</v>
       </c>
       <c r="G61">
-        <v>-0.0378702339625443</v>
+        <v>-0.03925942703120799</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1818,10 +1818,10 @@
         <v>46</v>
       </c>
       <c r="F62">
-        <v>-3.103017610040895</v>
+        <v>-3.103017610040896</v>
       </c>
       <c r="G62">
-        <v>-0.03529797480311508</v>
+        <v>-0.03549368143072196</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.112323915273393</v>
+        <v>-3.111594218303697</v>
       </c>
       <c r="G63">
-        <v>-0.03119394548812154</v>
+        <v>-0.03099823886053754</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.121630220505893</v>
+        <v>-3.121096230163788</v>
       </c>
       <c r="G64">
-        <v>-0.02796219022973628</v>
+        <v>-0.0274281998876435</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>49</v>
       </c>
       <c r="F65">
-        <v>-3.130936525738389</v>
+        <v>-3.130936525738388</v>
       </c>
       <c r="G65">
-        <v>-0.0241964446292468</v>
+        <v>-0.02419644462925796</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>-3.140242830970883</v>
       </c>
       <c r="G66">
-        <v>-0.02043069902875602</v>
+        <v>-0.02043069902876773</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>51</v>
       </c>
       <c r="F67">
-        <v>-3.149549136203379</v>
+        <v>-3.149549136203378</v>
       </c>
       <c r="G67">
-        <v>-0.0166649534282661</v>
+        <v>-0.01666495342827751</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-3.158855441435873</v>
       </c>
       <c r="G68">
-        <v>-0.01289920782777484</v>
+        <v>-0.01289920782778686</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>-3.167627756326263</v>
       </c>
       <c r="G69">
-        <v>-0.00859947188517983</v>
+        <v>-0.008599471885191529</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>-3.176400071216653</v>
       </c>
       <c r="G70">
-        <v>-0.004299735942584364</v>
+        <v>-0.004299735942596208</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>-3.185172386107042</v>
       </c>
       <c r="G71">
-        <v>1.154631945610163e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>-2.604741317697222</v>
       </c>
       <c r="G72">
-        <v>1.509903313490213e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-2.612229753071371</v>
       </c>
       <c r="G73">
-        <v>-0.002322800569061645</v>
+        <v>-0.0023228005690763</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>-2.61971818844552</v>
       </c>
       <c r="G74">
-        <v>-0.004645601138138389</v>
+        <v>-0.0046456011381526</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-2.627206623819669</v>
       </c>
       <c r="G75">
-        <v>-0.006968401707214689</v>
+        <v>-0.006968401707228455</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.634422043320803</v>
+        <v>-2.634339705556096</v>
       </c>
       <c r="G76">
-        <v>-0.009018186403276118</v>
+        <v>-0.008935848638582211</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.641555125057228</v>
+        <v>-2.641199771419505</v>
       </c>
       <c r="G77">
-        <v>-0.01090329556992353</v>
+        <v>-0.01063027969691976</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2186,10 +2186,10 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.64860586902895</v>
+        <v>-2.648250515391228</v>
       </c>
       <c r="G78">
-        <v>-0.01251538886355652</v>
+        <v>-0.01251538886357029</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.655738950765376</v>
+        <v>-2.655383597127654</v>
       </c>
       <c r="G79">
-        <v>-0.01483818943263238</v>
+        <v>-0.01448283579492315</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.66251667886408</v>
+        <v>-2.662243662991065</v>
       </c>
       <c r="G80">
-        <v>-0.01625960461795684</v>
+        <v>-0.01617726685326071</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.669376744727492</v>
+        <v>-2.668982989236095</v>
       </c>
       <c r="G81">
-        <v>-0.01814471378460381</v>
+        <v>-0.0177509582932176</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2278,10 +2278,10 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.676236810590903</v>
+        <v>-2.675487701461785</v>
       </c>
       <c r="G82">
-        <v>-0.01983914484294225</v>
+        <v>-0.01909003571383572</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.682979097852499</v>
+        <v>-2.68211513179498</v>
       </c>
       <c r="G83">
-        <v>-0.02080399210941675</v>
+        <v>-0.0205518312419577</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.690121617847138</v>
+        <v>-2.688761692772534</v>
       </c>
       <c r="G84">
-        <v>-0.02339268248903226</v>
+        <v>-0.022032757414439</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.69688990768763</v>
+        <v>-2.696055499777236</v>
       </c>
       <c r="G85">
-        <v>-0.02474832423033346</v>
+        <v>-0.02416092961406857</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.702931915176558</v>
+        <v>-2.70273827605168</v>
       </c>
       <c r="G86">
-        <v>-0.0258717102083077</v>
+        <v>-0.02567807108343922</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710539118397084</v>
+        <v>-2.70879783710586</v>
       </c>
       <c r="G87">
-        <v>-0.02802884600340905</v>
+        <v>-0.02657199733254689</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.716177925419281</v>
+        <v>-2.715312976834316</v>
       </c>
       <c r="G88">
-        <v>-0.028103724633465</v>
+        <v>-0.02792150225593026</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,10 +2439,10 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.723412221436834</v>
+        <v>-2.722241002698535</v>
       </c>
       <c r="G89">
-        <v>-0.02975481433243843</v>
+        <v>-0.02968389331507648</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2462,10 +2462,10 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729748963409933</v>
+        <v>-2.727456578800045</v>
       </c>
       <c r="G90">
-        <v>-0.03155638170503661</v>
+        <v>-0.02973383461151391</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2485,10 +2485,10 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.735781866347264</v>
+        <v>-2.734154667304881</v>
       </c>
       <c r="G91">
-        <v>-0.03088026215180184</v>
+        <v>-0.03126628831127753</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2508,10 +2508,10 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.742905509825476</v>
+        <v>-2.740535678895626</v>
       </c>
       <c r="G92">
-        <v>-0.03440020132024291</v>
+        <v>-0.03248166509694927</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,10 +2531,10 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.748694026778641</v>
+        <v>-2.747320921541478</v>
       </c>
       <c r="G93">
-        <v>-0.03547437817488319</v>
+        <v>-0.03410127293772813</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2554,10 +2554,10 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.755725894233939</v>
+        <v>-2.753400464988671</v>
       </c>
       <c r="G94">
-        <v>-0.03614608096163341</v>
+        <v>-0.03501518157984851</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2577,10 +2577,10 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.761221214438879</v>
+        <v>-2.759608400106428</v>
       </c>
       <c r="G95">
-        <v>-0.03767029622497731</v>
+        <v>-0.03605748189253211</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.767890268487373</v>
+        <v>-2.765250079224016</v>
       </c>
       <c r="G96">
-        <v>-0.03917371546839865</v>
+        <v>-0.03653352620504879</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.773593486659262</v>
+        <v>-2.772160953152776</v>
       </c>
       <c r="G97">
-        <v>-0.03957596666815189</v>
+        <v>-0.03827876532873598</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2646,10 +2646,10 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.780241756563092</v>
+        <v>-2.778620253874592</v>
       </c>
       <c r="G98">
-        <v>-0.04119393393397308</v>
+        <v>-0.0395724312454786</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.786324083408533</v>
+        <v>-2.784346265129596</v>
       </c>
       <c r="G99">
-        <v>-0.04211062597434179</v>
+        <v>-0.04013280769540994</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792568565011088</v>
+        <v>-2.791291746186547</v>
       </c>
       <c r="G100">
-        <v>-0.04301760031905033</v>
+        <v>-0.04191265394728871</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.797909220228607</v>
+        <v>-2.796844264963145</v>
       </c>
       <c r="G101">
-        <v>-0.043159838190022</v>
+        <v>-0.0422995379188138</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.804577245157328</v>
+        <v>-2.804747103206109</v>
       </c>
       <c r="G102">
-        <v>-0.04391005510001067</v>
+        <v>-0.04503674135670499</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2761,10 +2761,10 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.811010086987166</v>
+        <v>-2.810442813767746</v>
       </c>
       <c r="G103">
-        <v>-0.04482595510816267</v>
+        <v>-0.04556681711326904</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2784,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.817246307068984</v>
+        <v>-2.816920915726885</v>
       </c>
       <c r="G104">
-        <v>-0.04574066073751348</v>
+        <v>-0.04687928426733512</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.82353632604328</v>
+        <v>-2.821591681940795</v>
       </c>
       <c r="G105">
-        <v>-0.04710038379121828</v>
+        <v>-0.0463844156761728</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,10 +2830,10 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.829320457182206</v>
+        <v>-2.828576380895862</v>
       </c>
       <c r="G106">
-        <v>-0.04686258588717651</v>
+        <v>-0.04820347982616768</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2853,10 +2853,10 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.835707866981387</v>
+        <v>-2.835406185288494</v>
       </c>
       <c r="G107">
-        <v>-0.04818926403301571</v>
+        <v>-0.04986764941372668</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2876,10 +2876,10 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.841370988957329</v>
+        <v>-2.84032937403143</v>
       </c>
       <c r="G108">
-        <v>-0.04953941912572168</v>
+        <v>-0.0496252033515896</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.847370395607183</v>
+        <v>-2.846687523299123</v>
       </c>
       <c r="G109">
-        <v>-0.05060910726236689</v>
+        <v>-0.05081771781420974</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,10 +2922,10 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853807239503639</v>
+        <v>-2.853405887249109</v>
       </c>
       <c r="G110">
-        <v>-0.05028004829699384</v>
+        <v>-0.0523704469591233</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2945,10 +2945,10 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.859441732818994</v>
+        <v>-2.858482953071911</v>
       </c>
       <c r="G111">
-        <v>-0.05298026535693845</v>
+        <v>-0.05228187797685213</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.865961385164634</v>
+        <v>-2.863412519746915</v>
       </c>
       <c r="G112">
-        <v>-0.05310135476033007</v>
+        <v>-0.05204580984678331</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.871722885810436</v>
+        <v>-2.870836721987163</v>
       </c>
       <c r="G113">
-        <v>-0.05434130279531257</v>
+        <v>-0.05430437728195825</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,10 +3014,10 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.877336989909955</v>
+        <v>-2.875493678001226</v>
       </c>
       <c r="G114">
-        <v>-0.05563901039967822</v>
+        <v>-0.0537956984909489</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3037,10 +3037,10 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.883514138085248</v>
+        <v>-2.880628089606286</v>
       </c>
       <c r="G115">
-        <v>-0.05556634283508277</v>
+        <v>-0.05376447529093586</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.888988508714696</v>
+        <v>-2.887674400509981</v>
       </c>
       <c r="G116">
-        <v>-0.05599875321482917</v>
+        <v>-0.05564515138955883</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.896007058079502</v>
+        <v>-2.894631688928944</v>
       </c>
       <c r="G117">
-        <v>-0.05630623946761282</v>
+        <v>-0.05743680500344883</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,10 +3106,10 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.901205319365946</v>
+        <v>-2.89804843112407</v>
       </c>
       <c r="G118">
-        <v>-0.05755906005427791</v>
+        <v>-0.05568791239350235</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3129,10 +3129,10 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.906517844833446</v>
+        <v>-2.906508291545918</v>
       </c>
       <c r="G119">
-        <v>-0.05875722861848565</v>
+        <v>-0.0589821380102773</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3152,10 +3152,10 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.912380257171925</v>
+        <v>-2.910618339173237</v>
       </c>
       <c r="G120">
-        <v>-0.05784267622208228</v>
+        <v>-0.05792655083252374</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3175,10 +3175,10 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.918645075465016</v>
+        <v>-2.915942928915585</v>
       </c>
       <c r="G121">
-        <v>-0.05964200640505846</v>
+        <v>-0.05808550576979865</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,10 +3198,10 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.923886618872903</v>
+        <v>-2.922579642531792</v>
       </c>
       <c r="G122">
-        <v>-0.05943677360966104</v>
+        <v>-0.05955658458093294</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3221,10 +3221,10 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.928861287357433</v>
+        <v>-2.927675370980808</v>
       </c>
       <c r="G123">
-        <v>-0.05908132333838223</v>
+        <v>-0.05948667822487619</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.936652215673832</v>
+        <v>-2.934195277327606</v>
       </c>
       <c r="G124">
-        <v>-0.06086758370121803</v>
+        <v>-0.06084094976660115</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.94159176948285</v>
+        <v>-2.938350324012049</v>
       </c>
       <c r="G125">
-        <v>-0.06142467015176711</v>
+        <v>-0.05983036164597122</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,10 +3290,10 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.947299865835383</v>
+        <v>-2.943858696993937</v>
       </c>
       <c r="G126">
-        <v>-0.06276482763557523</v>
+        <v>-0.0601730998227874</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3313,10 +3313,10 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.953316883691998</v>
+        <v>-2.952447010265507</v>
       </c>
       <c r="G127">
-        <v>-0.06272461899464621</v>
+        <v>-0.06359577828928464</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,10 +3336,10 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.95856049554372</v>
+        <v>-2.956975881434727</v>
       </c>
       <c r="G128">
-        <v>-0.06129834828573988</v>
+        <v>-0.06295901465343201</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3359,10 +3359,10 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.963681407927035</v>
+        <v>-2.962548645111243</v>
       </c>
       <c r="G129">
-        <v>-0.0634598845370824</v>
+        <v>-0.06336614352487535</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.96943336374678</v>
+        <v>-2.96718230313613</v>
       </c>
       <c r="G130">
-        <v>-0.06270444456834579</v>
+        <v>-0.06283416674468945</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.974989214803396</v>
+        <v>-2.972294358101865</v>
       </c>
       <c r="G131">
-        <v>-0.06304949568468787</v>
+        <v>-0.06278058690535127</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.981529567339324</v>
+        <v>-2.978481302155448</v>
       </c>
       <c r="G132">
-        <v>-0.06417308984930337</v>
+        <v>-0.06380189615386178</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985877784299328</v>
+        <v>-2.985212969732511</v>
       </c>
       <c r="G133">
-        <v>-0.06334061690592852</v>
+        <v>-0.06536792892585175</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3474,10 +3474,10 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.991481936836142</v>
+        <v>-2.989435092993869</v>
       </c>
       <c r="G134">
-        <v>-0.06490856481528917</v>
+        <v>-0.06442441738213711</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3497,10 +3497,10 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.997191271972899</v>
+        <v>-2.996070213265288</v>
       </c>
       <c r="G135">
-        <v>-0.0651371901761062</v>
+        <v>-0.06589390284848329</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.001472978981877</v>
+        <v>-3.00201164207125</v>
       </c>
       <c r="G136">
-        <v>-0.0661310337600074</v>
+        <v>-0.06666969684937274</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.008839960461166</v>
+        <v>-3.006348328237504</v>
       </c>
       <c r="G137">
-        <v>-0.06574614325098627</v>
+        <v>-0.0658407482105543</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.013109853506734</v>
+        <v>-3.012142171121699</v>
       </c>
       <c r="G138">
-        <v>-0.06488157430895414</v>
+        <v>-0.06646895628967675</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,10 +3589,10 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.017647817326473</v>
+        <v>-3.017155707755842</v>
       </c>
       <c r="G139">
-        <v>-0.06534812409781954</v>
+        <v>-0.06631685811874655</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3612,10 +3612,10 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.023653181435197</v>
+        <v>-3.023988735473254</v>
       </c>
       <c r="G140">
-        <v>-0.06764869699303855</v>
+        <v>-0.06798425103108596</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.028701392265679</v>
+        <v>-3.028603805586927</v>
       </c>
       <c r="G141">
-        <v>-0.06557517375555011</v>
+        <v>-0.06743368633968649</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.034522245515471</v>
+        <v>-3.03128059952516</v>
       </c>
       <c r="G142">
-        <v>-0.06705133637155147</v>
+        <v>-0.06494484547284629</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.03973049649922</v>
+        <v>-3.036593852097766</v>
       </c>
       <c r="G143">
-        <v>-0.06616309268171561</v>
+        <v>-0.06509246324037954</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.045248031359872</v>
+        <v>-3.043688046414243</v>
       </c>
       <c r="G144">
-        <v>-0.0643195471686635</v>
+        <v>-0.06702102275178357</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.049979137209801</v>
+        <v>-3.048831449715995</v>
       </c>
       <c r="G145">
-        <v>-0.06637269719251204</v>
+        <v>-0.06699879124846264</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,10 +3750,10 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.054082298747136</v>
+        <v>-3.053159911924367</v>
       </c>
       <c r="G146">
-        <v>-0.06708400547454296</v>
+        <v>-0.0661616186517624</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3773,10 +3773,10 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.060498033350585</v>
+        <v>-3.057603103219228</v>
       </c>
       <c r="G147">
-        <v>-0.06500972866299559</v>
+        <v>-0.06543917514155018</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,10 +3796,10 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.0648670459181</v>
+        <v>-3.062426847624036</v>
       </c>
       <c r="G148">
-        <v>-0.0660807514660342</v>
+        <v>-0.06509728474128607</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3819,10 +3819,10 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.070314393796237</v>
+        <v>-3.068846122918275</v>
       </c>
       <c r="G149">
-        <v>-0.06735718517167322</v>
+        <v>-0.06635092523045194</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3842,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.075234571677829</v>
+        <v>-3.075211903990268</v>
       </c>
       <c r="G150">
-        <v>-0.0668070138896848</v>
+        <v>-0.06755107149737261</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.080915025652539</v>
+        <v>-3.078687147230057</v>
       </c>
       <c r="G151">
-        <v>-0.06712551927336374</v>
+        <v>-0.06586067993208888</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.085600423794325</v>
+        <v>-3.084016536849442</v>
       </c>
       <c r="G152">
-        <v>-0.06568493900816552</v>
+        <v>-0.06602443474640096</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.090754311520993</v>
+        <v>-3.08954439924537</v>
       </c>
       <c r="G153">
-        <v>-0.06553596026886055</v>
+        <v>-0.06638666233725576</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.094685596021666</v>
+        <v>-3.09448606423518</v>
       </c>
       <c r="G154">
-        <v>-0.06460564662582646</v>
+        <v>-0.06616269252199314</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.099975062024015</v>
+        <v>-3.099694327966028</v>
       </c>
       <c r="G155">
-        <v>-0.06387024151833787</v>
+        <v>-0.06620532144776892</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.105820646217939</v>
+        <v>-3.101836422731055</v>
       </c>
       <c r="G156">
-        <v>-0.06619892089647905</v>
+        <v>-0.06318178140772313</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.110126404332159</v>
+        <v>-3.108915526574101</v>
       </c>
       <c r="G157">
-        <v>-0.06297773560051212</v>
+        <v>-0.06509525044569653</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,10 +4026,10 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.114983522257339</v>
+        <v>-3.113173086341596</v>
       </c>
       <c r="G158">
-        <v>-0.06293282833580149</v>
+        <v>-0.06418717540811847</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4049,10 +4049,10 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.120143462968231</v>
+        <v>-3.118467684111642</v>
       </c>
       <c r="G159">
-        <v>-0.06292211594649277</v>
+        <v>-0.06431613837309214</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.124592191795192</v>
+        <v>-3.122423285583375</v>
       </c>
       <c r="G160">
-        <v>-0.06460275999199316</v>
+        <v>-0.06310610503975167</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.12933704016446</v>
+        <v>-3.129882394180412</v>
       </c>
       <c r="G161">
-        <v>-0.06340777108849349</v>
+        <v>-0.06539957883171588</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.133773507983281</v>
+        <v>-3.134156998926613</v>
       </c>
       <c r="G162">
-        <v>-0.06240361642306858</v>
+        <v>-0.06450854877284495</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.139072979486481</v>
+        <v>-3.1367323169909</v>
       </c>
       <c r="G163">
-        <v>-0.06333187851480204</v>
+        <v>-0.06191823203205926</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.143195238232487</v>
+        <v>-3.141687617457351</v>
       </c>
       <c r="G164">
-        <v>-0.06280579899137406</v>
+        <v>-0.06170789769343665</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.149370457214695</v>
+        <v>-3.14653588255989</v>
       </c>
       <c r="G165">
-        <v>-0.06027803685762512</v>
+        <v>-0.06139052799090339</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,10 +4210,10 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.153059039718369</v>
+        <v>-3.150964818286971</v>
       </c>
       <c r="G166">
-        <v>-0.06236631318402486</v>
+        <v>-0.0606538289129116</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4233,10 +4233,10 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.157798183565932</v>
+        <v>-3.155818564704471</v>
       </c>
       <c r="G167">
-        <v>-0.05994503865746714</v>
+        <v>-0.06034194052533892</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.162076771880823</v>
+        <v>-3.159345386623383</v>
       </c>
       <c r="G168">
-        <v>-0.06143451289663782</v>
+        <v>-0.05870312763917784</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,10 +4279,10 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.167428643173194</v>
+        <v>-3.165123992989949</v>
       </c>
       <c r="G169">
-        <v>-0.06160137056381587</v>
+        <v>-0.05931609920067116</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4302,10 +4302,10 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.171511559975498</v>
+        <v>-3.170266374738246</v>
       </c>
       <c r="G170">
-        <v>-0.05843453346171612</v>
+        <v>-0.05929284614389507</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.176879111885675</v>
+        <v>-3.174332691038586</v>
       </c>
       <c r="G171">
-        <v>-0.05846801212770159</v>
+        <v>-0.05819352763916286</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,10 +4348,10 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.180254129210255</v>
+        <v>-3.180901482298387</v>
       </c>
       <c r="G172">
-        <v>-0.05812021793634847</v>
+        <v>-0.05959668409389141</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4371,10 +4371,10 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.185335791199457</v>
+        <v>-3.184047806329101</v>
       </c>
       <c r="G173">
-        <v>-0.05557532083952921</v>
+        <v>-0.05757737331953217</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4394,10 +4394,10 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.191421756253704</v>
+        <v>-3.189384905410066</v>
       </c>
       <c r="G174">
-        <v>-0.05830146057203633</v>
+        <v>-0.05774883759542404</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.194414286065949</v>
+        <v>-3.192652337785755</v>
       </c>
       <c r="G175">
-        <v>-0.05548037598256861</v>
+        <v>-0.05585063516604094</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,10 +4440,10 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.199454708232573</v>
+        <v>-3.197302907514629</v>
       </c>
       <c r="G176">
-        <v>-0.05476970281297389</v>
+        <v>-0.05533557008984225</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4463,10 +4463,10 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202981746072576</v>
+        <v>-3.200804172447855</v>
       </c>
       <c r="G177">
-        <v>-0.05394704799367755</v>
+        <v>-0.05367120021799598</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.207026097300778</v>
+        <v>-3.206128136973842</v>
       </c>
       <c r="G178">
-        <v>-0.05313327109264976</v>
+        <v>-0.05382952993890999</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.212193853595218</v>
+        <v>-3.211204161392488</v>
       </c>
       <c r="G179">
-        <v>-0.05087480719114934</v>
+        <v>-0.05373991955248336</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,10 +4532,10 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.216501636310094</v>
+        <v>-3.213479352966948</v>
       </c>
       <c r="G180">
-        <v>-0.05387175966503988</v>
+        <v>-0.05084947632187042</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4555,10 +4555,10 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.22097131489349</v>
+        <v>-3.220528801075384</v>
       </c>
       <c r="G181">
-        <v>-0.05062455575056368</v>
+        <v>-0.05273328962523327</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.22496143545705</v>
+        <v>-3.22305656392198</v>
       </c>
       <c r="G182">
-        <v>-0.05019216985446029</v>
+        <v>-0.05009541766675718</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.22860438278545</v>
+        <v>-3.228865965750855</v>
       </c>
       <c r="G183">
-        <v>-0.04864397170750034</v>
+        <v>-0.05073918469055894</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.233079215897079</v>
+        <v>-3.232185449362441</v>
       </c>
       <c r="G184">
-        <v>-0.04784262540193351</v>
+        <v>-0.04889303349707286</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.237408119249076</v>
+        <v>-3.235785195310584</v>
       </c>
       <c r="G185">
-        <v>-0.04810258926953437</v>
+        <v>-0.04732714464014276</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,10 +4670,10 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.241621104877574</v>
+        <v>-3.240416555608419</v>
       </c>
       <c r="G186">
-        <v>-0.04695708139671939</v>
+        <v>-0.04679287013290445</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4693,10 +4693,10 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.245367519332767</v>
+        <v>-3.243911831759921</v>
       </c>
       <c r="G187">
-        <v>-0.04558819085169041</v>
+        <v>-0.04512251147933433</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.249496228726358</v>
+        <v>-3.249453637666394</v>
       </c>
       <c r="G188">
-        <v>-0.04521636929116846</v>
+        <v>-0.0454986825807342</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.253182909313257</v>
+        <v>-3.252491744297694</v>
       </c>
       <c r="G189">
-        <v>-0.04394313330538491</v>
+        <v>-0.04337115440696182</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.257585400784162</v>
+        <v>-3.256732657668845</v>
       </c>
       <c r="G190">
-        <v>-0.04291007378014788</v>
+        <v>-0.04244643297303952</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.261904337919098</v>
+        <v>-3.26037556322712</v>
       </c>
       <c r="G191">
-        <v>-0.04090687061327114</v>
+        <v>-0.04092370372624199</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,10 +4808,10 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.266621300990157</v>
+        <v>-3.265428408126479</v>
       </c>
       <c r="G192">
-        <v>-0.03938911236304138</v>
+        <v>-0.04081091382052865</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4831,10 +4831,10 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.26990440849457</v>
+        <v>-3.268809150336517</v>
       </c>
       <c r="G193">
-        <v>-0.03871522156073459</v>
+        <v>-0.0390260212254937</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4854,10 +4854,10 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.273230379754582</v>
+        <v>-3.273154922161715</v>
       </c>
       <c r="G194">
-        <v>-0.03791519189560444</v>
+        <v>-0.03820615824561918</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.278378949908745</v>
+        <v>-3.27658631068159</v>
       </c>
       <c r="G195">
-        <v>-0.03814562038430086</v>
+        <v>-0.03647191196042088</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281534222428514</v>
+        <v>-3.281123523967399</v>
       </c>
       <c r="G196">
-        <v>-0.03589005402379197</v>
+        <v>-0.03584349044115709</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.286444868058805</v>
+        <v>-3.284681046233304</v>
       </c>
       <c r="G197">
-        <v>-0.0347284462600026</v>
+        <v>-0.03423537790198949</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,10 +4946,10 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.289916885421038</v>
+        <v>-3.287805453984636</v>
       </c>
       <c r="G198">
-        <v>-0.03168881036324234</v>
+        <v>-0.03219415084824867</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4969,10 +4969,10 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.293614665360928</v>
+        <v>-3.293566037254779</v>
       </c>
       <c r="G199">
-        <v>-0.03215051862906054</v>
+        <v>-0.03278909931331875</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4992,10 +4992,10 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.297550987258709</v>
+        <v>-3.295407851168287</v>
       </c>
       <c r="G200">
-        <v>-0.03086568401113032</v>
+        <v>-0.02946527842175434</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.301434645768629</v>
+        <v>-3.299907390132733</v>
       </c>
       <c r="G201">
-        <v>-0.02884389065963661</v>
+        <v>-0.02879918258112757</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.304941624292175</v>
+        <v>-3.303738570958038</v>
       </c>
       <c r="G202">
-        <v>-0.02658367937868833</v>
+        <v>-0.02746472860136012</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308694920932601</v>
+        <v>-3.306624485320593</v>
       </c>
       <c r="G203">
-        <v>-0.024802845591398</v>
+        <v>-0.02518500815884239</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.312104583111773</v>
+        <v>-3.311185720957834</v>
       </c>
       <c r="G204">
-        <v>-0.02411630445548835</v>
+        <v>-0.02458060899101028</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.316178100351461</v>
+        <v>-3.31617810035146</v>
       </c>
       <c r="G205">
-        <v>-0.02361599497236833</v>
+        <v>-0.02440735357956436</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.319453425511504</v>
+        <v>-3.319061162944097</v>
       </c>
       <c r="G206">
-        <v>-0.02213161483957654</v>
+        <v>-0.02212478136712864</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.323526942751192</v>
+        <v>-3.322215818029842</v>
       </c>
       <c r="G207">
-        <v>-0.02062673428954007</v>
+        <v>-0.02011380164780052</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,10 +5176,10 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.327593626518462</v>
+        <v>-3.326416838816243</v>
       </c>
       <c r="G208">
-        <v>-0.0203259753313815</v>
+        <v>-0.01914918762912846</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5199,10 +5199,10 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.330483522583514</v>
+        <v>-3.329698997448701</v>
       </c>
       <c r="G209">
-        <v>-0.01726571145654804</v>
+        <v>-0.01726571145651398</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.334550206350785</v>
+        <v>-3.333765681215973</v>
       </c>
       <c r="G210">
-        <v>-0.01577449785134122</v>
+        <v>-0.01616676041871326</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.337832364983247</v>
+        <v>-3.336655577281025</v>
       </c>
       <c r="G211">
-        <v>-0.01467554681354061</v>
+        <v>-0.01389102167869258</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.341114523615704</v>
+        <v>-3.340722261048297</v>
       </c>
       <c r="G212">
-        <v>-0.01318433320833393</v>
+        <v>-0.01279207064089156</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>141</v>
       </c>
       <c r="F213">
-        <v>-3.344396682248162</v>
+        <v>-3.344396682248164</v>
       </c>
       <c r="G213">
-        <v>-0.01130085703571955</v>
+        <v>-0.01130085703568597</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.347678840880622</v>
+        <v>-3.347286578313215</v>
       </c>
       <c r="G214">
-        <v>-0.00941738086310695</v>
+        <v>-0.00902511829566395</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>-3.35096099951308</v>
       </c>
       <c r="G215">
-        <v>-0.007533904690493462</v>
+        <v>-0.007533904690457019</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>-3.354243158145539</v>
       </c>
       <c r="G216">
-        <v>-0.005650428517879537</v>
+        <v>-0.005650428517842983</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>-3.357525316777997</v>
       </c>
       <c r="G217">
-        <v>-0.003766952345265605</v>
+        <v>-0.003766952345228509</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>-3.360807475410456</v>
       </c>
       <c r="G218">
-        <v>-0.001883476172651232</v>
+        <v>-0.001883476172614033</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>-3.364089634042915</v>
       </c>
       <c r="G219">
-        <v>-3.774758283725532e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>-2.682032099547423</v>
       </c>
       <c r="G220">
-        <v>2.664535259100376e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.784826812283808</v>
+        <v>-2.782282926548426</v>
       </c>
       <c r="G221">
-        <v>-0.02688398028251138</v>
+        <v>-0.02434009454714081</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.882138002652626</v>
+        <v>-2.878605284051021</v>
       </c>
       <c r="G222">
-        <v>-0.04575408044899643</v>
+        <v>-0.04222136184741121</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.971916047220347</v>
+        <v>-2.971271769534718</v>
       </c>
       <c r="G223">
-        <v>-0.05508930233275744</v>
+        <v>-0.05644675712878322</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,10 +5544,10 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.059234119837638</v>
+        <v>-3.058582533534778</v>
       </c>
       <c r="G224">
-        <v>-0.06439179609579471</v>
+        <v>-0.06531643092651795</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5567,10 +5567,10 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.139477611113833</v>
+        <v>-3.140196215745282</v>
       </c>
       <c r="G225">
-        <v>-0.06705857124084336</v>
+        <v>-0.06848902293469727</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,10 +5590,10 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.216093028009043</v>
+        <v>-3.21488793747042</v>
       </c>
       <c r="G226">
-        <v>-0.06545083638441129</v>
+        <v>-0.06473965445751051</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5613,10 +5613,10 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.28653953615823</v>
+        <v>-3.284704614770998</v>
       </c>
       <c r="G227">
-        <v>-0.05612762835804785</v>
+        <v>-0.05611524155576342</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.350909462840913</v>
+        <v>-3.351501164414616</v>
       </c>
       <c r="G228">
-        <v>-0.04387899942328299</v>
+        <v>-0.04447070099705686</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.410191637075573</v>
+        <v>-3.409196574320638</v>
       </c>
       <c r="G229">
-        <v>-0.02407504829354196</v>
+        <v>-0.02372502070075455</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>-3.463912643822209</v>
       </c>
       <c r="G230">
-        <v>8.837375276016246e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>-2.731184247133912</v>
       </c>
       <c r="G231">
-        <v>4.440892098500626e-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5728,10 +5728,10 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.837777836605134</v>
+        <v>-2.835303329983895</v>
       </c>
       <c r="G232">
-        <v>-0.02644825513311311</v>
+        <v>-0.02464004521017538</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5751,10 +5751,10 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.935523269179176</v>
+        <v>-2.932126718149648</v>
       </c>
       <c r="G233">
-        <v>-0.04533896767464762</v>
+        <v>-0.04198439573612189</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.026823774135827</v>
+        <v>-3.025691588336417</v>
       </c>
       <c r="G234">
-        <v>-0.05606691555293342</v>
+        <v>-0.05607022828308428</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.114782382498099</v>
+        <v>-3.112956567495686</v>
       </c>
       <c r="G235">
-        <v>-0.06470282817599005</v>
+        <v>-0.06385616980254571</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,10 +5820,10 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.197508241973818</v>
+        <v>-3.196751021313161</v>
       </c>
       <c r="G236">
-        <v>-0.06723933290422379</v>
+        <v>-0.06817158598021367</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5843,10 +5843,10 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.273940513278541</v>
+        <v>-3.272480979202641</v>
       </c>
       <c r="G237">
-        <v>-0.06520761654466756</v>
+        <v>-0.06442250622988666</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.345703357164571</v>
+        <v>-3.34521111008637</v>
       </c>
       <c r="G238">
-        <v>-0.05749019696612478</v>
+        <v>-0.05767359947380912</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.411556693656862</v>
+        <v>-3.410267800318022</v>
       </c>
       <c r="G239">
-        <v>-0.04349615195282708</v>
+        <v>-0.04325125206565394</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.471139703728572</v>
+        <v>-3.4708136942084</v>
       </c>
       <c r="G240">
-        <v>-0.02412576685082418</v>
+        <v>-0.02431810831622477</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>-3.527393892061264</v>
       </c>
       <c r="G241">
-        <v>-2.655653474903374e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>-2.765153093550538</v>
       </c>
       <c r="G242">
-        <v>2.069455717901292e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,10 +5981,10 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.871132291188042</v>
+        <v>-2.868948151589707</v>
       </c>
       <c r="G243">
-        <v>-0.02562996328295153</v>
+        <v>-0.02344582368479298</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6004,10 +6004,10 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.971286435674763</v>
+        <v>-2.968203120776918</v>
       </c>
       <c r="G244">
-        <v>-0.04543487341532693</v>
+        <v>-0.04235155851762773</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6027,10 +6027,10 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.06330605833335</v>
+        <v>-3.061473492383817</v>
       </c>
       <c r="G245">
-        <v>-0.05670790514413393</v>
+        <v>-0.05527269577015059</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.15225550682018</v>
+        <v>-3.152063312639874</v>
       </c>
       <c r="G246">
-        <v>-0.06483211460907157</v>
+        <v>-0.06463992042885014</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.236165275414127</v>
+        <v>-3.235974919393117</v>
       </c>
       <c r="G247">
-        <v>-0.06753549164301087</v>
+        <v>-0.06820229282771728</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,10 +6096,10 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.31340588042137</v>
+        <v>-3.31395285389493</v>
       </c>
       <c r="G248">
-        <v>-0.06474151316402299</v>
+        <v>-0.0658309929751546</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6119,10 +6119,10 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.38664641389452</v>
+        <v>-3.386469031771917</v>
       </c>
       <c r="G249">
-        <v>-0.05689890924036756</v>
+        <v>-0.05712457525478265</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.453399809208053</v>
+        <v>-3.452775211163319</v>
       </c>
       <c r="G250">
-        <v>-0.04262817456377532</v>
+        <v>-0.04308152029180867</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,10 +6165,10 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.514336204581041</v>
+        <v>-3.514011879172749</v>
       </c>
       <c r="G251">
-        <v>-0.02389591913577971</v>
+        <v>-0.02396895394686305</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>-3.571265520823244</v>
       </c>
       <c r="G252">
-        <v>-9.85878045867139e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6214,7 +6214,7 @@
         <v>-2.790016782244128</v>
       </c>
       <c r="G253">
-        <v>2.264854970235319e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896668101499313</v>
+        <v>-2.894532314835468</v>
       </c>
       <c r="G254">
-        <v>-0.02533596307853925</v>
+        <v>-0.02346685677763283</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.998133693354193</v>
+        <v>-2.994666518853315</v>
       </c>
       <c r="G255">
-        <v>-0.04544474617896199</v>
+        <v>-0.0419775716781281</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6280,10 +6280,10 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.091288161854235</v>
+        <v>-3.089903054584095</v>
       </c>
       <c r="G256">
-        <v>-0.05755053886538697</v>
+        <v>-0.05616543159520071</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.180299128541131</v>
+        <v>-3.180278283432556</v>
       </c>
       <c r="G257">
-        <v>-0.06472538716122433</v>
+        <v>-0.06491717132631081</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.264241911639148</v>
+        <v>-3.263620862478335</v>
       </c>
       <c r="G258">
-        <v>-0.06707917049515433</v>
+        <v>-0.06721107455838182</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,10 +6349,10 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.34346170662662</v>
+        <v>-3.34243551726197</v>
       </c>
       <c r="G259">
-        <v>-0.06542842958963613</v>
+        <v>-0.06440224022466579</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6372,10 +6372,10 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.416089855933767</v>
+        <v>-3.415353928049921</v>
       </c>
       <c r="G260">
-        <v>-0.05629883868382379</v>
+        <v>-0.05627197519890947</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.484084159335121</v>
+        <v>-3.483282539419163</v>
       </c>
       <c r="G261">
-        <v>-0.04283610828940398</v>
+        <v>-0.04257709745080041</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545711929657203</v>
+        <v>-3.545260464305705</v>
       </c>
       <c r="G262">
-        <v>-0.02383702401747945</v>
+        <v>-0.02350634652363498</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>-3.603377606899421</v>
       </c>
       <c r="G263">
-        <v>-6.843414723789465e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>-2.808996931078332</v>
       </c>
       <c r="G264">
-        <v>-1.940669847044774e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,10 +6487,10 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.916102749536515</v>
+        <v>-2.913865342221111</v>
       </c>
       <c r="G265">
-        <v>-0.02534838443264187</v>
+        <v>-0.02325767987386751</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6510,10 +6510,10 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.017477182534911</v>
+        <v>-3.014752205002827</v>
       </c>
       <c r="G266">
-        <v>-0.04473592293137951</v>
+        <v>-0.04213571025853113</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111923280531507</v>
+        <v>-3.110386880669441</v>
       </c>
       <c r="G267">
-        <v>-0.05729795339052579</v>
+        <v>-0.05576155352809287</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,10 +6556,10 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.200752104792899</v>
+        <v>-3.200727109250027</v>
       </c>
       <c r="G268">
-        <v>-0.06373452767109944</v>
+        <v>-0.06449105083976781</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6579,10 +6579,10 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.28560007014908</v>
+        <v>-3.284962031806359</v>
       </c>
       <c r="G269">
-        <v>-0.06710933264708285</v>
+        <v>-0.06671714099904746</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.364586083477278</v>
+        <v>-3.36432338715353</v>
       </c>
       <c r="G270">
-        <v>-0.06417327872183076</v>
+        <v>-0.06406966394916647</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.438172112789595</v>
+        <v>-3.437966671988141</v>
       </c>
       <c r="G271">
-        <v>-0.05584505545326801</v>
+        <v>-0.05610221751486577</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.506898366808092</v>
+        <v>-3.506442635878692</v>
       </c>
       <c r="G272">
-        <v>-0.04280358929556005</v>
+        <v>-0.0425693490083644</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569649817645607</v>
+        <v>-3.56931407306628</v>
       </c>
       <c r="G273">
-        <v>-0.02333702194628962</v>
+        <v>-0.02343195379890012</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>-3.627890951664432</v>
       </c>
       <c r="G274">
-        <v>-7.696066006701585e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>-2.823957869084533</v>
       </c>
       <c r="G275">
-        <v>-2.726707748479384e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.931272491657504</v>
+        <v>-2.929127507578559</v>
       </c>
       <c r="G276">
-        <v>-0.02504998159940675</v>
+        <v>-0.02310234079023576</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.032906828538877</v>
+        <v>-3.030431751996774</v>
       </c>
       <c r="G277">
-        <v>-0.04452741545384953</v>
+        <v>-0.04205233891129145</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.127907484400786</v>
+        <v>-3.125771169604895</v>
       </c>
       <c r="G278">
-        <v>-0.05633409635484576</v>
+        <v>-0.05503751022225267</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.216642721517012</v>
+        <v>-3.21632808962071</v>
       </c>
       <c r="G279">
-        <v>-0.06307869716275682</v>
+        <v>-0.0632401839409078</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,10 +6832,10 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.301729615044863</v>
+        <v>-3.301452568822099</v>
       </c>
       <c r="G280">
-        <v>-0.0657453853022234</v>
+        <v>-0.06601041684513631</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6855,10 +6855,10 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.381436582327977</v>
+        <v>-3.381203642134961</v>
       </c>
       <c r="G281">
-        <v>-0.06341431283353138</v>
+        <v>-0.06340724386083907</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.45590415265989</v>
+        <v>-3.455665140799794</v>
       </c>
       <c r="G282">
-        <v>-0.0554595125997962</v>
+        <v>-0.0555144962285119</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,10 +6901,10 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.525072379789576</v>
+        <v>-3.524860036792976</v>
       </c>
       <c r="G283">
-        <v>-0.04227679459733524</v>
+        <v>-0.04235514592453404</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6924,10 +6924,10 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588468153651921</v>
+        <v>-3.588118423155662</v>
       </c>
       <c r="G284">
-        <v>-0.02329276173511757</v>
+        <v>-0.02325928599006011</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>-3.647213383462762</v>
       </c>
       <c r="G285">
-        <v>-1.186162279509517e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>-2.836052457867516</v>
       </c>
       <c r="G286">
-        <v>-1.217692613408872e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6993,10 +6993,10 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.943785635050619</v>
+        <v>-2.941865659629888</v>
       </c>
       <c r="G287">
-        <v>-0.0250763960759981</v>
+        <v>-0.02315642065422807</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.045752991847043</v>
+        <v>-3.042887179601341</v>
       </c>
       <c r="G288">
-        <v>-0.04404177719794422</v>
+        <v>-0.04152115951753643</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140711283000127</v>
+        <v>-3.138993216692245</v>
       </c>
       <c r="G289">
-        <v>-0.05668848180886221</v>
+        <v>-0.05497041550029613</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,10 +7062,10 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.229717671909808</v>
+        <v>-3.229111188888651</v>
       </c>
       <c r="G290">
-        <v>-0.06229472725528029</v>
+        <v>-0.06243160658855706</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7085,10 +7085,10 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.314938730009383</v>
+        <v>-3.31461771792533</v>
       </c>
       <c r="G291">
-        <v>-0.06523722177547353</v>
+        <v>-0.06528135451709249</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.395161793833799</v>
+        <v>-3.394923032291945</v>
       </c>
       <c r="G292">
-        <v>-0.06316864931756672</v>
+        <v>-0.06292988777556308</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.47012529662618</v>
+        <v>-3.469346994900189</v>
       </c>
       <c r="G293">
-        <v>-0.0552116291176703</v>
+        <v>-0.05469706927566154</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.53933692473963</v>
+        <v>-3.53922550658481</v>
       </c>
       <c r="G294">
-        <v>-0.04173874754656759</v>
+        <v>-0.04191879985213887</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603302959308545</v>
+        <v>-3.603243248793317</v>
       </c>
       <c r="G295">
-        <v>-0.02317519255524247</v>
+        <v>-0.02327976095250145</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>-3.662833852362676</v>
       </c>
       <c r="G296">
-        <v>5.622169396701793e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7226,7 +7226,7 @@
         <v>-2.846031576080589</v>
       </c>
       <c r="G297">
-        <v>9.983125437429408e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,10 +7246,10 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.953746618332177</v>
+        <v>-2.951805919311984</v>
       </c>
       <c r="G298">
-        <v>-0.0247949546899795</v>
+        <v>-0.02285425567090771</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7269,10 +7269,10 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.055778214905665</v>
+        <v>-3.053209803427272</v>
       </c>
       <c r="G299">
-        <v>-0.04368473617509183</v>
+        <v>-0.04133805222570786</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7292,10 +7292,10 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151115871601972</v>
+        <v>-3.149156630708653</v>
       </c>
       <c r="G300">
-        <v>-0.05632403283855592</v>
+        <v>-0.05436479194660171</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.240126960449478</v>
+        <v>-3.240072636978085</v>
       </c>
       <c r="G301">
-        <v>-0.0622518056066319</v>
+        <v>-0.06219748213672593</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.326008349105961</v>
+        <v>-3.325099207754799</v>
       </c>
       <c r="G302">
-        <v>-0.06495860328488168</v>
+        <v>-0.06430396535295224</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.405952161454927</v>
+        <v>-3.40586445002187</v>
       </c>
       <c r="G303">
-        <v>-0.06223683149086146</v>
+        <v>-0.06214912005953677</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.481459939138705</v>
+        <v>-3.48127971956027</v>
       </c>
       <c r="G304">
-        <v>-0.05446523919114499</v>
+        <v>-0.05448107351862908</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.55131958582276</v>
+        <v>-3.55116851079326</v>
       </c>
       <c r="G305">
-        <v>-0.04158883941356217</v>
+        <v>-0.04144977719113152</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,10 +7430,10 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.615851681370404</v>
+        <v>-3.615736347358679</v>
       </c>
       <c r="G306">
-        <v>-0.02321286020568863</v>
+        <v>-0.02309752619606331</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>-3.675722137241923</v>
       </c>
       <c r="G307">
-        <v>2.221778316879863e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>-2.854405124421669</v>
       </c>
       <c r="G308">
-        <v>2.573496971081113e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.962272241996331</v>
+        <v>-2.960394545802659</v>
       </c>
       <c r="G309">
-        <v>-0.02456431342997512</v>
+        <v>-0.02284001992016504</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,10 +7522,10 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.064132458658867</v>
+        <v>-3.061669083517387</v>
       </c>
       <c r="G310">
-        <v>-0.04330100155638439</v>
+        <v>-0.04083762641722544</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7545,10 +7545,10 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.159914101953565</v>
+        <v>-3.157745844152586</v>
       </c>
       <c r="G311">
-        <v>-0.05593324339038364</v>
+        <v>-0.05376498559159892</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,10 +7568,10 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.249186734883396</v>
+        <v>-3.248853855293255</v>
       </c>
       <c r="G312">
-        <v>-0.06182188637281327</v>
+        <v>-0.06159606551460084</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7591,10 +7591,10 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.334696279679367</v>
+        <v>-3.33445775979565</v>
       </c>
       <c r="G313">
-        <v>-0.0640572121693308</v>
+        <v>-0.06405056855617031</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.415550800452646</v>
+        <v>-3.415300364081172</v>
       </c>
       <c r="G314">
-        <v>-0.0615033328669996</v>
+        <v>-0.06161624162402535</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.490928989574425</v>
+        <v>-3.490783864882697</v>
       </c>
       <c r="G315">
-        <v>-0.05365802168493572</v>
+        <v>-0.0539503409647254</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.561418844599606</v>
+        <v>-3.561466439340863</v>
       </c>
       <c r="G316">
-        <v>-0.0410098051411798</v>
+        <v>-0.04135598420522379</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626431958350266</v>
+        <v>-3.626098807688541</v>
       </c>
       <c r="G317">
-        <v>-0.02297252562022628</v>
+        <v>-0.0228389510920764</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>-3.686536787814132</v>
       </c>
       <c r="G318">
-        <v>1.309174990637985e-12</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -875,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>-2.554734528658545</v>
+        <v>-2.554934822284562</v>
       </c>
       <c r="G21">
         <v>-0.023164684200772</v>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>-2.571164633939549</v>
+        <v>-2.571364927565566</v>
       </c>
       <c r="G22">
         <v>-0.02652273864879096</v>
@@ -921,7 +921,7 @@
         <v>7</v>
       </c>
       <c r="F23">
-        <v>-2.587594739220552</v>
+        <v>-2.587795032846569</v>
       </c>
       <c r="G23">
         <v>-0.02988079309680769</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.651892064379568</v>
+        <v>-2.653050095301836</v>
       </c>
       <c r="G27">
         <v>-0.04188991492388294</v>
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.667856810991841</v>
+        <v>-2.668441893424911</v>
       </c>
       <c r="G28">
         <v>-0.04478261070317036</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.683046887524762</v>
+        <v>-2.684588279289958</v>
       </c>
       <c r="G29">
         <v>-0.04690063640310549</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.699367371687331</v>
+        <v>-2.699715012370319</v>
       </c>
       <c r="G30">
         <v>-0.0501490697326894</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.712122177691992</v>
+        <v>-2.714534598521286</v>
       </c>
       <c r="G31">
         <v>-0.04983182490436455</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.728115744057261</v>
+        <v>-2.729259316385483</v>
       </c>
       <c r="G32">
         <v>-0.05275334043664914</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.744559838213684</v>
+        <v>-2.744673237465776</v>
       </c>
       <c r="G33">
         <v>-0.05612538376008569</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.773142086198945</v>
+        <v>-2.773999171296152</v>
       </c>
       <c r="G35">
         <v>-0.05856353007937676</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.786777714363937</v>
+        <v>-2.788581748201183</v>
       </c>
       <c r="G36">
         <v>-0.05912710741138261</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.800455732045498</v>
+        <v>-2.801562588753809</v>
       </c>
       <c r="G37">
         <v>-0.05973307425995844</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.815480508370608</v>
+        <v>-2.815746151227781</v>
       </c>
       <c r="G38">
         <v>-0.06168579975208366</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.828194574259275</v>
+        <v>-2.830287224060601</v>
       </c>
       <c r="G39">
         <v>-0.06132781480776472</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.8688002952712</v>
+        <v>-2.870268471988219</v>
       </c>
       <c r="G42">
         <v>-0.06271738332073373</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.882588742935954</v>
+        <v>-2.883218675070756</v>
       </c>
       <c r="G43">
         <v>-0.06343378015250289</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.895026132968625</v>
+        <v>-2.895922075811156</v>
       </c>
       <c r="G44">
         <v>-0.06279911935218752</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.908439626207472</v>
+        <v>-2.909864662843984</v>
       </c>
       <c r="G45">
         <v>-0.06314056175804938</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.921489594124925</v>
+        <v>-2.922500818590202</v>
       </c>
       <c r="G46">
         <v>-0.06311847884251764</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.958712784399079</v>
+        <v>-2.958992326314614</v>
       </c>
       <c r="G49">
         <v>-0.06112551661771526</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.981644070927048</v>
+        <v>-2.983683919016177</v>
       </c>
       <c r="G51">
         <v>-0.05791270147971328</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.005209656855607</v>
+        <v>-3.0072105157349</v>
       </c>
       <c r="G53">
         <v>-0.05533418574230087</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.016630529769186</v>
+        <v>-3.018271421728102</v>
       </c>
       <c r="G54">
         <v>-0.05368300782289559</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.029150829701779</v>
+        <v>-3.030076233299074</v>
       </c>
       <c r="G55">
         <v>-0.05313125692250298</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.040396718873452</v>
+        <v>-3.041094704867159</v>
       </c>
       <c r="G56">
         <v>-0.05130509526118987</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052067907621708</v>
+        <v>-3.052106397516472</v>
       </c>
       <c r="G57">
         <v>-0.0499042331764612</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.061538208505808</v>
+        <v>-3.062463612103098</v>
       </c>
       <c r="G58">
         <v>-0.04630248322757535</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.083015806507247</v>
+        <v>-3.083593304780401</v>
       </c>
       <c r="G60">
         <v>-0.04163597956304371</v>
@@ -1841,7 +1841,7 @@
         <v>47</v>
       </c>
       <c r="F63">
-        <v>-3.111594218303697</v>
+        <v>-3.112323915273397</v>
       </c>
       <c r="G63">
         <v>-0.03099823886053754</v>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
       <c r="F64">
-        <v>-3.121096230163788</v>
+        <v>-3.121630220505895</v>
       </c>
       <c r="G64">
         <v>-0.0274281998876435</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.641199771419505</v>
+        <v>-2.641472787292523</v>
       </c>
       <c r="G77">
         <v>-0.01063027969691976</v>
@@ -2186,7 +2186,7 @@
         <v>6</v>
       </c>
       <c r="F78">
-        <v>-2.648250515391228</v>
+        <v>-2.648688206793658</v>
       </c>
       <c r="G78">
         <v>-0.01251538886357029</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.655383597127654</v>
+        <v>-2.655738950765379</v>
       </c>
       <c r="G79">
         <v>-0.01448283579492315</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662243662991065</v>
+        <v>-2.66259901662879</v>
       </c>
       <c r="G80">
         <v>-0.01617726685326071</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.668982989236095</v>
+        <v>-2.66910471809904</v>
       </c>
       <c r="G81">
         <v>-0.0177509582932176</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.675487701461785</v>
+        <v>-2.676592164228626</v>
       </c>
       <c r="G82">
         <v>-0.01909003571383572</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.68211513179498</v>
+        <v>-2.682825839070424</v>
       </c>
       <c r="G83">
         <v>-0.0205518312419577</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.688761692772534</v>
+        <v>-2.689126484668467</v>
       </c>
       <c r="G84">
         <v>-0.022032757414439</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.715312976834316</v>
+        <v>-2.715684894792731</v>
       </c>
       <c r="G88">
         <v>-0.02792150225593026</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.722241002698535</v>
+        <v>-2.722293650249167</v>
       </c>
       <c r="G89">
         <v>-0.02968389331507648</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.727456578800045</v>
+        <v>-2.728126774953906</v>
       </c>
       <c r="G90">
         <v>-0.02973383461151391</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.734154667304881</v>
+        <v>-2.735130676776092</v>
       </c>
       <c r="G91">
         <v>-0.03126628831127753</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.740535678895626</v>
+        <v>-2.741135479723568</v>
       </c>
       <c r="G92">
         <v>-0.03248166509694927</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.747320921541478</v>
+        <v>-2.747764749761822</v>
       </c>
       <c r="G93">
         <v>-0.03410127293772813</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.753400464988671</v>
+        <v>-2.753663322921751</v>
       </c>
       <c r="G94">
         <v>-0.03501518157984851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.759608400106428</v>
+        <v>-2.760883026390633</v>
       </c>
       <c r="G95">
         <v>-0.03605748189253211</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.765250079224016</v>
+        <v>-2.766356396857878</v>
       </c>
       <c r="G96">
         <v>-0.03653352620504879</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.772160953152776</v>
+        <v>-2.772530414991561</v>
       </c>
       <c r="G97">
         <v>-0.03827876532873598</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.784346265129596</v>
+        <v>-2.785680443041405</v>
       </c>
       <c r="G99">
         <v>-0.04013280769540994</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.791291746186547</v>
+        <v>-2.792440130717671</v>
       </c>
       <c r="G100">
         <v>-0.04191265394728871</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.796844264963145</v>
+        <v>-2.797782274439362</v>
       </c>
       <c r="G101">
         <v>-0.0422995379188138</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.821591681940795</v>
+        <v>-2.822407990246707</v>
       </c>
       <c r="G105">
         <v>-0.0463844156761728</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.84032937403143</v>
+        <v>-2.841292437464164</v>
       </c>
       <c r="G108">
         <v>-0.0496252033515896</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.846687523299123</v>
+        <v>-2.847580912718955</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.858482953071911</v>
+        <v>-2.858676859867293</v>
       </c>
       <c r="G111">
         <v>-0.05228187797685213</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.863412519746915</v>
+        <v>-2.864906526037942</v>
       </c>
       <c r="G112">
         <v>-0.05204580984678331</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.875493678001226</v>
+        <v>-2.877195250020112</v>
       </c>
       <c r="G114">
         <v>-0.0537956984909489</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.880628089606286</v>
+        <v>-2.882278963289369</v>
       </c>
       <c r="G115">
         <v>-0.05376447529093586</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.887674400509981</v>
+        <v>-2.888588382661002</v>
       </c>
       <c r="G116">
         <v>-0.05564515138955883</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.89804843112407</v>
+        <v>-2.900147160995524</v>
       </c>
       <c r="G118">
         <v>-0.05568791239350235</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.906508291545918</v>
+        <v>-2.90679835320064</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.910618339173237</v>
+        <v>-2.911563792601184</v>
       </c>
       <c r="G120">
         <v>-0.05792655083252374</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.915942928915585</v>
+        <v>-2.91756964681415</v>
       </c>
       <c r="G121">
         <v>-0.05808550576979865</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.922579642531792</v>
+        <v>-2.922719014802091</v>
       </c>
       <c r="G122">
         <v>-0.05955658458093294</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.927675370980808</v>
+        <v>-2.928261689948431</v>
       </c>
       <c r="G123">
         <v>-0.05948667822487619</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.934195277327606</v>
+        <v>-2.935864263377714</v>
       </c>
       <c r="G124">
         <v>-0.06084094976660115</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.938350324012049</v>
+        <v>-2.940374393848725</v>
       </c>
       <c r="G125">
         <v>-0.05983036164597122</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.943858696993937</v>
+        <v>-2.946092397970946</v>
       </c>
       <c r="G126">
         <v>-0.0601730998227874</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.962548645111243</v>
+        <v>-2.962892612195077</v>
       </c>
       <c r="G129">
         <v>-0.06336614352487535</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.96718230313613</v>
+        <v>-2.968687927607879</v>
       </c>
       <c r="G130">
         <v>-0.06283416674468945</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.972294358101865</v>
+        <v>-2.974531732866248</v>
       </c>
       <c r="G131">
         <v>-0.06278058690535127</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.978481302155448</v>
+        <v>-2.980897007389606</v>
       </c>
       <c r="G132">
         <v>-0.06380189615386178</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.989435092993869</v>
+        <v>-2.990484419475814</v>
       </c>
       <c r="G134">
         <v>-0.06442441738213711</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.00201164207125</v>
+        <v>-3.002024118184781</v>
       </c>
       <c r="G136">
         <v>-0.06666969684937274</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.006348328237504</v>
+        <v>-3.007427135409188</v>
       </c>
       <c r="G137">
         <v>-0.0658407482105543</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.012142171121699</v>
+        <v>-3.013617841124935</v>
       </c>
       <c r="G138">
         <v>-0.06646895628967675</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.017155707755842</v>
+        <v>-3.018857952472489</v>
       </c>
       <c r="G139">
         <v>-0.06631685811874655</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.03128059952516</v>
+        <v>-3.033149027965857</v>
       </c>
       <c r="G142">
         <v>-0.06494484547284629</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.036593852097766</v>
+        <v>-3.037392740617758</v>
       </c>
       <c r="G143">
         <v>-0.06509246324037954</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.043688046414243</v>
+        <v>-3.043780935510647</v>
       </c>
       <c r="G144">
         <v>-0.06702102275178357</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.048831449715995</v>
+        <v>-3.049962934948346</v>
       </c>
       <c r="G145">
         <v>-0.06699879124846264</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.053159911924367</v>
+        <v>-3.054046079009952</v>
       </c>
       <c r="G146">
         <v>-0.0661616186517624</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.057603103219228</v>
+        <v>-3.058513395903226</v>
       </c>
       <c r="G147">
         <v>-0.06543917514155018</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.062426847624036</v>
+        <v>-3.06476805216398</v>
       </c>
       <c r="G148">
         <v>-0.06509728474128607</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.068846122918275</v>
+        <v>-3.069448820065765</v>
       </c>
       <c r="G149">
         <v>-0.06635092523045194</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.078687147230057</v>
+        <v>-3.079658254969554</v>
       </c>
       <c r="G151">
         <v>-0.06586067993208888</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.084016536849442</v>
+        <v>-3.085421092286531</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.099694327966028</v>
+        <v>-3.099875400934212</v>
       </c>
       <c r="G155">
         <v>-0.06620532144776892</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.101836422731055</v>
+        <v>-3.103915666377219</v>
       </c>
       <c r="G156">
         <v>-0.06318178140772313</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.108915526574101</v>
+        <v>-3.109812599340168</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.113173086341596</v>
+        <v>-3.114610841523113</v>
       </c>
       <c r="G158">
         <v>-0.06418717540811847</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.118467684111642</v>
+        <v>-3.119756887703957</v>
       </c>
       <c r="G159">
         <v>-0.06431613837309214</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.122423285583375</v>
+        <v>-3.124250156404641</v>
       </c>
       <c r="G160">
         <v>-0.06310610503975167</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.134156998926613</v>
+        <v>-3.134400811000488</v>
       </c>
       <c r="G162">
         <v>-0.06450854877284495</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.1367323169909</v>
+        <v>-3.138870766062598</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.141687617457351</v>
+        <v>-3.14320264540963</v>
       </c>
       <c r="G164">
         <v>-0.06170789769343665</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.14653588255989</v>
+        <v>-3.148070306114038</v>
       </c>
       <c r="G165">
         <v>-0.06139052799090339</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.150964818286971</v>
+        <v>-3.151208061712289</v>
       </c>
       <c r="G166">
         <v>-0.0606538289129116</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.155818564704471</v>
+        <v>-3.158250105071491</v>
       </c>
       <c r="G167">
         <v>-0.06034194052533892</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.159345386623383</v>
+        <v>-3.162745826669025</v>
       </c>
       <c r="G168">
         <v>-0.05870312763917784</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.165123992989949</v>
+        <v>-3.166022091887879</v>
       </c>
       <c r="G169">
         <v>-0.05931609920067116</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.170266374738246</v>
+        <v>-3.170442021325733</v>
       </c>
       <c r="G170">
         <v>-0.05929284614389507</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.174332691038586</v>
+        <v>-3.174499238510324</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.184047806329101</v>
+        <v>-3.185697991260083</v>
       </c>
       <c r="G173">
         <v>-0.05757737331953217</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.192652337785755</v>
+        <v>-3.193410465194217</v>
       </c>
       <c r="G175">
         <v>-0.05585063516604094</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.197302907514629</v>
+        <v>-3.198358377572157</v>
       </c>
       <c r="G176">
         <v>-0.05533557008984225</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.200804172447855</v>
+        <v>-3.201629328265116</v>
       </c>
       <c r="G177">
         <v>-0.05367120021799598</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.206128136973842</v>
+        <v>-3.207441955424309</v>
       </c>
       <c r="G178">
         <v>-0.05382952993890999</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.213479352966948</v>
+        <v>-3.215326432217945</v>
       </c>
       <c r="G180">
         <v>-0.05084947632187042</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.22305656392198</v>
+        <v>-3.224322352905255</v>
       </c>
       <c r="G182">
         <v>-0.05009541766675718</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.232185449362441</v>
+        <v>-3.233640229008637</v>
       </c>
       <c r="G184">
         <v>-0.04889303349707286</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.235785195310584</v>
+        <v>-3.237265525601386</v>
       </c>
       <c r="G185">
         <v>-0.04732714464014276</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240416555608419</v>
+        <v>-3.240493005020127</v>
       </c>
       <c r="G186">
         <v>-0.04679287013290445</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.243911831759921</v>
+        <v>-3.244932751361764</v>
       </c>
       <c r="G187">
         <v>-0.04512251147933433</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.249453637666394</v>
+        <v>-3.249477453415535</v>
       </c>
       <c r="G188">
         <v>-0.0454986825807342</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.256732657668845</v>
+        <v>-3.257494962208384</v>
       </c>
       <c r="G190">
         <v>-0.04244643297303952</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.26037556322712</v>
+        <v>-3.261449834115199</v>
       </c>
       <c r="G191">
         <v>-0.04092370372624199</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.265428408126479</v>
+        <v>-3.265505033733695</v>
       </c>
       <c r="G192">
         <v>-0.04081091382052865</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.268809150336517</v>
+        <v>-3.269080097775259</v>
       </c>
       <c r="G193">
         <v>-0.0390260212254937</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.273154922161715</v>
+        <v>-3.273360256078817</v>
       </c>
       <c r="G194">
         <v>-0.03820615824561918</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.27658631068159</v>
+        <v>-3.277156568788366</v>
       </c>
       <c r="G195">
         <v>-0.03647191196042088</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281123523967399</v>
+        <v>-3.281724081158286</v>
       </c>
       <c r="G196">
         <v>-0.03584349044115709</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.284681046233304</v>
+        <v>-3.284993515532486</v>
       </c>
       <c r="G197">
         <v>-0.03423537790198949</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.287805453984636</v>
+        <v>-3.2894875420468</v>
       </c>
       <c r="G198">
         <v>-0.03219415084824867</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.295407851168287</v>
+        <v>-3.297000968800071</v>
       </c>
       <c r="G200">
         <v>-0.02946527842175434</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.303738570958038</v>
+        <v>-3.304830641002966</v>
       </c>
       <c r="G202">
         <v>-0.02746472860136012</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.306624485320593</v>
+        <v>-3.308302658365193</v>
       </c>
       <c r="G203">
         <v>-0.02518500815884239</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.311185720957834</v>
+        <v>-3.312111416584187</v>
       </c>
       <c r="G204">
         <v>-0.02458060899101028</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.31617810035146</v>
+        <v>-3.316570362918868</v>
       </c>
       <c r="G205">
         <v>-0.02440735357956436</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.319061162944097</v>
+        <v>-3.319460258983918</v>
       </c>
       <c r="G206">
         <v>-0.02212478136712864</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.322215818029842</v>
+        <v>-3.323134680183783</v>
       </c>
       <c r="G207">
         <v>-0.02011380164780052</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.326416838816243</v>
+        <v>-3.326802267911233</v>
       </c>
       <c r="G208">
         <v>-0.01914918762912846</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.329698997448701</v>
+        <v>-3.330483522583515</v>
       </c>
       <c r="G209">
         <v>-0.01726571145651398</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.336655577281025</v>
+        <v>-3.337440102415839</v>
       </c>
       <c r="G211">
         <v>-0.01389102167869258</v>
@@ -5268,7 +5268,7 @@
         <v>140</v>
       </c>
       <c r="F212">
-        <v>-3.340722261048297</v>
+        <v>-3.341114523615704</v>
       </c>
       <c r="G212">
         <v>-0.01279207064089156</v>
@@ -5314,7 +5314,7 @@
         <v>142</v>
       </c>
       <c r="F214">
-        <v>-3.347286578313215</v>
+        <v>-3.347678840880622</v>
       </c>
       <c r="G214">
         <v>-0.00902511829566395</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.878605284051021</v>
+        <v>-2.879723402601144</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.21488793747042</v>
+        <v>-3.215917250449735</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.284704614770998</v>
+        <v>-3.285775378851764</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.409196574320638</v>
+        <v>-3.410220755141798</v>
       </c>
       <c r="G229">
         <v>-0.02372502070075455</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.835303329983895</v>
+        <v>-2.835331828647085</v>
       </c>
       <c r="G232">
         <v>-0.02464004521017538</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.932126718149648</v>
+        <v>-2.932939469455391</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.025691588336417</v>
+        <v>-3.026516465104642</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.112956567495686</v>
+        <v>-3.114475710907973</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.196751021313161</v>
+        <v>-3.196940546424133</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.272480979202641</v>
+        <v>-3.273593801083778</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.34521111008637</v>
+        <v>-3.345238113926052</v>
       </c>
       <c r="G238">
         <v>-0.05767359947380912</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.410267800318022</v>
+        <v>-3.410534119346668</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.4708136942084</v>
+        <v>-3.471072121619917</v>
       </c>
       <c r="G240">
         <v>-0.02431810831622477</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.868948151589707</v>
+        <v>-2.869375960965896</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.968203120776918</v>
+        <v>-2.969175544819279</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.061473492383817</v>
+        <v>-3.062360399304525</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.152063312639874</v>
+        <v>-3.152923662731959</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.452775211163319</v>
+        <v>-3.453097579674538</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.514011879172749</v>
+        <v>-3.514505027151082</v>
       </c>
       <c r="G251">
         <v>-0.02396895394686305</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.894532314835468</v>
+        <v>-2.894791234097336</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.994666518853315</v>
+        <v>-2.994927550263677</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.089903054584095</v>
+        <v>-3.090189262007291</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.34243551726197</v>
+        <v>-3.342767896831281</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.415353928049921</v>
+        <v>-3.415868158813204</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.483282539419163</v>
+        <v>-3.483946332363945</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545260464305705</v>
+        <v>-3.545498069424633</v>
       </c>
       <c r="G262">
         <v>-0.02350634652363498</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.913865342221111</v>
+        <v>-2.914290167072748</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.014752205002827</v>
+        <v>-3.014980836385814</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.110386880669441</v>
+        <v>-3.110400507265089</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.284962031806359</v>
+        <v>-3.285161438574253</v>
       </c>
       <c r="G269">
         <v>-0.06671714099904746</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.437966671988141</v>
+        <v>-3.438077772455632</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.506442635878692</v>
+        <v>-3.507035280194837</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.56931407306628</v>
+        <v>-3.569659118158384</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.929127507578559</v>
+        <v>-2.929320106049281</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.125771169604895</v>
+        <v>-3.126049680184848</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.21632808962071</v>
+        <v>-3.21641984414666</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.381203642134961</v>
+        <v>-3.38147421479524</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.455665140799794</v>
+        <v>-3.455935424392646</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588118423155662</v>
+        <v>-3.588259928825085</v>
       </c>
       <c r="G284">
         <v>-0.02325928599006011</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.941865659629888</v>
+        <v>-2.941943071029319</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.042887179601341</v>
+        <v>-3.043027632464602</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.229111188888651</v>
+        <v>-3.229582924877733</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.31461771792533</v>
+        <v>-3.314692118147659</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.469346994900189</v>
+        <v>-3.469662618889733</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.53922550658481</v>
+        <v>-3.539533792691596</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603243248793317</v>
+        <v>-3.603257483264588</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.951805919311984</v>
+        <v>-2.95206408137994</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.053209803427272</v>
+        <v>-3.053247224724322</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.149156630708653</v>
+        <v>-3.149326356750004</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.240072636978085</v>
+        <v>-3.240295079757912</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.325099207754799</v>
+        <v>-3.325363118125489</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.40586445002187</v>
+        <v>-3.405924114165821</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.615736347358679</v>
+        <v>-3.615974939323336</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.960394545802659</v>
+        <v>-2.960463068159343</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.061669083517387</v>
+        <v>-3.062047396634071</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.157745844152586</v>
+        <v>-3.157849349621525</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.33445775979565</v>
+        <v>-3.334469982309413</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.415300364081172</v>
+        <v>-3.415437898354917</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.490783864882697</v>
+        <v>-3.490797927446302</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626098807688541</v>
+        <v>-3.626257273707842</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636619990020834</v>
+        <v>-2.636820283646851</v>
       </c>
       <c r="G26">
         <v>-0.03968989139813406</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.758712530247547</v>
+        <v>-2.759259700600316</v>
       </c>
       <c r="G34">
         <v>-0.05720602496096405</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.855928002331087</v>
+        <v>-2.856821694952397</v>
       </c>
       <c r="G41">
         <v>-0.06291714121360648</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.895922075811156</v>
+        <v>-2.896746641067632</v>
       </c>
       <c r="G44">
         <v>-0.06279911935218752</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.909864662843984</v>
+        <v>-2.910115552869512</v>
       </c>
       <c r="G45">
         <v>-0.06314056175804938</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.995159710686522</v>
+        <v>-2.995241708512327</v>
       </c>
       <c r="G52">
         <v>-0.05835629040620205</v>
@@ -2140,7 +2140,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>-2.634339705556096</v>
+        <v>-2.634422043320802</v>
       </c>
       <c r="G76">
         <v>-0.008935848638582211</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.66910471809904</v>
+        <v>-2.669732098365215</v>
       </c>
       <c r="G81">
         <v>-0.0177509582932176</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.676592164228626</v>
+        <v>-2.677138195974659</v>
       </c>
       <c r="G82">
         <v>-0.01909003571383572</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.682825839070424</v>
+        <v>-2.683534567856741</v>
       </c>
       <c r="G83">
         <v>-0.0205518312419577</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.689126484668467</v>
+        <v>-2.6896744881865</v>
       </c>
       <c r="G84">
         <v>-0.022032757414439</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.696055499777236</v>
+        <v>-2.697172361818855</v>
       </c>
       <c r="G85">
         <v>-0.02416092961406857</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.70273827605168</v>
+        <v>-2.70365107146565</v>
       </c>
       <c r="G86">
         <v>-0.02567807108343922</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.70879783710586</v>
+        <v>-2.710320459220752</v>
       </c>
       <c r="G87">
         <v>-0.02657199733254689</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.715684894792731</v>
+        <v>-2.717306418993015</v>
       </c>
       <c r="G88">
         <v>-0.02792150225593026</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.722293650249167</v>
+        <v>-2.723685237309851</v>
       </c>
       <c r="G89">
         <v>-0.02968389331507648</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.728126774953906</v>
+        <v>-2.72981446729111</v>
       </c>
       <c r="G90">
         <v>-0.02973383461151391</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.735130676776092</v>
+        <v>-2.736410235857999</v>
       </c>
       <c r="G91">
         <v>-0.03126628831127753</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.741135479723568</v>
+        <v>-2.743008695878608</v>
       </c>
       <c r="G92">
         <v>-0.03248166509694927</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.747764749761822</v>
+        <v>-2.749184317890524</v>
       </c>
       <c r="G93">
         <v>-0.03410127293772813</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.753663322921751</v>
+        <v>-2.754861533483512</v>
       </c>
       <c r="G94">
         <v>-0.03501518157984851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.760883026390633</v>
+        <v>-2.761099492293057</v>
       </c>
       <c r="G95">
         <v>-0.03605748189253211</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.772530414991561</v>
+        <v>-2.772977544652201</v>
       </c>
       <c r="G97">
         <v>-0.03827876532873598</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.778620253874592</v>
+        <v>-2.779758233767478</v>
       </c>
       <c r="G98">
         <v>-0.0395724312454786</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.785680443041405</v>
+        <v>-2.786341340433625</v>
       </c>
       <c r="G99">
         <v>-0.04013280769540994</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792440130717671</v>
+        <v>-2.792696860770407</v>
       </c>
       <c r="G100">
         <v>-0.04191265394728871</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.797782274439362</v>
+        <v>-2.798293717096944</v>
       </c>
       <c r="G101">
         <v>-0.0422995379188138</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.804747103206109</v>
+        <v>-2.804768221057381</v>
       </c>
       <c r="G102">
         <v>-0.04503674135670499</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810442813767746</v>
+        <v>-2.810787616553541</v>
       </c>
       <c r="G103">
         <v>-0.04556681711326904</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.816920915726885</v>
+        <v>-2.816986177327951</v>
       </c>
       <c r="G104">
         <v>-0.04687928426733512</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.828576380895862</v>
+        <v>-2.82939089756677</v>
       </c>
       <c r="G106">
         <v>-0.04820347982616768</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.835406185288494</v>
+        <v>-2.836208080972079</v>
       </c>
       <c r="G107">
         <v>-0.04986764941372668</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.841292437464164</v>
+        <v>-2.841801065538643</v>
       </c>
       <c r="G108">
         <v>-0.0496252033515896</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.847580912718955</v>
+        <v>-2.847884608050605</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853405887249109</v>
+        <v>-2.853961480602505</v>
       </c>
       <c r="G110">
         <v>-0.0523704469591233</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.858676859867293</v>
+        <v>-2.860561028231079</v>
       </c>
       <c r="G111">
         <v>-0.05228187797685213</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.864906526037942</v>
+        <v>-2.865097280323048</v>
       </c>
       <c r="G112">
         <v>-0.05204580984678331</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.870836721987163</v>
+        <v>-2.872115437272489</v>
       </c>
       <c r="G113">
         <v>-0.05430437728195825</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.877195250020112</v>
+        <v>-2.877408878255124</v>
       </c>
       <c r="G114">
         <v>-0.0537956984909489</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.882278963289369</v>
+        <v>-2.882649490153657</v>
       </c>
       <c r="G115">
         <v>-0.05376447529093586</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.888588382661002</v>
+        <v>-2.888922757451287</v>
       </c>
       <c r="G116">
         <v>-0.05564515138955883</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.894631688928944</v>
+        <v>-2.894817697085283</v>
       </c>
       <c r="G117">
         <v>-0.05743680500344883</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.90679835320064</v>
+        <v>-2.906909590836059</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.91756964681415</v>
+        <v>-2.917938750462424</v>
       </c>
       <c r="G121">
         <v>-0.05808550576979865</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.922719014802091</v>
+        <v>-2.92381043710712</v>
       </c>
       <c r="G122">
         <v>-0.05955658458093294</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.928261689948431</v>
+        <v>-2.928740411862503</v>
       </c>
       <c r="G123">
         <v>-0.05948667822487619</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.935864263377714</v>
+        <v>-2.936146840858093</v>
       </c>
       <c r="G124">
         <v>-0.06084094976660115</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.946092397970946</v>
+        <v>-2.947165191946826</v>
       </c>
       <c r="G126">
         <v>-0.0601730998227874</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.952447010265507</v>
+        <v>-2.952583215748484</v>
       </c>
       <c r="G127">
         <v>-0.06359577828928464</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.956975881434727</v>
+        <v>-2.957300694617648</v>
       </c>
       <c r="G128">
         <v>-0.06295901465343201</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.962892612195077</v>
+        <v>-2.963236548592727</v>
       </c>
       <c r="G129">
         <v>-0.06336614352487535</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.974531732866248</v>
+        <v>-2.974835428197899</v>
       </c>
       <c r="G131">
         <v>-0.06278058690535127</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.980897007389606</v>
+        <v>-2.981200702721257</v>
       </c>
       <c r="G132">
         <v>-0.06380189615386178</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985212969732511</v>
+        <v>-2.985618288404706</v>
       </c>
       <c r="G133">
         <v>-0.06536792892585175</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.990484419475814</v>
+        <v>-2.990849211371748</v>
       </c>
       <c r="G134">
         <v>-0.06442441738213711</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.996070213265288</v>
+        <v>-2.99656641898068</v>
       </c>
       <c r="G135">
         <v>-0.06589390284848329</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.002024118184781</v>
+        <v>-3.002591267782083</v>
       </c>
       <c r="G136">
         <v>-0.06666969684937274</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.007427135409188</v>
+        <v>-3.00749333316233</v>
       </c>
       <c r="G137">
         <v>-0.0658407482105543</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.023988735473254</v>
+        <v>-3.024038561503894</v>
       </c>
       <c r="G140">
         <v>-0.06798425103108596</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.028603805586927</v>
+        <v>-3.029649189017601</v>
       </c>
       <c r="G141">
         <v>-0.06743368633968649</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.037392740617758</v>
+        <v>-3.037423420076392</v>
       </c>
       <c r="G143">
         <v>-0.06509246324037954</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.054046079009952</v>
+        <v>-3.054189938053039</v>
       </c>
       <c r="G146">
         <v>-0.0661616186517624</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.06476805216398</v>
+        <v>-3.065655176108328</v>
       </c>
       <c r="G148">
         <v>-0.06509728474128607</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.085421092286531</v>
+        <v>-3.085931697974507</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.08954439924537</v>
+        <v>-3.089869235785569</v>
       </c>
       <c r="G153">
         <v>-0.06638666233725576</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.103915666377219</v>
+        <v>-3.104188682250234</v>
       </c>
       <c r="G156">
         <v>-0.06318178140772313</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.109812599340168</v>
+        <v>-3.11014583916501</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.119756887703957</v>
+        <v>-3.119895018473649</v>
       </c>
       <c r="G159">
         <v>-0.06431613837309214</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.134400811000488</v>
+        <v>-3.135328292075219</v>
       </c>
       <c r="G162">
         <v>-0.06450854877284495</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.14320264540963</v>
+        <v>-3.143863851376657</v>
       </c>
       <c r="G164">
         <v>-0.06170789769343665</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.158250105071491</v>
+        <v>-3.158584479861775</v>
       </c>
       <c r="G167">
         <v>-0.06034194052533892</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.174499238510324</v>
+        <v>-3.175052103728773</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.180901482298387</v>
+        <v>-3.18163132844324</v>
       </c>
       <c r="G172">
         <v>-0.05959668409389141</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.193410465194217</v>
+        <v>-3.193657617087194</v>
       </c>
       <c r="G175">
         <v>-0.05585063516604094</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.198358377572157</v>
+        <v>-3.199722357960238</v>
       </c>
       <c r="G176">
         <v>-0.05533557008984225</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.211204161392488</v>
+        <v>-3.212269928780294</v>
       </c>
       <c r="G179">
         <v>-0.05373991955248336</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.215326432217945</v>
+        <v>-3.215347550069215</v>
       </c>
       <c r="G180">
         <v>-0.05084947632187042</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.220528801075384</v>
+        <v>-3.220554665055423</v>
       </c>
       <c r="G181">
         <v>-0.05273328962523327</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.224322352905255</v>
+        <v>-3.225340488559392</v>
       </c>
       <c r="G182">
         <v>-0.05009541766675718</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.244932751361764</v>
+        <v>-3.24618019990375</v>
       </c>
       <c r="G187">
         <v>-0.04512251147933433</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.249477453415535</v>
+        <v>-3.251090026026919</v>
       </c>
       <c r="G188">
         <v>-0.0454986825807342</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.261449834115199</v>
+        <v>-3.261748713968254</v>
       </c>
       <c r="G191">
         <v>-0.04092370372624199</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.269080097775259</v>
+        <v>-3.269757419705781</v>
       </c>
       <c r="G193">
         <v>-0.0390260212254937</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.273360256078817</v>
+        <v>-3.273888594936342</v>
       </c>
       <c r="G194">
         <v>-0.03820615824561918</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.293566037254779</v>
+        <v>-3.293990402660726</v>
       </c>
       <c r="G199">
         <v>-0.03278909931331875</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.299907390132733</v>
+        <v>-3.300211085464384</v>
       </c>
       <c r="G201">
         <v>-0.02879918258112757</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.304830641002966</v>
+        <v>-3.305020499732735</v>
       </c>
       <c r="G202">
         <v>-0.02746472860136012</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308302658365193</v>
+        <v>-3.308430161911905</v>
       </c>
       <c r="G203">
         <v>-0.02518500815884239</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.330483522583515</v>
+        <v>-3.330875785150921</v>
       </c>
       <c r="G209">
         <v>-0.01726571145651398</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.333765681215973</v>
+        <v>-3.334157943783379</v>
       </c>
       <c r="G210">
         <v>-0.01616676041871326</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.782282926548426</v>
+        <v>-2.784383742940737</v>
       </c>
       <c r="G221">
         <v>-0.02434009454714081</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.879723402601144</v>
+        <v>-2.880301149002896</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.971271769534718</v>
+        <v>-2.971644779813804</v>
       </c>
       <c r="G223">
         <v>-0.05644675712878322</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.058582533534778</v>
+        <v>-3.05884029111141</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.140196215745282</v>
+        <v>-3.140260429369111</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.215917250449735</v>
+        <v>-3.216069482367328</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.285775378851764</v>
+        <v>-3.285898544258274</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.835331828647085</v>
+        <v>-2.836283241850083</v>
       </c>
       <c r="G232">
         <v>-0.02464004521017538</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.932939469455391</v>
+        <v>-2.934075918666784</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.026516465104642</v>
+        <v>-3.026898460995901</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.114475710907973</v>
+        <v>-3.114526691243284</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.196940546424133</v>
+        <v>-3.197979014210819</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.273593801083778</v>
+        <v>-3.273804858358368</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.345238113926052</v>
+        <v>-3.34530965284465</v>
       </c>
       <c r="G238">
         <v>-0.05767359947380912</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.410534119346668</v>
+        <v>-3.411431829148511</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.869375960965896</v>
+        <v>-2.870311957668026</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.969175544819279</v>
+        <v>-2.969585686771264</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.062360399304525</v>
+        <v>-3.063024371368231</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.152923662731959</v>
+        <v>-3.153313717467516</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.235974919393117</v>
+        <v>-3.236742458481983</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.31395285389493</v>
+        <v>-3.314220508536463</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.386469031771917</v>
+        <v>-3.387261075848135</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.453097579674538</v>
+        <v>-3.453676186287693</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.894791234097336</v>
+        <v>-2.895297496065124</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.994927550263677</v>
+        <v>-2.995397575117346</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.090189262007291</v>
+        <v>-3.090690858673184</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.180278283432556</v>
+        <v>-3.180937019713617</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.263620862478335</v>
+        <v>-3.264731831580843</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.342767896831281</v>
+        <v>-3.344267463483424</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.415868158813204</v>
+        <v>-3.416757135684653</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.483946332363945</v>
+        <v>-3.484790281940407</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545498069424633</v>
+        <v>-3.545670233874199</v>
       </c>
       <c r="G262">
         <v>-0.02350634652363498</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.914290167072748</v>
+        <v>-2.914648705622885</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.014980836385814</v>
+        <v>-3.015391967512624</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.110400507265089</v>
+        <v>-3.111320330713415</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.200727109250027</v>
+        <v>-3.201716805318562</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.285161438574253</v>
+        <v>-3.286441313219275</v>
       </c>
       <c r="G269">
         <v>-0.06671714099904746</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.36432338715353</v>
+        <v>-3.365859767428998</v>
       </c>
       <c r="G270">
         <v>-0.06406966394916647</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.438077772455632</v>
+        <v>-3.439620421094909</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.507035280194837</v>
+        <v>-3.508150045947595</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569659118158384</v>
+        <v>-3.569940138711929</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.929320106049281</v>
+        <v>-2.931405370434122</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.030431751996774</v>
+        <v>-3.031089669059332</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.126049680184848</v>
+        <v>-3.127162068638965</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.21641984414666</v>
+        <v>-3.218242465829324</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.301452568822099</v>
+        <v>-3.303468357672835</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.38147421479524</v>
+        <v>-3.383549232511775</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.455935424392646</v>
+        <v>-3.457707585084212</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.524860036792976</v>
+        <v>-3.526312939035463</v>
       </c>
       <c r="G283">
         <v>-0.04235514592453404</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588259928825085</v>
+        <v>-3.588637378066843</v>
       </c>
       <c r="G284">
         <v>-0.02325928599006011</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.941943071029319</v>
+        <v>-2.943912239036827</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.043027632464602</v>
+        <v>-3.043875886186743</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.138993216692245</v>
+        <v>-3.140368624463744</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.229582924877733</v>
+        <v>-3.231775197213463</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.314692118147659</v>
+        <v>-3.317427566444311</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.394923032291945</v>
+        <v>-3.397910213000865</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.469662618889733</v>
+        <v>-3.472331906488792</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.539533792691596</v>
+        <v>-3.541149782063918</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603257483264588</v>
+        <v>-3.603740723486288</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.95206408137994</v>
+        <v>-2.952305470156816</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.053247224724322</v>
+        <v>-3.054279278925035</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.149326356750004</v>
+        <v>-3.151094851480767</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.240295079757912</v>
+        <v>-3.243121485662562</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.325363118125489</v>
+        <v>-3.328887469305077</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.405924114165821</v>
+        <v>-3.409169968700411</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.48127971956027</v>
+        <v>-3.484104268251254</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.55116851079326</v>
+        <v>-3.553127933591295</v>
       </c>
       <c r="G305">
         <v>-0.04144977719113152</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.615974939323336</v>
+        <v>-3.616368428759343</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.960463068159343</v>
+        <v>-2.962370943203123</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.062047396634071</v>
+        <v>-3.063113473105363</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.157849349621525</v>
+        <v>-3.160197187520722</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.248853855293255</v>
+        <v>-3.251839079478062</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.334469982309413</v>
+        <v>-3.338121504169666</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.415437898354917</v>
+        <v>-3.419003884531299</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.490797927446302</v>
+        <v>-3.49371631996022</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.561466439340863</v>
+        <v>-3.563430769080126</v>
       </c>
       <c r="G316">
         <v>-0.04135598420522379</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626257273707842</v>
+        <v>-3.626868530907974</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636820283646851</v>
+        <v>-2.636885055063554</v>
       </c>
       <c r="G26">
         <v>-0.03968989139813406</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>-2.653050095301836</v>
+        <v>-2.653515453970574</v>
       </c>
       <c r="G27">
         <v>-0.04188991492388294</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.684588279289958</v>
+        <v>-2.684990294506132</v>
       </c>
       <c r="G29">
         <v>-0.04690063640310549</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.759259700600316</v>
+        <v>-2.759328827965147</v>
       </c>
       <c r="G34">
         <v>-0.05720602496096405</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.883218675070756</v>
+        <v>-2.883828957825798</v>
       </c>
       <c r="G43">
         <v>-0.06343378015250289</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.947968572069088</v>
+        <v>-2.948100856744716</v>
       </c>
       <c r="G48">
         <v>-0.06345335512070993</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.018271421728102</v>
+        <v>-3.01903282967378</v>
       </c>
       <c r="G54">
         <v>-0.05368300782289559</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062463612103098</v>
+        <v>-3.062545609928902</v>
       </c>
       <c r="G58">
         <v>-0.04630248322757535</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.669732098365215</v>
+        <v>-2.670005114238231</v>
       </c>
       <c r="G81">
         <v>-0.0177509582932176</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.683534567856741</v>
+        <v>-2.684080599602773</v>
       </c>
       <c r="G83">
         <v>-0.0205518312419577</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.6896744881865</v>
+        <v>-2.689947504059516</v>
       </c>
       <c r="G84">
         <v>-0.022032757414439</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.70365107146565</v>
+        <v>-2.703924087338666</v>
       </c>
       <c r="G86">
         <v>-0.02567807108343922</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.72981446729111</v>
+        <v>-2.729916933662524</v>
       </c>
       <c r="G90">
         <v>-0.02973383461151391</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.749184317890524</v>
+        <v>-2.74938838451818</v>
       </c>
       <c r="G93">
         <v>-0.03410127293772813</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.754861533483512</v>
+        <v>-2.755593089047385</v>
       </c>
       <c r="G94">
         <v>-0.03501518157984851</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.766356396857878</v>
+        <v>-2.768561150628526</v>
       </c>
       <c r="G96">
         <v>-0.03653352620504879</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.772977544652201</v>
+        <v>-2.774433328297567</v>
       </c>
       <c r="G97">
         <v>-0.03827876532873598</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.779758233767478</v>
+        <v>-2.780663438853345</v>
       </c>
       <c r="G98">
         <v>-0.0395724312454786</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.786341340433625</v>
+        <v>-2.78636613898318</v>
       </c>
       <c r="G99">
         <v>-0.04013280769540994</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792696860770407</v>
+        <v>-2.792891103164739</v>
       </c>
       <c r="G100">
         <v>-0.04191265394728871</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.804768221057381</v>
+        <v>-2.804861968852299</v>
       </c>
       <c r="G102">
         <v>-0.04503674135670499</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.810787616553541</v>
+        <v>-2.812051732626264</v>
       </c>
       <c r="G103">
         <v>-0.04556681711326904</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.816986177327951</v>
+        <v>-2.8174711125097</v>
       </c>
       <c r="G104">
         <v>-0.04687928426733512</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.853961480602505</v>
+        <v>-2.854069820936985</v>
       </c>
       <c r="G110">
         <v>-0.0523704469591233</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.860561028231079</v>
+        <v>-2.861410755308761</v>
       </c>
       <c r="G111">
         <v>-0.05228187797685213</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.865097280323048</v>
+        <v>-2.866405832801847</v>
       </c>
       <c r="G112">
         <v>-0.05204580984678331</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.877408878255124</v>
+        <v>-2.877936001967059</v>
       </c>
       <c r="G114">
         <v>-0.0537956984909489</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.882649490153657</v>
+        <v>-2.882680169612292</v>
       </c>
       <c r="G115">
         <v>-0.05376447529093586</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.894817697085283</v>
+        <v>-2.895232577364842</v>
       </c>
       <c r="G117">
         <v>-0.05743680500344883</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.906909590836059</v>
+        <v>-2.907469179721492</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.911563792601184</v>
+        <v>-2.912683621707672</v>
       </c>
       <c r="G120">
         <v>-0.05792655083252374</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.92381043710712</v>
+        <v>-2.924083452980136</v>
       </c>
       <c r="G122">
         <v>-0.05955658458093294</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.928740411862503</v>
+        <v>-2.930186839254989</v>
       </c>
       <c r="G123">
         <v>-0.05948667822487619</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.936146840858093</v>
+        <v>-2.936167958709364</v>
       </c>
       <c r="G124">
         <v>-0.06084094976660115</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.940374393848725</v>
+        <v>-2.941599678449922</v>
       </c>
       <c r="G125">
         <v>-0.05983036164597122</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.968687927607879</v>
+        <v>-2.96960857548316</v>
       </c>
       <c r="G130">
         <v>-0.06283416674468945</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.974835428197899</v>
+        <v>-2.975371247894754</v>
       </c>
       <c r="G131">
         <v>-0.06278058690535127</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.981200702721257</v>
+        <v>-2.981513959660271</v>
       </c>
       <c r="G132">
         <v>-0.06380189615386178</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.985618288404706</v>
+        <v>-2.986054286535536</v>
       </c>
       <c r="G133">
         <v>-0.06536792892585175</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.990849211371748</v>
+        <v>-2.990910593646295</v>
       </c>
       <c r="G134">
         <v>-0.06442441738213711</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.99656641898068</v>
+        <v>-2.997312630043158</v>
       </c>
       <c r="G135">
         <v>-0.06589390284848329</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.00749333316233</v>
+        <v>-3.00811497796741</v>
       </c>
       <c r="G137">
         <v>-0.0658407482105543</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.013617841124935</v>
+        <v>-3.013902413241858</v>
       </c>
       <c r="G138">
         <v>-0.06646895628967675</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.018857952472489</v>
+        <v>-3.019166463282735</v>
       </c>
       <c r="G139">
         <v>-0.06631685811874655</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.029649189017601</v>
+        <v>-3.030369759265354</v>
       </c>
       <c r="G141">
         <v>-0.06743368633968649</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.033149027965857</v>
+        <v>-3.033443161690143</v>
       </c>
       <c r="G142">
         <v>-0.06494484547284629</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.037423420076392</v>
+        <v>-3.039038650892324</v>
       </c>
       <c r="G143">
         <v>-0.06509246324037954</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.049962934948346</v>
+        <v>-3.049977335391581</v>
       </c>
       <c r="G145">
         <v>-0.06699879124846264</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.065655176108328</v>
+        <v>-3.066041371565797</v>
       </c>
       <c r="G148">
         <v>-0.06509728474128607</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.069448820065765</v>
+        <v>-3.070180784196312</v>
       </c>
       <c r="G149">
         <v>-0.06635092523045194</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.075211903990268</v>
+        <v>-3.076302267735913</v>
       </c>
       <c r="G150">
         <v>-0.06755107149737261</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.079658254969554</v>
+        <v>-3.080968522413809</v>
       </c>
       <c r="G151">
         <v>-0.06586067993208888</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.085931697974507</v>
+        <v>-3.086317893431975</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.089869235785569</v>
+        <v>-3.089955545888079</v>
       </c>
       <c r="G153">
         <v>-0.06638666233725576</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.09448606423518</v>
+        <v>-3.094808056576048</v>
       </c>
       <c r="G154">
         <v>-0.06616269252199314</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.099875400934212</v>
+        <v>-3.099901264914251</v>
       </c>
       <c r="G155">
         <v>-0.06620532144776892</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.104188682250234</v>
+        <v>-3.104746270240173</v>
       </c>
       <c r="G156">
         <v>-0.06318178140772313</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.11014583916501</v>
+        <v>-3.110442694144449</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.119895018473649</v>
+        <v>-3.119946839140833</v>
       </c>
       <c r="G159">
         <v>-0.06431613837309214</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.124250156404641</v>
+        <v>-3.125287972406695</v>
       </c>
       <c r="G160">
         <v>-0.06310610503975167</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.129882394180412</v>
+        <v>-3.130025247721595</v>
       </c>
       <c r="G161">
         <v>-0.06539957883171588</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.138870766062598</v>
+        <v>-3.139395092289758</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.148070306114038</v>
+        <v>-3.148644312070384</v>
       </c>
       <c r="G165">
         <v>-0.06139052799090339</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.151208061712289</v>
+        <v>-3.151796329160862</v>
       </c>
       <c r="G166">
         <v>-0.0606538289129116</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.158584479861775</v>
+        <v>-3.158631461693085</v>
       </c>
       <c r="G167">
         <v>-0.06034194052533892</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.162745826669025</v>
+        <v>-3.163359934740356</v>
       </c>
       <c r="G168">
         <v>-0.05870312763917784</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.166022091887879</v>
+        <v>-3.167012926516423</v>
       </c>
       <c r="G169">
         <v>-0.05931609920067116</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.170442021325733</v>
+        <v>-3.171647241044968</v>
       </c>
       <c r="G170">
         <v>-0.05929284614389507</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.175052103728773</v>
+        <v>-3.175132725159658</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.18163132844324</v>
+        <v>-3.183467529261605</v>
       </c>
       <c r="G172">
         <v>-0.05959668409389141</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.185697991260083</v>
+        <v>-3.18642302192634</v>
       </c>
       <c r="G173">
         <v>-0.05757737331953217</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.193657617087194</v>
+        <v>-3.194404585388234</v>
       </c>
       <c r="G175">
         <v>-0.05585063516604094</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.199722357960238</v>
+        <v>-3.200030799420656</v>
       </c>
       <c r="G176">
         <v>-0.05533557008984225</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.201629328265116</v>
+        <v>-3.202044826264514</v>
       </c>
       <c r="G177">
         <v>-0.05367120021799598</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.207441955424309</v>
+        <v>-3.207625073388768</v>
       </c>
       <c r="G178">
         <v>-0.05382952993890999</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.212269928780294</v>
+        <v>-3.212556780663451</v>
       </c>
       <c r="G179">
         <v>-0.05373991955248336</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.215347550069215</v>
+        <v>-3.215809528121695</v>
       </c>
       <c r="G180">
         <v>-0.05084947632187042</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.220554665055423</v>
+        <v>-3.22068323421775</v>
       </c>
       <c r="G181">
         <v>-0.05273328962523327</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.225340488559392</v>
+        <v>-3.225371168018027</v>
       </c>
       <c r="G182">
         <v>-0.05009541766675718</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.233640229008637</v>
+        <v>-3.235304984170834</v>
       </c>
       <c r="G184">
         <v>-0.04889303349707286</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.237265525601386</v>
+        <v>-3.237487277940412</v>
       </c>
       <c r="G185">
         <v>-0.04732714464014276</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240493005020127</v>
+        <v>-3.240680845756077</v>
       </c>
       <c r="G186">
         <v>-0.04679287013290445</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.252491744297694</v>
+        <v>-3.252680706477158</v>
       </c>
       <c r="G189">
         <v>-0.04337115440696182</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.257494962208384</v>
+        <v>-3.260537831860434</v>
       </c>
       <c r="G190">
         <v>-0.04244643297303952</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.265505033733695</v>
+        <v>-3.26582239601018</v>
       </c>
       <c r="G192">
         <v>-0.04081091382052865</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.269757419705781</v>
+        <v>-3.269947278435552</v>
       </c>
       <c r="G193">
         <v>-0.0390260212254937</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.273888594936342</v>
+        <v>-3.27509169707486</v>
       </c>
       <c r="G194">
         <v>-0.03820615824561918</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.277156568788366</v>
+        <v>-3.278082705483533</v>
       </c>
       <c r="G195">
         <v>-0.03647191196042088</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281724081158286</v>
+        <v>-3.281844751232582</v>
       </c>
       <c r="G196">
         <v>-0.03584349044115709</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.284993515532486</v>
+        <v>-3.285811265342808</v>
       </c>
       <c r="G197">
         <v>-0.03423537790198949</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.297000968800071</v>
+        <v>-3.297406898312311</v>
       </c>
       <c r="G200">
         <v>-0.02946527842175434</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.300211085464384</v>
+        <v>-3.300682223472355</v>
       </c>
       <c r="G201">
         <v>-0.02879918258112757</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.305020499732735</v>
+        <v>-3.305154836751864</v>
       </c>
       <c r="G202">
         <v>-0.02746472860136012</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.316570362918868</v>
+        <v>-3.316962625486274</v>
       </c>
       <c r="G205">
         <v>-0.02440735357956436</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.326802267911233</v>
+        <v>-3.327201363951055</v>
       </c>
       <c r="G208">
         <v>-0.01914918762912846</v>
@@ -5199,7 +5199,7 @@
         <v>137</v>
       </c>
       <c r="F209">
-        <v>-3.330875785150921</v>
+        <v>-3.331268047718327</v>
       </c>
       <c r="G209">
         <v>-0.01726571145651398</v>
@@ -5222,7 +5222,7 @@
         <v>138</v>
       </c>
       <c r="F210">
-        <v>-3.334157943783379</v>
+        <v>-3.334550206350787</v>
       </c>
       <c r="G210">
         <v>-0.01616676041871326</v>
@@ -5245,7 +5245,7 @@
         <v>139</v>
       </c>
       <c r="F211">
-        <v>-3.337440102415839</v>
+        <v>-3.337832364983246</v>
       </c>
       <c r="G211">
         <v>-0.01389102167869258</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.880301149002896</v>
+        <v>-2.881164652391815</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.971644779813804</v>
+        <v>-2.972098394111165</v>
       </c>
       <c r="G223">
         <v>-0.05644675712878322</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.05884029111141</v>
+        <v>-3.059044937614542</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.140260429369111</v>
+        <v>-3.140478318512024</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.216069482367328</v>
+        <v>-3.216148334553584</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.285898544258274</v>
+        <v>-3.286106832509797</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.836283241850083</v>
+        <v>-2.836936345930479</v>
       </c>
       <c r="G232">
         <v>-0.02464004521017538</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.934075918666784</v>
+        <v>-2.934217552748183</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.026898460995901</v>
+        <v>-3.02733075349579</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.197979014210819</v>
+        <v>-3.198073800476231</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.273804858358368</v>
+        <v>-3.274054488839248</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.34530965284465</v>
+        <v>-3.345452730681846</v>
       </c>
       <c r="G238">
         <v>-0.05767359947380912</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.411431829148511</v>
+        <v>-3.411607190803477</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.870311957668026</v>
+        <v>-2.871002832444722</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.969585686771264</v>
+        <v>-2.970201353804915</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.063024371368231</v>
+        <v>-3.063467917512106</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.153313717467516</v>
+        <v>-3.15337717335789</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.236742458481983</v>
+        <v>-3.237106095464004</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.314220508536463</v>
+        <v>-3.314385734109681</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.453676186287693</v>
+        <v>-3.453819631227102</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.514505027151082</v>
+        <v>-3.51465918749484</v>
       </c>
       <c r="G251">
         <v>-0.02396895394686305</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.895297496065124</v>
+        <v>-2.89563623837678</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995397575117346</v>
+        <v>-2.995497834510809</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.090690858673184</v>
+        <v>-3.091161742484199</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.180937019713617</v>
+        <v>-3.181560578791435</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.264731831580843</v>
+        <v>-3.265056718177006</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.344267463483424</v>
+        <v>-3.344488796609436</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.416757135684653</v>
+        <v>-3.416942695299366</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.484790281940407</v>
+        <v>-3.485028864322903</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545670233874199</v>
+        <v>-3.545769726123608</v>
       </c>
       <c r="G262">
         <v>-0.02350634652363498</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.914648705622885</v>
+        <v>-2.915011493211334</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.015391967512624</v>
+        <v>-3.015904364954311</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111320330713415</v>
+        <v>-3.111360861092999</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.201716805318562</v>
+        <v>-3.202081314270356</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.286441313219275</v>
+        <v>-3.286532618932669</v>
       </c>
       <c r="G269">
         <v>-0.06671714099904746</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.365859767428998</v>
+        <v>-3.366053434110122</v>
       </c>
       <c r="G270">
         <v>-0.06406966394916647</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.439620421094909</v>
+        <v>-3.439663016795438</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.508150045947595</v>
+        <v>-3.508203401050305</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569940138711929</v>
+        <v>-3.569961555847243</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.931405370434122</v>
+        <v>-2.931531267959392</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.031089669059332</v>
+        <v>-3.031381628164013</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.127162068638965</v>
+        <v>-3.12740907558155</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.218242465829324</v>
+        <v>-3.218974534639474</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.303468357672835</v>
+        <v>-3.303878724308234</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.383549232511775</v>
+        <v>-3.383843289556746</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.457707585084212</v>
+        <v>-3.457880960533582</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.526312939035463</v>
+        <v>-3.526545684371696</v>
       </c>
       <c r="G283">
         <v>-0.04235514592453404</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588637378066843</v>
+        <v>-3.588675687717978</v>
       </c>
       <c r="G284">
         <v>-0.02325928599006011</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.943912239036827</v>
+        <v>-2.944088489790291</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.043875886186743</v>
+        <v>-3.044158574066726</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140368624463744</v>
+        <v>-3.140732208984354</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.231775197213463</v>
+        <v>-3.232052277268467</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.317427566444311</v>
+        <v>-3.317848069769011</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.397910213000865</v>
+        <v>-3.398381810428107</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.472331906488792</v>
+        <v>-3.472778143276829</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.541149782063918</v>
+        <v>-3.541652870802014</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603740723486288</v>
+        <v>-3.603777871119536</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952305470156816</v>
+        <v>-2.95247461848885</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.054279278925035</v>
+        <v>-3.054378722287555</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151094851480767</v>
+        <v>-3.151417644950885</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.243121485662562</v>
+        <v>-3.243668864390998</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.328887469305077</v>
+        <v>-3.329575157187094</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.409169968700411</v>
+        <v>-3.409889963857397</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.484104268251254</v>
+        <v>-3.484662989624508</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.553127933591295</v>
+        <v>-3.553791879288136</v>
       </c>
       <c r="G305">
         <v>-0.04144977719113152</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.616368428759343</v>
+        <v>-3.616430343260943</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.962370943203123</v>
+        <v>-2.962444751632243</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.063113473105363</v>
+        <v>-3.063353685074421</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.160197187520722</v>
+        <v>-3.160393669703438</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.251839079478062</v>
+        <v>-3.252291999357429</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.338121504169666</v>
+        <v>-3.339204475286457</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.419003884531299</v>
+        <v>-3.420182312532607</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.49371631996022</v>
+        <v>-3.494788666953224</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.563430769080126</v>
+        <v>-3.564159553731927</v>
       </c>
       <c r="G316">
         <v>-0.04135598420522379</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626868530907974</v>
+        <v>-3.626934260139995</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.744673237465776</v>
+        <v>-2.744755235291577</v>
       </c>
       <c r="G33">
         <v>-0.05612538376008569</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896746641067632</v>
+        <v>-2.896948053108086</v>
       </c>
       <c r="G44">
         <v>-0.06279911935218752</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.030076233299074</v>
+        <v>-3.03088792809457</v>
       </c>
       <c r="G55">
         <v>-0.05313125692250298</v>
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.66259901662879</v>
+        <v>-2.662681354393496</v>
       </c>
       <c r="G80">
         <v>-0.01617726685326071</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710320459220752</v>
+        <v>-2.710501699070851</v>
       </c>
       <c r="G87">
         <v>-0.02657199733254689</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.723685237309851</v>
+        <v>-2.723958253182868</v>
       </c>
       <c r="G89">
         <v>-0.02968389331507648</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.780663438853345</v>
+        <v>-2.780684556704616</v>
       </c>
       <c r="G98">
         <v>-0.0395724312454786</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.812051732626264</v>
+        <v>-2.81206413190104</v>
       </c>
       <c r="G103">
         <v>-0.04556681711326904</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.822407990246707</v>
+        <v>-2.822420389521484</v>
       </c>
       <c r="G105">
         <v>-0.0463844156761728</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.82939089756677</v>
+        <v>-2.829676312714563</v>
       </c>
       <c r="G106">
         <v>-0.04820347982616768</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.841801065538643</v>
+        <v>-2.842014693773654</v>
       </c>
       <c r="G108">
         <v>-0.0496252033515896</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.847884608050605</v>
+        <v>-2.847927686784019</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.854069820936985</v>
+        <v>-2.854554756118735</v>
       </c>
       <c r="G110">
         <v>-0.0523704469591233</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.872115437272489</v>
+        <v>-2.872552255349877</v>
       </c>
       <c r="G113">
         <v>-0.05430437728195825</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.888922757451287</v>
+        <v>-2.889306958272211</v>
       </c>
       <c r="G116">
         <v>-0.05564515138955883</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.900147160995524</v>
+        <v>-2.900739888862602</v>
       </c>
       <c r="G118">
         <v>-0.05568791239350235</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.917938750462424</v>
+        <v>-2.918273125252709</v>
       </c>
       <c r="G121">
         <v>-0.05808550576979865</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.924083452980136</v>
+        <v>-2.924288246226394</v>
       </c>
       <c r="G122">
         <v>-0.05955658458093294</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.941599678449922</v>
+        <v>-2.941659066087926</v>
       </c>
       <c r="G125">
         <v>-0.05983036164597122</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.957300694617648</v>
+        <v>-2.957936786928403</v>
       </c>
       <c r="G128">
         <v>-0.06295901465343201</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.96960857548316</v>
+        <v>-2.969844048188052</v>
       </c>
       <c r="G130">
         <v>-0.06283416674468945</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.986054286535536</v>
+        <v>-2.986520987482279</v>
       </c>
       <c r="G133">
         <v>-0.06536792892585175</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.013902413241858</v>
+        <v>-3.014437097392699</v>
       </c>
       <c r="G138">
         <v>-0.06646895628967675</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.054189938053039</v>
+        <v>-3.054915184775553</v>
       </c>
       <c r="G146">
         <v>-0.0661616186517624</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.058513395903226</v>
+        <v>-3.059103518108882</v>
       </c>
       <c r="G147">
         <v>-0.06543917514155018</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.070180784196312</v>
+        <v>-3.070251728078223</v>
       </c>
       <c r="G149">
         <v>-0.06635092523045194</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.076302267735913</v>
+        <v>-3.076354065045819</v>
       </c>
       <c r="G150">
         <v>-0.06755107149737261</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.086317893431975</v>
+        <v>-3.088216027436056</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.089955545888079</v>
+        <v>-3.09093000879412</v>
       </c>
       <c r="G153">
         <v>-0.06638666233725576</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.094808056576048</v>
+        <v>-3.094827179790775</v>
       </c>
       <c r="G154">
         <v>-0.06616269252199314</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.099901264914251</v>
+        <v>-3.100013438996799</v>
       </c>
       <c r="G155">
         <v>-0.06620532144776892</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.104746270240173</v>
+        <v>-3.105043224806511</v>
       </c>
       <c r="G156">
         <v>-0.06318178140772313</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.110442694144449</v>
+        <v>-3.11045908922423</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.114610841523113</v>
+        <v>-3.114772818279022</v>
       </c>
       <c r="G158">
         <v>-0.06418717540811847</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.125287972406695</v>
+        <v>-3.125739987199936</v>
       </c>
       <c r="G160">
         <v>-0.06310610503975167</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.139395092289758</v>
+        <v>-3.139781287747227</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.148644312070384</v>
+        <v>-3.14873499688686</v>
       </c>
       <c r="G165">
         <v>-0.06139052799090339</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.151796329160862</v>
+        <v>-3.152111580736419</v>
       </c>
       <c r="G166">
         <v>-0.0606538289129116</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.167012926516423</v>
+        <v>-3.168438830540687</v>
       </c>
       <c r="G169">
         <v>-0.05931609920067116</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.171647241044968</v>
+        <v>-3.171671056794113</v>
       </c>
       <c r="G170">
         <v>-0.05929284614389507</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.175132725159658</v>
+        <v>-3.175436420491308</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.18642302192634</v>
+        <v>-3.186757396716625</v>
       </c>
       <c r="G173">
         <v>-0.05757737331953217</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202044826264514</v>
+        <v>-3.202659050400233</v>
       </c>
       <c r="G177">
         <v>-0.05367120021799598</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.207625073388768</v>
+        <v>-3.207938330327782</v>
       </c>
       <c r="G178">
         <v>-0.05382952993890999</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.212556780663451</v>
+        <v>-3.212741893264453</v>
       </c>
       <c r="G179">
         <v>-0.05373991955248336</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.215809528121695</v>
+        <v>-3.215911267403851</v>
       </c>
       <c r="G180">
         <v>-0.05084947632187042</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.252680706477158</v>
+        <v>-3.254297832452651</v>
       </c>
       <c r="G189">
         <v>-0.04337115440696182</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.260537831860434</v>
+        <v>-3.260563695840472</v>
       </c>
       <c r="G190">
         <v>-0.04244643297303952</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.27509169707486</v>
+        <v>-3.275154400330577</v>
       </c>
       <c r="G194">
         <v>-0.03820615824561918</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.278082705483533</v>
+        <v>-3.278386400815181</v>
       </c>
       <c r="G195">
         <v>-0.03647191196042088</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.881164652391815</v>
+        <v>-2.881292939007061</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.059044937614542</v>
+        <v>-3.059199460390883</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.140478318512024</v>
+        <v>-3.140878294641483</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.216148334553584</v>
+        <v>-3.216506151390575</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.286106832509797</v>
+        <v>-3.286146448175097</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.836936345930479</v>
+        <v>-2.837280901909128</v>
       </c>
       <c r="G232">
         <v>-0.02464004521017538</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.934217552748183</v>
+        <v>-2.934370169331367</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.02733075349579</v>
+        <v>-3.027599240110307</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.114526691243284</v>
+        <v>-3.114661553909138</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.274054488839248</v>
+        <v>-3.274134066760376</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.411607190803477</v>
+        <v>-3.411755214321068</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.871002832444722</v>
+        <v>-2.871646713277862</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.970201353804915</v>
+        <v>-2.970360615779502</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.063467917512106</v>
+        <v>-3.064105343236601</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.237106095464004</v>
+        <v>-3.237134921609912</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.387261075848135</v>
+        <v>-3.387500315462407</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.453819631227102</v>
+        <v>-3.453836256974355</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.89563623837678</v>
+        <v>-2.895791031233082</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995497834510809</v>
+        <v>-2.995655864899901</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.091161742484199</v>
+        <v>-3.091217952446624</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.181560578791435</v>
+        <v>-3.181791069955055</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.265056718177006</v>
+        <v>-3.265197258232547</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.344488796609436</v>
+        <v>-3.344514965520529</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.416942695299366</v>
+        <v>-3.417014446301545</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545769726123608</v>
+        <v>-3.545788246802246</v>
       </c>
       <c r="G262">
         <v>-0.02350634652363498</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915011493211334</v>
+        <v>-2.915157594228394</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.015904364954311</v>
+        <v>-3.016002823732376</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111360861092999</v>
+        <v>-3.111411939299444</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.202081314270356</v>
+        <v>-3.202192958822209</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.366053434110122</v>
+        <v>-3.366395271979243</v>
       </c>
       <c r="G270">
         <v>-0.06406966394916647</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.439663016795438</v>
+        <v>-3.439702038023763</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.508203401050305</v>
+        <v>-3.508225231253993</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.931531267959392</v>
+        <v>-2.93158030641306</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.031381628164013</v>
+        <v>-3.031396698800985</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.12740907558155</v>
+        <v>-3.127593272608518</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.218974534639474</v>
+        <v>-3.219157468643471</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.383843289556746</v>
+        <v>-3.38404035151673</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.457880960533582</v>
+        <v>-3.457896623282038</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.944088489790291</v>
+        <v>-2.944150812010338</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.044158574066726</v>
+        <v>-3.04425236819853</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140732208984354</v>
+        <v>-3.140795217076354</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.317848069769011</v>
+        <v>-3.317962916317914</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.398381810428107</v>
+        <v>-3.398434661986018</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.472778143276829</v>
+        <v>-3.472823860899628</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.541652870802014</v>
+        <v>-3.541694341567534</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603777871119536</v>
+        <v>-3.603788238810917</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.95247461848885</v>
+        <v>-2.952507698862229</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.054378722287555</v>
+        <v>-3.054639559556179</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151417644950885</v>
+        <v>-3.151532660676566</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.243668864390998</v>
+        <v>-3.243733250642214</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.329575157187094</v>
+        <v>-3.329619514430976</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.409889963857397</v>
+        <v>-3.410040590978678</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.484662989624508</v>
+        <v>-3.484686058499187</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.553791879288136</v>
+        <v>-3.553823461686981</v>
       </c>
       <c r="G305">
         <v>-0.04144977719113152</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.616430343260943</v>
+        <v>-3.616450338096489</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.962444751632243</v>
+        <v>-2.962555533136276</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.063353685074421</v>
+        <v>-3.063497087508998</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.160393669703438</v>
+        <v>-3.160419388897377</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.252291999357429</v>
+        <v>-3.252395638822525</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.339204475286457</v>
+        <v>-3.339357716544967</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.420182312532607</v>
+        <v>-3.420195089695947</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.494788666953224</v>
+        <v>-3.494813745521416</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.564159553731927</v>
+        <v>-3.56417185513678</v>
       </c>
       <c r="G316">
         <v>-0.04135598420522379</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626934260139995</v>
+        <v>-3.626944829153354</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -990,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="F26">
-        <v>-2.636885055063554</v>
+        <v>-2.637085348689573</v>
       </c>
       <c r="G26">
         <v>-0.03968989139813406</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.714534598521286</v>
+        <v>-2.71461659634709</v>
       </c>
       <c r="G31">
         <v>-0.04983182490436455</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.74938838451818</v>
+        <v>-2.7494821323131</v>
       </c>
       <c r="G93">
         <v>-0.03410127293772813</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.761099492293057</v>
+        <v>-2.761280732143155</v>
       </c>
       <c r="G95">
         <v>-0.03605748189253211</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.798293717096944</v>
+        <v>-2.798587850821231</v>
       </c>
       <c r="G101">
         <v>-0.0422995379188138</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.804861968852299</v>
+        <v>-2.805116966894446</v>
       </c>
       <c r="G102">
         <v>-0.04503674135670499</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.822420389521484</v>
+        <v>-2.823393700821852</v>
       </c>
       <c r="G105">
         <v>-0.0463844156761728</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.847927686784019</v>
+        <v>-2.848019462806937</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.866405832801847</v>
+        <v>-2.866752606866912</v>
       </c>
       <c r="G112">
         <v>-0.05204580984678331</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.900739888862602</v>
+        <v>-2.900841512203147</v>
       </c>
       <c r="G118">
         <v>-0.05568791239350235</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.907469179721492</v>
+        <v>-2.907549685210766</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.981513959660271</v>
+        <v>-2.981587717852319</v>
       </c>
       <c r="G132">
         <v>-0.06380189615386178</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.986520987482279</v>
+        <v>-2.986845777307922</v>
       </c>
       <c r="G133">
         <v>-0.06536792892585175</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.059103518108882</v>
+        <v>-3.059802684795099</v>
       </c>
       <c r="G147">
         <v>-0.06543917514155018</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.080968522413809</v>
+        <v>-3.080984824786484</v>
       </c>
       <c r="G151">
         <v>-0.06586067993208888</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.09093000879412</v>
+        <v>-3.091204252339684</v>
       </c>
       <c r="G153">
         <v>-0.06638666233725576</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.094827179790775</v>
+        <v>-3.094838736034682</v>
       </c>
       <c r="G154">
         <v>-0.06616269252199314</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.100013438996799</v>
+        <v>-3.100185697151713</v>
       </c>
       <c r="G155">
         <v>-0.06620532144776892</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.11045908922423</v>
+        <v>-3.111373304821166</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.139781287747227</v>
+        <v>-3.139868719293252</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.175436420491308</v>
+        <v>-3.177210220134071</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.189384905410066</v>
+        <v>-3.189516202707341</v>
       </c>
       <c r="G174">
         <v>-0.05774883759542404</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.22068323421775</v>
+        <v>-3.220723475283749</v>
       </c>
       <c r="G181">
         <v>-0.05273328962523327</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.059199460390883</v>
+        <v>-3.05926917164531</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.216506151390575</v>
+        <v>-3.217098376574482</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.286146448175097</v>
+        <v>-3.2861736914083</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.027599240110307</v>
+        <v>-3.027610307219528</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.114661553909138</v>
+        <v>-3.11488443108159</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.198073800476231</v>
+        <v>-3.198093494462197</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.274134066760376</v>
+        <v>-3.274277144597571</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.471072121619917</v>
+        <v>-3.471192380789002</v>
       </c>
       <c r="G240">
         <v>-0.02431810831622477</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.970360615779502</v>
+        <v>-2.970509430549492</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.064105343236601</v>
+        <v>-3.064159271842428</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.15337717335789</v>
+        <v>-3.153530598970842</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.314385734109681</v>
+        <v>-3.314432578808999</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.387500315462407</v>
+        <v>-3.387567736898579</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.895791031233082</v>
+        <v>-2.896081817532481</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995655864899901</v>
+        <v>-2.995731405934562</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.181791069955055</v>
+        <v>-3.181802898708148</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.265197258232547</v>
+        <v>-3.265225621012287</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.344514965520529</v>
+        <v>-3.344622802503809</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.417014446301545</v>
+        <v>-3.417327223155351</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.485028864322903</v>
+        <v>-3.48517052941008</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.915157594228394</v>
+        <v>-2.91521746332516</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.016002823732376</v>
+        <v>-3.016033362315139</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111411939299444</v>
+        <v>-3.111431449913607</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.202192958822209</v>
+        <v>-3.202291195197001</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.569961555847243</v>
+        <v>-3.5699803505204</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.93158030641306</v>
+        <v>-2.931608283640896</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.031396698800985</v>
+        <v>-3.031424676028821</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.127593272608518</v>
+        <v>-3.127664182749112</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.303878724308234</v>
+        <v>-3.303970356153028</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.526545684371696</v>
+        <v>-3.526589772601707</v>
       </c>
       <c r="G283">
         <v>-0.04235514592453404</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.944150812010338</v>
+        <v>-2.944192282775858</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.04425236819853</v>
+        <v>-3.044286240202841</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140795217076354</v>
+        <v>-3.140889977357503</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.232052277268467</v>
+        <v>-3.232137185785961</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.317962916317914</v>
+        <v>-3.317983651700674</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.398434661986018</v>
+        <v>-3.398500439008189</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.541694341567534</v>
+        <v>-3.541704709258914</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952507698862229</v>
+        <v>-2.952547176860786</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.054639559556179</v>
+        <v>-3.054667760684234</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151532660676566</v>
+        <v>-3.151585247725915</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.329619514430976</v>
+        <v>-3.329635305630399</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.484686058499187</v>
+        <v>-3.484754110072922</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.063497087508998</v>
+        <v>-3.063521690318704</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.252395638822525</v>
+        <v>-3.252420717390719</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.689947504059516</v>
+        <v>-2.690585311828465</v>
       </c>
       <c r="G84">
         <v>-0.022032757414439</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.8174711125097</v>
+        <v>-2.81777480784135</v>
       </c>
       <c r="G104">
         <v>-0.04687928426733512</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.823393700821852</v>
+        <v>-2.82388034492988</v>
       </c>
       <c r="G105">
         <v>-0.0463844156761728</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.848019462806937</v>
+        <v>-2.848669932203649</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.872552255349877</v>
+        <v>-2.872642322446515</v>
       </c>
       <c r="G113">
         <v>-0.05430437728195825</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.907549685210766</v>
+        <v>-2.907580364669401</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.936167958709364</v>
+        <v>-2.936198638167998</v>
       </c>
       <c r="G124">
         <v>-0.06084094976660115</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.952583215748484</v>
+        <v>-2.952669456206114</v>
       </c>
       <c r="G127">
         <v>-0.06359577828928464</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.024038561503894</v>
+        <v>-3.024323133620817</v>
       </c>
       <c r="G140">
         <v>-0.06798425103108596</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.043780935510647</v>
+        <v>-3.044237045990843</v>
       </c>
       <c r="G144">
         <v>-0.06702102275178357</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.049977335391581</v>
+        <v>-3.050008014850216</v>
       </c>
       <c r="G145">
         <v>-0.06699879124846264</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.054915184775553</v>
+        <v>-3.055568644475364</v>
       </c>
       <c r="G146">
         <v>-0.0661616186517624</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.080984824786484</v>
+        <v>-3.081100586675078</v>
       </c>
       <c r="G151">
         <v>-0.06586067993208888</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.088216027436056</v>
+        <v>-3.088246706894691</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.111373304821166</v>
+        <v>-3.111684875883569</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.139868719293252</v>
+        <v>-3.140134871456778</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.152111580736419</v>
+        <v>-3.152184542612152</v>
       </c>
       <c r="G166">
         <v>-0.0606538289129116</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.158631461693085</v>
+        <v>-3.158662164508998</v>
       </c>
       <c r="G167">
         <v>-0.06034194052533892</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.177210220134071</v>
+        <v>-3.177240899592705</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.183467529261605</v>
+        <v>-3.183587518961196</v>
       </c>
       <c r="G172">
         <v>-0.05959668409389141</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202659050400233</v>
+        <v>-3.202932066273247</v>
       </c>
       <c r="G177">
         <v>-0.05367120021799598</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.212741893264453</v>
+        <v>-3.213882956110996</v>
       </c>
       <c r="G179">
         <v>-0.05373991955248336</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.285811265342808</v>
+        <v>-3.286369967767884</v>
       </c>
       <c r="G197">
         <v>-0.03423537790198949</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.881292939007061</v>
+        <v>-2.881508981824912</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.05926917164531</v>
+        <v>-3.059403601708791</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.140878294641483</v>
+        <v>-3.140888340997914</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.2861736914083</v>
+        <v>-3.286250748311596</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.410220755141798</v>
+        <v>-3.410257808093142</v>
       </c>
       <c r="G229">
         <v>-0.02372502070075455</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.11488443108159</v>
+        <v>-3.114949041415173</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.198093494462197</v>
+        <v>-3.198163064370843</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.970509430549492</v>
+        <v>-2.970726837555631</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.064159271842428</v>
+        <v>-3.064190783226183</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.153530598970842</v>
+        <v>-3.153566041559842</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.237134921609912</v>
+        <v>-3.237175039713049</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.314432578808999</v>
+        <v>-3.314527045982538</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.387567736898579</v>
+        <v>-3.387594607108751</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995731405934562</v>
+        <v>-2.995901312331852</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.344622802503809</v>
+        <v>-3.344662345298948</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.48517052941008</v>
+        <v>-3.485201579119196</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.016033362315139</v>
+        <v>-3.016072383543464</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111431449913607</v>
+        <v>-3.111489981756096</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.202291195197001</v>
+        <v>-3.202434435224135</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.439702038023763</v>
+        <v>-3.439864863160722</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.508225231253993</v>
+        <v>-3.508244741868156</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.5699803505204</v>
+        <v>-3.570051622644983</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.031424676028821</v>
+        <v>-3.03143866464274</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.303970356153028</v>
+        <v>-3.303998333380865</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.38404035151673</v>
+        <v>-3.384068328744567</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.457896623282038</v>
+        <v>-3.457929533465703</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.044286240202841</v>
+        <v>-3.044309960233116</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140889977357503</v>
+        <v>-3.140904803063452</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.232137185785961</v>
+        <v>-3.23226765872141</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.317983651700674</v>
+        <v>-3.318049016672312</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.398500439008189</v>
+        <v>-3.398588143250024</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.541704709258914</v>
+        <v>-3.541725444641675</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952547176860786</v>
+        <v>-2.952564274865839</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.054667760684234</v>
+        <v>-3.054694586469288</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151585247725915</v>
+        <v>-3.151692493246478</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.243733250642214</v>
+        <v>-3.243776881836417</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.329635305630399</v>
+        <v>-3.329651707556584</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.484754110072922</v>
+        <v>-3.484794533003996</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.063521690318704</v>
+        <v>-3.063610599042836</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.160419388897377</v>
+        <v>-3.160450142409509</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.339357716544967</v>
+        <v>-3.339430648183921</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -1036,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="F28">
-        <v>-2.668441893424911</v>
+        <v>-2.669945559251577</v>
       </c>
       <c r="G28">
         <v>-0.04478261070317036</v>
@@ -1059,7 +1059,7 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>-2.684990294506132</v>
+        <v>-2.685481971911273</v>
       </c>
       <c r="G29">
         <v>-0.04690063640310549</v>
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F30">
-        <v>-2.699715012370319</v>
+        <v>-2.700652976878892</v>
       </c>
       <c r="G30">
         <v>-0.0501490697326894</v>
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="F31">
-        <v>-2.71461659634709</v>
+        <v>-2.715259398942865</v>
       </c>
       <c r="G31">
         <v>-0.04983182490436455</v>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>-2.729259316385483</v>
+        <v>-2.730435300458607</v>
       </c>
       <c r="G32">
         <v>-0.05275334043664914</v>
@@ -1151,7 +1151,7 @@
         <v>17</v>
       </c>
       <c r="F33">
-        <v>-2.744755235291577</v>
+        <v>-2.745006125317104</v>
       </c>
       <c r="G33">
         <v>-0.05612538376008569</v>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
       <c r="F34">
-        <v>-2.759328827965147</v>
+        <v>-2.760920816129856</v>
       </c>
       <c r="G34">
         <v>-0.05720602496096405</v>
@@ -1197,7 +1197,7 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>-2.773999171296152</v>
+        <v>-2.775394643968525</v>
       </c>
       <c r="G35">
         <v>-0.05856353007937676</v>
@@ -1220,7 +1220,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>-2.788581748201183</v>
+        <v>-2.790206256206625</v>
       </c>
       <c r="G36">
         <v>-0.05912710741138261</v>
@@ -1243,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="F37">
-        <v>-2.801562588753809</v>
+        <v>-2.804137046284426</v>
       </c>
       <c r="G37">
         <v>-0.05973307425995844</v>
@@ -1266,7 +1266,7 @@
         <v>22</v>
       </c>
       <c r="F38">
-        <v>-2.815746151227781</v>
+        <v>-2.818423096499813</v>
       </c>
       <c r="G38">
         <v>-0.06168579975208366</v>
@@ -1289,7 +1289,7 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>-2.830287224060601</v>
+        <v>-2.831810848816711</v>
       </c>
       <c r="G39">
         <v>-0.06132781480776472</v>
@@ -1312,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="F40">
-        <v>-2.843388552333803</v>
+        <v>-2.844860816734167</v>
       </c>
       <c r="G40">
         <v>-0.0634497420493072</v>
@@ -1335,7 +1335,7 @@
         <v>25</v>
       </c>
       <c r="F41">
-        <v>-2.856821694952397</v>
+        <v>-2.85841746125078</v>
       </c>
       <c r="G41">
         <v>-0.06291714121360648</v>
@@ -1358,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>-2.870268471988219</v>
+        <v>-2.871536556533075</v>
       </c>
       <c r="G42">
         <v>-0.06271738332073373</v>
@@ -1381,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="F43">
-        <v>-2.883828957825798</v>
+        <v>-2.884517397085683</v>
       </c>
       <c r="G43">
         <v>-0.06343378015250289</v>
@@ -1404,7 +1404,7 @@
         <v>28</v>
       </c>
       <c r="F44">
-        <v>-2.896948053108086</v>
+        <v>-2.897398472803406</v>
       </c>
       <c r="G44">
         <v>-0.06279911935218752</v>
@@ -1427,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="F45">
-        <v>-2.910115552869512</v>
+        <v>-2.910197550695323</v>
       </c>
       <c r="G45">
         <v>-0.06314056175804938</v>
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="F46">
-        <v>-2.922500818590202</v>
+        <v>-2.92288399329137</v>
       </c>
       <c r="G46">
         <v>-0.06311847884251764</v>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="F47">
-        <v>-2.934355917011003</v>
+        <v>-2.935713708653354</v>
       </c>
       <c r="G47">
         <v>-0.06291275089560955</v>
@@ -1496,7 +1496,7 @@
         <v>32</v>
       </c>
       <c r="F48">
-        <v>-2.948100856744716</v>
+        <v>-2.94845151160514</v>
       </c>
       <c r="G48">
         <v>-0.06345335512070993</v>
@@ -1519,7 +1519,7 @@
         <v>33</v>
       </c>
       <c r="F49">
-        <v>-2.958992326314614</v>
+        <v>-2.960469532171626</v>
       </c>
       <c r="G49">
         <v>-0.06112551661771526</v>
@@ -1542,7 +1542,7 @@
         <v>34</v>
       </c>
       <c r="F50">
-        <v>-2.971897947960212</v>
+        <v>-2.973187685743651</v>
       </c>
       <c r="G50">
         <v>-0.06123862934586255</v>
@@ -1565,7 +1565,7 @@
         <v>35</v>
       </c>
       <c r="F51">
-        <v>-2.983683919016177</v>
+        <v>-2.985854478959941</v>
       </c>
       <c r="G51">
         <v>-0.05791270147971328</v>
@@ -1588,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="F52">
-        <v>-2.995241708512327</v>
+        <v>-2.997677866404754</v>
       </c>
       <c r="G52">
         <v>-0.05835629040620205</v>
@@ -1611,7 +1611,7 @@
         <v>37</v>
       </c>
       <c r="F53">
-        <v>-3.0072105157349</v>
+        <v>-3.008105281862125</v>
       </c>
       <c r="G53">
         <v>-0.05533418574230087</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="F54">
-        <v>-3.01903282967378</v>
+        <v>-3.019198972337232</v>
       </c>
       <c r="G54">
         <v>-0.05368300782289559</v>
@@ -1657,7 +1657,7 @@
         <v>39</v>
       </c>
       <c r="F55">
-        <v>-3.03088792809457</v>
+        <v>-3.030939288450307</v>
       </c>
       <c r="G55">
         <v>-0.05313125692250298</v>
@@ -1680,7 +1680,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>-3.041094704867159</v>
+        <v>-3.041981618569694</v>
       </c>
       <c r="G56">
         <v>-0.05130509526118987</v>
@@ -1703,7 +1703,7 @@
         <v>41</v>
       </c>
       <c r="F57">
-        <v>-3.052106397516472</v>
+        <v>-3.052480043762569</v>
       </c>
       <c r="G57">
         <v>-0.0499042331764612</v>
@@ -1726,7 +1726,7 @@
         <v>42</v>
       </c>
       <c r="F58">
-        <v>-3.062545609928902</v>
+        <v>-3.06352237388193</v>
       </c>
       <c r="G58">
         <v>-0.04630248322757535</v>
@@ -1749,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="F59">
-        <v>-3.073311309100791</v>
+        <v>-3.074009295094511</v>
       </c>
       <c r="G59">
         <v>-0.0450035329895726</v>
@@ -1772,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="F60">
-        <v>-3.083593304780401</v>
+        <v>-3.084209292948315</v>
       </c>
       <c r="G60">
         <v>-0.04163597956304371</v>
@@ -2163,7 +2163,7 @@
         <v>5</v>
       </c>
       <c r="F77">
-        <v>-2.641472787292523</v>
+        <v>-2.64155512505723</v>
       </c>
       <c r="G77">
         <v>-0.01063027969691976</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F79">
-        <v>-2.655738950765379</v>
+        <v>-2.655821288530086</v>
       </c>
       <c r="G79">
         <v>-0.01448283579492315</v>
@@ -2255,7 +2255,7 @@
         <v>9</v>
       </c>
       <c r="F81">
-        <v>-2.670005114238231</v>
+        <v>-2.67008745200294</v>
       </c>
       <c r="G81">
         <v>-0.0177509582932176</v>
@@ -2278,7 +2278,7 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>-2.677138195974659</v>
+        <v>-2.677220533739365</v>
       </c>
       <c r="G82">
         <v>-0.01909003571383572</v>
@@ -2301,7 +2301,7 @@
         <v>11</v>
       </c>
       <c r="F83">
-        <v>-2.684080599602773</v>
+        <v>-2.684353615475791</v>
       </c>
       <c r="G83">
         <v>-0.0205518312419577</v>
@@ -2324,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="F84">
-        <v>-2.690585311828465</v>
+        <v>-2.691213681339204</v>
       </c>
       <c r="G84">
         <v>-0.022032757414439</v>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
       <c r="F85">
-        <v>-2.697172361818855</v>
+        <v>-2.697991409437903</v>
       </c>
       <c r="G85">
         <v>-0.02416092961406857</v>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>-2.703924087338666</v>
+        <v>-2.704660797193008</v>
       </c>
       <c r="G86">
         <v>-0.02567807108343922</v>
@@ -2393,7 +2393,7 @@
         <v>15</v>
       </c>
       <c r="F87">
-        <v>-2.710501699070851</v>
+        <v>-2.711247847183403</v>
       </c>
       <c r="G87">
         <v>-0.02657199733254689</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="F88">
-        <v>-2.717306418993015</v>
+        <v>-2.717834897173799</v>
       </c>
       <c r="G88">
         <v>-0.02792150225593026</v>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
       <c r="F89">
-        <v>-2.723958253182868</v>
+        <v>-2.724421947164194</v>
       </c>
       <c r="G89">
         <v>-0.02968389331507648</v>
@@ -2462,7 +2462,7 @@
         <v>18</v>
       </c>
       <c r="F90">
-        <v>-2.729916933662524</v>
+        <v>-2.730917221131671</v>
       </c>
       <c r="G90">
         <v>-0.02973383461151391</v>
@@ -2485,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="F91">
-        <v>-2.736410235857999</v>
+        <v>-2.737313593013757</v>
       </c>
       <c r="G91">
         <v>-0.03126628831127753</v>
@@ -2508,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="F92">
-        <v>-2.743008695878608</v>
+        <v>-2.743627627131136</v>
       </c>
       <c r="G92">
         <v>-0.03248166509694927</v>
@@ -2531,7 +2531,7 @@
         <v>21</v>
       </c>
       <c r="F93">
-        <v>-2.7494821323131</v>
+        <v>-2.750122901098612</v>
       </c>
       <c r="G93">
         <v>-0.03410127293772813</v>
@@ -2554,7 +2554,7 @@
         <v>22</v>
       </c>
       <c r="F94">
-        <v>-2.755593089047385</v>
+        <v>-2.756506873705922</v>
       </c>
       <c r="G94">
         <v>-0.03501518157984851</v>
@@ -2577,7 +2577,7 @@
         <v>23</v>
       </c>
       <c r="F95">
-        <v>-2.761280732143155</v>
+        <v>-2.762639667973203</v>
       </c>
       <c r="G95">
         <v>-0.03605748189253211</v>
@@ -2600,7 +2600,7 @@
         <v>24</v>
       </c>
       <c r="F96">
-        <v>-2.768561150628526</v>
+        <v>-2.768772462240483</v>
       </c>
       <c r="G96">
         <v>-0.03653352620504879</v>
@@ -2623,7 +2623,7 @@
         <v>25</v>
       </c>
       <c r="F97">
-        <v>-2.774433328297567</v>
+        <v>-2.775074097083086</v>
       </c>
       <c r="G97">
         <v>-0.03827876532873598</v>
@@ -2646,7 +2646,7 @@
         <v>26</v>
       </c>
       <c r="F98">
-        <v>-2.780684556704616</v>
+        <v>-2.781324336245572</v>
       </c>
       <c r="G98">
         <v>-0.0395724312454786</v>
@@ -2669,7 +2669,7 @@
         <v>27</v>
       </c>
       <c r="F99">
-        <v>-2.78636613898318</v>
+        <v>-2.787777258098248</v>
       </c>
       <c r="G99">
         <v>-0.04013280769540994</v>
@@ -2692,7 +2692,7 @@
         <v>28</v>
       </c>
       <c r="F100">
-        <v>-2.792891103164739</v>
+        <v>-2.79400895445092</v>
       </c>
       <c r="G100">
         <v>-0.04191265394728871</v>
@@ -2715,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="F101">
-        <v>-2.798587850821231</v>
+        <v>-2.800442411952633</v>
       </c>
       <c r="G101">
         <v>-0.0422995379188138</v>
@@ -2738,7 +2738,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>-2.805116966894446</v>
+        <v>-2.806725503985422</v>
       </c>
       <c r="G102">
         <v>-0.04503674135670499</v>
@@ -2761,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>-2.81206413190104</v>
+        <v>-2.81291385897873</v>
       </c>
       <c r="G103">
         <v>-0.04556681711326904</v>
@@ -2784,7 +2784,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>-2.81777480784135</v>
+        <v>-2.819116591735942</v>
       </c>
       <c r="G104">
         <v>-0.04687928426733512</v>
@@ -2807,7 +2807,7 @@
         <v>33</v>
       </c>
       <c r="F105">
-        <v>-2.82388034492988</v>
+        <v>-2.825418226578545</v>
       </c>
       <c r="G105">
         <v>-0.0463844156761728</v>
@@ -2830,7 +2830,7 @@
         <v>34</v>
       </c>
       <c r="F106">
-        <v>-2.829676312714563</v>
+        <v>-2.831740376002954</v>
       </c>
       <c r="G106">
         <v>-0.04820347982616768</v>
@@ -2853,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="F107">
-        <v>-2.836208080972079</v>
+        <v>-2.838290228169018</v>
       </c>
       <c r="G107">
         <v>-0.04986764941372668</v>
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="F108">
-        <v>-2.842014693773654</v>
+        <v>-2.844131463753469</v>
       </c>
       <c r="G108">
         <v>-0.0496252033515896</v>
@@ -2899,7 +2899,7 @@
         <v>37</v>
       </c>
       <c r="F109">
-        <v>-2.848669932203649</v>
+        <v>-2.850016386041087</v>
       </c>
       <c r="G109">
         <v>-0.05081771781420974</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="F110">
-        <v>-2.854554756118735</v>
+        <v>-2.856620393264155</v>
       </c>
       <c r="G110">
         <v>-0.0523704469591233</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.861410755308761</v>
+        <v>-2.862696720278694</v>
       </c>
       <c r="G111">
         <v>-0.05228187797685213</v>
@@ -2968,7 +2968,7 @@
         <v>40</v>
       </c>
       <c r="F112">
-        <v>-2.866752606866912</v>
+        <v>-2.86801020457395</v>
       </c>
       <c r="G112">
         <v>-0.05204580984678331</v>
@@ -2991,7 +2991,7 @@
         <v>41</v>
       </c>
       <c r="F113">
-        <v>-2.872642322446515</v>
+        <v>-2.874593697215207</v>
       </c>
       <c r="G113">
         <v>-0.05430437728195825</v>
@@ -3014,7 +3014,7 @@
         <v>42</v>
       </c>
       <c r="F114">
-        <v>-2.877936001967059</v>
+        <v>-2.880756953646766</v>
       </c>
       <c r="G114">
         <v>-0.0537956984909489</v>
@@ -3037,7 +3037,7 @@
         <v>43</v>
       </c>
       <c r="F115">
-        <v>-2.882680169612292</v>
+        <v>-2.886117040330136</v>
       </c>
       <c r="G115">
         <v>-0.05376447529093586</v>
@@ -3060,7 +3060,7 @@
         <v>44</v>
       </c>
       <c r="F116">
-        <v>-2.889306958272211</v>
+        <v>-2.892375596439333</v>
       </c>
       <c r="G116">
         <v>-0.05564515138955883</v>
@@ -3083,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="F117">
-        <v>-2.895232577364842</v>
+        <v>-2.898112919352038</v>
       </c>
       <c r="G117">
         <v>-0.05743680500344883</v>
@@ -3106,7 +3106,7 @@
         <v>46</v>
       </c>
       <c r="F118">
-        <v>-2.900841512203147</v>
+        <v>-2.903990392480677</v>
       </c>
       <c r="G118">
         <v>-0.05568791239350235</v>
@@ -3129,7 +3129,7 @@
         <v>47</v>
       </c>
       <c r="F119">
-        <v>-2.907580364669401</v>
+        <v>-2.910369414972179</v>
       </c>
       <c r="G119">
         <v>-0.0589821380102773</v>
@@ -3152,7 +3152,7 @@
         <v>48</v>
       </c>
       <c r="F120">
-        <v>-2.912683621707672</v>
+        <v>-2.915844250272239</v>
       </c>
       <c r="G120">
         <v>-0.05792655083252374</v>
@@ -3175,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="F121">
-        <v>-2.918273125252709</v>
+        <v>-2.922070095244292</v>
       </c>
       <c r="G121">
         <v>-0.05808550576979865</v>
@@ -3198,7 +3198,7 @@
         <v>50</v>
       </c>
       <c r="F122">
-        <v>-2.924288246226394</v>
+        <v>-2.927694400933659</v>
       </c>
       <c r="G122">
         <v>-0.05955658458093294</v>
@@ -3221,7 +3221,7 @@
         <v>51</v>
       </c>
       <c r="F123">
-        <v>-2.930186839254989</v>
+        <v>-2.933544741069722</v>
       </c>
       <c r="G123">
         <v>-0.05948667822487619</v>
@@ -3244,7 +3244,7 @@
         <v>52</v>
       </c>
       <c r="F124">
-        <v>-2.936198638167998</v>
+        <v>-2.938924839330287</v>
       </c>
       <c r="G124">
         <v>-0.06084094976660115</v>
@@ -3267,7 +3267,7 @@
         <v>53</v>
       </c>
       <c r="F125">
-        <v>-2.941659066087926</v>
+        <v>-2.944906369671813</v>
       </c>
       <c r="G125">
         <v>-0.05983036164597122</v>
@@ -3290,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="F126">
-        <v>-2.947165191946826</v>
+        <v>-2.950569934392473</v>
       </c>
       <c r="G126">
         <v>-0.0601730998227874</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.952669456206114</v>
+        <v>-2.956315836877855</v>
       </c>
       <c r="G127">
         <v>-0.06359577828928464</v>
@@ -3336,7 +3336,7 @@
         <v>56</v>
       </c>
       <c r="F128">
-        <v>-2.957936786928403</v>
+        <v>-2.962010081057153</v>
       </c>
       <c r="G128">
         <v>-0.06295901465343201</v>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
       <c r="F129">
-        <v>-2.963236548592727</v>
+        <v>-2.967634386746523</v>
       </c>
       <c r="G129">
         <v>-0.06336614352487535</v>
@@ -3382,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="F130">
-        <v>-2.969844048188052</v>
+        <v>-2.973306531039851</v>
       </c>
       <c r="G130">
         <v>-0.06283416674468945</v>
@@ -3405,7 +3405,7 @@
         <v>59</v>
       </c>
       <c r="F131">
-        <v>-2.975371247894754</v>
+        <v>-2.978614742122792</v>
       </c>
       <c r="G131">
         <v>-0.06278058690535127</v>
@@ -3428,7 +3428,7 @@
         <v>60</v>
       </c>
       <c r="F132">
-        <v>-2.981587717852319</v>
+        <v>-2.984360644608164</v>
       </c>
       <c r="G132">
         <v>-0.06380189615386178</v>
@@ -3451,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="F133">
-        <v>-2.986845777307922</v>
+        <v>-2.990257966170554</v>
       </c>
       <c r="G133">
         <v>-0.06536792892585175</v>
@@ -3474,7 +3474,7 @@
         <v>62</v>
       </c>
       <c r="F134">
-        <v>-2.990910593646295</v>
+        <v>-2.995890851432589</v>
       </c>
       <c r="G134">
         <v>-0.06442441738213711</v>
@@ -3497,7 +3497,7 @@
         <v>63</v>
       </c>
       <c r="F135">
-        <v>-2.997312630043158</v>
+        <v>-3.001115603712291</v>
       </c>
       <c r="G135">
         <v>-0.06589390284848329</v>
@@ -3520,7 +3520,7 @@
         <v>64</v>
       </c>
       <c r="F136">
-        <v>-3.002591267782083</v>
+        <v>-3.00567841861284</v>
       </c>
       <c r="G136">
         <v>-0.06666969684937274</v>
@@ -3543,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="F137">
-        <v>-3.00811497796741</v>
+        <v>-3.012789507218687</v>
       </c>
       <c r="G137">
         <v>-0.0658407482105543</v>
@@ -3566,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="F138">
-        <v>-3.014437097392699</v>
+        <v>-3.016112047549452</v>
       </c>
       <c r="G138">
         <v>-0.06646895628967675</v>
@@ -3589,7 +3589,7 @@
         <v>67</v>
       </c>
       <c r="F139">
-        <v>-3.019166463282735</v>
+        <v>-3.023726700870744</v>
       </c>
       <c r="G139">
         <v>-0.06631685811874655</v>
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="F140">
-        <v>-3.024323133620817</v>
+        <v>-3.028752195469477</v>
       </c>
       <c r="G140">
         <v>-0.06798425103108596</v>
@@ -3635,7 +3635,7 @@
         <v>69</v>
       </c>
       <c r="F141">
-        <v>-3.030369759265354</v>
+        <v>-3.033724910723598</v>
       </c>
       <c r="G141">
         <v>-0.06743368633968649</v>
@@ -3658,7 +3658,7 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>-3.033443161690143</v>
+        <v>-3.039180638190634</v>
       </c>
       <c r="G142">
         <v>-0.06494484547284629</v>
@@ -3681,7 +3681,7 @@
         <v>71</v>
       </c>
       <c r="F143">
-        <v>-3.039038650892324</v>
+        <v>-3.044319150012707</v>
       </c>
       <c r="G143">
         <v>-0.06509246324037954</v>
@@ -3704,7 +3704,7 @@
         <v>72</v>
       </c>
       <c r="F144">
-        <v>-3.044237045990843</v>
+        <v>-3.04931396515281</v>
       </c>
       <c r="G144">
         <v>-0.06702102275178357</v>
@@ -3727,7 +3727,7 @@
         <v>73</v>
       </c>
       <c r="F145">
-        <v>-3.050008014850216</v>
+        <v>-3.054308780292903</v>
       </c>
       <c r="G145">
         <v>-0.06699879124846264</v>
@@ -3750,7 +3750,7 @@
         <v>74</v>
       </c>
       <c r="F146">
-        <v>-3.055568644475364</v>
+        <v>-3.059303595433005</v>
       </c>
       <c r="G146">
         <v>-0.0661616186517624</v>
@@ -3773,7 +3773,7 @@
         <v>75</v>
       </c>
       <c r="F147">
-        <v>-3.059802684795099</v>
+        <v>-3.063918175395016</v>
       </c>
       <c r="G147">
         <v>-0.06543917514155018</v>
@@ -3796,7 +3796,7 @@
         <v>76</v>
       </c>
       <c r="F148">
-        <v>-3.066041371565797</v>
+        <v>-3.068162352769203</v>
       </c>
       <c r="G148">
         <v>-0.06509728474128607</v>
@@ -3819,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="F149">
-        <v>-3.070251728078223</v>
+        <v>-3.074288040853298</v>
       </c>
       <c r="G149">
         <v>-0.06635092523045194</v>
@@ -3842,7 +3842,7 @@
         <v>78</v>
       </c>
       <c r="F150">
-        <v>-3.076354065045819</v>
+        <v>-3.079282855993398</v>
       </c>
       <c r="G150">
         <v>-0.06755107149737261</v>
@@ -3865,7 +3865,7 @@
         <v>79</v>
       </c>
       <c r="F151">
-        <v>-3.081100586675078</v>
+        <v>-3.083757178698104</v>
       </c>
       <c r="G151">
         <v>-0.06586067993208888</v>
@@ -3888,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>-3.088246706894691</v>
+        <v>-3.089272486273598</v>
       </c>
       <c r="G152">
         <v>-0.06602443474640096</v>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
       <c r="F153">
-        <v>-3.091204252339684</v>
+        <v>-3.094267301413697</v>
       </c>
       <c r="G153">
         <v>-0.06638666233725576</v>
@@ -3934,7 +3934,7 @@
         <v>82</v>
       </c>
       <c r="F154">
-        <v>-3.094838736034682</v>
+        <v>-3.09811508018813</v>
       </c>
       <c r="G154">
         <v>-0.06616269252199314</v>
@@ -3957,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="F155">
-        <v>-3.100185697151713</v>
+        <v>-3.104256931693894</v>
       </c>
       <c r="G155">
         <v>-0.06620532144776892</v>
@@ -3980,7 +3980,7 @@
         <v>84</v>
       </c>
       <c r="F156">
-        <v>-3.105043224806511</v>
+        <v>-3.108731254398596</v>
       </c>
       <c r="G156">
         <v>-0.06318178140772313</v>
@@ -4003,7 +4003,7 @@
         <v>85</v>
       </c>
       <c r="F157">
-        <v>-3.111684875883569</v>
+        <v>-3.114246561974088</v>
       </c>
       <c r="G157">
         <v>-0.06509525044569653</v>
@@ -4026,7 +4026,7 @@
         <v>86</v>
       </c>
       <c r="F158">
-        <v>-3.114772818279022</v>
+        <v>-3.119241377114189</v>
       </c>
       <c r="G158">
         <v>-0.06418717540811847</v>
@@ -4049,7 +4049,7 @@
         <v>87</v>
       </c>
       <c r="F159">
-        <v>-3.119946839140833</v>
+        <v>-3.124236192254285</v>
       </c>
       <c r="G159">
         <v>-0.06431613837309214</v>
@@ -4072,7 +4072,7 @@
         <v>88</v>
       </c>
       <c r="F160">
-        <v>-3.125739987199936</v>
+        <v>-3.129231007394381</v>
       </c>
       <c r="G160">
         <v>-0.06310610503975167</v>
@@ -4095,7 +4095,7 @@
         <v>89</v>
       </c>
       <c r="F161">
-        <v>-3.130025247721595</v>
+        <v>-3.134037926080548</v>
       </c>
       <c r="G161">
         <v>-0.06539957883171588</v>
@@ -4118,7 +4118,7 @@
         <v>90</v>
       </c>
       <c r="F162">
-        <v>-3.135328292075219</v>
+        <v>-3.139220637674573</v>
       </c>
       <c r="G162">
         <v>-0.06450854877284495</v>
@@ -4141,7 +4141,7 @@
         <v>91</v>
       </c>
       <c r="F163">
-        <v>-3.140134871456778</v>
+        <v>-3.144215452814668</v>
       </c>
       <c r="G163">
         <v>-0.06191823203205926</v>
@@ -4164,7 +4164,7 @@
         <v>92</v>
       </c>
       <c r="F164">
-        <v>-3.143863851376657</v>
+        <v>-3.149210267954765</v>
       </c>
       <c r="G164">
         <v>-0.06170789769343665</v>
@@ -4187,7 +4187,7 @@
         <v>93</v>
       </c>
       <c r="F165">
-        <v>-3.14873499688686</v>
+        <v>-3.154097863789797</v>
       </c>
       <c r="G165">
         <v>-0.06139052799090339</v>
@@ -4210,7 +4210,7 @@
         <v>94</v>
       </c>
       <c r="F166">
-        <v>-3.152184542612152</v>
+        <v>-3.15898545962483</v>
       </c>
       <c r="G166">
         <v>-0.0606538289129116</v>
@@ -4233,7 +4233,7 @@
         <v>95</v>
       </c>
       <c r="F167">
-        <v>-3.158662164508998</v>
+        <v>-3.163873055459861</v>
       </c>
       <c r="G167">
         <v>-0.06034194052533892</v>
@@ -4256,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="F168">
-        <v>-3.163359934740356</v>
+        <v>-3.168760651294892</v>
       </c>
       <c r="G168">
         <v>-0.05870312763917784</v>
@@ -4279,7 +4279,7 @@
         <v>97</v>
       </c>
       <c r="F169">
-        <v>-3.168438830540687</v>
+        <v>-3.173648247129924</v>
       </c>
       <c r="G169">
         <v>-0.05931609920067116</v>
@@ -4302,7 +4302,7 @@
         <v>98</v>
       </c>
       <c r="F170">
-        <v>-3.171671056794113</v>
+        <v>-3.178535842964957</v>
       </c>
       <c r="G170">
         <v>-0.05929284614389507</v>
@@ -4325,7 +4325,7 @@
         <v>99</v>
       </c>
       <c r="F171">
-        <v>-3.177240899592705</v>
+        <v>-3.183423438799988</v>
       </c>
       <c r="G171">
         <v>-0.05819352763916286</v>
@@ -4348,7 +4348,7 @@
         <v>100</v>
       </c>
       <c r="F172">
-        <v>-3.183587518961196</v>
+        <v>-3.18818171544398</v>
       </c>
       <c r="G172">
         <v>-0.05959668409389141</v>
@@ -4371,7 +4371,7 @@
         <v>101</v>
       </c>
       <c r="F173">
-        <v>-3.186757396716625</v>
+        <v>-3.192666976214956</v>
       </c>
       <c r="G173">
         <v>-0.05757737331953217</v>
@@ -4394,7 +4394,7 @@
         <v>102</v>
       </c>
       <c r="F174">
-        <v>-3.189516202707341</v>
+        <v>-3.197425252858947</v>
       </c>
       <c r="G174">
         <v>-0.05774883759542404</v>
@@ -4417,7 +4417,7 @@
         <v>103</v>
       </c>
       <c r="F175">
-        <v>-3.194404585388234</v>
+        <v>-3.201637497756906</v>
       </c>
       <c r="G175">
         <v>-0.05585063516604094</v>
@@ -4440,7 +4440,7 @@
         <v>104</v>
       </c>
       <c r="F176">
-        <v>-3.200030799420656</v>
+        <v>-3.205768981815174</v>
       </c>
       <c r="G176">
         <v>-0.05533557008984225</v>
@@ -4463,7 +4463,7 @@
         <v>105</v>
       </c>
       <c r="F177">
-        <v>-3.202932066273247</v>
+        <v>-3.20990046587344</v>
       </c>
       <c r="G177">
         <v>-0.05367120021799598</v>
@@ -4486,7 +4486,7 @@
         <v>106</v>
       </c>
       <c r="F178">
-        <v>-3.207938330327782</v>
+        <v>-3.214031949931707</v>
       </c>
       <c r="G178">
         <v>-0.05382952993890999</v>
@@ -4509,7 +4509,7 @@
         <v>107</v>
       </c>
       <c r="F179">
-        <v>-3.213882956110996</v>
+        <v>-3.218163433989973</v>
       </c>
       <c r="G179">
         <v>-0.05373991955248336</v>
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="F180">
-        <v>-3.215911267403851</v>
+        <v>-3.22229491804824</v>
       </c>
       <c r="G180">
         <v>-0.05084947632187042</v>
@@ -4555,7 +4555,7 @@
         <v>109</v>
       </c>
       <c r="F181">
-        <v>-3.220723475283749</v>
+        <v>-3.226426402106506</v>
       </c>
       <c r="G181">
         <v>-0.05273328962523327</v>
@@ -4578,7 +4578,7 @@
         <v>110</v>
       </c>
       <c r="F182">
-        <v>-3.225371168018027</v>
+        <v>-3.230557886164773</v>
       </c>
       <c r="G182">
         <v>-0.05009541766675718</v>
@@ -4601,7 +4601,7 @@
         <v>111</v>
       </c>
       <c r="F183">
-        <v>-3.228865965750855</v>
+        <v>-3.234689370223039</v>
       </c>
       <c r="G183">
         <v>-0.05073918469055894</v>
@@ -4624,7 +4624,7 @@
         <v>112</v>
       </c>
       <c r="F184">
-        <v>-3.235304984170834</v>
+        <v>-3.238820854281305</v>
       </c>
       <c r="G184">
         <v>-0.04889303349707286</v>
@@ -4647,7 +4647,7 @@
         <v>113</v>
       </c>
       <c r="F185">
-        <v>-3.237487277940412</v>
+        <v>-3.242952338339572</v>
       </c>
       <c r="G185">
         <v>-0.04732714464014276</v>
@@ -4670,7 +4670,7 @@
         <v>114</v>
       </c>
       <c r="F186">
-        <v>-3.240680845756077</v>
+        <v>-3.247083822397838</v>
       </c>
       <c r="G186">
         <v>-0.04679287013290445</v>
@@ -4693,7 +4693,7 @@
         <v>115</v>
       </c>
       <c r="F187">
-        <v>-3.24618019990375</v>
+        <v>-3.251215306456104</v>
       </c>
       <c r="G187">
         <v>-0.04512251147933433</v>
@@ -4716,7 +4716,7 @@
         <v>116</v>
       </c>
       <c r="F188">
-        <v>-3.251090026026919</v>
+        <v>-3.25488972765597</v>
       </c>
       <c r="G188">
         <v>-0.0454986825807342</v>
@@ -4739,7 +4739,7 @@
         <v>117</v>
       </c>
       <c r="F189">
-        <v>-3.254297832452651</v>
+        <v>-3.258564148855835</v>
       </c>
       <c r="G189">
         <v>-0.04337115440696182</v>
@@ -4762,7 +4762,7 @@
         <v>118</v>
       </c>
       <c r="F190">
-        <v>-3.260563695840472</v>
+        <v>-3.2622385700557</v>
       </c>
       <c r="G190">
         <v>-0.04244643297303952</v>
@@ -4785,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="F191">
-        <v>-3.261748713968254</v>
+        <v>-3.265912991255566</v>
       </c>
       <c r="G191">
         <v>-0.04092370372624199</v>
@@ -4808,7 +4808,7 @@
         <v>120</v>
       </c>
       <c r="F192">
-        <v>-3.26582239601018</v>
+        <v>-3.269587412455431</v>
       </c>
       <c r="G192">
         <v>-0.04081091382052865</v>
@@ -4831,7 +4831,7 @@
         <v>121</v>
       </c>
       <c r="F193">
-        <v>-3.269947278435552</v>
+        <v>-3.273261833655297</v>
       </c>
       <c r="G193">
         <v>-0.0390260212254937</v>
@@ -4854,7 +4854,7 @@
         <v>122</v>
       </c>
       <c r="F194">
-        <v>-3.275154400330577</v>
+        <v>-3.276936254855162</v>
       </c>
       <c r="G194">
         <v>-0.03820615824561918</v>
@@ -4877,7 +4877,7 @@
         <v>123</v>
       </c>
       <c r="F195">
-        <v>-3.278386400815181</v>
+        <v>-3.280610676055027</v>
       </c>
       <c r="G195">
         <v>-0.03647191196042088</v>
@@ -4900,7 +4900,7 @@
         <v>124</v>
       </c>
       <c r="F196">
-        <v>-3.281844751232582</v>
+        <v>-3.284285097254893</v>
       </c>
       <c r="G196">
         <v>-0.03584349044115709</v>
@@ -4923,7 +4923,7 @@
         <v>125</v>
       </c>
       <c r="F197">
-        <v>-3.286369967767884</v>
+        <v>-3.287959518454759</v>
       </c>
       <c r="G197">
         <v>-0.03423537790198949</v>
@@ -4946,7 +4946,7 @@
         <v>126</v>
       </c>
       <c r="F198">
-        <v>-3.2894875420468</v>
+        <v>-3.291633939654623</v>
       </c>
       <c r="G198">
         <v>-0.03219415084824867</v>
@@ -4969,7 +4969,7 @@
         <v>127</v>
       </c>
       <c r="F199">
-        <v>-3.293990402660726</v>
+        <v>-3.295308360854489</v>
       </c>
       <c r="G199">
         <v>-0.03278909931331875</v>
@@ -4992,7 +4992,7 @@
         <v>128</v>
       </c>
       <c r="F200">
-        <v>-3.297406898312311</v>
+        <v>-3.298982782054354</v>
       </c>
       <c r="G200">
         <v>-0.02946527842175434</v>
@@ -5015,7 +5015,7 @@
         <v>129</v>
       </c>
       <c r="F201">
-        <v>-3.300682223472355</v>
+        <v>-3.302657203254219</v>
       </c>
       <c r="G201">
         <v>-0.02879918258112757</v>
@@ -5038,7 +5038,7 @@
         <v>130</v>
       </c>
       <c r="F202">
-        <v>-3.305154836751864</v>
+        <v>-3.306331624454085</v>
       </c>
       <c r="G202">
         <v>-0.02746472860136012</v>
@@ -5061,7 +5061,7 @@
         <v>131</v>
       </c>
       <c r="F203">
-        <v>-3.308430161911905</v>
+        <v>-3.31000604565395</v>
       </c>
       <c r="G203">
         <v>-0.02518500815884239</v>
@@ -5084,7 +5084,7 @@
         <v>132</v>
       </c>
       <c r="F204">
-        <v>-3.312111416584187</v>
+        <v>-3.313680466853815</v>
       </c>
       <c r="G204">
         <v>-0.02458060899101028</v>
@@ -5107,7 +5107,7 @@
         <v>133</v>
       </c>
       <c r="F205">
-        <v>-3.316962625486274</v>
+        <v>-3.317354888053681</v>
       </c>
       <c r="G205">
         <v>-0.02440735357956436</v>
@@ -5130,7 +5130,7 @@
         <v>134</v>
       </c>
       <c r="F206">
-        <v>-3.319460258983918</v>
+        <v>-3.321029309253546</v>
       </c>
       <c r="G206">
         <v>-0.02212478136712864</v>
@@ -5153,7 +5153,7 @@
         <v>135</v>
       </c>
       <c r="F207">
-        <v>-3.323134680183783</v>
+        <v>-3.324703730453411</v>
       </c>
       <c r="G207">
         <v>-0.02011380164780052</v>
@@ -5176,7 +5176,7 @@
         <v>136</v>
       </c>
       <c r="F208">
-        <v>-3.327201363951055</v>
+        <v>-3.32798588908587</v>
       </c>
       <c r="G208">
         <v>-0.01914918762912846</v>
@@ -5475,7 +5475,7 @@
         <v>30</v>
       </c>
       <c r="F221">
-        <v>-2.784383742940737</v>
+        <v>-2.787148357670506</v>
       </c>
       <c r="G221">
         <v>-0.02434009454714081</v>
@@ -5498,7 +5498,7 @@
         <v>61</v>
       </c>
       <c r="F222">
-        <v>-2.881508981824912</v>
+        <v>-2.884046581976695</v>
       </c>
       <c r="G222">
         <v>-0.04222136184741121</v>
@@ -5521,7 +5521,7 @@
         <v>92</v>
       </c>
       <c r="F223">
-        <v>-2.972098394111165</v>
+        <v>-2.976432023857401</v>
       </c>
       <c r="G223">
         <v>-0.05644675712878322</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.059403601708791</v>
+        <v>-3.06322365056326</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.140888340997914</v>
+        <v>-3.144577807923826</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.217098376574482</v>
+        <v>-3.219306945027915</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.286250748311596</v>
+        <v>-3.289636639310564</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5636,7 +5636,7 @@
         <v>247</v>
       </c>
       <c r="F228">
-        <v>-3.351501164414616</v>
+        <v>-3.353397344951007</v>
       </c>
       <c r="G228">
         <v>-0.04447070099705686</v>
@@ -5659,7 +5659,7 @@
         <v>278</v>
       </c>
       <c r="F229">
-        <v>-3.410257808093142</v>
+        <v>-3.410461165318546</v>
       </c>
       <c r="G229">
         <v>-0.02372502070075455</v>
@@ -5728,7 +5728,7 @@
         <v>56</v>
       </c>
       <c r="F232">
-        <v>-2.837280901909128</v>
+        <v>-2.83934905072888</v>
       </c>
       <c r="G232">
         <v>-0.02464004521017538</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.934370169331367</v>
+        <v>-2.938525391343925</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5774,7 +5774,7 @@
         <v>168</v>
       </c>
       <c r="F234">
-        <v>-3.027610307219528</v>
+        <v>-3.031983866049082</v>
       </c>
       <c r="G234">
         <v>-0.05607022828308428</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.114949041415173</v>
+        <v>-3.120190272737689</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.198163064370843</v>
+        <v>-3.202707100088934</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.274277144597571</v>
+        <v>-3.278572977046014</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.345452730681846</v>
+        <v>-3.350731501000858</v>
       </c>
       <c r="G238">
         <v>-0.05767359947380912</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.411755214321068</v>
+        <v>-3.41476374735213</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5912,7 +5912,7 @@
         <v>504</v>
       </c>
       <c r="F240">
-        <v>-3.471192380789002</v>
+        <v>-3.472541260579109</v>
       </c>
       <c r="G240">
         <v>-0.02431810831622477</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.871646713277862</v>
+        <v>-2.87352548706529</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6004,7 +6004,7 @@
         <v>184</v>
       </c>
       <c r="F244">
-        <v>-2.970726837555631</v>
+        <v>-2.974703822433473</v>
       </c>
       <c r="G244">
         <v>-0.04235155851762773</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.064190783226183</v>
+        <v>-3.068933921845195</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.153566041559842</v>
+        <v>-3.158424436692038</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.237175039713049</v>
+        <v>-3.241477984308113</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.314527045982538</v>
+        <v>-3.318311623065763</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.387594607108751</v>
+        <v>-3.390940711922826</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.453836256974355</v>
+        <v>-3.456210735409643</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6165,7 +6165,7 @@
         <v>830</v>
       </c>
       <c r="F251">
-        <v>-3.51465918749484</v>
+        <v>-3.51631589881351</v>
       </c>
       <c r="G251">
         <v>-0.02396895394686305</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.896081817532481</v>
+        <v>-2.898804749419353</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6257,7 +6257,7 @@
         <v>283</v>
       </c>
       <c r="F255">
-        <v>-2.995901312331852</v>
+        <v>-3.001481276270912</v>
       </c>
       <c r="G255">
         <v>-0.0419775716781281</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.091217952446624</v>
+        <v>-3.096457471586502</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.181802898708148</v>
+        <v>-3.186727431272181</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.265225621012287</v>
+        <v>-3.270708665090622</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.344662345298948</v>
+        <v>-3.348607975911534</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.417327223155351</v>
+        <v>-3.421015016483435</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.485201579119196</v>
+        <v>-3.48741705915883</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6418,7 +6418,7 @@
         <v>1273</v>
       </c>
       <c r="F262">
-        <v>-3.545788246802246</v>
+        <v>-3.548145393104625</v>
       </c>
       <c r="G262">
         <v>-0.02350634652363498</v>
@@ -6487,7 +6487,7 @@
         <v>205</v>
       </c>
       <c r="F265">
-        <v>-2.91521746332516</v>
+        <v>-2.917972406977498</v>
       </c>
       <c r="G265">
         <v>-0.02325767987386751</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.016072383543464</v>
+        <v>-3.021210905728736</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.111489981756096</v>
+        <v>-3.117090578574248</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.202434435224135</v>
+        <v>-3.207695670204368</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.286532618932669</v>
+        <v>-3.292532421952624</v>
       </c>
       <c r="G269">
         <v>-0.06671714099904746</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.366395271979243</v>
+        <v>-3.370977543478139</v>
       </c>
       <c r="G270">
         <v>-0.06406966394916647</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.439864863160722</v>
+        <v>-3.443920341580406</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6648,7 +6648,7 @@
         <v>1645</v>
       </c>
       <c r="F272">
-        <v>-3.508244741868156</v>
+        <v>-3.510475107771911</v>
       </c>
       <c r="G272">
         <v>-0.0425693490083644</v>
@@ -6671,7 +6671,7 @@
         <v>1851</v>
       </c>
       <c r="F273">
-        <v>-3.570051622644983</v>
+        <v>-3.572167596060323</v>
       </c>
       <c r="G273">
         <v>-0.02343195379890012</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.931608283640896</v>
+        <v>-2.933135811552743</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.03143866464274</v>
+        <v>-3.037252335372023</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.127664182749112</v>
+        <v>-3.133188721487516</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.219157468643471</v>
+        <v>-3.224587544756309</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.303998333380865</v>
+        <v>-3.309434886525918</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.384068328744567</v>
+        <v>-3.388658340851965</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.457929533465703</v>
+        <v>-3.461606740756878</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.526589772601707</v>
+        <v>-3.529148337224505</v>
       </c>
       <c r="G283">
         <v>-0.04235514592453404</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.588675687717978</v>
+        <v>-3.590982226598845</v>
       </c>
       <c r="G284">
         <v>-0.02325928599006011</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.944192282775858</v>
+        <v>-2.945740908114459</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.044309960233116</v>
+        <v>-3.049998378551734</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.140904803063452</v>
+        <v>-3.146491946643287</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.23226765872141</v>
+        <v>-3.237948883847069</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.318049016672312</v>
+        <v>-3.323445929091436</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.398588143250024</v>
+        <v>-3.402713432813209</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.472823860899628</v>
+        <v>-3.476508299043917</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.541725444641675</v>
+        <v>-3.544118346626382</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.603788238810917</v>
+        <v>-3.606003649478519</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.952564274865839</v>
+        <v>-2.955826638417153</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.054694586469288</v>
+        <v>-3.060233328128806</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.151692493246478</v>
+        <v>-3.156949167290757</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.243776881836417</v>
+        <v>-3.248905038870701</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.329651707556584</v>
+        <v>-3.33468803511933</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.410040590978678</v>
+        <v>-3.414210386070917</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.484794533003996</v>
+        <v>-3.488493490843094</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.553823461686981</v>
+        <v>-3.556263217047746</v>
       </c>
       <c r="G305">
         <v>-0.04144977719113152</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.616450338096489</v>
+        <v>-3.618469764808904</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.962555533136276</v>
+        <v>-2.96423920766792</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.063610599042836</v>
+        <v>-3.06895564768767</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.160450142409509</v>
+        <v>-3.166220140342523</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.252420717390719</v>
+        <v>-3.258282551152257</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.339430648183921</v>
+        <v>-3.344121626185545</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.420195089695947</v>
+        <v>-3.424172141779537</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.494813745521416</v>
+        <v>-3.498405690369329</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.56417185513678</v>
+        <v>-3.566576487190239</v>
       </c>
       <c r="G316">
         <v>-0.04135598420522379</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.626944829153354</v>
+        <v>-3.628971205266367</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>

--- a/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
+++ b/data/bimetallic_results/icosahedron/icosahedron_AgAu_data.xlsx
@@ -2232,7 +2232,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>-2.662681354393496</v>
+        <v>-2.662954370266513</v>
       </c>
       <c r="G80">
         <v>-0.01617726685326071</v>
@@ -2945,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="F111">
-        <v>-2.862696720278694</v>
+        <v>-2.862809737502034</v>
       </c>
       <c r="G111">
         <v>-0.05228187797685213</v>
@@ -3313,7 +3313,7 @@
         <v>55</v>
       </c>
       <c r="F127">
-        <v>-2.956315836877855</v>
+        <v>-2.956346516336487</v>
       </c>
       <c r="G127">
         <v>-0.06359577828928464</v>
@@ -5544,7 +5544,7 @@
         <v>123</v>
       </c>
       <c r="F224">
-        <v>-3.06322365056326</v>
+        <v>-3.063438278033481</v>
       </c>
       <c r="G224">
         <v>-0.06531643092651795</v>
@@ -5567,7 +5567,7 @@
         <v>154</v>
       </c>
       <c r="F225">
-        <v>-3.144577807923826</v>
+        <v>-3.144668518868555</v>
       </c>
       <c r="G225">
         <v>-0.06848902293469727</v>
@@ -5590,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="F226">
-        <v>-3.219306945027915</v>
+        <v>-3.219329646757285</v>
       </c>
       <c r="G226">
         <v>-0.06473965445751051</v>
@@ -5613,7 +5613,7 @@
         <v>216</v>
       </c>
       <c r="F227">
-        <v>-3.289636639310564</v>
+        <v>-3.290030123211074</v>
       </c>
       <c r="G227">
         <v>-0.05611524155576342</v>
@@ -5751,7 +5751,7 @@
         <v>112</v>
       </c>
       <c r="F233">
-        <v>-2.938525391343925</v>
+        <v>-2.938542579881972</v>
       </c>
       <c r="G233">
         <v>-0.04198439573612189</v>
@@ -5797,7 +5797,7 @@
         <v>224</v>
       </c>
       <c r="F235">
-        <v>-3.120190272737689</v>
+        <v>-3.120332819200372</v>
       </c>
       <c r="G235">
         <v>-0.06385616980254571</v>
@@ -5820,7 +5820,7 @@
         <v>280</v>
       </c>
       <c r="F236">
-        <v>-3.202707100088934</v>
+        <v>-3.202733361691723</v>
       </c>
       <c r="G236">
         <v>-0.06817158598021367</v>
@@ -5843,7 +5843,7 @@
         <v>336</v>
       </c>
       <c r="F237">
-        <v>-3.278572977046014</v>
+        <v>-3.278630328017173</v>
       </c>
       <c r="G237">
         <v>-0.06442250622988666</v>
@@ -5866,7 +5866,7 @@
         <v>392</v>
       </c>
       <c r="F238">
-        <v>-3.350731501000858</v>
+        <v>-3.350997352591881</v>
       </c>
       <c r="G238">
         <v>-0.05767359947380912</v>
@@ -5889,7 +5889,7 @@
         <v>448</v>
       </c>
       <c r="F239">
-        <v>-3.41476374735213</v>
+        <v>-3.414957002462766</v>
       </c>
       <c r="G239">
         <v>-0.04325125206565394</v>
@@ -5981,7 +5981,7 @@
         <v>92</v>
       </c>
       <c r="F243">
-        <v>-2.87352548706529</v>
+        <v>-2.873629319116785</v>
       </c>
       <c r="G243">
         <v>-0.02344582368479298</v>
@@ -6027,7 +6027,7 @@
         <v>276</v>
       </c>
       <c r="F245">
-        <v>-3.068933921845195</v>
+        <v>-3.068973521286523</v>
       </c>
       <c r="G245">
         <v>-0.05527269577015059</v>
@@ -6050,7 +6050,7 @@
         <v>369</v>
       </c>
       <c r="F246">
-        <v>-3.158424436692038</v>
+        <v>-3.158443782677499</v>
       </c>
       <c r="G246">
         <v>-0.06463992042885014</v>
@@ -6073,7 +6073,7 @@
         <v>461</v>
       </c>
       <c r="F247">
-        <v>-3.241477984308113</v>
+        <v>-3.2415790506071</v>
       </c>
       <c r="G247">
         <v>-0.06820229282771728</v>
@@ -6096,7 +6096,7 @@
         <v>553</v>
       </c>
       <c r="F248">
-        <v>-3.318311623065763</v>
+        <v>-3.318396941432277</v>
       </c>
       <c r="G248">
         <v>-0.0658309929751546</v>
@@ -6119,7 +6119,7 @@
         <v>646</v>
       </c>
       <c r="F249">
-        <v>-3.390940711922826</v>
+        <v>-3.391071387681881</v>
       </c>
       <c r="G249">
         <v>-0.05712457525478265</v>
@@ -6142,7 +6142,7 @@
         <v>738</v>
       </c>
       <c r="F250">
-        <v>-3.456210735409643</v>
+        <v>-3.456235461498595</v>
       </c>
       <c r="G250">
         <v>-0.04308152029180867</v>
@@ -6234,7 +6234,7 @@
         <v>141</v>
       </c>
       <c r="F254">
-        <v>-2.898804749419353</v>
+        <v>-2.898827325858345</v>
       </c>
       <c r="G254">
         <v>-0.02346685677763283</v>
@@ -6280,7 +6280,7 @@
         <v>424</v>
       </c>
       <c r="F256">
-        <v>-3.096457471586502</v>
+        <v>-3.096482489568535</v>
       </c>
       <c r="G256">
         <v>-0.05616543159520071</v>
@@ -6303,7 +6303,7 @@
         <v>566</v>
       </c>
       <c r="F257">
-        <v>-3.186727431272181</v>
+        <v>-3.186850200973212</v>
       </c>
       <c r="G257">
         <v>-0.06491717132631081</v>
@@ -6326,7 +6326,7 @@
         <v>707</v>
       </c>
       <c r="F258">
-        <v>-3.270708665090622</v>
+        <v>-3.270845859186266</v>
       </c>
       <c r="G258">
         <v>-0.06721107455838182</v>
@@ -6349,7 +6349,7 @@
         <v>849</v>
       </c>
       <c r="F259">
-        <v>-3.348607975911534</v>
+        <v>-3.348639712751524</v>
       </c>
       <c r="G259">
         <v>-0.06440224022466579</v>
@@ -6372,7 +6372,7 @@
         <v>990</v>
       </c>
       <c r="F260">
-        <v>-3.421015016483435</v>
+        <v>-3.421072803975927</v>
       </c>
       <c r="G260">
         <v>-0.05627197519890947</v>
@@ -6395,7 +6395,7 @@
         <v>1132</v>
       </c>
       <c r="F261">
-        <v>-3.48741705915883</v>
+        <v>-3.487483957327076</v>
       </c>
       <c r="G261">
         <v>-0.04257709745080041</v>
@@ -6510,7 +6510,7 @@
         <v>411</v>
       </c>
       <c r="F266">
-        <v>-3.021210905728736</v>
+        <v>-3.021263091388519</v>
       </c>
       <c r="G266">
         <v>-0.04213571025853113</v>
@@ -6533,7 +6533,7 @@
         <v>617</v>
       </c>
       <c r="F267">
-        <v>-3.117090578574248</v>
+        <v>-3.117226610924658</v>
       </c>
       <c r="G267">
         <v>-0.05576155352809287</v>
@@ -6556,7 +6556,7 @@
         <v>822</v>
       </c>
       <c r="F268">
-        <v>-3.207695670204368</v>
+        <v>-3.207840406487577</v>
       </c>
       <c r="G268">
         <v>-0.06449105083976781</v>
@@ -6579,7 +6579,7 @@
         <v>1028</v>
       </c>
       <c r="F269">
-        <v>-3.292532421952624</v>
+        <v>-3.292640826170273</v>
       </c>
       <c r="G269">
         <v>-0.06671714099904746</v>
@@ -6602,7 +6602,7 @@
         <v>1234</v>
       </c>
       <c r="F270">
-        <v>-3.370977543478139</v>
+        <v>-3.371126841817419</v>
       </c>
       <c r="G270">
         <v>-0.06406966394916647</v>
@@ -6625,7 +6625,7 @@
         <v>1439</v>
       </c>
       <c r="F271">
-        <v>-3.443920341580406</v>
+        <v>-3.443998936515212</v>
       </c>
       <c r="G271">
         <v>-0.05610221751486577</v>
@@ -6740,7 +6740,7 @@
         <v>286</v>
       </c>
       <c r="F276">
-        <v>-2.933135811552743</v>
+        <v>-2.933146946324851</v>
       </c>
       <c r="G276">
         <v>-0.02310234079023576</v>
@@ -6763,7 +6763,7 @@
         <v>573</v>
       </c>
       <c r="F277">
-        <v>-3.037252335372023</v>
+        <v>-3.037411586527321</v>
       </c>
       <c r="G277">
         <v>-0.04205233891129145</v>
@@ -6786,7 +6786,7 @@
         <v>860</v>
       </c>
       <c r="F278">
-        <v>-3.133188721487516</v>
+        <v>-3.13329390284435</v>
       </c>
       <c r="G278">
         <v>-0.05503751022225267</v>
@@ -6809,7 +6809,7 @@
         <v>1147</v>
       </c>
       <c r="F279">
-        <v>-3.224587544756309</v>
+        <v>-3.224824358722757</v>
       </c>
       <c r="G279">
         <v>-0.0632401839409078</v>
@@ -6832,7 +6832,7 @@
         <v>1434</v>
       </c>
       <c r="F280">
-        <v>-3.309434886525918</v>
+        <v>-3.309642214034107</v>
       </c>
       <c r="G280">
         <v>-0.06601041684513631</v>
@@ -6855,7 +6855,7 @@
         <v>1721</v>
       </c>
       <c r="F281">
-        <v>-3.388658340851965</v>
+        <v>-3.388838328223304</v>
       </c>
       <c r="G281">
         <v>-0.06340724386083907</v>
@@ -6878,7 +6878,7 @@
         <v>2008</v>
       </c>
       <c r="F282">
-        <v>-3.461606740756878</v>
+        <v>-3.461729777770036</v>
       </c>
       <c r="G282">
         <v>-0.0555144962285119</v>
@@ -6901,7 +6901,7 @@
         <v>2295</v>
       </c>
       <c r="F283">
-        <v>-3.529148337224505</v>
+        <v>-3.529215111727388</v>
       </c>
       <c r="G283">
         <v>-0.04235514592453404</v>
@@ -6924,7 +6924,7 @@
         <v>2582</v>
       </c>
       <c r="F284">
-        <v>-3.590982226598845</v>
+        <v>-3.591006392888442</v>
       </c>
       <c r="G284">
         <v>-0.02325928599006011</v>
@@ -6993,7 +6993,7 @@
         <v>387</v>
       </c>
       <c r="F287">
-        <v>-2.945740908114459</v>
+        <v>-2.945765665795559</v>
       </c>
       <c r="G287">
         <v>-0.02315642065422807</v>
@@ -7016,7 +7016,7 @@
         <v>774</v>
       </c>
       <c r="F288">
-        <v>-3.049998378551734</v>
+        <v>-3.050163978517636</v>
       </c>
       <c r="G288">
         <v>-0.04152115951753643</v>
@@ -7039,7 +7039,7 @@
         <v>1161</v>
       </c>
       <c r="F289">
-        <v>-3.146491946643287</v>
+        <v>-3.146646224056225</v>
       </c>
       <c r="G289">
         <v>-0.05497041550029613</v>
@@ -7062,7 +7062,7 @@
         <v>1548</v>
       </c>
       <c r="F290">
-        <v>-3.237948883847069</v>
+        <v>-3.238137313675945</v>
       </c>
       <c r="G290">
         <v>-0.06243160658855706</v>
@@ -7085,7 +7085,7 @@
         <v>1935</v>
       </c>
       <c r="F291">
-        <v>-3.323445929091436</v>
+        <v>-3.323564808816202</v>
       </c>
       <c r="G291">
         <v>-0.06528135451709249</v>
@@ -7108,7 +7108,7 @@
         <v>2322</v>
       </c>
       <c r="F292">
-        <v>-3.402713432813209</v>
+        <v>-3.402833400710326</v>
       </c>
       <c r="G292">
         <v>-0.06292988777556308</v>
@@ -7131,7 +7131,7 @@
         <v>2709</v>
       </c>
       <c r="F293">
-        <v>-3.476508299043917</v>
+        <v>-3.476717078023066</v>
       </c>
       <c r="G293">
         <v>-0.05469706927566154</v>
@@ -7154,7 +7154,7 @@
         <v>3096</v>
       </c>
       <c r="F294">
-        <v>-3.544118346626382</v>
+        <v>-3.544207286909845</v>
       </c>
       <c r="G294">
         <v>-0.04191879985213887</v>
@@ -7177,7 +7177,7 @@
         <v>3483</v>
       </c>
       <c r="F295">
-        <v>-3.606003649478519</v>
+        <v>-3.606101142377808</v>
       </c>
       <c r="G295">
         <v>-0.02327976095250145</v>
@@ -7246,7 +7246,7 @@
         <v>508</v>
       </c>
       <c r="F298">
-        <v>-2.955826638417153</v>
+        <v>-2.955864347244026</v>
       </c>
       <c r="G298">
         <v>-0.02285425567090771</v>
@@ -7269,7 +7269,7 @@
         <v>1016</v>
       </c>
       <c r="F299">
-        <v>-3.060233328128806</v>
+        <v>-3.060397566299687</v>
       </c>
       <c r="G299">
         <v>-0.04133805222570786</v>
@@ -7292,7 +7292,7 @@
         <v>1524</v>
       </c>
       <c r="F300">
-        <v>-3.156949167290757</v>
+        <v>-3.157106061691355</v>
       </c>
       <c r="G300">
         <v>-0.05436479194660171</v>
@@ -7315,7 +7315,7 @@
         <v>2033</v>
       </c>
       <c r="F301">
-        <v>-3.248905038870701</v>
+        <v>-3.249100460062055</v>
       </c>
       <c r="G301">
         <v>-0.06219748213672593</v>
@@ -7338,7 +7338,7 @@
         <v>2541</v>
       </c>
       <c r="F302">
-        <v>-3.33468803511933</v>
+        <v>-3.334875703553562</v>
       </c>
       <c r="G302">
         <v>-0.06430396535295224</v>
@@ -7361,7 +7361,7 @@
         <v>3049</v>
       </c>
       <c r="F303">
-        <v>-3.414210386070917</v>
+        <v>-3.414458938307495</v>
       </c>
       <c r="G303">
         <v>-0.06214912005953677</v>
@@ -7384,7 +7384,7 @@
         <v>3558</v>
       </c>
       <c r="F304">
-        <v>-3.488493490843094</v>
+        <v>-3.488721314613855</v>
       </c>
       <c r="G304">
         <v>-0.05448107351862908</v>
@@ -7407,7 +7407,7 @@
         <v>4066</v>
       </c>
       <c r="F305">
-        <v>-3.556263217047746</v>
+        <v>-3.556375995365185</v>
       </c>
       <c r="G305">
         <v>-0.04144977719113152</v>
@@ -7430,7 +7430,7 @@
         <v>4574</v>
       </c>
       <c r="F306">
-        <v>-3.618469764808904</v>
+        <v>-3.618520675813637</v>
       </c>
       <c r="G306">
         <v>-0.02309752619606331</v>
@@ -7499,7 +7499,7 @@
         <v>652</v>
       </c>
       <c r="F309">
-        <v>-2.96423920766792</v>
+        <v>-2.964288166535607</v>
       </c>
       <c r="G309">
         <v>-0.02284001992016504</v>
@@ -7522,7 +7522,7 @@
         <v>1305</v>
       </c>
       <c r="F310">
-        <v>-3.06895564768767</v>
+        <v>-3.069211877473232</v>
       </c>
       <c r="G310">
         <v>-0.04083762641722544</v>
@@ -7545,7 +7545,7 @@
         <v>1957</v>
       </c>
       <c r="F311">
-        <v>-3.166220140342523</v>
+        <v>-3.16640282445527</v>
       </c>
       <c r="G311">
         <v>-0.05376498559159892</v>
@@ -7568,7 +7568,7 @@
         <v>2610</v>
       </c>
       <c r="F312">
-        <v>-3.258282551152257</v>
+        <v>-3.258543966537625</v>
       </c>
       <c r="G312">
         <v>-0.06159606551460084</v>
@@ -7591,7 +7591,7 @@
         <v>3262</v>
       </c>
       <c r="F313">
-        <v>-3.344121626185545</v>
+        <v>-3.344425381595549</v>
       </c>
       <c r="G313">
         <v>-0.06405056855617031</v>
@@ -7614,7 +7614,7 @@
         <v>3915</v>
       </c>
       <c r="F314">
-        <v>-3.424172141779537</v>
+        <v>-3.424352439769944</v>
       </c>
       <c r="G314">
         <v>-0.06161624162402535</v>
@@ -7637,7 +7637,7 @@
         <v>4567</v>
       </c>
       <c r="F315">
-        <v>-3.498405690369329</v>
+        <v>-3.498670423032213</v>
       </c>
       <c r="G315">
         <v>-0.0539503409647254</v>
@@ -7660,7 +7660,7 @@
         <v>5220</v>
       </c>
       <c r="F316">
-        <v>-3.566576487190239</v>
+        <v>-3.566743896393315</v>
       </c>
       <c r="G316">
         <v>-0.04135598420522379</v>
@@ -7683,7 +7683,7 @@
         <v>5872</v>
       </c>
       <c r="F317">
-        <v>-3.628971205266367</v>
+        <v>-3.629062400180181</v>
       </c>
       <c r="G317">
         <v>-0.0228389510920764</v>
